--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7202B84B-7EB8-4558-A67B-D94B55C1CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE17A2F-B970-410D-827D-07A46F80895D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3218" yWindow="3218" windowWidth="16875" windowHeight="10522" xr2:uid="{33B33380-60D3-4BA7-B9BE-D748948BBE9F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{33B33380-60D3-4BA7-B9BE-D748948BBE9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="402" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="READ ME" sheetId="1" r:id="rId1"/>
+    <sheet name="402" sheetId="2" r:id="rId2"/>
+    <sheet name="Statistics LG" sheetId="3" r:id="rId3"/>
+    <sheet name="Statistics WW" sheetId="4" r:id="rId4"/>
+    <sheet name="Statistics 5M" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
   <si>
     <t>SamJ</t>
   </si>
@@ -146,13 +149,133 @@
   </si>
   <si>
     <t>Date:</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time to view the past results and statistics. I hope that these will help you to succeed more in the future, and you learn from them.</t>
+  </si>
+  <si>
+    <t>Team Loose Goose</t>
+  </si>
+  <si>
+    <t>Streak</t>
+  </si>
+  <si>
+    <t>Against Wet Willies</t>
+  </si>
+  <si>
+    <t>Against 5 Musketeers</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Total Wins</t>
+  </si>
+  <si>
+    <t>Total Losses</t>
+  </si>
+  <si>
+    <t>Total Points</t>
+  </si>
+  <si>
+    <t>Our Best</t>
+  </si>
+  <si>
+    <t>Our Worst</t>
+  </si>
+  <si>
+    <t>A/C</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Team Wet Willies</t>
+  </si>
+  <si>
+    <t>Against Loose Gooses</t>
+  </si>
+  <si>
+    <t>Team 5 Musketeers</t>
+  </si>
+  <si>
+    <t>On Statistics Page:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The highest scoring streak that player had during that break</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Against x team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 'Our best' represents who scored the most against that team.           'Our worst' represents who scored against you the most from that team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S-Streak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The amount of times a player has won a game in a row</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +298,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,10 +333,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,11 +655,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA351E8-3909-4B95-AAA6-21AB89246F7A}">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -601,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="Q3">
-        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <f t="shared" ref="Q3:Q18" si="0">COUNTIF($E$4:$E$27, P3)</f>
         <v>2</v>
       </c>
     </row>
@@ -651,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="Q4">
-        <f>COUNTIF($E$4:$E$27, P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -701,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="Q5">
-        <f>COUNTIF($E$4:$E$27, P5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -732,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="Q6">
-        <f>COUNTIF($E$4:$E$27, P6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -763,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="Q7">
-        <f>COUNTIF($E$4:$E$27, P7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -794,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="Q8">
-        <f>COUNTIF($E$4:$E$27, P8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -825,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="Q9">
-        <f>COUNTIF($E$4:$E$27, P9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -834,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="Q10">
-        <f>COUNTIF($E$4:$E$27, P10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -843,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="Q11">
-        <f>COUNTIF($E$4:$E$27, P11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -852,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="Q12">
-        <f>COUNTIF($E$4:$E$27, P12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -861,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="Q13">
-        <f>COUNTIF($E$4:$E$27, P13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -870,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="Q14">
-        <f>COUNTIF($E$4:$E$27, P14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -879,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="Q15">
-        <f>COUNTIF($E$4:$E$27, P15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -888,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="Q16">
-        <f>COUNTIF($E$4:$E$27, P16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -897,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <f>COUNTIF($E$4:$E$27, P17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -906,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>COUNTIF($E$4:$E$27, P18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -915,14 +1096,1785 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA351E8-3909-4B95-AAA6-21AB89246F7A}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
+  <dimension ref="A2:AD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="str">
+        <f>'402'!C2</f>
+        <v>2023-02-04</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'402'!K3</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'402'!L3</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'402'!N3</f>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B4:B30)</f>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>SUM(C4:C30)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>SUM(D4:D30)</f>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>'402'!Q3</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>'402'!Q5</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>'402'!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>'402'!Q6</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>'402'!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="V4" s="5">
+        <v>2</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+    </row>
+    <row r="17" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+    </row>
+    <row r="18" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+    </row>
+    <row r="19" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+    </row>
+    <row r="20" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+    </row>
+    <row r="21" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+    </row>
+    <row r="22" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+    </row>
+    <row r="24" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+    </row>
+    <row r="25" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+    </row>
+    <row r="26" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+    </row>
+    <row r="27" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+    </row>
+    <row r="28" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+    </row>
+    <row r="29" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+    </row>
+    <row r="30" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
+  <dimension ref="A2:AF30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="str">
+        <f>'402'!C2</f>
+        <v>2023-02-04</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'402'!K5</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'402'!L5</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'402'!N5</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B4:B30)</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>SUM(C4:C30)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>SUM(D4:D30)</f>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>'402'!Q8</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>'402'!Q9</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>'402'!Q410</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>'402'!Q12</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>'402'!Q13</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>'402'!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="X4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+    </row>
+    <row r="17" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+    </row>
+    <row r="20" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+    </row>
+    <row r="21" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+    </row>
+    <row r="22" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+    </row>
+    <row r="23" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+    </row>
+    <row r="24" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+    </row>
+    <row r="25" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+    </row>
+    <row r="26" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+    </row>
+    <row r="27" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+    </row>
+    <row r="29" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="17:32" x14ac:dyDescent="0.45">
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
+  <dimension ref="A2:AD30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="str">
+        <f>'402'!C2</f>
+        <v>2023-02-04</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'402'!K4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'402'!L4</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'402'!N4</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B4:B30)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>SUM(C4:C30)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>SUM(D4:D30)</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>'402'!Q14</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>'402'!Q15</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>'402'!Q16</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>'402'!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>'402'!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+    </row>
+    <row r="17" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+    </row>
+    <row r="18" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+    </row>
+    <row r="19" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+    </row>
+    <row r="20" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+    </row>
+    <row r="21" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+    </row>
+    <row r="22" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+    </row>
+    <row r="24" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+    </row>
+    <row r="25" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+    </row>
+    <row r="26" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+    </row>
+    <row r="27" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+    </row>
+    <row r="28" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+    </row>
+    <row r="29" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+    </row>
+    <row r="30" spans="16:30" x14ac:dyDescent="0.45">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE17A2F-B970-410D-827D-07A46F80895D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CEDBA2-C96C-4009-B067-AF3E2E4B100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{33B33380-60D3-4BA7-B9BE-D748948BBE9F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{33B33380-60D3-4BA7-B9BE-D748948BBE9F}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
-    <sheet name="402" sheetId="2" r:id="rId2"/>
-    <sheet name="Statistics LG" sheetId="3" r:id="rId3"/>
-    <sheet name="Statistics WW" sheetId="4" r:id="rId4"/>
-    <sheet name="Statistics 5M" sheetId="5" r:id="rId5"/>
+    <sheet name="Statistics LG" sheetId="3" r:id="rId2"/>
+    <sheet name="Statistics WW" sheetId="4" r:id="rId3"/>
+    <sheet name="Statistics 5M" sheetId="5" r:id="rId4"/>
+    <sheet name="602" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
   <si>
     <t>SamJ</t>
   </si>
@@ -106,9 +106,6 @@
     <t>LG</t>
   </si>
   <si>
-    <t>S-Streak</t>
-  </si>
-  <si>
     <t>L-Streak</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>Winner</t>
   </si>
   <si>
-    <t>GN</t>
-  </si>
-  <si>
     <t>Points</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Stats</t>
   </si>
   <si>
-    <t>2023-02-04</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
   </si>
   <si>
     <t>Our Worst</t>
-  </si>
-  <si>
-    <t>A/C</t>
   </si>
   <si>
     <t>N/A</t>
@@ -269,6 +257,12 @@
       </rPr>
       <t>: The amount of times a player has won a game in a row</t>
     </r>
+  </si>
+  <si>
+    <t>Game Number</t>
+  </si>
+  <si>
+    <t>S/K</t>
   </si>
 </sst>
 </file>
@@ -333,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,6 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,35 +653,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA351E8-3909-4B95-AAA6-21AB89246F7A}">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -696,454 +691,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
-  <dimension ref="B2:Q18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(C4:C15, "Loose Gooses")</f>
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <f>COUNTIF(D4:D27, "Loose Gooses")</f>
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <f>K3/(K3+L3)</f>
-        <v>0.6</v>
-      </c>
-      <c r="N3">
-        <f>IF(AND(M3&gt;M4, M3&gt;M5), 3, IF(OR(M3&gt;M4, M3&gt;M5), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q18" si="0">COUNTIF($E$4:$E$27, P3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(C4:C15, "5 Musketeers")</f>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f>COUNTIF(D4:D27, "5 Musketeers")</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <f>K4/(K4+L4)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N4">
-        <f>IF(AND(M4&gt;M3, M4&gt;M5), 3, IF(OR(M4&gt;M3, M4&gt;M5), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f>IF(E4=E5, H4+1, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIF(C4:C15, "Wet Willies")</f>
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <f>COUNTIF(D4:D27, "Wet Willies")</f>
-        <v>2</v>
-      </c>
-      <c r="M5" s="1">
-        <f>K5/(K5+L5)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N5">
-        <f>IF(AND(M5&gt;M4, M5&gt;M3), 3, IF(OR(M5&gt;M4, M5&gt;M3), 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>IF(E5=E6, H5+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <f>IF(E6=E7, H6+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>IF(E7=E8, H7+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f>IF(E8=E9, H8+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="P14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.45">
-      <c r="P17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.45">
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
         <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -1176,108 +770,114 @@
         <v>15</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="str">
-        <f>'402'!C2</f>
-        <v>2023-02-04</v>
+      <c r="A4" s="3">
+        <f>'602'!C2</f>
+        <v>44963</v>
       </c>
       <c r="B4" s="4">
-        <f>'402'!K3</f>
-        <v>3</v>
+        <f>'602'!J3</f>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
-        <f>'402'!L3</f>
-        <v>2</v>
+        <f>'602'!K3</f>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
-        <f>'402'!N3</f>
-        <v>3</v>
+        <f>'602'!M3</f>
+        <v>1</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>'602'!Q3</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>'602'!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>'602'!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>'602'!Q6</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>'602'!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4" s="5">
+        <v>4</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
         <v>3</v>
       </c>
-      <c r="J4">
-        <f>'402'!Q3</f>
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <f>'402'!Q5</f>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f>'402'!Q4</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>'402'!Q6</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f>'402'!Q7</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="V4" s="5">
-        <v>2</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>1</v>
-      </c>
       <c r="AC4" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="AD4" s="5" t="s">
         <v>2</v>
@@ -1678,54 +1278,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -1764,116 +1364,124 @@
         <v>7</v>
       </c>
       <c r="X3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Y3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AD3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="str">
-        <f>'402'!C2</f>
-        <v>2023-02-04</v>
-      </c>
-      <c r="B4" s="4">
-        <f>'402'!K5</f>
-        <v>2</v>
+      <c r="A4" s="3">
+        <f>'602'!C2</f>
+        <v>44963</v>
+      </c>
+      <c r="B4" s="7">
+        <f>'602'!J5</f>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
-        <f>'402'!L5</f>
-        <v>2</v>
+        <f>'602'!K5</f>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <f>'402'!N5</f>
-        <v>2</v>
+        <f>'602'!M5</f>
+        <v>3</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>'602'!Q8</f>
         <v>2</v>
       </c>
-      <c r="J4">
-        <f>'402'!Q8</f>
-        <v>1</v>
-      </c>
       <c r="K4">
-        <f>'402'!Q9</f>
-        <v>1</v>
+        <f>'602'!Q9</f>
+        <v>4</v>
       </c>
       <c r="L4">
-        <f>'402'!Q410</f>
+        <f>'602'!Q10</f>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f>'602'!Q12</f>
         <v>0</v>
       </c>
-      <c r="M4">
-        <f>'402'!Q12</f>
+      <c r="N4">
+        <f>'602'!Q13</f>
         <v>0</v>
       </c>
-      <c r="N4">
-        <f>'402'!Q13</f>
-        <v>0</v>
-      </c>
       <c r="O4">
-        <f>'402'!Q11</f>
-        <v>0</v>
+        <f>'602'!Q11</f>
+        <v>1</v>
       </c>
       <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
         <v>2</v>
       </c>
-      <c r="R4" s="5">
-        <v>1</v>
-      </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
       <c r="X4" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y4" s="5">
         <v>1</v>
       </c>
       <c r="Z4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="AF4" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.45">
@@ -2297,54 +1905,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -2377,111 +1985,117 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="str">
-        <f>'402'!C2</f>
-        <v>2023-02-04</v>
+      <c r="A4" s="3">
+        <f>'602'!C2</f>
+        <v>44963</v>
       </c>
       <c r="B4" s="4">
-        <f>'402'!K4</f>
-        <v>1</v>
+        <f>'602'!J4</f>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
-        <f>'402'!L4</f>
+        <f>'602'!K4</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <f>'602'!M4</f>
         <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <f>'402'!N4</f>
-        <v>1</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <f>'402'!Q14</f>
+        <f>'602'!Q14</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>'602'!Q15</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>'602'!Q16</f>
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f>'602'!Q17</f>
         <v>0</v>
       </c>
-      <c r="K4">
-        <f>'402'!Q15</f>
+      <c r="N4">
+        <f>'602'!Q18</f>
         <v>0</v>
       </c>
-      <c r="L4">
-        <f>'402'!Q16</f>
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <f>'402'!Q17</f>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="5">
+        <v>2</v>
+      </c>
+      <c r="W4" s="5">
+        <v>5</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="5">
         <v>0</v>
-      </c>
-      <c r="N4">
-        <f>'402'!Q18</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>1</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>1</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
@@ -2877,4 +2491,542 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
+  <dimension ref="B2:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44963</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C15, "Loose Gooses")</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D27, "Loose Gooses")</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C15, "5 Musketeers")</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D27, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C15, "Wet Willies")</f>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D27, "Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CEDBA2-C96C-4009-B067-AF3E2E4B100C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD318275-7245-4991-A2DC-9901B65F869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{33B33380-60D3-4BA7-B9BE-D748948BBE9F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Statistics WW" sheetId="4" r:id="rId3"/>
     <sheet name="Statistics 5M" sheetId="5" r:id="rId4"/>
     <sheet name="602" sheetId="2" r:id="rId5"/>
+    <sheet name="702" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="61">
   <si>
     <t>SamJ</t>
   </si>
@@ -263,6 +264,24 @@
   </si>
   <si>
     <t>S/K</t>
+  </si>
+  <si>
+    <t>A/Mit</t>
+  </si>
+  <si>
+    <t>A/Mic</t>
+  </si>
+  <si>
+    <t>A/Rudy</t>
+  </si>
+  <si>
+    <t>L/SM/K</t>
+  </si>
+  <si>
+    <t>TOTALS</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -653,9 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA351E8-3909-4B95-AAA6-21AB89246F7A}">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -692,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
-  <dimension ref="A2:AD30"/>
+  <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I31" sqref="I31:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -796,51 +813,51 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
-        <f>'602'!C2</f>
+        <f>'602'!$C$2</f>
         <v>44963</v>
       </c>
       <c r="B4" s="4">
-        <f>'602'!J3</f>
+        <f>'602'!$J$3</f>
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <f>'602'!K3</f>
+        <f>'602'!$K$3</f>
         <v>7</v>
       </c>
       <c r="D4" s="4">
-        <f>'602'!M3</f>
+        <f>'602'!$M$3</f>
         <v>1</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <f>'602'!Q3</f>
+        <f>'602'!$Q$3</f>
         <v>1</v>
       </c>
       <c r="K4">
-        <f>'602'!Q5</f>
+        <f>'602'!$Q$5</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>'602'!Q4</f>
+        <f>'602'!$Q$4</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>'602'!Q6</f>
+        <f>'602'!$Q$6</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>'602'!Q7</f>
+        <f>'602'!$Q$7</f>
         <v>0</v>
       </c>
       <c r="P4" s="5">
@@ -884,19 +901,81 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
+      <c r="A5" s="3">
+        <f>'702'!$C$2</f>
+        <v>44964</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'702'!$J$3</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'702'!$K$3</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'702'!$M$3</f>
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f>'702'!$Q$3</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>'702'!$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>'702'!$Q$4</f>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f>'702'!$Q$6</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f>'702'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="5">
+        <v>2</v>
+      </c>
+      <c r="W5" s="5">
+        <v>5</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P6" s="5"/>
@@ -1063,7 +1142,7 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -1078,7 +1157,7 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -1093,7 +1172,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -1108,7 +1187,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -1123,7 +1202,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -1138,7 +1217,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -1153,7 +1232,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1168,7 +1247,7 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -1183,7 +1262,7 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -1198,7 +1277,7 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -1213,7 +1292,7 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -1228,7 +1307,7 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -1243,7 +1322,7 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -1258,7 +1337,7 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -1273,6 +1352,56 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
+    <row r="31" spans="9:30" x14ac:dyDescent="0.45">
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <f>SUM(J4:J30)</f>
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="9:30" x14ac:dyDescent="0.45">
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(J4:J30)</f>
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:N32" si="1">AVERAGE(K4:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1280,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
-  <dimension ref="A2:AF30"/>
+  <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1390,55 +1519,55 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
-        <f>'602'!C2</f>
+        <f>'602'!$C$2</f>
         <v>44963</v>
       </c>
       <c r="B4" s="7">
-        <f>'602'!J5</f>
+        <f>'602'!$J$5</f>
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <f>'602'!K5</f>
+        <f>'602'!$K$5</f>
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <f>'602'!M5</f>
+        <f>'602'!$M$5</f>
         <v>3</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <f>'602'!Q8</f>
+        <f>'602'!$Q$8</f>
         <v>2</v>
       </c>
       <c r="K4">
-        <f>'602'!Q9</f>
+        <f>'602'!$Q$9</f>
         <v>4</v>
       </c>
       <c r="L4">
-        <f>'602'!Q10</f>
+        <f>'602'!$Q$10</f>
         <v>2</v>
       </c>
       <c r="M4">
-        <f>'602'!Q12</f>
+        <f>'602'!$Q$12</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>'602'!Q13</f>
+        <f>'602'!$Q$13</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>'602'!Q11</f>
+        <f>'602'!$Q$11</f>
         <v>1</v>
       </c>
       <c r="Q4" s="5">
@@ -1485,20 +1614,88 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
+      <c r="A5" s="3">
+        <f>'702'!$C$2</f>
+        <v>44964</v>
+      </c>
+      <c r="B5" s="7">
+        <f>'702'!$J$5</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'702'!$K$5</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>'702'!$M$5</f>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>'702'!$Q$8</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>'702'!$Q$9</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>'702'!$Q$10</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>'702'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>'702'!$Q$13</f>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f>'702'!$Q$11</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q6" s="5"/>
@@ -1676,7 +1873,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -1692,7 +1889,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -1708,7 +1905,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -1724,7 +1921,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -1740,7 +1937,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -1756,7 +1953,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -1772,7 +1969,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -1788,7 +1985,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -1804,7 +2001,7 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
     </row>
-    <row r="25" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -1820,7 +2017,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -1836,7 +2033,7 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -1852,7 +2049,7 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="28" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -1868,7 +2065,7 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
     </row>
-    <row r="29" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="29" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -1884,7 +2081,7 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
     </row>
-    <row r="30" spans="17:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -1900,6 +2097,64 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
     </row>
+    <row r="31" spans="9:32" x14ac:dyDescent="0.45">
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <f>SUM(J4:J30)</f>
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:P31" si="0">SUM(K4:K30)</f>
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:32" x14ac:dyDescent="0.45">
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(J4:J30)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:P32" si="1">AVERAGE(K4:K30)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1907,10 +2162,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
-  <dimension ref="A2:AD30"/>
+  <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2011,51 +2266,51 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
-        <f>'602'!C2</f>
+        <f>'602'!$C$2</f>
         <v>44963</v>
       </c>
       <c r="B4" s="4">
-        <f>'602'!J4</f>
+        <f>'602'!$J$4</f>
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <f>'602'!K4</f>
+        <f>'602'!$K$4</f>
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <f>'602'!M4</f>
+        <f>'602'!$M$4</f>
         <v>2</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <f>'602'!Q14</f>
+        <f>'602'!$Q$14</f>
         <v>1</v>
       </c>
       <c r="K4">
-        <f>'602'!Q15</f>
+        <f>'602'!$Q$15</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f>'602'!Q16</f>
+        <f>'602'!$Q$16</f>
         <v>3</v>
       </c>
       <c r="M4">
-        <f>'602'!Q17</f>
+        <f>'602'!$Q$17</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>'602'!Q18</f>
+        <f>'602'!$Q$18</f>
         <v>0</v>
       </c>
       <c r="P4" s="5">
@@ -2099,19 +2354,81 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
+      <c r="A5" s="3">
+        <f>'702'!$C$2</f>
+        <v>44964</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'702'!$J$4</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <f>'702'!$K$4</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <f>'702'!$M$4</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>'702'!$Q$14</f>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f>'702'!$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>'702'!$Q$16</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>'702'!$Q$17</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>'702'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="5">
+        <v>3</v>
+      </c>
+      <c r="W5" s="5">
+        <v>2</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P6" s="5"/>
@@ -2278,7 +2595,7 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -2293,7 +2610,7 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -2308,7 +2625,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -2323,7 +2640,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -2338,7 +2655,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -2353,7 +2670,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -2368,7 +2685,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -2383,7 +2700,7 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -2398,7 +2715,7 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -2413,7 +2730,7 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -2428,7 +2745,7 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -2443,7 +2760,7 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -2458,7 +2775,7 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -2473,7 +2790,7 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -2488,6 +2805,56 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
+    <row r="31" spans="9:30" x14ac:dyDescent="0.45">
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <f>SUM(J4:J30)</f>
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="9:30" x14ac:dyDescent="0.45">
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(J4:J30)</f>
+        <v>1.5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2497,9 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3029,4 +3394,582 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E000EA6E-13A3-434D-B373-4A9BF20D7175}">
+  <dimension ref="B2:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44964</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C15, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D27, "Loose Gooses")</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C15, "5 Musketeers")</f>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D27, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C15, "Wet Willies")</f>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D27, "Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD318275-7245-4991-A2DC-9901B65F869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4555CC-7BE7-4E18-BE20-E5B92DCAB83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="5" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -830,7 +830,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
@@ -838,7 +838,7 @@
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -907,7 +907,7 @@
       </c>
       <c r="B5" s="4">
         <f>'702'!$J$3</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
         <f>'702'!$K$3</f>
@@ -915,7 +915,7 @@
       </c>
       <c r="D5" s="4">
         <f>'702'!$M$3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <f>'702'!$Q$3</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B5" s="7">
         <f>'702'!$J$5</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <f>'702'!$K$5</f>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D5" s="4">
         <f>'702'!$M$5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>'702'!$Q$8</f>
@@ -2106,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:P31" si="0">SUM(K4:K30)</f>
+        <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
         <v>5</v>
       </c>
       <c r="L31">
@@ -2135,7 +2135,7 @@
         <v>2.5</v>
       </c>
       <c r="K32">
-        <f t="shared" ref="K32:P32" si="1">AVERAGE(K4:K30)</f>
+        <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
         <v>2.5</v>
       </c>
       <c r="L32">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B5" s="4">
         <f>'702'!$J$4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
         <f>'702'!$K$4</f>
@@ -2814,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
+        <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
         <v>2</v>
       </c>
       <c r="L31">
@@ -2839,7 +2839,7 @@
         <v>1.5</v>
       </c>
       <c r="K32">
-        <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
+        <f t="shared" ref="K32:N32" si="1">AVERAGE(K4:K30)</f>
         <v>1</v>
       </c>
       <c r="L32">
@@ -3400,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E000EA6E-13A3-434D-B373-4A9BF20D7175}">
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3463,8 +3463,8 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <f>COUNTIF(C4:C15, "Loose Gooses")</f>
-        <v>5</v>
+        <f>COUNTIF(C4:C25, "Loose Gooses")</f>
+        <v>6</v>
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D27, "Loose Gooses")</f>
@@ -3472,11 +3472,11 @@
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
@@ -3509,8 +3509,8 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <f>COUNTIF(C4:C15, "5 Musketeers")</f>
-        <v>3</v>
+        <f>COUNTIF(C4:C25, "5 Musketeers")</f>
+        <v>4</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D27, "5 Musketeers")</f>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="M4">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
@@ -3555,8 +3555,8 @@
         <v>17</v>
       </c>
       <c r="J5">
-        <f>COUNTIF(C4:C15, "Wet Willies")</f>
-        <v>4</v>
+        <f>COUNTIF(C4:C25, "Wet Willies")</f>
+        <v>7</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D27, "Wet Willies")</f>
@@ -3564,11 +3564,11 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M5">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4555CC-7BE7-4E18-BE20-E5B92DCAB83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B8AC2-754D-4E15-9566-BA42F26036E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="5" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
   </bookViews>
@@ -3401,7 +3401,7 @@
   <dimension ref="B2:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3463,11 +3463,11 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <f>COUNTIF(C4:C25, "Loose Gooses")</f>
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
         <v>6</v>
       </c>
       <c r="K3">
-        <f>COUNTIF(D4:D27, "Loose Gooses")</f>
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
         <v>6</v>
       </c>
       <c r="L3" s="1">
@@ -3509,11 +3509,11 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <f>COUNTIF(C4:C25, "5 Musketeers")</f>
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
         <v>4</v>
       </c>
       <c r="K4">
-        <f>COUNTIF(D4:D27, "5 Musketeers")</f>
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
         <v>6</v>
       </c>
       <c r="L4" s="1">
@@ -3555,11 +3555,11 @@
         <v>17</v>
       </c>
       <c r="J5">
-        <f>COUNTIF(C4:C25, "Wet Willies")</f>
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
         <v>7</v>
       </c>
       <c r="K5">
-        <f>COUNTIF(D4:D27, "Wet Willies")</f>
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
         <v>5</v>
       </c>
       <c r="L5" s="1">

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B8AC2-754D-4E15-9566-BA42F26036E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C001077F-CBDB-402A-B860-0F7589C21A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="5" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
+    <workbookView xWindow="4568" yWindow="3877" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="3" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
+    <workbookView xWindow="4905" yWindow="4215" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="2" xr2:uid="{DFC965CA-CFF8-4226-9072-E2332739A967}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="61">
   <si>
     <t>SamJ</t>
   </si>
@@ -673,6 +674,7 @@
   <dimension ref="B2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -711,8 +713,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+    <sheetView topLeftCell="T1" workbookViewId="1">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -953,9 +958,11 @@
         <v>45</v>
       </c>
       <c r="V5" s="5">
+        <f>COUNTIF('702'!$S$4:$S$30, "LG/WW")</f>
         <v>2</v>
       </c>
       <c r="W5" s="5">
+        <f>COUNTIF('702'!$T$4:$T$30, "WW/LG")</f>
         <v>5</v>
       </c>
       <c r="X5" s="5" t="s">
@@ -965,9 +972,11 @@
         <v>12</v>
       </c>
       <c r="AA5" s="5">
+        <f>COUNTIF('702'!$S$4:$S$30, "LG/5M")</f>
         <v>4</v>
       </c>
       <c r="AB5" s="5">
+        <f>COUNTIF('702'!$U$4:$U$30, "5M/LG")</f>
         <v>1</v>
       </c>
       <c r="AC5" s="5" t="s">
@@ -978,6 +987,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -1411,8 +1421,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:O32"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="1">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1673,9 +1686,11 @@
         <v>1</v>
       </c>
       <c r="X5" s="5">
+        <f>COUNTIF('702'!$T$4:$T$30, "WW/LG")</f>
         <v>5</v>
       </c>
       <c r="Y5" s="5">
+        <f>COUNTIF('702'!$S$4:$S$30, "LG/WW")</f>
         <v>2</v>
       </c>
       <c r="Z5" s="5" t="s">
@@ -1685,9 +1700,11 @@
         <v>55</v>
       </c>
       <c r="AC5" s="5">
+        <f>COUNTIF('702'!$T$4:$T$30, "WW/5M")</f>
         <v>2</v>
       </c>
       <c r="AD5" s="5">
+        <f>COUNTIF('702'!$U$4:$U$30, "5M/WW")</f>
         <v>3</v>
       </c>
       <c r="AE5" s="5" t="s">
@@ -2164,9 +2181,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2406,9 +2424,11 @@
         <v>45</v>
       </c>
       <c r="V5" s="5">
+        <f>COUNTIF('702'!$U$4:$U$30, "5M/WW")</f>
         <v>3</v>
       </c>
       <c r="W5" s="5">
+        <f>COUNTIF('702'!$T$4:$T$30, "WW/5M")</f>
         <v>2</v>
       </c>
       <c r="X5" s="5" t="s">
@@ -2418,9 +2438,11 @@
         <v>57</v>
       </c>
       <c r="AA5" s="5">
+        <f>COUNTIF('702'!$U$4:$U$30, "5M/LG")</f>
         <v>1</v>
       </c>
       <c r="AB5" s="5">
+        <f>COUNTIF('702'!$S$4:$S$30, "LG/5M")</f>
         <v>4</v>
       </c>
       <c r="AC5" s="5" t="s">
@@ -2864,7 +2886,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3398,11 +3423,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E000EA6E-13A3-434D-B373-4A9BF20D7175}">
-  <dimension ref="B2:Q20"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3411,7 +3437,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -3440,7 +3466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
@@ -3485,8 +3511,17 @@
         <f>COUNTIF($E$4:$E$27, P3)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3531,8 +3566,20 @@
         <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/LG</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3577,8 +3624,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3604,8 +3663,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3631,8 +3702,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>5</v>
       </c>
@@ -3658,8 +3741,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>6</v>
       </c>
@@ -3685,8 +3780,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>7</v>
       </c>
@@ -3712,8 +3819,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>8</v>
       </c>
@@ -3739,8 +3858,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>9</v>
       </c>
@@ -3766,8 +3897,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>10</v>
       </c>
@@ -3793,8 +3936,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>11</v>
       </c>
@@ -3820,8 +3975,20 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>12</v>
       </c>
@@ -3847,8 +4014,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>13</v>
       </c>
@@ -3874,8 +4053,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>14</v>
       </c>
@@ -3901,8 +4092,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>15</v>
       </c>
@@ -3928,8 +4131,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>16</v>
       </c>
@@ -3948,8 +4163,20 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>17</v>
       </c>
@@ -3968,8 +4195,161 @@
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C001077F-CBDB-402A-B860-0F7589C21A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D3411-9A76-43D4-B6FD-8E90BDF5E919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4568" yWindow="3877" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="3" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
-    <workbookView xWindow="4905" yWindow="4215" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="2" xr2:uid="{DFC965CA-CFF8-4226-9072-E2332739A967}"/>
+    <workbookView xWindow="4568" yWindow="3877" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="2" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
+    <workbookView xWindow="4905" yWindow="4215" windowWidth="16875" windowHeight="10523" firstSheet="2" activeTab="6" xr2:uid="{71849EC5-729B-4A06-A7D4-5CF745A6C55F}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Statistics 5M" sheetId="5" r:id="rId4"/>
     <sheet name="602" sheetId="2" r:id="rId5"/>
     <sheet name="702" sheetId="6" r:id="rId6"/>
+    <sheet name="802" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="62">
   <si>
     <t>SamJ</t>
   </si>
@@ -283,6 +284,9 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Chris</t>
   </si>
 </sst>
 </file>
@@ -320,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,6 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,12 +724,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
-    <sheetView topLeftCell="T1" workbookViewId="1">
-      <selection activeCell="AA5" sqref="AA5"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -765,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
@@ -780,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -835,21 +844,21 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <f>'602'!$Q$5</f>
         <v>0</v>
       </c>
@@ -868,7 +877,7 @@
       <c r="P4" s="5">
         <v>1</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="R4" s="5" t="s">
@@ -926,7 +935,7 @@
         <f>'702'!$Q$3</f>
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="8">
         <f>'702'!$Q$5</f>
         <v>0</v>
       </c>
@@ -945,7 +954,7 @@
       <c r="P5" s="5">
         <v>2</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="R5" s="5">
@@ -987,20 +996,85 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
+      <c r="A6" s="3">
+        <f>'802'!$C$2</f>
+        <v>44965</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'802'!$J$3</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'802'!$K$3</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'802'!$M$3</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>'802'!$Q$3</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>'802'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>'802'!$Q$4</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>'802'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>'802'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <f>COUNTIF('802'!$S$4:$S$30, "LG/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="5">
+        <f>COUNTIF('802'!$T$4:$T$30, "WW/LG")</f>
+        <v>5</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="5">
+        <f>COUNTIF('802'!$S$4:$S$30, "LG/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="5">
+        <f>COUNTIF('802'!$U$4:$U$30, "5M/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P7" s="5"/>
@@ -1376,7 +1450,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -1393,7 +1467,7 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:N32" si="1">AVERAGE(K4:K30)</f>
@@ -1405,7 +1479,7 @@
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
@@ -1421,12 +1495,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="1">
-      <selection activeCell="AD5" sqref="AD5"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1482,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>7</v>
@@ -1500,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="V3" t="s">
         <v>7</v>
@@ -1549,15 +1621,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -1575,7 +1647,7 @@
         <f>'602'!$Q$12</f>
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <f>'602'!$Q$13</f>
         <v>0</v>
       </c>
@@ -1595,7 +1667,7 @@
       <c r="T4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="V4" s="5">
@@ -1659,7 +1731,7 @@
         <f>'702'!$Q$12</f>
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="8">
         <f>'702'!$Q$13</f>
         <v>1</v>
       </c>
@@ -1679,7 +1751,7 @@
       <c r="T5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="8">
         <v>1</v>
       </c>
       <c r="V5" s="5">
@@ -1715,20 +1787,92 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
+      <c r="A6" s="3">
+        <f>'802'!$C$2</f>
+        <v>44965</v>
+      </c>
+      <c r="B6" s="7">
+        <f>'802'!$J$5</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'802'!$K$5</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'802'!$M$5</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>'802'!$Q$8</f>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f>'802'!$Q$9</f>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f>'802'!$Q$10</f>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>'802'!$Q$12</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>'802'!$Q$5</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>'802'!$Q$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>3</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="5">
+        <f>COUNTIF('802'!$T$4:$T$30, "WW/LG")</f>
+        <v>5</v>
+      </c>
+      <c r="Y6" s="5">
+        <f>COUNTIF('802'!$S$4:$S$30, "LG/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="5">
+        <f>COUNTIF('802'!$T$4:$T$30, "WW/5M")</f>
+        <v>5</v>
+      </c>
+      <c r="AD6" s="5">
+        <f>COUNTIF('802'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q7" s="5"/>
@@ -2120,23 +2264,23 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
@@ -2149,27 +2293,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -2181,10 +2325,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="H1" workbookViewId="1">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2301,15 +2447,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -2453,19 +2599,85 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
+      <c r="A6" s="3">
+        <f>'802'!$C$2</f>
+        <v>44965</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'802'!$J$4</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'802'!$K$4</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <f>'802'!$M$4</f>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>'802'!$Q$14</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>'802'!$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>'802'!$Q$16</f>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f>'802'!$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>'802'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="5">
+        <f>COUNTIF('802'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="W6" s="5">
+        <f>COUNTIF('802'!$T$4:$T$30, "WW/5M")</f>
+        <v>5</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="5">
+        <f>COUNTIF('802'!$U$4:$U$30, "5M/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="AB6" s="5">
+        <f>COUNTIF('802'!$S$4:$S$30, "LG/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P7" s="5"/>
@@ -2841,11 +3053,11 @@
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -2858,19 +3070,19 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:N32" si="1">AVERAGE(K4:K30)</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
@@ -4352,4 +4564,939 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A277FC55-00F2-459C-BBD1-0FB8B2F0BA70}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44965</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D3411-9A76-43D4-B6FD-8E90BDF5E919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA22D208-7482-4163-BCF7-6B5FC084DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4568" yWindow="3877" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="2" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
-    <workbookView xWindow="4905" yWindow="4215" windowWidth="16875" windowHeight="10523" firstSheet="2" activeTab="6" xr2:uid="{71849EC5-729B-4A06-A7D4-5CF745A6C55F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -21,6 +20,7 @@
     <sheet name="602" sheetId="2" r:id="rId5"/>
     <sheet name="702" sheetId="6" r:id="rId6"/>
     <sheet name="802" sheetId="7" r:id="rId7"/>
+    <sheet name="1002" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="66">
   <si>
     <t>SamJ</t>
   </si>
@@ -288,6 +288,18 @@
   <si>
     <t>Chris</t>
   </si>
+  <si>
+    <t>Sam J</t>
+  </si>
+  <si>
+    <t>A/K/S</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>M/L</t>
+  </si>
 </sst>
 </file>
 
@@ -357,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,6 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,7 +698,6 @@
   <dimension ref="B2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -724,10 +736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -774,10 +785,10 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
@@ -789,10 +800,10 @@
         <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S3" t="s">
         <v>16</v>
@@ -844,15 +855,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -862,7 +873,7 @@
         <f>'602'!$Q$5</f>
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="8">
         <f>'602'!$Q$4</f>
         <v>0</v>
       </c>
@@ -880,7 +891,7 @@
       <c r="Q4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="5" t="s">
@@ -939,7 +950,7 @@
         <f>'702'!$Q$5</f>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="8">
         <f>'702'!$Q$4</f>
         <v>2</v>
       </c>
@@ -957,7 +968,7 @@
       <c r="Q5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="8">
         <v>1</v>
       </c>
       <c r="S5" s="5">
@@ -1016,11 +1027,11 @@
         <f>'802'!$Q$3</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <f>'802'!$Q$13</f>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="8">
         <f>'802'!$Q$4</f>
         <v>1</v>
       </c>
@@ -1035,10 +1046,10 @@
       <c r="P6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="8">
         <v>1</v>
       </c>
       <c r="S6" s="5" t="s">
@@ -1077,19 +1088,85 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
+      <c r="A7" s="3">
+        <f>'1002'!$C$2</f>
+        <v>44967</v>
+      </c>
+      <c r="B7" s="4">
+        <f>'1002'!$J$3</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'1002'!$K$3</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <f>'1002'!$M$3</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>'1002'!$Q$3</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <f>'1002'!$Q$16</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>'1002'!$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>'1002'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>'1002'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="5">
+        <f>COUNTIF('1002'!$S$4:$S$30, "LG/WW")</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <f>COUNTIF('1002'!$T$4:$T$30, "WW/LG")</f>
+        <v>6</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="5">
+        <f>COUNTIF('1002'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AB7" s="5">
+        <f>COUNTIF('1002'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P8" s="5"/>
@@ -1442,15 +1519,15 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -1467,19 +1544,19 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.3333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="K32">
-        <f t="shared" ref="K32:N32" si="1">AVERAGE(K4:K30)</f>
-        <v>0</v>
+        <f>AVERAGE(K7:K30)</f>
+        <v>1</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(L7:L30)</f>
         <v>1</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="K32:N32" si="1">AVERAGE(M4:M30)</f>
+        <v>0.25</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
@@ -1495,10 +1572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1621,15 +1697,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -1875,20 +1951,82 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="A7" s="3">
+        <f>'1002'!$C$2</f>
+        <v>44967</v>
+      </c>
+      <c r="B7" s="7">
+        <f>'1002'!$J$5</f>
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'1002'!$K$5</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <f>'1002'!$M$5</f>
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <f>'1002'!$Q$8</f>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f>'1002'!$Q$9</f>
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f>'1002'!$Q$10</f>
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <f>'1002'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>'1002'!$Q$5</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f>'1002'!$Q$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>2</v>
+      </c>
+      <c r="S7" s="5">
+        <v>2</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
+      <c r="AC7" s="5">
+        <f>COUNTIF('1002'!$T$4:$T$30, "WW/5M")</f>
+        <v>4</v>
+      </c>
+      <c r="AD7" s="5">
+        <f>COUNTIF('1002'!$U$4:$U$30, "5M/WW")</f>
+        <v>5</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q8" s="5"/>
@@ -2264,15 +2402,15 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -2280,7 +2418,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
@@ -2293,27 +2431,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.3333333333333335</v>
+        <v>2.75</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2328,9 +2466,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
-    <sheetView topLeftCell="H1" workbookViewId="1">
-      <selection activeCell="T7" sqref="T7"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2380,13 +2515,13 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
@@ -2395,13 +2530,13 @@
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V3" t="s">
         <v>31</v>
@@ -2447,15 +2582,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -2465,7 +2600,7 @@
         <f>'602'!$Q$15</f>
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="8">
         <f>'602'!$Q$16</f>
         <v>3</v>
       </c>
@@ -2473,7 +2608,7 @@
         <f>'602'!$Q$17</f>
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <f>'602'!$Q$18</f>
         <v>0</v>
       </c>
@@ -2483,13 +2618,13 @@
       <c r="Q4" s="5">
         <v>1</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="8">
         <v>1</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="V4" s="5">
@@ -2542,7 +2677,7 @@
         <f>'702'!$Q$15</f>
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="8">
         <f>'702'!$Q$16</f>
         <v>1</v>
       </c>
@@ -2550,7 +2685,7 @@
         <f>'702'!$Q$17</f>
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="8">
         <f>'702'!$Q$18</f>
         <v>0</v>
       </c>
@@ -2560,13 +2695,13 @@
       <c r="Q5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="8">
         <v>1</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="5">
@@ -2623,7 +2758,7 @@
         <f>'802'!$Q$15</f>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="8">
         <f>'802'!$Q$16</f>
         <v>4</v>
       </c>
@@ -2631,7 +2766,7 @@
         <f>'802'!$Q$17</f>
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="8">
         <f>'802'!$Q$18</f>
         <v>0</v>
       </c>
@@ -2641,13 +2776,13 @@
       <c r="Q6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="8">
         <v>3</v>
       </c>
       <c r="S6" s="5">
         <v>1</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="V6" s="5">
@@ -2680,19 +2815,85 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
+      <c r="A7" s="3">
+        <f>'1002'!$C$2</f>
+        <v>44967</v>
+      </c>
+      <c r="B7" s="4">
+        <f>'1002'!$J$4</f>
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'1002'!$K$4</f>
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <f>'1002'!$M$4</f>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f>'1002'!$Q$14</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>'1002'!$Q$15</f>
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f>'1002'!$Q$4</f>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>'1002'!$Q$17</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>'1002'!$Q$13</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>3</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <f>COUNTIF('1002'!$U$4:$U$30, "5M/WW")</f>
+        <v>5</v>
+      </c>
+      <c r="W7" s="5">
+        <f>COUNTIF('1002'!$T$4:$T$30, "WW/5M")</f>
+        <v>4</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA7" s="5">
+        <f>COUNTIF('1002'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AB7" s="5">
+        <f>COUNTIF('1002'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P8" s="5"/>
@@ -3049,19 +3250,19 @@
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUM(L7:L30)</f>
+        <v>2</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(N7:N30)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -3070,23 +3271,23 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:N32" si="1">AVERAGE(K4:K30)</f>
-        <v>0.66666666666666663</v>
+        <v>1.5</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
+        <f>AVERAGE(L7:L30)</f>
+        <v>2</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>AVERAGE(N7:N30)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3302,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3637,10 +3837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E000EA6E-13A3-434D-B373-4A9BF20D7175}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4573,8 +4772,937 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C3" sqref="C3"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44965</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0CC8A-1DA0-4EFD-8506-C6F59B1829AA}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4589,7 +5717,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="3">
-        <v>44965</v>
+        <v>44967</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -4637,7 +5765,7 @@
       </c>
       <c r="J3">
         <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
@@ -4645,7 +5773,7 @@
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="M3">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
@@ -4656,7 +5784,7 @@
       </c>
       <c r="Q3">
         <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>21</v>
@@ -4676,31 +5804,31 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4">
         <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
@@ -4711,7 +5839,7 @@
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="str">
         <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
@@ -4723,7 +5851,7 @@
       </c>
       <c r="U4" t="str">
         <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.45">
@@ -4734,10 +5862,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -4754,11 +5882,11 @@
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.76923076923076927</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M5">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
@@ -4781,7 +5909,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/WW</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.45">
@@ -4789,16 +5917,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4816,11 +5944,11 @@
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.45">
@@ -4831,16 +5959,16 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
@@ -4855,7 +5983,7 @@
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>WW/LG</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
@@ -4867,26 +5995,26 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="2"/>
@@ -4894,11 +6022,11 @@
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.45">
@@ -4906,30 +6034,30 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>9</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
@@ -4937,7 +6065,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
@@ -4945,34 +6073,34 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>8</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
@@ -4984,19 +6112,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
@@ -5011,11 +6139,11 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
@@ -5023,16 +6151,16 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5042,15 +6170,15 @@
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
@@ -5068,10 +6196,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5081,7 +6209,7 @@
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="2"/>
@@ -5101,19 +6229,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>4</v>
@@ -5128,11 +6256,11 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
@@ -5140,16 +6268,16 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -5159,7 +6287,7 @@
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="2"/>
@@ -5167,11 +6295,11 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
@@ -5179,26 +6307,26 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="2"/>
@@ -5206,11 +6334,11 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.45">
@@ -5218,34 +6346,34 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
         <v>1</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="4"/>
@@ -5260,23 +6388,23 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
         <v>0</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="2"/>
@@ -5284,7 +6412,7 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>WW/LG</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="4"/>
@@ -5296,27 +6424,27 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="4"/>
@@ -5328,19 +6456,19 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20" t="str">
         <f t="shared" si="2"/>
@@ -5348,21 +6476,39 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
       <c r="S21" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="4"/>
@@ -5370,13 +6516,31 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
       <c r="S22" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="4"/>
@@ -5384,13 +6548,31 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
       <c r="S23" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="4"/>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA22D208-7482-4163-BCF7-6B5FC084DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18734012-2245-432B-8AD0-805154CC79CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="7" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="67">
   <si>
     <t>SamJ</t>
   </si>
@@ -300,6 +300,9 @@
   <si>
     <t>M/L</t>
   </si>
+  <si>
+    <t>Totals</t>
+  </si>
 </sst>
 </file>
 
@@ -369,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,6 +383,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1504,12 +1508,27 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
+      <c r="U30" t="s">
+        <v>66</v>
+      </c>
+      <c r="V30" s="5">
+        <f>SUM(V4:V29)</f>
+        <v>4</v>
+      </c>
+      <c r="W30" s="5">
+        <f>SUM(W4:W29)</f>
+        <v>20</v>
+      </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
+      <c r="AA30" s="5">
+        <f>SUM(AA4:AA29)</f>
+        <v>8</v>
+      </c>
+      <c r="AB30" s="5">
+        <f>SUM(AB4:AB29)</f>
+        <v>9</v>
+      </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
@@ -1537,6 +1556,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="V31" s="10">
+        <f>V30/(W30+V30)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AA31" s="10">
+        <f>AA30/(AB30+AA30)</f>
+        <v>0.47058823529411764</v>
+      </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
@@ -1555,13 +1582,14 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="K32:N32" si="1">AVERAGE(M4:M30)</f>
+        <f t="shared" ref="M32:N32" si="1">AVERAGE(M4:M30)</f>
         <v>0.25</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="V32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1572,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2009,10 +2037,20 @@
       <c r="V7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="X7" s="5">
+        <f>COUNTIF('1002'!$T$4:$T$30, "WW/LG")</f>
+        <v>6</v>
+      </c>
+      <c r="Y7" s="5">
+        <f>COUNTIF('1002'!$S$4:$S$30, "LG/WW")</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="AC7" s="5">
         <f>COUNTIF('1002'!$T$4:$T$30, "WW/5M")</f>
         <v>4</v>
@@ -2387,12 +2425,27 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
+      <c r="W30" t="s">
+        <v>66</v>
+      </c>
+      <c r="X30" s="5">
+        <f>SUM(X4:X29)</f>
+        <v>20</v>
+      </c>
+      <c r="Y30" s="5">
+        <f>SUM(Y4:Y29)</f>
+        <v>4</v>
+      </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
+      <c r="AC30" s="5">
+        <f>SUM(AC4:AC29)</f>
+        <v>16</v>
+      </c>
+      <c r="AD30" s="5">
+        <f>SUM(AD4:AD29)</f>
+        <v>12</v>
+      </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
     </row>
@@ -2423,6 +2476,14 @@
       <c r="O31">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="X31" s="10">
+        <f>X30/(Y30+X30)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AC31" s="10">
+        <f>AC30/(AD30+AC30)</f>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -2463,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3231,12 +3292,27 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
+      <c r="U30" t="s">
+        <v>66</v>
+      </c>
+      <c r="V30" s="5">
+        <f>SUM(V4:V29)</f>
+        <v>12</v>
+      </c>
+      <c r="W30" s="5">
+        <f>SUM(W4:W29)</f>
+        <v>16</v>
+      </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
+      <c r="AA30" s="5">
+        <f>SUM(AA4:AA29)</f>
+        <v>9</v>
+      </c>
+      <c r="AB30" s="5">
+        <f>SUM(AB4:AB29)</f>
+        <v>8</v>
+      </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
@@ -3249,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
+        <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
         <v>6</v>
       </c>
       <c r="L31">
@@ -3263,6 +3339,14 @@
       <c r="N31">
         <f>SUM(N7:N30)</f>
         <v>1</v>
+      </c>
+      <c r="V31" s="10">
+        <f>V30/(W30+V30)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AA31" s="10">
+        <f>AA30/(AB30+AA30)</f>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -3274,7 +3358,7 @@
         <v>0.75</v>
       </c>
       <c r="K32">
-        <f t="shared" ref="K32:N32" si="1">AVERAGE(K4:K30)</f>
+        <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
         <v>1.5</v>
       </c>
       <c r="L32">
@@ -5701,7 +5785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0CC8A-1DA0-4EFD-8506-C6F59B1829AA}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18734012-2245-432B-8AD0-805154CC79CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926BC2C1-4B6F-48B7-90FC-8694C8D8F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="7" xr2:uid="{9DF21DED-5F7D-4566-8C04-6964211FA916}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{6F5D39B2-F03D-44FA-9B8C-058EB919C650}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="702" sheetId="6" r:id="rId6"/>
     <sheet name="802" sheetId="7" r:id="rId7"/>
     <sheet name="1002" sheetId="8" r:id="rId8"/>
+    <sheet name="1302" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="72">
   <si>
     <t>SamJ</t>
   </si>
@@ -302,6 +303,21 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>A/Sh</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t>How to find stuff:</t>
+  </si>
+  <si>
+    <t>Averages: Go to statistics page, and at the bottom of the 'points section'</t>
+  </si>
+  <si>
+    <t>Head-Head records: Go to statistics page, and navigate to the highlighted area for the team</t>
   </si>
 </sst>
 </file>
@@ -699,9 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA351E8-3909-4B95-AAA6-21AB89246F7A}">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -728,6 +746,21 @@
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -740,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -859,15 +892,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -1173,19 +1206,85 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
+      <c r="A8" s="3">
+        <f>'1302'!$C$2</f>
+        <v>44970</v>
+      </c>
+      <c r="B8" s="4">
+        <f>'1302'!$J$3</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <f>'1302'!$K$3</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <f>'1302'!$M$3</f>
+        <v>1.5</v>
+      </c>
+      <c r="J8">
+        <f>'1302'!$Q$3</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <f>'1302'!$Q$16</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>'1302'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>'1302'!$Q$6</f>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>'1302'!$Q$7</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5">
+        <f>COUNTIF('1302'!$S$4:$S$30, "LG/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="W8" s="5">
+        <f>COUNTIF('1302'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA8" s="5">
+        <f>COUNTIF('1302'!$S$4:$S$30, "LG/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="5">
+        <f>COUNTIF('1302'!$U$4:$U$30, "5M/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P9" s="5"/>
@@ -1513,21 +1612,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -1538,7 +1637,7 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
@@ -1550,19 +1649,19 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.16666666666666666</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.47058823529411764</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -1571,23 +1670,23 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="1">AVERAGE(M4:M30)</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -1600,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1725,15 +1824,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -2067,20 +2166,92 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
+      <c r="A8" s="3">
+        <f>'1302'!$C$2</f>
+        <v>44970</v>
+      </c>
+      <c r="B8" s="7">
+        <f>'1302'!$J$5</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <f>'1302'!$K$5</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <f>'1302'!$M$5</f>
+        <v>1.5</v>
+      </c>
+      <c r="J8">
+        <f>'1302'!$Q$8</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>'1302'!$Q$9</f>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f>'1302'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>'1302'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>'1302'!$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>'1302'!$Q$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="5">
+        <f>COUNTIF('1302'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Y8" s="5">
+        <f>COUNTIF('1302'!$S$4:$S$30, "LG/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC8" s="5">
+        <f>COUNTIF('1302'!$T$4:$T$30, "WW/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AD8" s="5">
+        <f>COUNTIF('1302'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q9" s="5"/>
@@ -2430,21 +2601,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -2455,11 +2626,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -2479,11 +2650,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.83333333333333337</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.5714285714285714</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -2492,27 +2663,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2524,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2643,15 +2814,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -2957,19 +3128,85 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
+      <c r="A8" s="3">
+        <f>'1302'!$C$2</f>
+        <v>44970</v>
+      </c>
+      <c r="B8" s="4">
+        <f>'1302'!$J$4</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <f>'1302'!$K$4</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <f>'1302'!$M$4</f>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f>'1302'!$Q$14</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>'1302'!$Q$15</f>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f>'1302'!$Q$4</f>
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f>'1302'!$Q$17</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>'1302'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="5">
+        <f>COUNTIF('1302'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="W8" s="5">
+        <f>COUNTIF('1302'!$T$4:$T$30, "WW/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="5">
+        <f>COUNTIF('1302'!$U$4:$U$30, "5M/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="AB8" s="5">
+        <f>COUNTIF('1302'!$S$4:$S$30, "LG/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P9" s="5"/>
@@ -3297,21 +3534,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -3322,15 +3559,15 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -3342,11 +3579,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.42857142857142855</v>
+        <v>0.46875</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.52941176470588236</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -3355,11 +3592,11 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
@@ -3367,11 +3604,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3383,9 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3921,8 +4156,2852 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E000EA6E-13A3-434D-B373-4A9BF20D7175}">
   <dimension ref="B2:U30"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44964</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/LG</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A277FC55-00F2-459C-BBD1-0FB8B2F0BA70}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44965</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0CC8A-1DA0-4EFD-8506-C6F59B1829AA}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44967</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>7</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AF598E-847B-421E-A1CE-455DE6199CD4}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3937,7 +7016,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="3">
-        <v>44964</v>
+        <v>44970</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -3985,26 +7064,25 @@
       </c>
       <c r="J3">
         <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="M3">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
       </c>
       <c r="Q3">
         <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>21</v>
@@ -4021,38 +7099,38 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4">
         <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="M4">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
@@ -4063,11 +7141,11 @@
       </c>
       <c r="S4" t="str">
         <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T4" t="str">
         <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U4" t="str">
         <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
@@ -4082,23 +7160,23 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5">
         <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
@@ -4106,11 +7184,10 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="M5">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
@@ -4129,7 +7206,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/WW</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.45">
@@ -4137,19 +7214,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>16</v>
@@ -4160,11 +7237,11 @@
       </c>
       <c r="S6" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
@@ -4176,34 +7253,34 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
@@ -4215,16 +7292,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4234,11 +7311,11 @@
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
@@ -4246,7 +7323,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.45">
@@ -4254,26 +7331,26 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" t="s">
         <v>9</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="2"/>
@@ -4281,11 +7358,11 @@
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
@@ -4299,20 +7376,20 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
         <v>8</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="2"/>
@@ -4338,20 +7415,20 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="2"/>
@@ -4377,13 +7454,13 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" t="s">
         <v>6</v>
@@ -4422,14 +7499,14 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>5</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="2"/>
@@ -4452,7 +7529,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -4461,14 +7538,14 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>4</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="2"/>
@@ -4476,7 +7553,7 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>WW/LG</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="4"/>
@@ -4488,16 +7565,16 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4507,7 +7584,7 @@
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="2"/>
@@ -4515,38 +7592,20 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="P16" t="s">
         <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="2"/>
@@ -4558,28 +7617,10 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
       <c r="P17" t="s">
         <v>1</v>
       </c>
@@ -4589,7 +7630,7 @@
       </c>
       <c r="S17" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="3"/>
@@ -4600,25 +7641,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
       <c r="P18" t="s">
         <v>0</v>
       </c>
@@ -4632,78 +7655,42 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S19" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S20" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S21" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4717,7 +7704,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S22" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4731,7 +7718,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S23" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4745,7 +7732,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S24" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4759,7 +7746,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S25" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4773,7 +7760,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S26" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4787,7 +7774,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S27" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4801,7 +7788,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S28" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4815,7 +7802,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S29" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4829,7 +7816,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S30" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4845,1924 +7832,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A277FC55-00F2-459C-BBD1-0FB8B2F0BA70}">
-  <dimension ref="B2:U30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44965</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>8</v>
-      </c>
-      <c r="L3" s="1">
-        <f>J3/(J3+K3)</f>
-        <v>0.2</v>
-      </c>
-      <c r="M3">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>6</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="M4">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>1</v>
-      </c>
-      <c r="S4" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T4" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U4" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>3</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="M5">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="P14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S21" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S22" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S23" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S24" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S25" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S26" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S27" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S28" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S29" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S30" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0CC8A-1DA0-4EFD-8506-C6F59B1829AA}">
-  <dimension ref="B2:U30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44967</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>8</v>
-      </c>
-      <c r="L3" s="1">
-        <f>J3/(J3+K3)</f>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="M3">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>7</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M4">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>2</v>
-      </c>
-      <c r="S4" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T4" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U4" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M5">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="S20" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="S21" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S24" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S25" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S26" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S27" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S28" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S29" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S30" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926BC2C1-4B6F-48B7-90FC-8694C8D8F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17835E25-7F5B-4C52-9858-1C34A565C3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{6F5D39B2-F03D-44FA-9B8C-058EB919C650}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="9" xr2:uid="{83627C01-BEF9-46C0-8C92-948AD92B044E}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="802" sheetId="7" r:id="rId7"/>
     <sheet name="1002" sheetId="8" r:id="rId8"/>
     <sheet name="1302" sheetId="9" r:id="rId9"/>
+    <sheet name="1402" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="74">
   <si>
     <t>SamJ</t>
   </si>
@@ -318,6 +319,12 @@
   </si>
   <si>
     <t>Head-Head records: Go to statistics page, and navigate to the highlighted area for the team</t>
+  </si>
+  <si>
+    <t>A/K/SJ</t>
+  </si>
+  <si>
+    <t>SamM/M</t>
   </si>
 </sst>
 </file>
@@ -717,9 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA351E8-3909-4B95-AAA6-21AB89246F7A}">
   <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -766,6 +771,881 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E7726C-1A77-4A68-BB29-34349D6E328B}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44971</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M4">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -773,9 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -892,15 +1770,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -1287,19 +2165,85 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
+      <c r="A9" s="3">
+        <f>'1402'!$C$2</f>
+        <v>44971</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'1402'!$J$3</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <f>'1402'!$K$3</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <f>'1402'!$M$3</f>
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f>'1402'!$Q$3</f>
+        <v>3</v>
+      </c>
+      <c r="K9" s="9">
+        <f>'1402'!$Q$16</f>
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <f>'1402'!$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>'1402'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>'1402'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="5">
+        <f>COUNTIF('1402'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="W9" s="5">
+        <f>COUNTIF('1402'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" s="5">
+        <f>COUNTIF('1402'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AB9" s="5">
+        <f>COUNTIF('1402'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P10" s="5"/>
@@ -1612,21 +2556,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -1637,15 +2581,15 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -1657,11 +2601,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.21428571428571427</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.42857142857142855</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -1670,23 +2614,23 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="1">AVERAGE(M4:M30)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -1699,9 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1824,15 +2766,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -2254,20 +3196,92 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
+      <c r="A9" s="3">
+        <f>'1402'!$C$2</f>
+        <v>44971</v>
+      </c>
+      <c r="B9" s="7">
+        <f>'1402'!$J$5</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <f>'1402'!$K$5</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <f>'1402'!$M$5</f>
+        <v>1.5</v>
+      </c>
+      <c r="J9">
+        <f>'1402'!$Q$8</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>'1402'!$Q$9</f>
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <f>'1402'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>'1402'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>'1402'!$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>'1402'!$Q$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>2</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="5">
+        <f>COUNTIF('1402'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Y9" s="5">
+        <f>COUNTIF('1402'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="5">
+        <f>COUNTIF('1402'!$T$4:$T$30, "WW/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AD9" s="5">
+        <f>COUNTIF('1402'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q10" s="5"/>
@@ -2601,21 +3615,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -2626,11 +3640,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -2650,11 +3664,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.7857142857142857</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.53125</v>
+        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -2663,27 +3677,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>2.4</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.6</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +3710,7 @@
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2814,15 +3828,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -3209,19 +4223,85 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
+      <c r="A9" s="3">
+        <f>'1402'!$C$2</f>
+        <v>44971</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'1402'!$J$4</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <f>'1402'!$K$4</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <f>'1402'!$M$4</f>
+        <v>1.5</v>
+      </c>
+      <c r="J9">
+        <f>'1402'!$Q$14</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>'1402'!$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>'1402'!$Q$4</f>
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f>'1402'!$Q$17</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>'1402'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="5">
+        <f>COUNTIF('1402'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="W9" s="5">
+        <f>COUNTIF('1402'!$T$4:$T$30, "WW/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="5">
+        <f>COUNTIF('1402'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AB9" s="5">
+        <f>COUNTIF('1402'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P10" s="5"/>
@@ -3534,21 +4614,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -3559,15 +4639,15 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -3579,11 +4659,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.46875</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.5714285714285714</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -3592,11 +4672,11 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.8</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
@@ -3604,11 +4684,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -7000,9 +8080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AF598E-847B-421E-A1CE-455DE6199CD4}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17835E25-7F5B-4C52-9858-1C34A565C3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F927FF7-23CF-4A91-A14A-D461C09B26AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="9" xr2:uid="{83627C01-BEF9-46C0-8C92-948AD92B044E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{83627C01-BEF9-46C0-8C92-948AD92B044E}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistics LG" sheetId="3" r:id="rId2"/>
-    <sheet name="Statistics WW" sheetId="4" r:id="rId3"/>
-    <sheet name="Statistics 5M" sheetId="5" r:id="rId4"/>
-    <sheet name="602" sheetId="2" r:id="rId5"/>
-    <sheet name="702" sheetId="6" r:id="rId6"/>
-    <sheet name="802" sheetId="7" r:id="rId7"/>
-    <sheet name="1002" sheetId="8" r:id="rId8"/>
-    <sheet name="1302" sheetId="9" r:id="rId9"/>
-    <sheet name="1402" sheetId="10" r:id="rId10"/>
+    <sheet name="Stats Global" sheetId="11" r:id="rId2"/>
+    <sheet name="Statistics LG" sheetId="3" r:id="rId3"/>
+    <sheet name="Statistics WW" sheetId="4" r:id="rId4"/>
+    <sheet name="Statistics 5M" sheetId="5" r:id="rId5"/>
+    <sheet name="602" sheetId="2" r:id="rId6"/>
+    <sheet name="702" sheetId="6" r:id="rId7"/>
+    <sheet name="802" sheetId="7" r:id="rId8"/>
+    <sheet name="1002" sheetId="8" r:id="rId9"/>
+    <sheet name="1302" sheetId="9" r:id="rId10"/>
+    <sheet name="1402" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="89">
   <si>
     <t>SamJ</t>
   </si>
@@ -326,12 +327,60 @@
   <si>
     <t>SamM/M</t>
   </si>
+  <si>
+    <t>Week 1 %</t>
+  </si>
+  <si>
+    <t>Week 2 %</t>
+  </si>
+  <si>
+    <t>Week 3 %</t>
+  </si>
+  <si>
+    <t>Week 4 %</t>
+  </si>
+  <si>
+    <t>Week 5 %</t>
+  </si>
+  <si>
+    <t>Week 6 %</t>
+  </si>
+  <si>
+    <t>Finals %</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Stats Global</t>
+  </si>
+  <si>
+    <t>Games Played</t>
+  </si>
+  <si>
+    <t>1st Wins</t>
+  </si>
+  <si>
+    <t>2nd Wins</t>
+  </si>
+  <si>
+    <t>3rd Wins</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +405,15 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -395,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,12 +465,107 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -423,6 +576,924 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Average Wins</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> by Placing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stats Global'!$J$5:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1st Wins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2nd Wins</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3rd Wins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stats Global'!$J$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.50526315789473686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31578947368421051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17894736842105263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D5D-42E6-B9D8-502D5776E2F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCFF8C2-1F83-4288-BA68-59987CAC150A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,11 +1846,848 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AF598E-847B-421E-A1CE-455DE6199CD4}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44970</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.375</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E7726C-1A77-4A68-BB29-34349D6E328B}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1650,10 +3558,232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
+  <dimension ref="B2:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="3">
+        <f>'602'!$C$2</f>
+        <v>44963</v>
+      </c>
+      <c r="C5">
+        <f>SUM('602'!$J$3:$J$5)</f>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f>MAX('602'!$J$3:$J$5)</f>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5-F5</f>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f>MIN('602'!$J$3:$J$5)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
+        <f>'702'!$C$2</f>
+        <v>44964</v>
+      </c>
+      <c r="C6">
+        <f>SUM('702'!$J$3:$J$5)</f>
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f>MAX('702'!$J$3:$J$5)</f>
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6-F6</f>
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f>MIN('702'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="14">
+        <f>AVERAGE(C5:C30)</f>
+        <v>15.833333333333334</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <f>'802'!$C$2</f>
+        <v>44965</v>
+      </c>
+      <c r="C7">
+        <f>SUM('802'!$J$3:$J$5)</f>
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <f>MAX('802'!$J$3:$J$5)</f>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E10" si="1">C7-D7-F7</f>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f>MIN('802'!$J$3:$J$5)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="13">
+        <f>J6/$I$6</f>
+        <v>0.50526315789473686</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.17894736842105263</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <f>'1002'!$C$2</f>
+        <v>44967</v>
+      </c>
+      <c r="C8">
+        <f>SUM('1002'!$J$3:$J$5)</f>
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <f>MAX('1002'!$J$3:$J$5)</f>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>MIN('1002'!$J$3:$J$5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
+        <f>'1302'!$C$2</f>
+        <v>44970</v>
+      </c>
+      <c r="C9">
+        <f>SUM('1302'!$J$3:$J$5)</f>
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f>MAX('1302'!$J$3:$J$5)</f>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f>MIN('1302'!$J$3:$J$5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <f>'1402'!$C$2</f>
+        <v>44971</v>
+      </c>
+      <c r="C10">
+        <f>SUM('1402'!$J$3:$J$5)</f>
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <f>MAX('1402'!$J$3:$J$5)</f>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>MIN('1402'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1938,6 +4068,13 @@
         <f>'802'!$M$3</f>
         <v>1</v>
       </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="11">
+        <f>SUM(B4:B7)/(SUM(B4:B7)+SUM(C4:C7))</f>
+        <v>0.29268292682926828</v>
+      </c>
       <c r="J6">
         <f>'802'!$Q$3</f>
         <v>0</v>
@@ -2019,6 +4156,13 @@
         <f>'1002'!$M$3</f>
         <v>1</v>
       </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="11">
+        <f>SUM(B8:B13)/(SUM(B8:B13)+SUM(C8:C13))</f>
+        <v>0.5</v>
+      </c>
       <c r="J7">
         <f>'1002'!$Q$3</f>
         <v>1</v>
@@ -2100,6 +4244,10 @@
         <f>'1302'!$M$3</f>
         <v>1.5</v>
       </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="J8">
         <f>'1302'!$Q$3</f>
         <v>1</v>
@@ -2181,6 +4329,10 @@
         <f>'1402'!$M$3</f>
         <v>3</v>
       </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="11"/>
       <c r="J9">
         <f>'1402'!$Q$3</f>
         <v>3</v>
@@ -2246,6 +4398,10 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -2261,6 +4417,10 @@
       <c r="AD10" s="5"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="11"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -2276,6 +4436,10 @@
       <c r="AD11" s="5"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="11"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -2291,6 +4455,13 @@
       <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="12">
+        <f>AVERAGE(H6:H12)</f>
+        <v>0.39634146341463417</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -2635,15 +4806,28 @@
       <c r="V32" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2948,6 +5132,13 @@
         <f>'802'!$M$5</f>
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="11">
+        <f>SUM(B4:B7)/(SUM(B4:B7)+SUM(C4:C7))</f>
+        <v>0.69230769230769229</v>
+      </c>
       <c r="J6">
         <f>'802'!$Q$8</f>
         <v>4</v>
@@ -3036,6 +5227,13 @@
         <f>'1002'!$M$5</f>
         <v>3</v>
       </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="11">
+        <f>SUM(B8:B13)/(SUM(B8:B13)+SUM(C8:C13))</f>
+        <v>0.41176470588235292</v>
+      </c>
       <c r="J7">
         <f>'1002'!$Q$8</f>
         <v>2</v>
@@ -3124,6 +5322,10 @@
         <f>'1302'!$M$5</f>
         <v>1.5</v>
       </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="J8">
         <f>'1302'!$Q$8</f>
         <v>1</v>
@@ -3212,6 +5414,10 @@
         <f>'1402'!$M$5</f>
         <v>1.5</v>
       </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="11"/>
       <c r="J9">
         <f>'1402'!$Q$8</f>
         <v>1</v>
@@ -3284,6 +5490,10 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -3300,6 +5510,10 @@
       <c r="AF10" s="5"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="11"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -3316,6 +5530,10 @@
       <c r="AF11" s="5"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="11"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -3332,6 +5550,13 @@
       <c r="AF12" s="5"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="12">
+        <f>AVERAGE(H6:H12)</f>
+        <v>0.55203619909502266</v>
+      </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -3701,16 +5926,27 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3816,7 +6052,7 @@
       </c>
       <c r="B4" s="4">
         <f>'602'!$J$4</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <f>'602'!$K$4</f>
@@ -3828,7 +6064,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
@@ -3996,6 +6232,13 @@
         <f>'802'!$M$4</f>
         <v>2</v>
       </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="11">
+        <f>SUM(B4:B7)/(SUM(B4:B7)+SUM(C4:C7))</f>
+        <v>0.46666666666666667</v>
+      </c>
       <c r="J6">
         <f>'802'!$Q$14</f>
         <v>0</v>
@@ -4077,6 +6320,13 @@
         <f>'1002'!$M$4</f>
         <v>2</v>
       </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="11">
+        <f>SUM(B8:B13)/(SUM(B8:B13)+SUM(C8:C13))</f>
+        <v>0.58823529411764708</v>
+      </c>
       <c r="J7">
         <f>'1002'!$Q$14</f>
         <v>0</v>
@@ -4158,6 +6408,10 @@
         <f>'1302'!$M$4</f>
         <v>3</v>
       </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="J8">
         <f>'1302'!$Q$14</f>
         <v>1</v>
@@ -4239,6 +6493,10 @@
         <f>'1402'!$M$4</f>
         <v>1.5</v>
       </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="11"/>
       <c r="J9">
         <f>'1402'!$Q$14</f>
         <v>1</v>
@@ -4304,6 +6562,10 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -4319,6 +6581,10 @@
       <c r="AD10" s="5"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="11"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -4334,6 +6600,10 @@
       <c r="AD11" s="5"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="11"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -4349,6 +6619,13 @@
       <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="12">
+        <f>AVERAGE(H6:H12)</f>
+        <v>0.52745098039215688</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -4692,11 +6969,22 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
@@ -4761,7 +7049,7 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <f>COUNTIF(C4:C15, "Loose Gooses")</f>
+        <f>COUNTIF(C4:C18, "Loose Gooses")</f>
         <v>1</v>
       </c>
       <c r="K3">
@@ -4807,8 +7095,8 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <f>COUNTIF(C4:C15, "5 Musketeers")</f>
-        <v>2</v>
+        <f>COUNTIF(C4:C18, "5 Musketeers")</f>
+        <v>5</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D27, "5 Musketeers")</f>
@@ -4816,7 +7104,7 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
@@ -4853,7 +7141,7 @@
         <v>17</v>
       </c>
       <c r="J5">
-        <f>COUNTIF(C4:C15, "Wet Willies")</f>
+        <f>COUNTIF(C4:C18, "Wet Willies")</f>
         <v>9</v>
       </c>
       <c r="K5">
@@ -5232,7 +7520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E000EA6E-13A3-434D-B373-4A9BF20D7175}">
   <dimension ref="B2:U30"/>
   <sheetViews>
@@ -6162,7 +8450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A277FC55-00F2-459C-BBD1-0FB8B2F0BA70}">
   <dimension ref="B2:U30"/>
   <sheetViews>
@@ -7092,7 +9380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0CC8A-1DA0-4EFD-8506-C6F59B1829AA}">
   <dimension ref="B2:U30"/>
   <sheetViews>
@@ -8074,841 +10362,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AF598E-847B-421E-A1CE-455DE6199CD4}">
-  <dimension ref="B2:U30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44970</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <f>J3/(J3+K3)</f>
-        <v>0.375</v>
-      </c>
-      <c r="M3">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.75</v>
-      </c>
-      <c r="M4">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>2</v>
-      </c>
-      <c r="S4" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
-      </c>
-      <c r="T4" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U4" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M5">
-        <v>1.5</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S19" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S20" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S21" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S22" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S23" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S24" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S25" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S26" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S27" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S28" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S29" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S30" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F927FF7-23CF-4A91-A14A-D461C09B26AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F513A4-A809-43C9-B3EB-B0A35536E678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{83627C01-BEF9-46C0-8C92-948AD92B044E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="11" xr2:uid="{3EF75CF6-1523-4B5F-B364-18D62099C9EE}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="1002" sheetId="8" r:id="rId9"/>
     <sheet name="1302" sheetId="9" r:id="rId10"/>
     <sheet name="1402" sheetId="10" r:id="rId11"/>
+    <sheet name="1602" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="92">
   <si>
     <t>SamJ</t>
   </si>
@@ -372,6 +373,15 @@
   <si>
     <t>GP</t>
   </si>
+  <si>
+    <t>A/M</t>
+  </si>
+  <si>
+    <t>R/W/A</t>
+  </si>
+  <si>
+    <t>A/Ry</t>
+  </si>
 </sst>
 </file>
 
@@ -674,6 +684,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-60D4-4808-9781-78315940E056}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -689,6 +704,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-60D4-4808-9781-78315940E056}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -704,6 +724,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-60D4-4808-9781-78315940E056}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2686,8 +2711,881 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E7726C-1A77-4A68-BB29-34349D6E328B}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44971</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M4">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0998B4-0C47-4334-BD36-B8B8558BC3F1}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2702,7 +3600,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="3">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -2750,19 +3648,18 @@
       </c>
       <c r="J3">
         <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
@@ -2792,7 +3689,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2805,7 +3702,7 @@
       </c>
       <c r="J4">
         <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
@@ -2813,17 +3710,17 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="str">
         <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
@@ -2862,7 +3759,7 @@
       </c>
       <c r="J5">
         <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
@@ -2870,10 +3767,10 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
@@ -2900,30 +3797,30 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
         <v>16</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
@@ -2931,7 +3828,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.45">
@@ -2939,19 +3836,19 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
@@ -2966,11 +3863,11 @@
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.45">
@@ -2978,19 +3875,23 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
@@ -3001,11 +3902,11 @@
       </c>
       <c r="S8" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
@@ -3026,9 +3927,13 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
         <v>1</v>
       </c>
       <c r="P9" t="s">
@@ -3036,7 +3941,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="2"/>
@@ -3056,18 +3961,22 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
         <v>1</v>
       </c>
       <c r="P10" t="s">
@@ -3079,7 +3988,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
@@ -3087,7 +3996,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.45">
@@ -3095,26 +4004,26 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="2"/>
@@ -3122,11 +4031,11 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
@@ -3134,34 +4043,34 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" t="s">
         <v>6</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
@@ -3179,13 +4088,13 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>5</v>
@@ -3218,20 +4127,20 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P14" t="s">
         <v>4</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="2"/>
@@ -3257,7 +4166,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3270,7 +4179,7 @@
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" t="str">
         <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
@@ -3296,20 +4205,20 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" t="str">
         <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
@@ -3329,19 +4238,19 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
         <v>1</v>
@@ -3352,11 +4261,11 @@
       </c>
       <c r="S17" t="str">
         <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T17" t="str">
         <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U17" t="str">
         <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
@@ -3364,12 +4273,30 @@
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
       <c r="P18" t="s">
         <v>0</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="2"/>
@@ -3381,7 +4308,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.45">
@@ -3561,9 +4488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3782,7 +4707,7 @@
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3900,15 +4825,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -4398,23 +5323,89 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <f>'1602'!$C$2</f>
+        <v>44973</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'1602'!$J$3</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <f>'1602'!$K$3</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <f>'1602'!$M$3</f>
+        <v>2</v>
+      </c>
       <c r="G10" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
+      <c r="J10">
+        <f>'1602'!$Q$3</f>
+        <v>3</v>
+      </c>
+      <c r="K10" s="9">
+        <f>'1602'!$Q$16</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>'1602'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>'1602'!$Q$6</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>'1602'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="5">
+        <f>COUNTIF('1602'!$S$4:$S$30, "LG/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="W10" s="5">
+        <f>COUNTIF('1602'!$T$4:$T$30, "WW/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA10" s="5">
+        <f>COUNTIF('1602'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AB10" s="5">
+        <f>COUNTIF('1602'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="G11" t="s">
@@ -4727,21 +5718,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -4752,11 +5743,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -4764,7 +5755,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -4772,11 +5763,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.27272727272727271</v>
+        <v>0.28947368421052633</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.46153846153846156</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -4785,7 +5776,7 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.5</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
@@ -4793,15 +5784,15 @@
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="1">AVERAGE(M4:M30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -4825,9 +5816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -4950,15 +5939,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -5232,7 +6221,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(B8:B13)/(SUM(B8:B13)+SUM(C8:C13))</f>
-        <v>0.41176470588235292</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="J7">
         <f>'1002'!$Q$8</f>
@@ -5490,24 +6479,96 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <f>'1602'!$C$2</f>
+        <v>44973</v>
+      </c>
+      <c r="B10" s="7">
+        <f>'1602'!$J$5</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <f>'1602'!$K$5</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <f>'1602'!$M$5</f>
+        <v>2</v>
+      </c>
       <c r="G10" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
+      <c r="J10">
+        <f>'1602'!$Q$8</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f>'1602'!$Q$9</f>
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f>'1602'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>'1602'!$Q$12</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>'1602'!$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>'1602'!$Q$11</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="X10" s="5">
+        <f>COUNTIF('1602'!$T$4:$T$30, "WW/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="Y10" s="5">
+        <f>COUNTIF('1602'!$S$4:$S$30, "LG/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC10" s="5">
+        <f>COUNTIF('1602'!$T$4:$T$30, "WW/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AD10" s="5">
+        <f>COUNTIF('1602'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G11" t="s">
@@ -5555,7 +6616,7 @@
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
-        <v>0.55203619909502266</v>
+        <v>0.56837606837606836</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -5840,21 +6901,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -5865,11 +6926,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -5877,7 +6938,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5885,15 +6946,15 @@
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.72727272727272729</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.52777777777777779</v>
+        <v>0.51219512195121952</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -5902,27 +6963,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>2.1666666666666665</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.6666666666666665</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
   </sheetData>
@@ -5945,8 +7006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6064,15 +7125,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -6325,7 +7386,7 @@
       </c>
       <c r="H7" s="11">
         <f>SUM(B8:B13)/(SUM(B8:B13)+SUM(C8:C13))</f>
-        <v>0.58823529411764708</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="J7">
         <f>'1002'!$Q$14</f>
@@ -6562,23 +7623,89 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <f>'1602'!$C$2</f>
+        <v>44973</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'1602'!$J$4</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <f>'1602'!$K$4</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <f>'1602'!$M$4</f>
+        <v>2</v>
+      </c>
       <c r="G10" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
+      <c r="J10">
+        <f>'1602'!$Q$14</f>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f>'1602'!$Q$15</f>
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f>'1602'!$Q$4</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>'1602'!$Q$17</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>'1602'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="5">
+        <f>COUNTIF('1602'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="W10" s="5">
+        <f>COUNTIF('1602'!$T$4:$T$30, "WW/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" s="5">
+        <f>COUNTIF('1602'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AB10" s="5">
+        <f>COUNTIF('1602'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="G11" t="s">
@@ -6624,7 +7751,7 @@
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
-        <v>0.52745098039215688</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -6891,21 +8018,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -6916,11 +8043,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
@@ -6936,11 +8063,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.47222222222222221</v>
+        <v>0.48780487804878048</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.53846153846153844</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -6949,23 +8076,23 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>0.83333333333333337</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.6666666666666667</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F513A4-A809-43C9-B3EB-B0A35536E678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4F065-53E2-4FE9-9955-B0AB0FCAC903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="11" xr2:uid="{3EF75CF6-1523-4B5F-B364-18D62099C9EE}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="1" xr2:uid="{3EF75CF6-1523-4B5F-B364-18D62099C9EE}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="95">
   <si>
     <t>SamJ</t>
   </si>
@@ -382,6 +382,15 @@
   <si>
     <t>A/Ry</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
+  </si>
+  <si>
+    <t>WEEK 1</t>
+  </si>
 </sst>
 </file>
 
@@ -547,11 +556,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -567,11 +576,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3584,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0998B4-0C47-4334-BD36-B8B8558BC3F1}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4486,21 +4495,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4520,7 +4532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <f>'602'!$C$2</f>
         <v>44963</v>
@@ -4553,8 +4565,20 @@
       <c r="L5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <f>'702'!$C$2</f>
         <v>44964</v>
@@ -4592,7 +4616,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <f>'802'!$C$2</f>
         <v>44965</v>
@@ -4628,8 +4652,26 @@
         <f t="shared" si="2"/>
         <v>0.17894736842105263</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <f>'1002'!$C$2</f>
         <v>44967</v>
@@ -4650,8 +4692,30 @@
         <f>MIN('1002'!$J$3:$J$5)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <f>('602'!Q3)+('702'!Q3)+('802'!Q3)+('1002'!Q3)</f>
+        <v>5</v>
+      </c>
+      <c r="R8" s="14">
+        <f>Q8/$Q$5</f>
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <f>('1302'!Q3)+('1402'!Q3)+('1602'!Q3)</f>
+        <v>7</v>
+      </c>
+      <c r="V8" s="14">
+        <f>U8/$U$5</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <f>'1302'!$C$2</f>
         <v>44970</v>
@@ -4672,8 +4736,30 @@
         <f>MIN('1302'!$J$3:$J$5)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9">
+        <f>('602'!Q4)+('702'!Q4)+('802'!Q4)+('1002'!Q4)</f>
+        <v>5</v>
+      </c>
+      <c r="R9" s="14">
+        <f>Q9/$Q$5</f>
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9">
+        <f>('1302'!Q4)+('1402'!Q4)+('1602'!Q4)</f>
+        <v>4</v>
+      </c>
+      <c r="V9" s="14">
+        <f>U9/$U$5</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <f>'1402'!$C$2</f>
         <v>44971</v>
@@ -4693,6 +4779,340 @@
       <c r="F10">
         <f>MIN('1402'!$J$3:$J$5)</f>
         <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10">
+        <f>('602'!Q5)+('702'!Q5)+('802'!Q5)+('1002'!Q5)</f>
+        <v>2</v>
+      </c>
+      <c r="R10" s="14">
+        <f>Q10/$Q$5</f>
+        <v>0.5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10">
+        <f>('1302'!Q5)+('1402'!Q5)+('1602'!Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <f>U10/$U$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11">
+        <f>('602'!Q6)+('702'!Q6)+('802'!Q6)+('1002'!Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="14">
+        <f>Q11/$Q$5</f>
+        <v>0.25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11">
+        <f>('1302'!Q6)+('1402'!Q6)+('1602'!Q6)</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="14">
+        <f>U11/$U$5</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <f>('602'!Q7)+('702'!Q7)+('802'!Q7)+('1002'!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <f>Q12/$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <f>('1302'!Q7)+('1402'!Q7)+('1602'!Q7)</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="14">
+        <f>U12/$U$5</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f>('602'!Q8)+('702'!Q8)+('802'!Q8)+('1002'!Q8)</f>
+        <v>11</v>
+      </c>
+      <c r="R13" s="14">
+        <f>Q13/$Q$5</f>
+        <v>2.75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13">
+        <f>('1302'!Q8)+('1402'!Q8)+('1602'!Q8)</f>
+        <v>3</v>
+      </c>
+      <c r="V13" s="14">
+        <f>U13/$U$5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <f>('602'!Q9)+('702'!Q9)+('802'!Q9)+('1002'!Q9)</f>
+        <v>11</v>
+      </c>
+      <c r="R14" s="14">
+        <f>Q14/$Q$5</f>
+        <v>2.75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14">
+        <f>('1302'!Q9)+('1402'!Q9)+('1602'!Q9)</f>
+        <v>7</v>
+      </c>
+      <c r="V14" s="14">
+        <f>U14/$U$5</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <f>('602'!Q10)+('702'!Q10)+('802'!Q10)+('1002'!Q10)</f>
+        <v>8</v>
+      </c>
+      <c r="R15" s="14">
+        <f>Q15/$Q$5</f>
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <f>('1302'!Q10)+('1402'!Q10)+('1602'!Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <f>U15/$U$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <f>('602'!Q11)+('702'!Q11)+('802'!Q11)+('1002'!Q11)</f>
+        <v>2</v>
+      </c>
+      <c r="R16" s="14">
+        <f>Q16/$Q$5</f>
+        <v>0.5</v>
+      </c>
+      <c r="T16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <f>('1302'!Q11)+('1402'!Q11)+('1602'!Q11)</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="14">
+        <f>U16/$U$5</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <f>('602'!Q12)+('702'!Q12)+('802'!Q12)+('1002'!Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="14">
+        <f>Q17/$Q$5</f>
+        <v>0.25</v>
+      </c>
+      <c r="T17" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <f>('1302'!Q12)+('1402'!Q12)+('1602'!Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="V17" s="14">
+        <f>U17/$U$5</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <f>('602'!Q13)+('702'!Q13)+('802'!Q13)+('1002'!Q13)</f>
+        <v>2</v>
+      </c>
+      <c r="R18" s="14">
+        <f>Q18/$Q$5</f>
+        <v>0.5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <f>('1302'!Q13)+('1402'!Q13)+('1602'!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <f>U18/$U$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <f>('602'!Q14)+('702'!Q14)+('802'!Q14)+('1002'!Q14)</f>
+        <v>3</v>
+      </c>
+      <c r="R19" s="14">
+        <f>Q19/$Q$5</f>
+        <v>0.75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <f>('1302'!Q14)+('1402'!Q14)+('1602'!Q14)</f>
+        <v>5</v>
+      </c>
+      <c r="V19" s="14">
+        <f>U19/$U$5</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <f>('602'!Q15)+('702'!Q15)+('802'!Q15)+('1002'!Q15)</f>
+        <v>6</v>
+      </c>
+      <c r="R20" s="14">
+        <f>Q20/$Q$5</f>
+        <v>1.5</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <f>('1302'!Q15)+('1402'!Q15)+('1602'!Q15)</f>
+        <v>6</v>
+      </c>
+      <c r="V20" s="14">
+        <f>U20/$U$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <f>('602'!Q16)+('702'!Q16)+('802'!Q16)+('1002'!Q16)</f>
+        <v>9</v>
+      </c>
+      <c r="R21" s="14">
+        <f>Q21/$Q$5</f>
+        <v>2.25</v>
+      </c>
+      <c r="T21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <f>('1302'!Q16)+('1402'!Q16)+('1602'!Q16)</f>
+        <v>3</v>
+      </c>
+      <c r="V21" s="14">
+        <f>U21/$U$5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f>('602'!Q17)+('702'!Q17)+('802'!Q17)+('1002'!Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="14">
+        <f>Q22/$Q$5</f>
+        <v>0.25</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f>('1302'!Q17)+('1402'!Q17)+('1602'!Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <f>U22/$U$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f>('602'!Q18)+('702'!Q18)+('802'!Q18)+('1002'!Q18)</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="14">
+        <f>Q23/$Q$5</f>
+        <v>0.25</v>
+      </c>
+      <c r="T23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>('1302'!Q18)+('1402'!Q18)+('1602'!Q18)</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="14">
+        <f>U23/$U$5</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -5798,13 +6218,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10511,7 +10931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0CC8A-1DA0-4EFD-8506-C6F59B1829AA}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4F065-53E2-4FE9-9955-B0AB0FCAC903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10415CD-9860-41E5-9A8E-66CD9BDFC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="16875" windowHeight="10523" firstSheet="1" activeTab="1" xr2:uid="{3EF75CF6-1523-4B5F-B364-18D62099C9EE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{3EF75CF6-1523-4B5F-B364-18D62099C9EE}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="95">
   <si>
     <t>SamJ</t>
   </si>
@@ -819,13 +819,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.50526315789473686</c:v>
+                  <c:v>0.48181818181818181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31578947368421051</c:v>
+                  <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17894736842105263</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3594,7 +3594,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3728,7 +3728,7 @@
         <v>19</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q18" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
         <v>0</v>
       </c>
       <c r="S4" t="str">
@@ -4321,6 +4321,13 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S19" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4495,10 +4502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
-  <dimension ref="B2:V23"/>
+  <dimension ref="B2:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4601,11 +4608,11 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>15.833333333333334</v>
+        <v>15.714285714285714</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>8</v>
+        <v>7.5714285714285712</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -4613,7 +4620,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.8333333333333335</v>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.45">
@@ -4642,15 +4649,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.50526315789473686</v>
+        <v>0.48181818181818181</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.31578947368421051</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.17894736842105263</v>
+        <v>0.2</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -4700,7 +4707,7 @@
         <v>5</v>
       </c>
       <c r="R8" s="14">
-        <f>Q8/$Q$5</f>
+        <f t="shared" ref="R8:R24" si="3">Q8/$Q$5</f>
         <v>1.25</v>
       </c>
       <c r="T8" t="s">
@@ -4711,7 +4718,7 @@
         <v>7</v>
       </c>
       <c r="V8" s="14">
-        <f>U8/$U$5</f>
+        <f t="shared" ref="V8:V24" si="4">U8/$U$5</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -4744,7 +4751,7 @@
         <v>5</v>
       </c>
       <c r="R9" s="14">
-        <f>Q9/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="T9" t="s">
@@ -4755,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="V9" s="14">
-        <f>U9/$U$5</f>
+        <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -4788,7 +4795,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="14">
-        <f>Q10/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="T10" t="s">
@@ -4799,11 +4806,31 @@
         <v>0</v>
       </c>
       <c r="V10" s="14">
-        <f>U10/$U$5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B11" s="3">
+        <f>'1602'!$C$2</f>
+        <v>44973</v>
+      </c>
+      <c r="C11">
+        <f>SUM('1602'!$J$3:$J$5)</f>
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f>MAX('1602'!$J$3:$J$5)</f>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11" si="5">C11-D11-F11</f>
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f>MIN('1602'!$J$3:$J$5)</f>
+        <v>5</v>
+      </c>
       <c r="P11" t="s">
         <v>16</v>
       </c>
@@ -4812,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="14">
-        <f>Q11/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="T11" t="s">
@@ -4823,7 +4850,7 @@
         <v>2</v>
       </c>
       <c r="V11" s="14">
-        <f>U11/$U$5</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -4836,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="14">
-        <f>Q12/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12" t="s">
@@ -4847,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="14">
-        <f>U12/$U$5</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -4860,7 +4887,7 @@
         <v>11</v>
       </c>
       <c r="R13" s="14">
-        <f>Q13/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
       <c r="T13" t="s">
@@ -4871,7 +4898,7 @@
         <v>3</v>
       </c>
       <c r="V13" s="14">
-        <f>U13/$U$5</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -4884,7 +4911,7 @@
         <v>11</v>
       </c>
       <c r="R14" s="14">
-        <f>Q14/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
       <c r="T14" t="s">
@@ -4895,7 +4922,7 @@
         <v>7</v>
       </c>
       <c r="V14" s="14">
-        <f>U14/$U$5</f>
+        <f t="shared" si="4"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -4908,7 +4935,7 @@
         <v>8</v>
       </c>
       <c r="R15" s="14">
-        <f>Q15/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T15" t="s">
@@ -4919,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="14">
-        <f>U15/$U$5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="14">
-        <f>Q16/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="T16" t="s">
@@ -4943,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="14">
-        <f>U16/$U$5</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -4956,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="14">
-        <f>Q17/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="T17" t="s">
@@ -4967,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="14">
-        <f>U17/$U$5</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -4980,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="R18" s="14">
-        <f>Q18/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="T18" t="s">
@@ -4991,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="14">
-        <f>U18/$U$5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5004,7 +5031,7 @@
         <v>3</v>
       </c>
       <c r="R19" s="14">
-        <f>Q19/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="T19" t="s">
@@ -5015,7 +5042,7 @@
         <v>5</v>
       </c>
       <c r="V19" s="14">
-        <f>U19/$U$5</f>
+        <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -5028,7 +5055,7 @@
         <v>6</v>
       </c>
       <c r="R20" s="14">
-        <f>Q20/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="T20" t="s">
@@ -5039,7 +5066,7 @@
         <v>6</v>
       </c>
       <c r="V20" s="14">
-        <f>U20/$U$5</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5052,7 +5079,7 @@
         <v>9</v>
       </c>
       <c r="R21" s="14">
-        <f>Q21/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
       <c r="T21" t="s">
@@ -5063,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="V21" s="14">
-        <f>U21/$U$5</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5076,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="14">
-        <f>Q22/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="T22" t="s">
@@ -5087,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="14">
-        <f>U22/$U$5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5100,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="14">
-        <f>Q23/$Q$5</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="T23" t="s">
@@ -5111,8 +5138,32 @@
         <v>1</v>
       </c>
       <c r="V23" s="14">
-        <f>U23/$U$5</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24">
+        <f>('602'!Q19)+('702'!Q19)+('802'!Q19)+('1002'!Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24">
+        <f>('1302'!Q19)+('1402'!Q19)+('1602'!Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5124,32 +5175,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
-  <dimension ref="A2:AD32"/>
+  <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -5186,47 +5237,53 @@
       <c r="N3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s">
-        <v>2</v>
-      </c>
       <c r="R3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>15</v>
       </c>
       <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
         <v>31</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>30</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f>'602'!$C$2</f>
         <v>44963</v>
@@ -5275,47 +5332,48 @@
         <f>'602'!$Q$7</f>
         <v>0</v>
       </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>45</v>
+      <c r="Q4" s="5">
+        <v>1</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="5">
-        <v>1</v>
-      </c>
-      <c r="W4" s="5">
+      <c r="U4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="X4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="5">
         <v>4</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AF4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <f>'702'!$C$2</f>
         <v>44964</v>
@@ -5352,51 +5410,52 @@
         <f>'702'!$Q$7</f>
         <v>0</v>
       </c>
-      <c r="P5" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="8">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="5" t="s">
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="8"/>
+      <c r="X5" s="5">
         <f>COUNTIF('702'!$S$4:$S$30, "LG/WW")</f>
         <v>2</v>
       </c>
-      <c r="W5" s="5">
+      <c r="Y5" s="5">
         <f>COUNTIF('702'!$T$4:$T$30, "WW/LG")</f>
         <v>5</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AC5" s="5">
         <f>COUNTIF('702'!$S$4:$S$30, "LG/5M")</f>
         <v>4</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AD5" s="5">
         <f>COUNTIF('702'!$U$4:$U$30, "5M/LG")</f>
         <v>1</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f>'802'!$C$2</f>
         <v>44965</v>
@@ -5440,51 +5499,52 @@
         <f>'802'!$Q$7</f>
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="8">
-        <v>1</v>
-      </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="8">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="5">
-        <v>1</v>
-      </c>
-      <c r="V6" s="5">
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="X6" s="5">
         <f>COUNTIF('802'!$S$4:$S$30, "LG/WW")</f>
         <v>1</v>
       </c>
-      <c r="W6" s="5">
+      <c r="Y6" s="5">
         <f>COUNTIF('802'!$T$4:$T$30, "WW/LG")</f>
         <v>5</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="Z6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="AA6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AC6" s="5">
         <f>COUNTIF('802'!$S$4:$S$30, "LG/5M")</f>
         <v>1</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AD6" s="5">
         <f>COUNTIF('802'!$U$4:$U$30, "5M/LG")</f>
         <v>3</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AE6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AF6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f>'1002'!$C$2</f>
         <v>44967</v>
@@ -5528,51 +5588,52 @@
         <f>'1002'!$Q$7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
       <c r="Q7" s="5">
         <v>1</v>
       </c>
       <c r="R7" s="5">
         <v>1</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>45</v>
+      <c r="S7" s="5">
+        <v>1</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="5">
+      <c r="U7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="X7" s="5">
         <f>COUNTIF('1002'!$S$4:$S$30, "LG/WW")</f>
         <v>0</v>
       </c>
-      <c r="W7" s="5">
+      <c r="Y7" s="5">
         <f>COUNTIF('1002'!$T$4:$T$30, "WW/LG")</f>
         <v>6</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="Z7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AC7" s="5">
         <f>COUNTIF('1002'!$S$4:$S$30, "LG/5M")</f>
         <v>3</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AD7" s="5">
         <f>COUNTIF('1002'!$U$4:$U$30, "5M/LG")</f>
         <v>2</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AE7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AD7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AF7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <f>'1302'!$C$2</f>
         <v>44970</v>
@@ -5613,51 +5674,55 @@
         <f>'1302'!$Q$7</f>
         <v>1</v>
       </c>
-      <c r="P8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>45</v>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="5">
-        <v>1</v>
+      <c r="S8" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="T8" s="5">
         <v>1</v>
       </c>
-      <c r="V8" s="5">
+      <c r="U8" s="5">
+        <v>1</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="X8" s="5">
         <f>COUNTIF('1302'!$S$4:$S$30, "LG/WW")</f>
         <v>2</v>
       </c>
-      <c r="W8" s="5">
+      <c r="Y8" s="5">
         <f>COUNTIF('1302'!$T$4:$T$30, "WW/LG")</f>
         <v>2</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="Z8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="AA8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AC8" s="5">
         <f>COUNTIF('1302'!$S$4:$S$30, "LG/5M")</f>
         <v>1</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AD8" s="5">
         <f>COUNTIF('1302'!$U$4:$U$30, "5M/LG")</f>
         <v>3</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AE8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AD8" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AF8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <f>'1402'!$C$2</f>
         <v>44971</v>
@@ -5698,51 +5763,52 @@
         <f>'1402'!$Q$7</f>
         <v>0</v>
       </c>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
       <c r="Q9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" s="5">
-        <v>1</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V9" s="5">
+      <c r="U9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="X9" s="5">
         <f>COUNTIF('1402'!$S$4:$S$30, "LG/WW")</f>
         <v>3</v>
       </c>
-      <c r="W9" s="5">
+      <c r="Y9" s="5">
         <f>COUNTIF('1402'!$T$4:$T$30, "WW/LG")</f>
         <v>2</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="Z9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Y9" s="5" t="s">
+      <c r="AA9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AC9" s="5">
         <f>COUNTIF('1402'!$S$4:$S$30, "LG/5M")</f>
         <v>3</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AD9" s="5">
         <f>COUNTIF('1402'!$U$4:$U$30, "5M/LG")</f>
         <v>2</v>
       </c>
-      <c r="AC9" s="5" t="s">
+      <c r="AE9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AF9" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <f>'1602'!$C$2</f>
         <v>44973</v>
@@ -5783,89 +5849,95 @@
         <f>'1602'!$Q$7</f>
         <v>0</v>
       </c>
-      <c r="P10" s="5">
-        <v>2</v>
+      <c r="O10">
+        <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-      <c r="R10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="S10" s="5">
-        <v>1</v>
-      </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="8"/>
+      <c r="X10" s="5">
         <f>COUNTIF('1602'!$S$4:$S$30, "LG/WW")</f>
         <v>2</v>
       </c>
-      <c r="W10" s="5">
+      <c r="Y10" s="5">
         <f>COUNTIF('1602'!$T$4:$T$30, "WW/LG")</f>
         <v>3</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="Z10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AC10" s="5">
         <f>COUNTIF('1602'!$S$4:$S$30, "LG/5M")</f>
         <v>3</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AD10" s="5">
         <f>COUNTIF('1602'!$U$4:$U$30, "5M/LG")</f>
         <v>2</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AE10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AD10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AF10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G11" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G12" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
         <v>81</v>
       </c>
@@ -5873,291 +5945,309 @@
         <f>AVERAGE(H6:H12)</f>
         <v>0.39634146341463417</v>
       </c>
-      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P14" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P15" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P16" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
-    </row>
-    <row r="17" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P17" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+    </row>
+    <row r="17" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P18" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-    </row>
-    <row r="19" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P19" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-    </row>
-    <row r="20" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P20" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+    </row>
+    <row r="20" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-    </row>
-    <row r="21" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P21" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+    </row>
+    <row r="21" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-    </row>
-    <row r="22" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P22" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+    </row>
+    <row r="22" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-    </row>
-    <row r="23" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P23" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+    </row>
+    <row r="23" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-    </row>
-    <row r="24" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P24" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+    </row>
+    <row r="24" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
-    </row>
-    <row r="25" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P25" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+    </row>
+    <row r="25" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-    </row>
-    <row r="26" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P26" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+    </row>
+    <row r="26" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
-    </row>
-    <row r="27" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P27" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+    </row>
+    <row r="27" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-    </row>
-    <row r="28" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P28" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
-    </row>
-    <row r="29" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P29" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+    </row>
+    <row r="29" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-    </row>
-    <row r="30" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P30" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="U30" t="s">
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" t="s">
         <v>66</v>
       </c>
-      <c r="V30" s="5">
-        <f>SUM(V4:V29)</f>
+      <c r="X30" s="5">
+        <f>SUM(X4:X29)</f>
         <v>11</v>
       </c>
-      <c r="W30" s="5">
-        <f>SUM(W4:W29)</f>
+      <c r="Y30" s="5">
+        <f>SUM(Y4:Y29)</f>
         <v>27</v>
       </c>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="AA30" s="5">
-        <f>SUM(AA4:AA29)</f>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AC30" s="5">
+        <f>SUM(AC4:AC29)</f>
         <v>15</v>
       </c>
-      <c r="AB30" s="5">
-        <f>SUM(AB4:AB29)</f>
+      <c r="AD30" s="5">
+        <f>SUM(AD4:AD29)</f>
         <v>16</v>
       </c>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-    </row>
-    <row r="31" spans="9:30" x14ac:dyDescent="0.45">
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="9:32" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>59</v>
       </c>
@@ -6181,16 +6271,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V31" s="10">
-        <f>V30/(W30+V30)</f>
+      <c r="O31">
+        <f t="shared" ref="O31" si="1">SUM(O4:O30)</f>
+        <v>1</v>
+      </c>
+      <c r="X31" s="10">
+        <f>X30/(Y30+X30)</f>
         <v>0.28947368421052633</v>
       </c>
-      <c r="AA31" s="10">
-        <f>AA30/(AB30+AA30)</f>
+      <c r="AC31" s="10">
+        <f>AC30/(AD30+AC30)</f>
         <v>0.4838709677419355</v>
       </c>
     </row>
-    <row r="32" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="9:32" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
         <v>60</v>
       </c>
@@ -6207,12 +6301,16 @@
         <v>0.5</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:N32" si="1">AVERAGE(M4:M30)</f>
+        <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14285714285714285</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
+        <v>0.5</v>
       </c>
       <c r="V32" s="10"/>
     </row>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10415CD-9860-41E5-9A8E-66CD9BDFC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D75F09-D214-4E09-851F-2D9881B333E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{3EF75CF6-1523-4B5F-B364-18D62099C9EE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="2" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="1302" sheetId="9" r:id="rId10"/>
     <sheet name="1402" sheetId="10" r:id="rId11"/>
     <sheet name="1602" sheetId="12" r:id="rId12"/>
+    <sheet name="2002" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="99">
   <si>
     <t>SamJ</t>
   </si>
@@ -391,6 +392,18 @@
   <si>
     <t>WEEK 1</t>
   </si>
+  <si>
+    <t>A/K</t>
+  </si>
+  <si>
+    <t>J/L</t>
+  </si>
+  <si>
+    <t>SamM/C</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +506,157 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -819,13 +982,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.48181818181818181</c:v>
+                  <c:v>0.48739495798319327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31818181818181818</c:v>
+                  <c:v>0.32773109243697479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18487394957983194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,8 +3756,917 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0998B4-0C47-4334-BD36-B8B8558BC3F1}">
   <dimension ref="B2:U30"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44973</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/LG</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25A14A2-E418-44A7-A7D4-C8919753A8DA}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="P2" sqref="P2:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3609,7 +4681,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="3">
-        <v>44973</v>
+        <v>44977</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -3661,21 +4733,22 @@
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
       </c>
       <c r="Q3">
         <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>21</v>
@@ -3692,13 +4765,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3711,17 +4784,18 @@
       </c>
       <c r="J4">
         <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
         <v>2</v>
       </c>
       <c r="P4" t="s">
@@ -3733,7 +4807,7 @@
       </c>
       <c r="S4" t="str">
         <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T4" t="str">
         <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
@@ -3741,7 +4815,7 @@
       </c>
       <c r="U4" t="str">
         <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.45">
@@ -3749,13 +4823,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3768,7 +4842,7 @@
       </c>
       <c r="J5">
         <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
@@ -3776,10 +4850,11 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
@@ -3790,7 +4865,7 @@
       </c>
       <c r="S5" t="str">
         <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
@@ -3798,7 +4873,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.45">
@@ -3806,13 +4881,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3825,11 +4900,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
@@ -3837,7 +4912,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.45">
@@ -3845,13 +4920,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -3868,7 +4943,7 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
@@ -3876,7 +4951,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.45">
@@ -3887,31 +4962,31 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>LG/WW</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
@@ -3927,34 +5002,34 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
         <v>9</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
@@ -3962,7 +5037,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
@@ -3970,19 +5045,19 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
@@ -3997,7 +5072,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
@@ -4005,7 +5080,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.45">
@@ -4013,26 +5088,26 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="2"/>
@@ -4040,11 +5115,11 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
@@ -4052,26 +5127,26 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P12" t="s">
         <v>6</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="2"/>
@@ -4079,38 +5154,20 @@
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
       <c r="P13" t="s">
         <v>5</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="2"/>
@@ -4118,7 +5175,7 @@
       </c>
       <c r="T13" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="4"/>
@@ -4126,30 +5183,12 @@
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
       <c r="P14" t="s">
         <v>4</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="2"/>
@@ -4157,7 +5196,7 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="4"/>
@@ -4165,34 +5204,16 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="P15" t="s">
         <v>3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15" t="str">
         <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T15" t="str">
         <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
@@ -4204,34 +5225,16 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
       <c r="P16" t="s">
         <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" t="str">
         <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T16" t="str">
         <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
@@ -4242,31 +5245,13 @@
         <v>None</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
       <c r="P17" t="s">
         <v>1</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="str">
         <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
@@ -4274,32 +5259,14 @@
       </c>
       <c r="T17" t="str">
         <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U17" t="str">
         <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
         <v>None</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
       <c r="P18" t="s">
         <v>0</v>
       </c>
@@ -4317,16 +5284,16 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
       <c r="P19" t="s">
         <v>61</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="2"/>
@@ -4341,7 +5308,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S20" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4355,7 +5322,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S21" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4369,7 +5336,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S22" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4383,7 +5350,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S23" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4397,7 +5364,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S24" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4411,7 +5378,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S25" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4425,7 +5392,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S26" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4439,7 +5406,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S27" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4453,7 +5420,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S28" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4467,7 +5434,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S29" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4481,7 +5448,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S30" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -4502,10 +5469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
-  <dimension ref="B2:V24"/>
+  <dimension ref="B2:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4514,12 +5481,12 @@
     <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4539,7 +5506,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <f>'602'!$C$2</f>
         <v>44963</v>
@@ -4584,8 +5551,14 @@
       <c r="U5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <f>'702'!$C$2</f>
         <v>44964</v>
@@ -4608,22 +5581,22 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>15.714285714285714</v>
+        <v>14.875</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>7.5714285714285712</v>
+        <v>7.25</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>3.1428571428571428</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <f>'802'!$C$2</f>
         <v>44965</v>
@@ -4649,15 +5622,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.48181818181818181</v>
+        <v>0.48739495798319327</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.31818181818181818</v>
+        <v>0.32773109243697479</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.18487394957983194</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -4677,8 +5650,17 @@
       <c r="V7" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <f>'1002'!$C$2</f>
         <v>44967</v>
@@ -4714,15 +5696,26 @@
         <v>18</v>
       </c>
       <c r="U8">
-        <f>('1302'!Q3)+('1402'!Q3)+('1602'!Q3)</f>
+        <f>('1302'!$Q3)+('1402'!$Q3)+('1602'!$Q3)</f>
         <v>7</v>
       </c>
       <c r="V8" s="14">
         <f t="shared" ref="V8:V24" si="4">U8/$U$5</f>
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8">
+        <f>('2002'!$Q3)</f>
+        <v>2</v>
+      </c>
+      <c r="Z8" s="14">
+        <f>Y8/Y$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <f>'1302'!$C$2</f>
         <v>44970</v>
@@ -4758,15 +5751,26 @@
         <v>19</v>
       </c>
       <c r="U9">
-        <f>('1302'!Q4)+('1402'!Q4)+('1602'!Q4)</f>
+        <f>('1302'!$Q4)+('1402'!$Q4)+('1602'!$Q4)</f>
         <v>4</v>
       </c>
       <c r="V9" s="14">
         <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9">
+        <f>('2002'!$Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <f t="shared" ref="Z9:Z24" si="5">Y9/Y$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <f>'1402'!$C$2</f>
         <v>44971</v>
@@ -4802,15 +5806,26 @@
         <v>13</v>
       </c>
       <c r="U10">
-        <f>('1302'!Q5)+('1402'!Q5)+('1602'!Q5)</f>
+        <f>('1302'!$Q5)+('1402'!$Q5)+('1602'!$Q5)</f>
         <v>0</v>
       </c>
       <c r="V10" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10">
+        <f>('2002'!$Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>'1602'!$C$2</f>
         <v>44973</v>
@@ -4824,7 +5839,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="5">C11-D11-F11</f>
+        <f t="shared" ref="E11" si="6">C11-D11-F11</f>
         <v>5</v>
       </c>
       <c r="F11">
@@ -4846,15 +5861,46 @@
         <v>16</v>
       </c>
       <c r="U11">
-        <f>('1302'!Q6)+('1402'!Q6)+('1602'!Q6)</f>
+        <f>('1302'!$Q6)+('1402'!$Q6)+('1602'!$Q6)</f>
         <v>2</v>
       </c>
       <c r="V11" s="14">
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11">
+        <f>('2002'!$Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B12" s="3">
+        <f>'2002'!$C$2</f>
+        <v>44977</v>
+      </c>
+      <c r="C12">
+        <f>SUM('2002'!$J$3:$J$5)</f>
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>MAX('2002'!$J$3:$J$5)</f>
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="7">C12-D12-F12</f>
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f>MIN('2002'!$J$3:$J$5)</f>
+        <v>0</v>
+      </c>
       <c r="P12" t="s">
         <v>15</v>
       </c>
@@ -4870,15 +5916,26 @@
         <v>15</v>
       </c>
       <c r="U12">
-        <f>('1302'!Q7)+('1402'!Q7)+('1602'!Q7)</f>
+        <f>('1302'!$Q7)+('1402'!$Q7)+('1602'!$Q7)</f>
         <v>1</v>
       </c>
       <c r="V12" s="14">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12">
+        <f>('2002'!$Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="P13" t="s">
         <v>12</v>
       </c>
@@ -4894,15 +5951,26 @@
         <v>12</v>
       </c>
       <c r="U13">
-        <f>('1302'!Q8)+('1402'!Q8)+('1602'!Q8)</f>
+        <f>('1302'!$Q8)+('1402'!$Q8)+('1602'!$Q8)</f>
         <v>3</v>
       </c>
       <c r="V13" s="14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13">
+        <f>('2002'!$Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
       <c r="P14" t="s">
         <v>9</v>
       </c>
@@ -4918,15 +5986,26 @@
         <v>9</v>
       </c>
       <c r="U14">
-        <f>('1302'!Q9)+('1402'!Q9)+('1602'!Q9)</f>
+        <f>('1302'!$Q9)+('1402'!$Q9)+('1602'!$Q9)</f>
         <v>7</v>
       </c>
       <c r="V14" s="14">
         <f t="shared" si="4"/>
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14">
+        <f>('2002'!$Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
       <c r="P15" t="s">
         <v>8</v>
       </c>
@@ -4942,15 +6021,26 @@
         <v>8</v>
       </c>
       <c r="U15">
-        <f>('1302'!Q10)+('1402'!Q10)+('1602'!Q10)</f>
+        <f>('1302'!$Q10)+('1402'!$Q10)+('1602'!$Q10)</f>
         <v>0</v>
       </c>
       <c r="V15" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="X15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15">
+        <f>('2002'!$Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
       <c r="P16" t="s">
         <v>7</v>
       </c>
@@ -4966,15 +6056,26 @@
         <v>7</v>
       </c>
       <c r="U16">
-        <f>('1302'!Q11)+('1402'!Q11)+('1602'!Q11)</f>
+        <f>('1302'!$Q11)+('1402'!$Q11)+('1602'!$Q11)</f>
         <v>1</v>
       </c>
       <c r="V16" s="14">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="17" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="X16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <f>('2002'!$Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="16:26" x14ac:dyDescent="0.45">
       <c r="P17" t="s">
         <v>6</v>
       </c>
@@ -4990,15 +6091,26 @@
         <v>6</v>
       </c>
       <c r="U17">
-        <f>('1302'!Q12)+('1402'!Q12)+('1602'!Q12)</f>
+        <f>('1302'!$Q12)+('1402'!$Q12)+('1602'!$Q12)</f>
         <v>1</v>
       </c>
       <c r="V17" s="14">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="18" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="X17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <f>('2002'!$Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="16:26" x14ac:dyDescent="0.45">
       <c r="P18" t="s">
         <v>5</v>
       </c>
@@ -5014,15 +6126,26 @@
         <v>5</v>
       </c>
       <c r="U18">
-        <f>('1302'!Q13)+('1402'!Q13)+('1602'!Q13)</f>
+        <f>('1302'!$Q13)+('1402'!$Q13)+('1602'!$Q13)</f>
         <v>0</v>
       </c>
       <c r="V18" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="X18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <f>('2002'!$Q13)</f>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="16:26" x14ac:dyDescent="0.45">
       <c r="P19" t="s">
         <v>4</v>
       </c>
@@ -5038,15 +6161,26 @@
         <v>4</v>
       </c>
       <c r="U19">
-        <f>('1302'!Q14)+('1402'!Q14)+('1602'!Q14)</f>
+        <f>('1302'!$Q14)+('1402'!$Q14)+('1602'!$Q14)</f>
         <v>5</v>
       </c>
       <c r="V19" s="14">
         <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="20" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="X19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <f>('2002'!$Q14)</f>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="16:26" x14ac:dyDescent="0.45">
       <c r="P20" t="s">
         <v>3</v>
       </c>
@@ -5062,15 +6196,26 @@
         <v>3</v>
       </c>
       <c r="U20">
-        <f>('1302'!Q15)+('1402'!Q15)+('1602'!Q15)</f>
+        <f>('1302'!$Q15)+('1402'!$Q15)+('1602'!$Q15)</f>
         <v>6</v>
       </c>
       <c r="V20" s="14">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="X20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <f>('2002'!$Q15)</f>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="16:26" x14ac:dyDescent="0.45">
       <c r="P21" t="s">
         <v>2</v>
       </c>
@@ -5086,15 +6231,26 @@
         <v>2</v>
       </c>
       <c r="U21">
-        <f>('1302'!Q16)+('1402'!Q16)+('1602'!Q16)</f>
+        <f>('1302'!$Q16)+('1402'!$Q16)+('1602'!$Q16)</f>
         <v>3</v>
       </c>
       <c r="V21" s="14">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="X21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <f>('2002'!$Q16)</f>
+        <v>2</v>
+      </c>
+      <c r="Z21" s="14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="16:26" x14ac:dyDescent="0.45">
       <c r="P22" t="s">
         <v>1</v>
       </c>
@@ -5110,15 +6266,26 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <f>('1302'!Q17)+('1402'!Q17)+('1602'!Q17)</f>
+        <f>('1302'!$Q17)+('1402'!$Q17)+('1602'!$Q17)</f>
         <v>0</v>
       </c>
       <c r="V22" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="X22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <f>('2002'!$Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="16:26" x14ac:dyDescent="0.45">
       <c r="P23" t="s">
         <v>0</v>
       </c>
@@ -5134,15 +6301,26 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <f>('1302'!Q18)+('1402'!Q18)+('1602'!Q18)</f>
+        <f>('1302'!$Q18)+('1402'!$Q18)+('1602'!$Q18)</f>
         <v>1</v>
       </c>
       <c r="V23" s="14">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="24" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="X23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f>('2002'!$Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="16:26" x14ac:dyDescent="0.45">
       <c r="P24" t="s">
         <v>61</v>
       </c>
@@ -5158,12 +6336,23 @@
         <v>61</v>
       </c>
       <c r="U24">
-        <f>('1302'!Q19)+('1402'!Q19)+('1602'!Q19)</f>
+        <f>('1302'!$Q19)+('1402'!$Q19)+('1602'!$Q19)</f>
         <v>0</v>
       </c>
       <c r="V24" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24">
+        <f>('2002'!$Q19)</f>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5177,8 +6366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5302,15 +6491,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -5565,7 +6754,7 @@
         <v>75</v>
       </c>
       <c r="H7" s="11">
-        <f>SUM(B8:B13)/(SUM(B8:B13)+SUM(C8:C13))</f>
+        <f>SUM(B8:B10)/(SUM(B8:B10)+SUM(C8:C10))</f>
         <v>0.5</v>
       </c>
       <c r="J7">
@@ -5653,7 +6842,10 @@
       <c r="G8" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
+        <v>0.7142857142857143</v>
+      </c>
       <c r="J8">
         <f>'1302'!$Q$3</f>
         <v>1</v>
@@ -5898,24 +7090,96 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <f>'2002'!$C$2</f>
+        <v>44977</v>
+      </c>
+      <c r="B11" s="4">
+        <f>'2002'!$J$3</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <f>'2002'!$K$3</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <f>'2002'!$M$3</f>
+        <v>3</v>
+      </c>
       <c r="G11" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
+      <c r="J11">
+        <f>'2002'!$Q$3</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="9">
+        <f>'2002'!$Q$16</f>
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <f>'2002'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>'2002'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>'2002'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>'2002'!Q19</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>2</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1</v>
+      </c>
+      <c r="X11" s="5">
+        <f>COUNTIF('2002'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="Y11" s="5">
+        <f>COUNTIF('2002'!$T$4:$T$30, "WW/LG")</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="5">
+        <f>COUNTIF('2002'!$S$4:$S$30, "LG/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AD11" s="5">
+        <f>COUNTIF('2002'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G12" t="s">
@@ -5943,7 +7207,7 @@
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
-        <v>0.39634146341463417</v>
+        <v>0.50232288037166084</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -6228,7 +7492,7 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
@@ -6238,11 +7502,11 @@
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -6253,11 +7517,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -6273,15 +7537,15 @@
       </c>
       <c r="O31">
         <f t="shared" ref="O31" si="1">SUM(O4:O30)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.28947368421052633</v>
+        <v>0.34146341463414637</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.4838709677419355</v>
+        <v>0.48571428571428571</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -6290,39 +7554,50 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.7142857142857142</v>
+        <v>1.75</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.125</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V32" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6334,7 +7609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -6461,11 +7738,11 @@
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -6738,7 +8015,7 @@
         <v>75</v>
       </c>
       <c r="H7" s="11">
-        <f>SUM(B8:B13)/(SUM(B8:B13)+SUM(C8:C13))</f>
+        <f>SUM(B8:B10)/(SUM(B8:B10)+SUM(C8:C10))</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="J7">
@@ -6832,7 +8109,10 @@
       <c r="G8" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
+        <v>0</v>
+      </c>
       <c r="J8">
         <f>'1302'!$Q$8</f>
         <v>1</v>
@@ -7089,24 +8369,87 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <f>'2002'!$C$2</f>
+        <v>44977</v>
+      </c>
+      <c r="B11" s="7">
+        <f>'2002'!$J$5</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <f>'2002'!$K$5</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <f>'2002'!$M$5</f>
+        <v>1</v>
+      </c>
       <c r="G11" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" s="5">
+        <f>COUNTIF('2002'!$T$4:$T$30, "WW/LG")</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <f>COUNTIF('2002'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC11" s="5">
+        <f>COUNTIF('2002'!$T$4:$T$30, "WW/5M")</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <f>COUNTIF('2002'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G12" t="s">
@@ -7134,7 +8477,7 @@
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
-        <v>0.56837606837606836</v>
+        <v>0.37891737891737892</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -7423,7 +8766,7 @@
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -7433,7 +8776,7 @@
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -7468,11 +8811,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.71052631578947367</v>
+        <v>0.65853658536585369</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.51219512195121952</v>
+        <v>0.48837209302325579</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -7485,34 +8828,45 @@
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.5714285714285716</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7524,9 +8878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -7643,15 +8995,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -7903,7 +9255,7 @@
         <v>75</v>
       </c>
       <c r="H7" s="11">
-        <f>SUM(B8:B13)/(SUM(B8:B13)+SUM(C8:C13))</f>
+        <f>SUM(B8:B10)/(SUM(B8:B10)+SUM(C8:C10))</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="J7">
@@ -7990,7 +9342,10 @@
       <c r="G8" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="J8">
         <f>'1302'!$Q$14</f>
         <v>1</v>
@@ -8226,23 +9581,89 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <f>'2002'!$C$2</f>
+        <v>44977</v>
+      </c>
+      <c r="B11" s="4">
+        <f>'2002'!$J$4</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <f>'2002'!$K$4</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <f>'2002'!$M$4</f>
+        <v>2</v>
+      </c>
       <c r="G11" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
+      <c r="J11">
+        <f>'2002'!$Q$14</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f>'2002'!$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f>'2002'!$Q$4</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>'2002'!$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>'2002'!$Q$13</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1</v>
+      </c>
+      <c r="V11" s="5">
+        <f>COUNTIF('2002'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="W11" s="5">
+        <f>COUNTIF('2002'!$T$4:$T$30, "WW/5M")</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA11" s="5">
+        <f>COUNTIF('2002'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AB11" s="5">
+        <f>COUNTIF('2002'!$S$4:$S$30, "LG/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="G12" t="s">
@@ -8269,7 +9690,7 @@
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
-        <v>0.51111111111111107</v>
+        <v>0.56296296296296289</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -8536,7 +9957,7 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
@@ -8546,11 +9967,11 @@
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -8561,11 +9982,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
@@ -8573,19 +9994,19 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <f>SUM(N7:N30)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.48780487804878048</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.5161290322580645</v>
+        <v>0.51428571428571423</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -8594,27 +10015,38 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.1428571428571428</v>
+        <v>1.125</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.7142857142857142</v>
+        <v>1.625</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
@@ -11029,7 +12461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F0CC8A-1DA0-4EFD-8506-C6F59B1829AA}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D75F09-D214-4E09-851F-2D9881B333E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492726AB-2615-4B8B-A00F-DEBB48909A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="2" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="118">
   <si>
     <t>SamJ</t>
   </si>
@@ -404,6 +404,63 @@
   <si>
     <t>WEEK 3</t>
   </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>13th</t>
+  </si>
+  <si>
+    <t>14th</t>
+  </si>
+  <si>
+    <t>15th</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>17th</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Placing</t>
+  </si>
 </sst>
 </file>
 
@@ -485,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -501,41 +558,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="20">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -718,34 +751,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1693,6 +1699,20 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:V44" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="U27:V44" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:V44">
+    <sortCondition descending="1" ref="V27:V44"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{04F740DB-8979-4EB0-8BB1-150B560FA6CB}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5469,16 +5489,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
-  <dimension ref="B2:Z24"/>
+  <dimension ref="B2:Z44"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="12.19921875" customWidth="1"/>
     <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.45">
@@ -6355,10 +6376,437 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(Q5,U5,Y5)</f>
+        <v>8</v>
+      </c>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>92</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28">
+        <f>SUM(Q8,U8,Y8)</f>
+        <v>14</v>
+      </c>
+      <c r="R28" s="14">
+        <f>Q28/Q$26</f>
+        <v>1.75</v>
+      </c>
+      <c r="T28" t="s">
+        <v>99</v>
+      </c>
+      <c r="U28" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" s="14">
+        <f>R$34</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="29" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29">
+        <f>SUM(Q9,U9,Y9)</f>
+        <v>9</v>
+      </c>
+      <c r="R29" s="14">
+        <f>Q29/Q$26</f>
+        <v>1.125</v>
+      </c>
+      <c r="T29" t="s">
+        <v>100</v>
+      </c>
+      <c r="U29" t="s">
+        <v>18</v>
+      </c>
+      <c r="V29" s="14">
+        <f>$R$28</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="30" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30">
+        <f>SUM(Q10,U10,Y10)</f>
+        <v>2</v>
+      </c>
+      <c r="R30" s="14">
+        <f>Q30/Q$26</f>
+        <v>0.25</v>
+      </c>
+      <c r="T30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U30" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="14">
+        <f>R$33</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="31" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31">
+        <f>SUM(Q11,U11,Y11)</f>
+        <v>3</v>
+      </c>
+      <c r="R31" s="14">
+        <f>Q31/Q$26</f>
+        <v>0.375</v>
+      </c>
+      <c r="T31" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="14">
+        <f>R$41</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="32" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32">
+        <f>SUM(Q12,U12,Y12)</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="14">
+        <f>Q32/Q$26</f>
+        <v>0.125</v>
+      </c>
+      <c r="T32" t="s">
+        <v>103</v>
+      </c>
+      <c r="U32" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="14">
+        <f>R$40</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="33" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <f>SUM(Q13,U13,Y13)</f>
+        <v>14</v>
+      </c>
+      <c r="R33" s="14">
+        <f>Q33/Q$26</f>
+        <v>1.75</v>
+      </c>
+      <c r="T33" t="s">
+        <v>104</v>
+      </c>
+      <c r="U33" t="s">
+        <v>19</v>
+      </c>
+      <c r="V33" s="14">
+        <f>$R$29</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="34" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <f>SUM(Q14,U14,Y14)</f>
+        <v>18</v>
+      </c>
+      <c r="R34" s="14">
+        <f>Q34/Q$26</f>
+        <v>2.25</v>
+      </c>
+      <c r="T34" t="s">
+        <v>105</v>
+      </c>
+      <c r="U34" t="s">
+        <v>4</v>
+      </c>
+      <c r="V34" s="14">
+        <f>R$39</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="35" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Q15,U15,Y15)</f>
+        <v>8</v>
+      </c>
+      <c r="R35" s="14">
+        <f>Q35/Q$26</f>
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>106</v>
+      </c>
+      <c r="U35" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="14">
+        <f>R$35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <f>SUM(Q16,U16,Y16)</f>
+        <v>3</v>
+      </c>
+      <c r="R36" s="14">
+        <f>Q36/Q$26</f>
+        <v>0.375</v>
+      </c>
+      <c r="T36" t="s">
+        <v>107</v>
+      </c>
+      <c r="U36" t="s">
+        <v>16</v>
+      </c>
+      <c r="V36" s="14">
+        <f>R$31</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="37" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <f>SUM(Q17,U17,Y17)</f>
+        <v>2</v>
+      </c>
+      <c r="R37" s="14">
+        <f>Q37/Q$26</f>
+        <v>0.25</v>
+      </c>
+      <c r="T37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U37" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="14">
+        <f>R$36</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="38" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <f>SUM(Q18,U18,Y18)</f>
+        <v>3</v>
+      </c>
+      <c r="R38" s="14">
+        <f>Q38/Q$26</f>
+        <v>0.375</v>
+      </c>
+      <c r="T38" t="s">
+        <v>109</v>
+      </c>
+      <c r="U38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V38" s="14">
+        <f>R$38</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="39" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P39" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <f>SUM(Q19,U19,Y19)</f>
+        <v>9</v>
+      </c>
+      <c r="R39" s="14">
+        <f>Q39/Q$26</f>
+        <v>1.125</v>
+      </c>
+      <c r="T39" t="s">
+        <v>110</v>
+      </c>
+      <c r="U39" t="s">
+        <v>6</v>
+      </c>
+      <c r="V39" s="14">
+        <f>R$37</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P40" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <f>SUM(Q20,U20,Y20)</f>
+        <v>13</v>
+      </c>
+      <c r="R40" s="14">
+        <f>Q40/Q$26</f>
+        <v>1.625</v>
+      </c>
+      <c r="T40" t="s">
+        <v>111</v>
+      </c>
+      <c r="U40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" s="14">
+        <f>R$30</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P41" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <f>SUM(Q21,U21,Y21)</f>
+        <v>14</v>
+      </c>
+      <c r="R41" s="14">
+        <f>Q41/Q$26</f>
+        <v>1.75</v>
+      </c>
+      <c r="T41" t="s">
+        <v>112</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" s="14">
+        <f>R$42</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <f>SUM(Q22,U22,Y22)</f>
+        <v>2</v>
+      </c>
+      <c r="R42" s="14">
+        <f>Q42/Q$26</f>
+        <v>0.25</v>
+      </c>
+      <c r="T42" t="s">
+        <v>113</v>
+      </c>
+      <c r="U42" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" s="14">
+        <f>R$43</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f>SUM(Q23,U23,Y23)</f>
+        <v>2</v>
+      </c>
+      <c r="R43" s="14">
+        <f>Q43/Q$26</f>
+        <v>0.25</v>
+      </c>
+      <c r="T43" t="s">
+        <v>114</v>
+      </c>
+      <c r="U43" t="s">
+        <v>15</v>
+      </c>
+      <c r="V43" s="14">
+        <f>R$32</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="44" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="P44" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q44">
+        <f>SUM(Q24,U24,Y24)</f>
+        <v>1</v>
+      </c>
+      <c r="R44" s="14">
+        <f>Q44/Q$26</f>
+        <v>0.125</v>
+      </c>
+      <c r="T44" t="s">
+        <v>115</v>
+      </c>
+      <c r="U44" t="s">
+        <v>61</v>
+      </c>
+      <c r="V44" s="14">
+        <f>R$44</f>
+        <v>0.125</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:V44">
+    <sortCondition descending="1" ref="V37:V44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6366,8 +6814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7580,24 +8028,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7610,7 +8058,7 @@
   <dimension ref="A2:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8849,24 +9297,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8878,7 +9326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -10036,24 +10486,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492726AB-2615-4B8B-A00F-DEBB48909A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E200FD0-EE9B-4C47-ABCC-CD49B4AAF76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="2" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -567,11 +567,6 @@
   <dxfs count="20">
     <dxf>
       <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -752,6 +747,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1700,14 +1700,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:V44" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:V44" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="U27:V44" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:V44">
     <sortCondition descending="1" ref="V27:V44"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{04F740DB-8979-4EB0-8BB1-150B560FA6CB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5491,8 +5491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6411,11 +6411,11 @@
         <v>18</v>
       </c>
       <c r="Q28">
-        <f>SUM(Q8,U8,Y8)</f>
+        <f t="shared" ref="Q28:Q44" si="8">SUM(Q8,U8,Y8)</f>
         <v>14</v>
       </c>
       <c r="R28" s="14">
-        <f>Q28/Q$26</f>
+        <f t="shared" ref="R28:R44" si="9">Q28/Q$26</f>
         <v>1.75</v>
       </c>
       <c r="T28" t="s">
@@ -6434,11 +6434,11 @@
         <v>19</v>
       </c>
       <c r="Q29">
-        <f>SUM(Q9,U9,Y9)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R29" s="14">
-        <f>Q29/Q$26</f>
+        <f t="shared" si="9"/>
         <v>1.125</v>
       </c>
       <c r="T29" t="s">
@@ -6457,11 +6457,11 @@
         <v>13</v>
       </c>
       <c r="Q30">
-        <f>SUM(Q10,U10,Y10)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R30" s="14">
-        <f>Q30/Q$26</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="T30" t="s">
@@ -6480,11 +6480,11 @@
         <v>16</v>
       </c>
       <c r="Q31">
-        <f>SUM(Q11,U11,Y11)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R31" s="14">
-        <f>Q31/Q$26</f>
+        <f t="shared" si="9"/>
         <v>0.375</v>
       </c>
       <c r="T31" t="s">
@@ -6503,11 +6503,11 @@
         <v>15</v>
       </c>
       <c r="Q32">
-        <f>SUM(Q12,U12,Y12)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R32" s="14">
-        <f>Q32/Q$26</f>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="T32" t="s">
@@ -6526,11 +6526,11 @@
         <v>12</v>
       </c>
       <c r="Q33">
-        <f>SUM(Q13,U13,Y13)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="R33" s="14">
-        <f>Q33/Q$26</f>
+        <f t="shared" si="9"/>
         <v>1.75</v>
       </c>
       <c r="T33" t="s">
@@ -6549,11 +6549,11 @@
         <v>9</v>
       </c>
       <c r="Q34">
-        <f>SUM(Q14,U14,Y14)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="R34" s="14">
-        <f>Q34/Q$26</f>
+        <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
       <c r="T34" t="s">
@@ -6572,11 +6572,11 @@
         <v>8</v>
       </c>
       <c r="Q35">
-        <f>SUM(Q15,U15,Y15)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="R35" s="14">
-        <f>Q35/Q$26</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T35" t="s">
@@ -6595,11 +6595,11 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <f>SUM(Q16,U16,Y16)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R36" s="14">
-        <f>Q36/Q$26</f>
+        <f t="shared" si="9"/>
         <v>0.375</v>
       </c>
       <c r="T36" t="s">
@@ -6618,11 +6618,11 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <f>SUM(Q17,U17,Y17)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R37" s="14">
-        <f>Q37/Q$26</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="T37" t="s">
@@ -6641,11 +6641,11 @@
         <v>5</v>
       </c>
       <c r="Q38">
-        <f>SUM(Q18,U18,Y18)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="R38" s="14">
-        <f>Q38/Q$26</f>
+        <f t="shared" si="9"/>
         <v>0.375</v>
       </c>
       <c r="T38" t="s">
@@ -6664,11 +6664,11 @@
         <v>4</v>
       </c>
       <c r="Q39">
-        <f>SUM(Q19,U19,Y19)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R39" s="14">
-        <f>Q39/Q$26</f>
+        <f t="shared" si="9"/>
         <v>1.125</v>
       </c>
       <c r="T39" t="s">
@@ -6687,11 +6687,11 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <f>SUM(Q20,U20,Y20)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="R40" s="14">
-        <f>Q40/Q$26</f>
+        <f t="shared" si="9"/>
         <v>1.625</v>
       </c>
       <c r="T40" t="s">
@@ -6710,11 +6710,11 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <f>SUM(Q21,U21,Y21)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="R41" s="14">
-        <f>Q41/Q$26</f>
+        <f t="shared" si="9"/>
         <v>1.75</v>
       </c>
       <c r="T41" t="s">
@@ -6733,11 +6733,11 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <f>SUM(Q22,U22,Y22)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R42" s="14">
-        <f>Q42/Q$26</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="T42" t="s">
@@ -6756,11 +6756,11 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f>SUM(Q23,U23,Y23)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R43" s="14">
-        <f>Q43/Q$26</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="T43" t="s">
@@ -6779,11 +6779,11 @@
         <v>61</v>
       </c>
       <c r="Q44">
-        <f>SUM(Q24,U24,Y24)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R44" s="14">
-        <f>Q44/Q$26</f>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="T44" t="s">
@@ -6814,8 +6814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8028,24 +8028,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8058,7 +8058,7 @@
   <dimension ref="A2:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9297,24 +9297,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9327,7 +9327,7 @@
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10486,24 +10486,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10515,7 +10515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E200FD0-EE9B-4C47-ABCC-CD49B4AAF76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D9A19C-2189-4922-9EEB-62ED0B4A5940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="2" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="125">
   <si>
     <t>SamJ</t>
   </si>
@@ -318,12 +318,6 @@
     <t>How to find stuff:</t>
   </si>
   <si>
-    <t>Averages: Go to statistics page, and at the bottom of the 'points section'</t>
-  </si>
-  <si>
-    <t>Head-Head records: Go to statistics page, and navigate to the highlighted area for the team</t>
-  </si>
-  <si>
     <t>A/K/SJ</t>
   </si>
   <si>
@@ -461,6 +455,33 @@
   <si>
     <t>Placing</t>
   </si>
+  <si>
+    <t>Averages: Go to statistics global page, and at the bottom of the 'points section'</t>
+  </si>
+  <si>
+    <t>Head-Head records: Go to statistics page for the team, and navigate to the highlighted areas</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This page's averages do not take inactive days into account. </t>
+  </si>
+  <si>
+    <t>For example, Chris is marked as playing 5 days that he did not play, the reason why he's averaging only 0.13 (in reality, he's averaging 0.75 points)</t>
+  </si>
+  <si>
+    <t>the reason why he's averaging only 0.13 (in reality, he's averaging 0.75 points)</t>
+  </si>
+  <si>
+    <t>Blue: Loose Gooses</t>
+  </si>
+  <si>
+    <t>Red: Wet Willies</t>
+  </si>
+  <si>
+    <t>Yellow: 5 Musketeers</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +549,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -542,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -559,6 +598,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,6 +800,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2012,7 +2062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA351E8-3909-4B95-AAA6-21AB89246F7A}">
   <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2048,12 +2100,12 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5489,10 +5541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
-  <dimension ref="B2:Z44"/>
+  <dimension ref="B2:Z48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39:V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5504,7 +5556,7 @@
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.45">
@@ -5512,19 +5564,19 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.45">
@@ -5549,31 +5601,31 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
         <v>84</v>
       </c>
-      <c r="K5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" t="s">
-        <v>86</v>
-      </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="X5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -5660,7 +5712,7 @@
         <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>28</v>
@@ -5669,7 +5721,7 @@
         <v>27</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>28</v>
@@ -5678,7 +5730,7 @@
         <v>27</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.45">
@@ -6394,16 +6446,19 @@
         <v>27</v>
       </c>
       <c r="R27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="X27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="16:26" x14ac:dyDescent="0.45">
@@ -6419,14 +6474,17 @@
         <v>1.75</v>
       </c>
       <c r="T28" t="s">
-        <v>99</v>
-      </c>
-      <c r="U28" t="s">
+        <v>97</v>
+      </c>
+      <c r="U28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="17">
         <f>R$34</f>
         <v>2.25</v>
+      </c>
+      <c r="X28" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="16:26" x14ac:dyDescent="0.45">
@@ -6442,14 +6500,17 @@
         <v>1.125</v>
       </c>
       <c r="T29" t="s">
-        <v>100</v>
-      </c>
-      <c r="U29" t="s">
+        <v>98</v>
+      </c>
+      <c r="U29" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="19">
         <f>$R$28</f>
         <v>1.75</v>
+      </c>
+      <c r="X29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="16:26" x14ac:dyDescent="0.45">
@@ -6465,14 +6526,17 @@
         <v>0.25</v>
       </c>
       <c r="T30" t="s">
-        <v>101</v>
-      </c>
-      <c r="U30" t="s">
+        <v>99</v>
+      </c>
+      <c r="U30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V30" s="17">
         <f>R$33</f>
         <v>1.75</v>
+      </c>
+      <c r="X30" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="16:26" x14ac:dyDescent="0.45">
@@ -6488,12 +6552,12 @@
         <v>0.375</v>
       </c>
       <c r="T31" t="s">
-        <v>102</v>
-      </c>
-      <c r="U31" t="s">
-        <v>2</v>
-      </c>
-      <c r="V31" s="14">
+        <v>100</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="19">
         <f>R$41</f>
         <v>1.75</v>
       </c>
@@ -6511,12 +6575,12 @@
         <v>0.125</v>
       </c>
       <c r="T32" t="s">
-        <v>103</v>
-      </c>
-      <c r="U32" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="14">
+        <v>101</v>
+      </c>
+      <c r="U32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="21">
         <f>R$40</f>
         <v>1.625</v>
       </c>
@@ -6534,12 +6598,12 @@
         <v>1.75</v>
       </c>
       <c r="T33" t="s">
-        <v>104</v>
-      </c>
-      <c r="U33" t="s">
+        <v>102</v>
+      </c>
+      <c r="U33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="21">
         <f>$R$29</f>
         <v>1.125</v>
       </c>
@@ -6557,12 +6621,12 @@
         <v>2.25</v>
       </c>
       <c r="T34" t="s">
-        <v>105</v>
-      </c>
-      <c r="U34" t="s">
+        <v>103</v>
+      </c>
+      <c r="U34" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V34" s="21">
         <f>R$39</f>
         <v>1.125</v>
       </c>
@@ -6580,12 +6644,12 @@
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>106</v>
-      </c>
-      <c r="U35" t="s">
+        <v>104</v>
+      </c>
+      <c r="U35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="17">
         <f>R$35</f>
         <v>1</v>
       </c>
@@ -6603,12 +6667,12 @@
         <v>0.375</v>
       </c>
       <c r="T36" t="s">
-        <v>107</v>
-      </c>
-      <c r="U36" t="s">
+        <v>105</v>
+      </c>
+      <c r="U36" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V36" s="19">
         <f>R$31</f>
         <v>0.375</v>
       </c>
@@ -6626,12 +6690,12 @@
         <v>0.25</v>
       </c>
       <c r="T37" t="s">
-        <v>108</v>
-      </c>
-      <c r="U37" t="s">
+        <v>106</v>
+      </c>
+      <c r="U37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="17">
         <f>R$36</f>
         <v>0.375</v>
       </c>
@@ -6649,12 +6713,12 @@
         <v>0.375</v>
       </c>
       <c r="T38" t="s">
-        <v>109</v>
-      </c>
-      <c r="U38" t="s">
+        <v>107</v>
+      </c>
+      <c r="U38" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V38" s="21">
         <f>R$38</f>
         <v>0.375</v>
       </c>
@@ -6672,12 +6736,12 @@
         <v>1.125</v>
       </c>
       <c r="T39" t="s">
-        <v>110</v>
-      </c>
-      <c r="U39" t="s">
+        <v>108</v>
+      </c>
+      <c r="U39" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="17">
         <f>R$37</f>
         <v>0.25</v>
       </c>
@@ -6695,12 +6759,12 @@
         <v>1.625</v>
       </c>
       <c r="T40" t="s">
-        <v>111</v>
-      </c>
-      <c r="U40" t="s">
+        <v>109</v>
+      </c>
+      <c r="U40" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V40" s="17">
         <f>R$30</f>
         <v>0.25</v>
       </c>
@@ -6718,12 +6782,12 @@
         <v>1.75</v>
       </c>
       <c r="T41" t="s">
-        <v>112</v>
-      </c>
-      <c r="U41" t="s">
-        <v>1</v>
-      </c>
-      <c r="V41" s="14">
+        <v>110</v>
+      </c>
+      <c r="U41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" s="21">
         <f>R$42</f>
         <v>0.25</v>
       </c>
@@ -6741,12 +6805,12 @@
         <v>0.25</v>
       </c>
       <c r="T42" t="s">
-        <v>113</v>
-      </c>
-      <c r="U42" t="s">
-        <v>0</v>
-      </c>
-      <c r="V42" s="14">
+        <v>111</v>
+      </c>
+      <c r="U42" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" s="19">
         <f>R$43</f>
         <v>0.25</v>
       </c>
@@ -6764,12 +6828,12 @@
         <v>0.25</v>
       </c>
       <c r="T43" t="s">
-        <v>114</v>
-      </c>
-      <c r="U43" t="s">
+        <v>112</v>
+      </c>
+      <c r="U43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V43" s="19">
         <f>R$32</f>
         <v>0.125</v>
       </c>
@@ -6787,14 +6851,29 @@
         <v>0.125</v>
       </c>
       <c r="T44" t="s">
-        <v>115</v>
-      </c>
-      <c r="U44" t="s">
+        <v>113</v>
+      </c>
+      <c r="U44" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V44" s="19">
         <f>R$44</f>
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="U46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="U47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="U48" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6814,7 +6893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
@@ -7110,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" s="11">
         <f>SUM(B4:B7)/(SUM(B4:B7)+SUM(C4:C7))</f>
@@ -7199,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H7" s="11">
         <f>SUM(B8:B10)/(SUM(B8:B10)+SUM(C8:C10))</f>
@@ -7288,7 +7367,7 @@
         <v>1.5</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
@@ -7380,7 +7459,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9">
@@ -7442,7 +7521,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AF9" s="5" t="s">
         <v>65</v>
@@ -7466,7 +7545,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10">
@@ -7517,10 +7596,10 @@
         <v>3</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AC10" s="5">
         <f>COUNTIF('1602'!$S$4:$S$30, "LG/5M")</f>
@@ -7555,7 +7634,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H11" s="11"/>
       <c r="J11">
@@ -7609,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>45</v>
@@ -7623,15 +7702,15 @@
         <v>2</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H12" s="11"/>
       <c r="Q12" s="5"/>
@@ -7651,7 +7730,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
@@ -8365,7 +8444,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" s="11">
         <f>SUM(B4:B7)/(SUM(B4:B7)+SUM(C4:C7))</f>
@@ -8460,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H7" s="11">
         <f>SUM(B8:B10)/(SUM(B8:B10)+SUM(C8:C10))</f>
@@ -8555,7 +8634,7 @@
         <v>1.5</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
@@ -8650,7 +8729,7 @@
         <v>1.5</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9">
@@ -8721,7 +8800,7 @@
         <v>9</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.45">
@@ -8742,7 +8821,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10">
@@ -8796,10 +8875,10 @@
         <v>2</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC10" s="5">
         <f>COUNTIF('1602'!$T$4:$T$30, "WW/5M")</f>
@@ -8810,7 +8889,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF10" s="5" t="s">
         <v>4</v>
@@ -8834,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H11" s="11"/>
       <c r="K11">
@@ -8882,7 +8961,7 @@
         <v>45</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC11" s="5">
         <f>COUNTIF('2002'!$T$4:$T$30, "WW/5M")</f>
@@ -8896,12 +8975,12 @@
         <v>45</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H12" s="11"/>
       <c r="Q12" s="5"/>
@@ -8921,7 +9000,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
@@ -9614,7 +9693,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6" s="11">
         <f>SUM(B4:B7)/(SUM(B4:B7)+SUM(C4:C7))</f>
@@ -9702,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H7" s="11">
         <f>SUM(B8:B10)/(SUM(B8:B10)+SUM(C8:C10))</f>
@@ -9790,7 +9869,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
@@ -9878,7 +9957,7 @@
         <v>1.5</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" s="11"/>
       <c r="J9">
@@ -9925,7 +10004,7 @@
         <v>2</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>9</v>
@@ -9942,7 +10021,7 @@
         <v>65</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
@@ -9963,7 +10042,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="11"/>
       <c r="J10">
@@ -10013,7 +10092,7 @@
         <v>4</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA10" s="5">
         <f>COUNTIF('1602'!$U$4:$U$30, "5M/LG")</f>
@@ -10048,7 +10127,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H11" s="11"/>
       <c r="J11">
@@ -10095,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y11" s="5" t="s">
         <v>45</v>
@@ -10109,15 +10188,15 @@
         <v>2</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="G12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H12" s="11"/>
       <c r="P12" s="5"/>
@@ -10136,7 +10215,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D9A19C-2189-4922-9EEB-62ED0B4A5940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCF051-C6B8-400B-8C18-6A9124E757EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="13" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="1402" sheetId="10" r:id="rId11"/>
     <sheet name="1602" sheetId="12" r:id="rId12"/>
     <sheet name="2002" sheetId="13" r:id="rId13"/>
+    <sheet name="2102" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="127">
   <si>
     <t>SamJ</t>
   </si>
@@ -481,6 +482,12 @@
   </si>
   <si>
     <t>Yellow: 5 Musketeers</t>
+  </si>
+  <si>
+    <t>M/S/C</t>
+  </si>
+  <si>
+    <t>S/M/C</t>
   </si>
 </sst>
 </file>
@@ -1038,13 +1045,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.48739495798319327</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32773109243697479</c:v>
+                  <c:v>0.32575757575757575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18487394957983194</c:v>
+                  <c:v>0.17424242424242423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4738,6 +4745,812 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44977</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3434CE69-172D-4CCF-AC21-B95699B7F246}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q19"/>
     </sheetView>
   </sheetViews>
@@ -4753,7 +5566,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="3">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -4801,26 +5614,26 @@
       </c>
       <c r="J3">
         <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.7142857142857143</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M3">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
       </c>
       <c r="Q3">
         <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>21</v>
@@ -4856,7 +5669,7 @@
       </c>
       <c r="J4">
         <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
@@ -4864,18 +5677,18 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="M4">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" t="str">
         <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
@@ -4895,16 +5708,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4914,15 +5727,15 @@
       </c>
       <c r="J5">
         <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M5">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
@@ -4937,7 +5750,7 @@
       </c>
       <c r="S5" t="str">
         <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
@@ -4945,7 +5758,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.45">
@@ -4953,19 +5766,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>16</v>
@@ -4976,11 +5789,11 @@
       </c>
       <c r="S6" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
@@ -4995,16 +5808,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
@@ -5015,7 +5828,7 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>LG/WW</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
@@ -5031,23 +5844,23 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
@@ -5058,7 +5871,7 @@
       </c>
       <c r="S8" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
@@ -5066,7 +5879,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.45">
@@ -5077,20 +5890,20 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" t="s">
         <v>9</v>
@@ -5109,7 +5922,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
@@ -5120,16 +5933,16 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
@@ -5152,7 +5965,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.45">
@@ -5163,23 +5976,23 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="2"/>
@@ -5191,7 +6004,7 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
@@ -5202,16 +6015,16 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12" t="s">
         <v>6</v>
@@ -5230,16 +6043,34 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
       <c r="P13" t="s">
         <v>5</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="2"/>
@@ -5251,20 +6082,38 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
       <c r="P14" t="s">
         <v>4</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
@@ -5276,16 +6125,34 @@
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
       <c r="P15" t="s">
         <v>3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S15" t="str">
         <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T15" t="str">
         <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
@@ -5297,12 +6164,30 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="P16" t="s">
         <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" t="str">
         <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
@@ -5314,7 +6199,7 @@
       </c>
       <c r="U16" t="str">
         <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="17" spans="16:21" x14ac:dyDescent="0.45">
@@ -5344,7 +6229,7 @@
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="2"/>
@@ -5365,7 +6250,7 @@
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="2"/>
@@ -5543,8 +6428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39:V41"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5628,7 +6513,7 @@
         <v>96</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.45">
@@ -5654,19 +6539,19 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>14.875</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>7.25</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4.875</v>
+        <v>4.7777777777777777</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>2.5555555555555554</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.45">
@@ -5695,15 +6580,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.48739495798319327</v>
+        <v>0.5</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.32773109243697479</v>
+        <v>0.32575757575757575</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.18487394957983194</v>
+        <v>0.17424242424242423</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -5780,12 +6665,12 @@
         <v>18</v>
       </c>
       <c r="Y8">
-        <f>('2002'!$Q3)</f>
-        <v>2</v>
+        <f>('2002'!$Q3)+('2102'!$Q3)</f>
+        <v>5</v>
       </c>
       <c r="Z8" s="14">
         <f>Y8/Y$5</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.45">
@@ -5835,12 +6720,12 @@
         <v>19</v>
       </c>
       <c r="Y9">
-        <f>('2002'!$Q4)</f>
-        <v>0</v>
+        <f>('2002'!$Q4)+('2102'!$Q4)</f>
+        <v>2</v>
       </c>
       <c r="Z9" s="14">
         <f t="shared" ref="Z9:Z24" si="5">Y9/Y$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.45">
@@ -5890,7 +6775,7 @@
         <v>13</v>
       </c>
       <c r="Y10">
-        <f>('2002'!$Q5)</f>
+        <f>('2002'!$Q5)+('2102'!$Q5)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="14">
@@ -5945,7 +6830,7 @@
         <v>16</v>
       </c>
       <c r="Y11">
-        <f>('2002'!$Q6)</f>
+        <f>('2002'!$Q6)+('2102'!$Q6)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="14">
@@ -6000,7 +6885,7 @@
         <v>15</v>
       </c>
       <c r="Y12">
-        <f>('2002'!$Q7)</f>
+        <f>('2002'!$Q7)+('2102'!$Q7)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="14">
@@ -6009,6 +6894,26 @@
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B13" s="3">
+        <f>'2102'!$C$2</f>
+        <v>44978</v>
+      </c>
+      <c r="C13">
+        <f>SUM('2102'!$J$3:$J$5)</f>
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <f>MAX('2102'!$J$3:$J$5)</f>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13" si="8">C13-D13-F13</f>
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f>MIN('2102'!$J$3:$J$5)</f>
+        <v>1</v>
+      </c>
       <c r="P13" t="s">
         <v>12</v>
       </c>
@@ -6035,7 +6940,7 @@
         <v>12</v>
       </c>
       <c r="Y13">
-        <f>('2002'!$Q8)</f>
+        <f>('2002'!$Q8)+('2102'!$Q8)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="14">
@@ -6070,7 +6975,7 @@
         <v>9</v>
       </c>
       <c r="Y14">
-        <f>('2002'!$Q9)</f>
+        <f>('2002'!$Q9)+('2102'!$Q9)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="14">
@@ -6105,7 +7010,7 @@
         <v>8</v>
       </c>
       <c r="Y15">
-        <f>('2002'!$Q10)</f>
+        <f>('2002'!$Q10)+('2102'!$Q10)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="14">
@@ -6140,12 +7045,12 @@
         <v>7</v>
       </c>
       <c r="Y16">
-        <f>('2002'!$Q11)</f>
-        <v>0</v>
+        <f>('2002'!$Q11)+('2102'!$Q11)</f>
+        <v>1</v>
       </c>
       <c r="Z16" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="16:26" x14ac:dyDescent="0.45">
@@ -6175,7 +7080,7 @@
         <v>6</v>
       </c>
       <c r="Y17">
-        <f>('2002'!$Q12)</f>
+        <f>('2002'!$Q12)+('2102'!$Q12)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="14">
@@ -6210,12 +7115,12 @@
         <v>5</v>
       </c>
       <c r="Y18">
-        <f>('2002'!$Q13)</f>
+        <f>('2002'!$Q13)+('2102'!$Q13)</f>
         <v>1</v>
       </c>
       <c r="Z18" s="14">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="16:26" x14ac:dyDescent="0.45">
@@ -6245,12 +7150,12 @@
         <v>4</v>
       </c>
       <c r="Y19">
-        <f>('2002'!$Q14)</f>
-        <v>1</v>
+        <f>('2002'!$Q14)+('2102'!$Q14)</f>
+        <v>3</v>
       </c>
       <c r="Z19" s="14">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="16:26" x14ac:dyDescent="0.45">
@@ -6280,12 +7185,12 @@
         <v>3</v>
       </c>
       <c r="Y20">
-        <f>('2002'!$Q15)</f>
-        <v>1</v>
+        <f>('2002'!$Q15)+('2102'!$Q15)</f>
+        <v>4</v>
       </c>
       <c r="Z20" s="14">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="16:26" x14ac:dyDescent="0.45">
@@ -6315,12 +7220,12 @@
         <v>2</v>
       </c>
       <c r="Y21">
-        <f>('2002'!$Q16)</f>
+        <f>('2002'!$Q16)+('2102'!$Q16)</f>
         <v>2</v>
       </c>
       <c r="Z21" s="14">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="16:26" x14ac:dyDescent="0.45">
@@ -6350,8 +7255,8 @@
         <v>1</v>
       </c>
       <c r="Y22">
-        <f>('2002'!$Q17)</f>
-        <v>1</v>
+        <f>('2002'!$Q17)+('2102'!$Q17)</f>
+        <v>2</v>
       </c>
       <c r="Z22" s="14">
         <f t="shared" si="5"/>
@@ -6385,12 +7290,12 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <f>('2002'!$Q18)</f>
-        <v>0</v>
+        <f>('2002'!$Q18)+('2102'!$Q18)</f>
+        <v>1</v>
       </c>
       <c r="Z23" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="16:26" x14ac:dyDescent="0.45">
@@ -6420,12 +7325,12 @@
         <v>61</v>
       </c>
       <c r="Y24">
-        <f>('2002'!$Q19)</f>
+        <f>('2002'!$Q19)+('2102'!$Q19)</f>
         <v>1</v>
       </c>
       <c r="Z24" s="14">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="16:26" x14ac:dyDescent="0.45">
@@ -6434,7 +7339,7 @@
       </c>
       <c r="Q26">
         <f>SUM(Q5,U5,Y5)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T26" s="2"/>
     </row>
@@ -6466,12 +7371,12 @@
         <v>18</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q44" si="8">SUM(Q8,U8,Y8)</f>
-        <v>14</v>
+        <f t="shared" ref="Q28:Q44" si="9">SUM(Q8,U8,Y8)</f>
+        <v>17</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28:R44" si="9">Q28/Q$26</f>
-        <v>1.75</v>
+        <f t="shared" ref="R28:R44" si="10">Q28/Q$26</f>
+        <v>1.8888888888888888</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
@@ -6481,7 +7386,7 @@
       </c>
       <c r="V28" s="17">
         <f>R$34</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X28" t="s">
         <v>119</v>
@@ -6492,12 +7397,12 @@
         <v>19</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="9"/>
-        <v>1.125</v>
+        <f t="shared" si="10"/>
+        <v>1.2222222222222223</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
@@ -6507,7 +7412,7 @@
       </c>
       <c r="V29" s="19">
         <f>$R$28</f>
-        <v>1.75</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="X29" t="s">
         <v>120</v>
@@ -6518,22 +7423,22 @@
         <v>13</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
+        <f t="shared" si="10"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
       </c>
-      <c r="U30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="V30" s="17">
-        <f>R$33</f>
-        <v>1.75</v>
+      <c r="U30" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V30" s="21">
+        <f>R$40</f>
+        <v>1.7777777777777777</v>
       </c>
       <c r="X30" t="s">
         <v>121</v>
@@ -6544,22 +7449,22 @@
         <v>16</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="9"/>
-        <v>0.375</v>
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
       </c>
-      <c r="U31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V31" s="19">
-        <f>R$41</f>
-        <v>1.75</v>
+      <c r="U31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" s="17">
+        <f>R$33</f>
+        <v>1.5555555555555556</v>
       </c>
     </row>
     <row r="32" spans="16:26" x14ac:dyDescent="0.45">
@@ -6567,22 +7472,22 @@
         <v>15</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="9"/>
-        <v>0.125</v>
+        <f t="shared" si="10"/>
+        <v>0.1111111111111111</v>
       </c>
       <c r="T32" t="s">
         <v>101</v>
       </c>
-      <c r="U32" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="21">
-        <f>R$40</f>
-        <v>1.625</v>
+      <c r="U32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="19">
+        <f>R$41</f>
+        <v>1.5555555555555556</v>
       </c>
     </row>
     <row r="33" spans="16:22" x14ac:dyDescent="0.45">
@@ -6590,12 +7495,12 @@
         <v>12</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="9"/>
-        <v>1.75</v>
+        <f t="shared" si="10"/>
+        <v>1.5555555555555556</v>
       </c>
       <c r="T33" t="s">
         <v>102</v>
@@ -6605,7 +7510,7 @@
       </c>
       <c r="V33" s="21">
         <f>$R$29</f>
-        <v>1.125</v>
+        <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="34" spans="16:22" x14ac:dyDescent="0.45">
@@ -6613,12 +7518,12 @@
         <v>9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="9"/>
-        <v>2.25</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
@@ -6628,7 +7533,7 @@
       </c>
       <c r="V34" s="21">
         <f>R$39</f>
-        <v>1.125</v>
+        <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="35" spans="16:22" x14ac:dyDescent="0.45">
@@ -6636,12 +7541,12 @@
         <v>8</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.88888888888888884</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
@@ -6651,7 +7556,7 @@
       </c>
       <c r="V35" s="17">
         <f>R$35</f>
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="36" spans="16:22" x14ac:dyDescent="0.45">
@@ -6659,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="9"/>
-        <v>0.375</v>
+        <f t="shared" si="10"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
       </c>
-      <c r="U36" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="V36" s="19">
-        <f>R$31</f>
-        <v>0.375</v>
+      <c r="U36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="17">
+        <f>R$36</f>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="37" spans="16:22" x14ac:dyDescent="0.45">
@@ -6682,22 +7587,22 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
+        <f t="shared" si="10"/>
+        <v>0.22222222222222221</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
       </c>
-      <c r="U37" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="V37" s="17">
-        <f>R$36</f>
-        <v>0.375</v>
+      <c r="U37" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V37" s="19">
+        <f>R$31</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="16:22" x14ac:dyDescent="0.45">
@@ -6705,12 +7610,12 @@
         <v>5</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="9"/>
-        <v>0.375</v>
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
@@ -6720,7 +7625,7 @@
       </c>
       <c r="V38" s="21">
         <f>R$38</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="16:22" x14ac:dyDescent="0.45">
@@ -6728,22 +7633,22 @@
         <v>4</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="9"/>
-        <v>1.125</v>
+        <f t="shared" si="10"/>
+        <v>1.2222222222222223</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
       </c>
-      <c r="U39" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="V39" s="17">
-        <f>R$37</f>
-        <v>0.25</v>
+      <c r="U39" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="21">
+        <f>R$42</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="40" spans="16:22" x14ac:dyDescent="0.45">
@@ -6751,22 +7656,22 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="9"/>
-        <v>1.625</v>
+        <f t="shared" si="10"/>
+        <v>1.7777777777777777</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="V40" s="17">
-        <f>R$30</f>
-        <v>0.25</v>
+      <c r="U40" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" s="19">
+        <f>R$43</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="41" spans="16:22" x14ac:dyDescent="0.45">
@@ -6774,22 +7679,22 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="9"/>
-        <v>1.75</v>
+        <f t="shared" si="10"/>
+        <v>1.5555555555555556</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
       </c>
-      <c r="U41" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="V41" s="21">
-        <f>R$42</f>
-        <v>0.25</v>
+      <c r="U41" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" s="17">
+        <f>R$37</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="42" spans="16:22" x14ac:dyDescent="0.45">
@@ -6797,22 +7702,22 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T42" t="s">
         <v>111</v>
       </c>
-      <c r="U42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="V42" s="19">
-        <f>R$43</f>
-        <v>0.25</v>
+      <c r="U42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V42" s="17">
+        <f>R$30</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="43" spans="16:22" x14ac:dyDescent="0.45">
@@ -6820,12 +7725,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T43" t="s">
         <v>112</v>
@@ -6835,7 +7740,7 @@
       </c>
       <c r="V43" s="19">
         <f>R$32</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="44" spans="16:22" x14ac:dyDescent="0.45">
@@ -6843,12 +7748,12 @@
         <v>61</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="9"/>
-        <v>0.125</v>
+        <f t="shared" si="10"/>
+        <v>0.1111111111111111</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
@@ -6858,7 +7763,7 @@
       </c>
       <c r="V44" s="19">
         <f>R$44</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="46" spans="16:22" x14ac:dyDescent="0.45">
@@ -7018,15 +7923,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -7371,7 +8276,7 @@
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
-        <v>0.7142857142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="J8">
         <f>'1302'!$Q$3</f>
@@ -7709,24 +8614,96 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <f>'2102'!$C$2</f>
+        <v>44978</v>
+      </c>
+      <c r="B12" s="4">
+        <f>'2102'!$J$3</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <f>'2102'!$K$3</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <f>'2102'!$M$3</f>
+        <v>2</v>
+      </c>
       <c r="G12" t="s">
         <v>78</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
+      <c r="J12">
+        <f>'2102'!$Q$3</f>
+        <v>3</v>
+      </c>
+      <c r="K12" s="9">
+        <f>'2102'!$Q$16</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>'2102'!$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>'2102'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>'2102'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>'2102'!Q20</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="5">
+        <f>COUNTIF('2102'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="5">
+        <f>COUNTIF('2102'!$T$4:$T$30, "WW/LG")</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC12" s="5">
+        <f>COUNTIF('2102'!$S$4:$S$30, "LG/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="5">
+        <f>COUNTIF('2102'!$U$4:$U$30, "5M/LG")</f>
+        <v>5</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
@@ -7734,7 +8711,7 @@
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
-        <v>0.50232288037166084</v>
+        <v>0.45172764227642276</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -8019,7 +8996,7 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
@@ -8029,11 +9006,11 @@
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -8044,7 +9021,7 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
@@ -8052,7 +9029,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -8068,11 +9045,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.34146341463414637</v>
+        <v>0.38636363636363635</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.48571428571428571</v>
+        <v>0.43902439024390244</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -8081,27 +9058,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.75</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -8261,15 +9238,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -8638,7 +9615,7 @@
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J8">
         <f>'1302'!$Q$8</f>
@@ -8979,24 +9956,96 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <f>'2102'!$C$2</f>
+        <v>44978</v>
+      </c>
+      <c r="B12" s="7">
+        <f>'2102'!$J$5</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <f>'2102'!$K$5</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <f>'2102'!$M$5</f>
+        <v>1</v>
+      </c>
       <c r="G12" t="s">
         <v>78</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
+      <c r="J12">
+        <f>'2102'!$Q$8</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>'2102'!$Q$9</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>'2102'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>'2102'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>'2102'!$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>'2102'!$Q$11</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="5">
+        <f>COUNTIF('2102'!$T$4:$T$30, "WW/LG")</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <f>COUNTIF('2102'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="5">
+        <f>COUNTIF('2102'!$T$4:$T$30, "WW/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="5">
+        <f>COUNTIF('2102'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
@@ -9004,7 +10053,7 @@
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
-        <v>0.37891737891737892</v>
+        <v>0.40669515669515666</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -9293,17 +10342,17 @@
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -9334,15 +10383,15 @@
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.65853658536585369</v>
+        <v>0.61363636363636365</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.48837209302325579</v>
+        <v>0.46808510638297873</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -9351,27 +10400,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
   </sheetData>
@@ -9524,15 +10573,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -9873,7 +10922,7 @@
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="J8">
         <f>'1302'!$Q$14</f>
@@ -10195,23 +11244,89 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <f>'2102'!$C$2</f>
+        <v>44978</v>
+      </c>
+      <c r="B12" s="4">
+        <f>'2102'!$J$4</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <f>'2102'!$K$4</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <f>'2102'!$M$4</f>
+        <v>3</v>
+      </c>
       <c r="G12" t="s">
         <v>78</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
+      <c r="J12">
+        <f>'2102'!$Q$14</f>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f>'2102'!$Q$15</f>
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <f>'2102'!$Q$4</f>
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f>'2102'!$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>'2102'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="5">
+        <f>COUNTIF('2102'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="W12" s="5">
+        <f>COUNTIF('2102'!$T$4:$T$30, "WW/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="5">
+        <f>COUNTIF('2102'!$U$4:$U$30, "5M/LG")</f>
+        <v>5</v>
+      </c>
+      <c r="AB12" s="5">
+        <f>COUNTIF('2102'!$S$4:$S$30, "LG/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
@@ -10219,7 +11334,7 @@
       </c>
       <c r="H13" s="12">
         <f>AVERAGE(H6:H12)</f>
-        <v>0.56296296296296289</v>
+        <v>0.59074074074074068</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -10486,21 +11601,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -10511,19 +11626,19 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <f>SUM(N7:N30)</f>
@@ -10531,11 +11646,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.51162790697674421</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.51428571428571423</v>
+        <v>0.56097560975609762</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -10544,23 +11659,23 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.125</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.625</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>1.2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCF051-C6B8-400B-8C18-6A9124E757EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7811783-9266-480A-AD24-2357C8F844FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="13" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="1602" sheetId="12" r:id="rId12"/>
     <sheet name="2002" sheetId="13" r:id="rId13"/>
     <sheet name="2102" sheetId="14" r:id="rId14"/>
+    <sheet name="2202" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="131">
   <si>
     <t>SamJ</t>
   </si>
@@ -489,6 +490,18 @@
   <si>
     <t>S/M/C</t>
   </si>
+  <si>
+    <t>M/K</t>
+  </si>
+  <si>
+    <t>R/A</t>
+  </si>
+  <si>
+    <t>M/SamM</t>
+  </si>
+  <si>
+    <t>L/M</t>
+  </si>
 </sst>
 </file>
 
@@ -588,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,6 +624,9 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,13 +1061,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4861111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32575757575757575</c:v>
+                  <c:v>0.3263888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17424242424242423</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5550,7 +5566,885 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3434CE69-172D-4CCF-AC21-B95699B7F246}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44978</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250C9138-29D9-42DD-A06B-2D9F115D45C0}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q19"/>
     </sheetView>
   </sheetViews>
@@ -5566,7 +6460,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="3">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -5618,14 +6512,13 @@
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
         <v>2</v>
       </c>
       <c r="P3" t="s">
@@ -5633,7 +6526,7 @@
       </c>
       <c r="Q3">
         <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>21</v>
@@ -5650,13 +6543,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5669,19 +6562,18 @@
       </c>
       <c r="J4">
         <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
@@ -5692,7 +6584,7 @@
       </c>
       <c r="S4" t="str">
         <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T4" t="str">
         <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
@@ -5700,7 +6592,7 @@
       </c>
       <c r="U4" t="str">
         <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.45">
@@ -5708,13 +6600,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5727,19 +6619,18 @@
       </c>
       <c r="J5">
         <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
@@ -5750,7 +6641,7 @@
       </c>
       <c r="S5" t="str">
         <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
@@ -5758,7 +6649,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.45">
@@ -5769,10 +6660,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5785,7 +6676,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="2"/>
@@ -5793,7 +6684,7 @@
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>WW/LG</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
@@ -5805,13 +6696,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5828,7 +6719,7 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
@@ -5836,7 +6727,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.45">
@@ -5850,24 +6741,24 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="2"/>
@@ -5887,30 +6778,30 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>9</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="2"/>
@@ -5918,11 +6809,11 @@
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
@@ -5930,19 +6821,19 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
@@ -5961,11 +6852,11 @@
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.45">
@@ -5973,26 +6864,26 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="2"/>
@@ -6000,11 +6891,11 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
@@ -6012,19 +6903,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
         <v>6</v>
@@ -6035,7 +6926,7 @@
       </c>
       <c r="S12" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
@@ -6043,7 +6934,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
@@ -6051,19 +6942,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13" t="s">
         <v>5</v>
@@ -6074,7 +6965,7 @@
       </c>
       <c r="S13" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="3"/>
@@ -6082,7 +6973,7 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
@@ -6093,27 +6984,27 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
         <v>4</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>LG/WW</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
@@ -6129,30 +7020,30 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
         <v>3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" t="str">
         <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T15" t="str">
         <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
@@ -6160,34 +7051,16 @@
       </c>
       <c r="U15" t="str">
         <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="P16" t="s">
         <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" t="str">
         <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
@@ -6199,7 +7072,7 @@
       </c>
       <c r="U16" t="str">
         <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="17" spans="16:21" x14ac:dyDescent="0.45">
@@ -6208,7 +7081,7 @@
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="str">
         <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
@@ -6229,7 +7102,7 @@
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="2"/>
@@ -6428,8 +7301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:Z48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6513,7 +7386,7 @@
         <v>96</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.45">
@@ -6539,19 +7412,19 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>14.666666666666666</v>
+        <v>14.4</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>7.333333333333333</v>
+        <v>7</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4.7777777777777777</v>
+        <v>4.7</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.5555555555555554</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.45">
@@ -6580,15 +7453,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.5</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.32575757575757575</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.17424242424242423</v>
+        <v>0.1875</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -6665,12 +7538,12 @@
         <v>18</v>
       </c>
       <c r="Y8">
-        <f>('2002'!$Q3)+('2102'!$Q3)</f>
-        <v>5</v>
+        <f>('2002'!$Q3)+('2102'!$Q3)+('2202'!$Q3)</f>
+        <v>6</v>
       </c>
       <c r="Z8" s="14">
         <f>Y8/Y$5</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.45">
@@ -6720,12 +7593,12 @@
         <v>19</v>
       </c>
       <c r="Y9">
-        <f>('2002'!$Q4)+('2102'!$Q4)</f>
-        <v>2</v>
+        <f>('2002'!$Q4)+('2102'!$Q4)+('2202'!$Q4)</f>
+        <v>4</v>
       </c>
       <c r="Z9" s="14">
         <f t="shared" ref="Z9:Z24" si="5">Y9/Y$5</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.45">
@@ -6775,7 +7648,7 @@
         <v>13</v>
       </c>
       <c r="Y10">
-        <f>('2002'!$Q5)+('2102'!$Q5)</f>
+        <f>('2002'!$Q5)+('2102'!$Q5)+('2202'!$Q5)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="14">
@@ -6830,12 +7703,12 @@
         <v>16</v>
       </c>
       <c r="Y11">
-        <f>('2002'!$Q6)+('2102'!$Q6)</f>
-        <v>0</v>
+        <f>('2002'!$Q6)+('2102'!$Q6)+('2202'!$Q6)</f>
+        <v>1</v>
       </c>
       <c r="Z11" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.45">
@@ -6885,7 +7758,7 @@
         <v>15</v>
       </c>
       <c r="Y12">
-        <f>('2002'!$Q7)+('2102'!$Q7)</f>
+        <f>('2002'!$Q7)+('2102'!$Q7)+('2202'!$Q7)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="14">
@@ -6940,15 +7813,35 @@
         <v>12</v>
       </c>
       <c r="Y13">
-        <f>('2002'!$Q8)+('2102'!$Q8)</f>
-        <v>0</v>
+        <f>('2002'!$Q8)+('2102'!$Q8)+('2202'!$Q8)</f>
+        <v>3</v>
       </c>
       <c r="Z13" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B14" s="3">
+        <f>'2202'!$C$2</f>
+        <v>44979</v>
+      </c>
+      <c r="C14">
+        <f>SUM('2202'!$J$3:$J$5)</f>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f>MAX('2202'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="9">C14-D14-F14</f>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f>MIN('2202'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
       <c r="P14" t="s">
         <v>9</v>
       </c>
@@ -6975,12 +7868,12 @@
         <v>9</v>
       </c>
       <c r="Y14">
-        <f>('2002'!$Q9)+('2102'!$Q9)</f>
-        <v>0</v>
+        <f>('2002'!$Q9)+('2102'!$Q9)+('2202'!$Q9)</f>
+        <v>1</v>
       </c>
       <c r="Z14" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.45">
@@ -7010,7 +7903,7 @@
         <v>8</v>
       </c>
       <c r="Y15">
-        <f>('2002'!$Q10)+('2102'!$Q10)</f>
+        <f>('2002'!$Q10)+('2102'!$Q10)+('2202'!$Q10)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="14">
@@ -7045,12 +7938,12 @@
         <v>7</v>
       </c>
       <c r="Y16">
-        <f>('2002'!$Q11)+('2102'!$Q11)</f>
+        <f>('2002'!$Q11)+('2102'!$Q11)+('2202'!$Q11)</f>
         <v>1</v>
       </c>
       <c r="Z16" s="14">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="17" spans="16:26" x14ac:dyDescent="0.45">
@@ -7080,7 +7973,7 @@
         <v>6</v>
       </c>
       <c r="Y17">
-        <f>('2002'!$Q12)+('2102'!$Q12)</f>
+        <f>('2002'!$Q12)+('2102'!$Q12)+('2202'!$Q12)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="14">
@@ -7115,12 +8008,12 @@
         <v>5</v>
       </c>
       <c r="Y18">
-        <f>('2002'!$Q13)+('2102'!$Q13)</f>
+        <f>('2002'!$Q13)+('2102'!$Q13)+('2202'!$Q13)</f>
         <v>1</v>
       </c>
       <c r="Z18" s="14">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="16:26" x14ac:dyDescent="0.45">
@@ -7150,12 +8043,12 @@
         <v>4</v>
       </c>
       <c r="Y19">
-        <f>('2002'!$Q14)+('2102'!$Q14)</f>
-        <v>3</v>
+        <f>('2002'!$Q14)+('2102'!$Q14)+('2202'!$Q14)</f>
+        <v>4</v>
       </c>
       <c r="Z19" s="14">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="20" spans="16:26" x14ac:dyDescent="0.45">
@@ -7185,12 +8078,12 @@
         <v>3</v>
       </c>
       <c r="Y20">
-        <f>('2002'!$Q15)+('2102'!$Q15)</f>
-        <v>4</v>
+        <f>('2002'!$Q15)+('2102'!$Q15)+('2202'!$Q15)</f>
+        <v>5</v>
       </c>
       <c r="Z20" s="14">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="21" spans="16:26" x14ac:dyDescent="0.45">
@@ -7220,12 +8113,12 @@
         <v>2</v>
       </c>
       <c r="Y21">
-        <f>('2002'!$Q16)+('2102'!$Q16)</f>
-        <v>2</v>
+        <f>('2002'!$Q16)+('2102'!$Q16)+('2202'!$Q16)</f>
+        <v>4</v>
       </c>
       <c r="Z21" s="14">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="22" spans="16:26" x14ac:dyDescent="0.45">
@@ -7255,12 +8148,12 @@
         <v>1</v>
       </c>
       <c r="Y22">
-        <f>('2002'!$Q17)+('2102'!$Q17)</f>
+        <f>('2002'!$Q17)+('2102'!$Q17)+('2202'!$Q17)</f>
         <v>2</v>
       </c>
       <c r="Z22" s="14">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="23" spans="16:26" x14ac:dyDescent="0.45">
@@ -7290,12 +8183,12 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <f>('2002'!$Q18)+('2102'!$Q18)</f>
+        <f>('2002'!$Q18)+('2102'!$Q18)+('2202'!$Q18)</f>
         <v>1</v>
       </c>
       <c r="Z23" s="14">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="24" spans="16:26" x14ac:dyDescent="0.45">
@@ -7325,12 +8218,12 @@
         <v>61</v>
       </c>
       <c r="Y24">
-        <f>('2002'!$Q19)+('2102'!$Q19)</f>
+        <f>('2002'!$Q19)+('2102'!$Q19)+('2202'!$Q19)</f>
         <v>1</v>
       </c>
       <c r="Z24" s="14">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="26" spans="16:26" x14ac:dyDescent="0.45">
@@ -7339,7 +8232,7 @@
       </c>
       <c r="Q26">
         <f>SUM(Q5,U5,Y5)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T26" s="2"/>
     </row>
@@ -7371,12 +8264,12 @@
         <v>18</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q44" si="9">SUM(Q8,U8,Y8)</f>
-        <v>17</v>
+        <f t="shared" ref="Q28:Q44" si="10">SUM(Q8,U8,Y8)</f>
+        <v>18</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28:R44" si="10">Q28/Q$26</f>
-        <v>1.8888888888888888</v>
+        <f t="shared" ref="R28:R44" si="11">Q28/Q$26</f>
+        <v>1.8</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
@@ -7386,7 +8279,7 @@
       </c>
       <c r="V28" s="17">
         <f>R$34</f>
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X28" t="s">
         <v>119</v>
@@ -7397,12 +8290,12 @@
         <v>19</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="10"/>
-        <v>1.2222222222222223</v>
+        <f t="shared" si="11"/>
+        <v>1.3</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
@@ -7412,7 +8305,7 @@
       </c>
       <c r="V29" s="19">
         <f>$R$28</f>
-        <v>1.8888888888888888</v>
+        <v>1.8</v>
       </c>
       <c r="X29" t="s">
         <v>120</v>
@@ -7423,12 +8316,12 @@
         <v>13</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="10"/>
-        <v>0.22222222222222221</v>
+        <f t="shared" si="11"/>
+        <v>0.2</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
@@ -7438,7 +8331,7 @@
       </c>
       <c r="V30" s="21">
         <f>R$40</f>
-        <v>1.7777777777777777</v>
+        <v>1.7</v>
       </c>
       <c r="X30" t="s">
         <v>121</v>
@@ -7449,12 +8342,12 @@
         <v>16</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="11"/>
+        <v>0.4</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
@@ -7464,7 +8357,7 @@
       </c>
       <c r="V31" s="17">
         <f>R$33</f>
-        <v>1.5555555555555556</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="32" spans="16:26" x14ac:dyDescent="0.45">
@@ -7472,12 +8365,12 @@
         <v>15</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="10"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="11"/>
+        <v>0.1</v>
       </c>
       <c r="T32" t="s">
         <v>101</v>
@@ -7487,7 +8380,7 @@
       </c>
       <c r="V32" s="19">
         <f>R$41</f>
-        <v>1.5555555555555556</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="33" spans="16:22" x14ac:dyDescent="0.45">
@@ -7495,12 +8388,12 @@
         <v>12</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="10"/>
-        <v>1.5555555555555556</v>
+        <f t="shared" si="11"/>
+        <v>1.7</v>
       </c>
       <c r="T33" t="s">
         <v>102</v>
@@ -7510,7 +8403,7 @@
       </c>
       <c r="V33" s="21">
         <f>$R$29</f>
-        <v>1.2222222222222223</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34" spans="16:22" x14ac:dyDescent="0.45">
@@ -7518,12 +8411,12 @@
         <v>9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="9"/>
-        <v>18</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>1.9</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
@@ -7533,7 +8426,7 @@
       </c>
       <c r="V34" s="21">
         <f>R$39</f>
-        <v>1.2222222222222223</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="16:22" x14ac:dyDescent="0.45">
@@ -7541,12 +8434,12 @@
         <v>8</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="10"/>
-        <v>0.88888888888888884</v>
+        <f t="shared" si="11"/>
+        <v>0.8</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
@@ -7556,7 +8449,7 @@
       </c>
       <c r="V35" s="17">
         <f>R$35</f>
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="16:22" x14ac:dyDescent="0.45">
@@ -7564,12 +8457,12 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="10"/>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="11"/>
+        <v>0.4</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
@@ -7579,7 +8472,7 @@
       </c>
       <c r="V36" s="17">
         <f>R$36</f>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="16:22" x14ac:dyDescent="0.45">
@@ -7587,12 +8480,12 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="10"/>
-        <v>0.22222222222222221</v>
+        <f t="shared" si="11"/>
+        <v>0.2</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
@@ -7602,7 +8495,7 @@
       </c>
       <c r="V37" s="19">
         <f>R$31</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="16:22" x14ac:dyDescent="0.45">
@@ -7610,12 +8503,12 @@
         <v>5</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="11"/>
+        <v>0.3</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
@@ -7625,7 +8518,7 @@
       </c>
       <c r="V38" s="21">
         <f>R$38</f>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="16:22" x14ac:dyDescent="0.45">
@@ -7633,12 +8526,12 @@
         <v>4</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="10"/>
-        <v>1.2222222222222223</v>
+        <f t="shared" si="11"/>
+        <v>1.2</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
@@ -7648,7 +8541,7 @@
       </c>
       <c r="V39" s="21">
         <f>R$42</f>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="16:22" x14ac:dyDescent="0.45">
@@ -7656,12 +8549,12 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="9"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="10"/>
-        <v>1.7777777777777777</v>
+        <f t="shared" si="11"/>
+        <v>1.7</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
@@ -7671,7 +8564,7 @@
       </c>
       <c r="V40" s="19">
         <f>R$43</f>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="41" spans="16:22" x14ac:dyDescent="0.45">
@@ -7679,12 +8572,12 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="10"/>
-        <v>1.5555555555555556</v>
+        <f t="shared" si="11"/>
+        <v>1.6</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
@@ -7694,7 +8587,7 @@
       </c>
       <c r="V41" s="17">
         <f>R$37</f>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="16:22" x14ac:dyDescent="0.45">
@@ -7702,12 +8595,12 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="11"/>
+        <v>0.3</v>
       </c>
       <c r="T42" t="s">
         <v>111</v>
@@ -7717,7 +8610,7 @@
       </c>
       <c r="V42" s="17">
         <f>R$30</f>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="16:22" x14ac:dyDescent="0.45">
@@ -7725,12 +8618,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="11"/>
+        <v>0.3</v>
       </c>
       <c r="T43" t="s">
         <v>112</v>
@@ -7740,7 +8633,7 @@
       </c>
       <c r="V43" s="19">
         <f>R$32</f>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="16:22" x14ac:dyDescent="0.45">
@@ -7748,12 +8641,12 @@
         <v>61</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="10"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="11"/>
+        <v>0.1</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
@@ -7763,7 +8656,7 @@
       </c>
       <c r="V44" s="19">
         <f>R$44</f>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="46" spans="16:22" x14ac:dyDescent="0.45">
@@ -7798,8 +8691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7923,15 +8816,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -8276,7 +9169,7 @@
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
-        <v>0.5625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="J8">
         <f>'1302'!$Q$3</f>
@@ -8706,27 +9599,99 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <f>'2202'!$C$2</f>
+        <v>44979</v>
+      </c>
+      <c r="B13" s="4">
+        <f>'2202'!$J$3</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <f>'2202'!$K$3</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <f>'2202'!$M$3</f>
+        <v>2</v>
+      </c>
       <c r="G13" t="s">
         <v>79</v>
       </c>
       <c r="H13" s="12">
-        <f>AVERAGE(H6:H12)</f>
-        <v>0.45172764227642276</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
+        <f>F4/(G4+F4)</f>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="J13">
+        <f>'2202'!$Q$3</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <f>'2202'!$Q$16</f>
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <f>'2202'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>'2202'!$Q$6</f>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f>'2202'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>'2202'!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" s="5">
+        <f>COUNTIF('2202'!$S$4:$S$30, "LG/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="Y13" s="5">
+        <f>COUNTIF('2202'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC13" s="5">
+        <f>COUNTIF('2202'!$S$4:$S$30, "LG/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AD13" s="5">
+        <f>COUNTIF('2202'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q14" s="5"/>
@@ -8996,21 +9961,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -9021,11 +9986,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -9033,7 +9998,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -9045,11 +10010,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.38636363636363635</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.43902439024390244</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -9058,27 +10023,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.8888888888888888</v>
+        <v>1.8</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -9113,8 +10078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9238,15 +10203,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -9615,7 +10580,7 @@
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="J8">
         <f>'1302'!$Q$8</f>
@@ -9893,6 +10858,9 @@
         <v>77</v>
       </c>
       <c r="H11" s="11"/>
+      <c r="J11" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="K11">
         <v>0</v>
       </c>
@@ -9980,9 +10948,8 @@
         <f>'2102'!$Q$8</f>
         <v>0</v>
       </c>
-      <c r="K12">
-        <f>'2102'!$Q$9</f>
-        <v>0</v>
+      <c r="K12" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="L12">
         <f>'2102'!$Q$10</f>
@@ -10048,27 +11015,99 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <f>'2202'!$C$2</f>
+        <v>44979</v>
+      </c>
+      <c r="B13" s="7">
+        <f>'2202'!$J$5</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <f>'2202'!$K$5</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <f>'2202'!$M$5</f>
+        <v>2</v>
+      </c>
       <c r="G13" t="s">
         <v>79</v>
       </c>
       <c r="H13" s="12">
-        <f>AVERAGE(H6:H12)</f>
-        <v>0.40669515669515666</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
+        <f>F4/(G4+F4)</f>
+        <v>0.53535353535353536</v>
+      </c>
+      <c r="J13">
+        <f>'2202'!$Q$8</f>
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <f>'2202'!$Q$9</f>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>'2202'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>'2202'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>'2202'!$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>'2202'!$Q$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" s="5">
+        <f>COUNTIF('2202'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Y13" s="5">
+        <f>COUNTIF('2202'!$S$4:$S$30, "LG/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC13" s="5">
+        <f>COUNTIF('2202'!$T$4:$T$30, "WW/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AD13" s="5">
+        <f>COUNTIF('2202'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q14" s="5"/>
@@ -10338,21 +11377,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -10363,11 +11402,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -10387,11 +11426,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.61363636363636365</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.46808510638297873</v>
+        <v>0.47058823529411764</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -10400,27 +11439,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.75</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2</v>
+        <v>2.1111111111111112</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -10454,8 +11493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10573,15 +11612,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -10922,7 +11961,7 @@
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J8">
         <f>'1302'!$Q$14</f>
@@ -11329,26 +12368,92 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <f>'2202'!$C$2</f>
+        <v>44979</v>
+      </c>
+      <c r="B13" s="4">
+        <f>'2202'!$J$4</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <f>'2202'!$K$4</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <f>'2202'!$M$4</f>
+        <v>2</v>
+      </c>
       <c r="G13" t="s">
         <v>79</v>
       </c>
       <c r="H13" s="12">
-        <f>AVERAGE(H6:H12)</f>
-        <v>0.59074074074074068</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
+        <f>F4/(G4+F4)</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J13">
+        <f>'2202'!$Q$14</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f>'2202'!$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>'2202'!$Q$4</f>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f>'2202'!$Q$17</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>'2202'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="5">
+        <f>COUNTIF('2202'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="W13" s="5">
+        <f>COUNTIF('2202'!$T$4:$T$30, "WW/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="5">
+        <f>COUNTIF('2202'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AB13" s="5">
+        <f>COUNTIF('2202'!$S$4:$S$30, "LG/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P14" s="5"/>
@@ -11601,21 +12706,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -11626,15 +12731,15 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -11646,11 +12751,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.53191489361702127</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.56097560975609762</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -11659,23 +12764,23 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.2222222222222223</v>
+        <v>1.2</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.7777777777777777</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>1.3333333333333333</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7811783-9266-480A-AD24-2357C8F844FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776966E0-045B-4EFB-8DBC-F1653EF592DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{CE79332E-1AFA-4519-95D2-868F15FC2D23}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="15" xr2:uid="{37D255CF-9800-48E8-A6C0-46D050331476}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="2002" sheetId="13" r:id="rId13"/>
     <sheet name="2102" sheetId="14" r:id="rId14"/>
     <sheet name="2202" sheetId="15" r:id="rId15"/>
+    <sheet name="2302" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="133">
   <si>
     <t>SamJ</t>
   </si>
@@ -501,6 +502,12 @@
   </si>
   <si>
     <t>L/M</t>
+  </si>
+  <si>
+    <t>L/M/SamM</t>
+  </si>
+  <si>
+    <t>SamM/L</t>
   </si>
 </sst>
 </file>
@@ -1061,13 +1068,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4861111111111111</c:v>
+                  <c:v>0.49685534591194963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3263888888888889</c:v>
+                  <c:v>0.32704402515723269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.1761006289308176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,9 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA351E8-3909-4B95-AAA6-21AB89246F7A}">
   <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -4760,8 +4765,2543 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25A14A2-E418-44A7-A7D4-C8919753A8DA}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44977</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3434CE69-172D-4CCF-AC21-B95699B7F246}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44978</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250C9138-29D9-42DD-A06B-2D9F115D45C0}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44979</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B50D6A-19ED-4D9D-996C-C06C45B06C98}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4776,7 +7316,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="3">
-        <v>44977</v>
+        <v>44980</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -4824,26 +7364,26 @@
       </c>
       <c r="J3">
         <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.7142857142857143</v>
+        <v>0.125</v>
       </c>
       <c r="M3">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
       </c>
       <c r="Q3">
         <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>21</v>
@@ -4860,13 +7400,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4879,15 +7419,15 @@
       </c>
       <c r="J4">
         <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
@@ -4898,15 +7438,15 @@
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="str">
         <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T4" t="str">
         <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U4" t="str">
         <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
@@ -4918,13 +7458,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -4937,19 +7477,19 @@
       </c>
       <c r="J5">
         <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M5">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
@@ -4960,11 +7500,11 @@
       </c>
       <c r="S5" t="str">
         <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
@@ -4976,13 +7516,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -4999,11 +7539,11 @@
       </c>
       <c r="S6" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
@@ -5015,13 +7555,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -5038,11 +7578,11 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
@@ -5054,13 +7594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -5070,22 +7610,22 @@
       </c>
       <c r="M8">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
@@ -5097,19 +7637,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
@@ -5120,7 +7660,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="2"/>
@@ -5128,11 +7668,11 @@
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.45">
@@ -5140,23 +7680,23 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
         <v>8</v>
@@ -5167,7 +7707,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
@@ -5175,7 +7715,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.45">
@@ -5192,17 +7732,17 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="2"/>
@@ -5228,13 +7768,13 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
         <v>6</v>
@@ -5254,812 +7794,6 @@
       <c r="U12" t="str">
         <f t="shared" si="4"/>
         <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="P14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S15" t="str">
-        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T15" t="str">
-        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U15" t="str">
-        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S16" t="str">
-        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T16" t="str">
-        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U16" t="str">
-        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S17" t="str">
-        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T17" t="str">
-        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U17" t="str">
-        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P19" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S20" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S21" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S22" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S23" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S24" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S25" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S26" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S27" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S28" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S29" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S30" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3434CE69-172D-4CCF-AC21-B95699B7F246}">
-  <dimension ref="B2:U30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44978</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <f>J3/(J3+K3)</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="M3">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>3</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.8</v>
-      </c>
-      <c r="M4">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>2</v>
-      </c>
-      <c r="S4" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
-      </c>
-      <c r="T4" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U4" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>6</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="M5">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
@@ -6070,16 +7804,16 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>5</v>
@@ -6098,7 +7832,7 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
@@ -6106,13 +7840,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -6129,11 +7863,11 @@
       </c>
       <c r="S14" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="4"/>
@@ -6145,34 +7879,34 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
         <v>3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S15" t="str">
         <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T15" t="str">
         <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U15" t="str">
         <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
@@ -6187,7 +7921,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -6203,7 +7937,7 @@
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="str">
         <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
@@ -6215,16 +7949,34 @@
       </c>
       <c r="U16" t="str">
         <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
       <c r="P17" t="s">
         <v>1</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="str">
         <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
@@ -6236,16 +7988,34 @@
       </c>
       <c r="U17" t="str">
         <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
       <c r="P18" t="s">
         <v>0</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="2"/>
@@ -6253,14 +8023,14 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
       <c r="P19" t="s">
         <v>61</v>
       </c>
@@ -6281,7 +8051,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S20" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6295,7 +8065,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S21" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6309,7 +8079,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S22" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6323,7 +8093,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S23" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6337,7 +8107,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S24" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6351,7 +8121,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S25" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6365,7 +8135,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S26" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6379,7 +8149,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S27" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6393,7 +8163,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S28" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6407,7 +8177,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S29" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -6421,864 +8191,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S30" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250C9138-29D9-42DD-A06B-2D9F115D45C0}">
-  <dimension ref="B2:U30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44979</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>4</v>
-      </c>
-      <c r="L3" s="1">
-        <f>J3/(J3+K3)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>4</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>2</v>
-      </c>
-      <c r="S4" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T4" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U4" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>4</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/5M</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="P14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S15" t="str">
-        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T15" t="str">
-        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U15" t="str">
-        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="S16" t="str">
-        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T16" t="str">
-        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U16" t="str">
-        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" t="str">
-        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T17" t="str">
-        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U17" t="str">
-        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P19" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S20" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S21" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S22" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S23" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S24" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S25" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S26" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S27" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S28" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S29" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S30" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -7301,9 +8214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7386,7 +8297,7 @@
         <v>96</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.45">
@@ -7412,19 +8323,19 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>14.4</v>
+        <v>14.454545454545455</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>7</v>
+        <v>7.1818181818181817</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4.7</v>
+        <v>4.7272727272727275</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.5454545454545454</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.45">
@@ -7453,15 +8364,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.4861111111111111</v>
+        <v>0.49685534591194963</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.3263888888888889</v>
+        <v>0.32704402515723269</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.1875</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -7538,12 +8449,12 @@
         <v>18</v>
       </c>
       <c r="Y8">
-        <f>('2002'!$Q3)+('2102'!$Q3)+('2202'!$Q3)</f>
+        <f>('2002'!$Q3)+('2102'!$Q3)+('2202'!$Q3)+('2302'!$Q3)</f>
         <v>6</v>
       </c>
       <c r="Z8" s="14">
         <f>Y8/Y$5</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.45">
@@ -7593,12 +8504,12 @@
         <v>19</v>
       </c>
       <c r="Y9">
-        <f>('2002'!$Q4)+('2102'!$Q4)+('2202'!$Q4)</f>
-        <v>4</v>
+        <f>('2002'!$Q4)+('2102'!$Q4)+('2202'!$Q4)+('2302'!$Q4)</f>
+        <v>5</v>
       </c>
       <c r="Z9" s="14">
         <f t="shared" ref="Z9:Z24" si="5">Y9/Y$5</f>
-        <v>1.3333333333333333</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.45">
@@ -7648,7 +8559,7 @@
         <v>13</v>
       </c>
       <c r="Y10">
-        <f>('2002'!$Q5)+('2102'!$Q5)+('2202'!$Q5)</f>
+        <f>('2002'!$Q5)+('2102'!$Q5)+('2202'!$Q5)+('2302'!$Q5)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="14">
@@ -7703,12 +8614,12 @@
         <v>16</v>
       </c>
       <c r="Y11">
-        <f>('2002'!$Q6)+('2102'!$Q6)+('2202'!$Q6)</f>
+        <f>('2002'!$Q6)+('2102'!$Q6)+('2202'!$Q6)+('2302'!$Q6)</f>
         <v>1</v>
       </c>
       <c r="Z11" s="14">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.45">
@@ -7758,7 +8669,7 @@
         <v>15</v>
       </c>
       <c r="Y12">
-        <f>('2002'!$Q7)+('2102'!$Q7)+('2202'!$Q7)</f>
+        <f>('2002'!$Q7)+('2102'!$Q7)+('2202'!$Q7)+('2302'!$Q7)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="14">
@@ -7813,12 +8724,12 @@
         <v>12</v>
       </c>
       <c r="Y13">
-        <f>('2002'!$Q8)+('2102'!$Q8)+('2202'!$Q8)</f>
-        <v>3</v>
+        <f>('2002'!$Q8)+('2102'!$Q8)+('2202'!$Q8)+('2302'!$Q8)</f>
+        <v>7</v>
       </c>
       <c r="Z13" s="14">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.45">
@@ -7868,15 +8779,35 @@
         <v>9</v>
       </c>
       <c r="Y14">
-        <f>('2002'!$Q9)+('2102'!$Q9)+('2202'!$Q9)</f>
-        <v>1</v>
+        <f>('2002'!$Q9)+('2102'!$Q9)+('2202'!$Q9)+('2302'!$Q9)</f>
+        <v>5</v>
       </c>
       <c r="Z14" s="14">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B15" s="3">
+        <f>'2302'!$C$2</f>
+        <v>44980</v>
+      </c>
+      <c r="C15">
+        <f>SUM('2302'!$J$3:$J$5)</f>
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <f>MAX('2302'!$J$3:$J$5)</f>
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15" si="10">C15-D15-F15</f>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>MIN('2302'!$J$3:$J$5)</f>
+        <v>1</v>
+      </c>
       <c r="P15" t="s">
         <v>8</v>
       </c>
@@ -7903,7 +8834,7 @@
         <v>8</v>
       </c>
       <c r="Y15">
-        <f>('2002'!$Q10)+('2102'!$Q10)+('2202'!$Q10)</f>
+        <f>('2002'!$Q10)+('2102'!$Q10)+('2202'!$Q10)+('2302'!$Q10)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="14">
@@ -7938,12 +8869,12 @@
         <v>7</v>
       </c>
       <c r="Y16">
-        <f>('2002'!$Q11)+('2102'!$Q11)+('2202'!$Q11)</f>
-        <v>1</v>
+        <f>('2002'!$Q11)+('2102'!$Q11)+('2202'!$Q11)+('2302'!$Q11)</f>
+        <v>2</v>
       </c>
       <c r="Z16" s="14">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="16:26" x14ac:dyDescent="0.45">
@@ -7973,7 +8904,7 @@
         <v>6</v>
       </c>
       <c r="Y17">
-        <f>('2002'!$Q12)+('2102'!$Q12)+('2202'!$Q12)</f>
+        <f>('2002'!$Q12)+('2102'!$Q12)+('2202'!$Q12)+('2302'!$Q12)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="14">
@@ -8008,12 +8939,12 @@
         <v>5</v>
       </c>
       <c r="Y18">
-        <f>('2002'!$Q13)+('2102'!$Q13)+('2202'!$Q13)</f>
+        <f>('2002'!$Q13)+('2102'!$Q13)+('2202'!$Q13)+('2302'!$Q13)</f>
         <v>1</v>
       </c>
       <c r="Z18" s="14">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="16:26" x14ac:dyDescent="0.45">
@@ -8043,12 +8974,12 @@
         <v>4</v>
       </c>
       <c r="Y19">
-        <f>('2002'!$Q14)+('2102'!$Q14)+('2202'!$Q14)</f>
-        <v>4</v>
+        <f>('2002'!$Q14)+('2102'!$Q14)+('2202'!$Q14)+('2302'!$Q14)</f>
+        <v>6</v>
       </c>
       <c r="Z19" s="14">
         <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="16:26" x14ac:dyDescent="0.45">
@@ -8078,12 +9009,12 @@
         <v>3</v>
       </c>
       <c r="Y20">
-        <f>('2002'!$Q15)+('2102'!$Q15)+('2202'!$Q15)</f>
-        <v>5</v>
+        <f>('2002'!$Q15)+('2102'!$Q15)+('2202'!$Q15)+('2302'!$Q15)</f>
+        <v>7</v>
       </c>
       <c r="Z20" s="14">
         <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="21" spans="16:26" x14ac:dyDescent="0.45">
@@ -8113,12 +9044,12 @@
         <v>2</v>
       </c>
       <c r="Y21">
-        <f>('2002'!$Q16)+('2102'!$Q16)+('2202'!$Q16)</f>
-        <v>4</v>
+        <f>('2002'!$Q16)+('2102'!$Q16)+('2202'!$Q16)+('2302'!$Q16)</f>
+        <v>5</v>
       </c>
       <c r="Z21" s="14">
         <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="16:26" x14ac:dyDescent="0.45">
@@ -8148,12 +9079,12 @@
         <v>1</v>
       </c>
       <c r="Y22">
-        <f>('2002'!$Q17)+('2102'!$Q17)+('2202'!$Q17)</f>
+        <f>('2002'!$Q17)+('2102'!$Q17)+('2202'!$Q17)+('2302'!$Q17)</f>
         <v>2</v>
       </c>
       <c r="Z22" s="14">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="16:26" x14ac:dyDescent="0.45">
@@ -8183,12 +9114,12 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <f>('2002'!$Q18)+('2102'!$Q18)+('2202'!$Q18)</f>
+        <f>('2002'!$Q18)+('2102'!$Q18)+('2202'!$Q18)+('2302'!$Q18)</f>
         <v>1</v>
       </c>
       <c r="Z23" s="14">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="16:26" x14ac:dyDescent="0.45">
@@ -8218,12 +9149,12 @@
         <v>61</v>
       </c>
       <c r="Y24">
-        <f>('2002'!$Q19)+('2102'!$Q19)+('2202'!$Q19)</f>
+        <f>('2002'!$Q19)+('2102'!$Q19)+('2202'!$Q19)+('2302'!$Q19)</f>
         <v>1</v>
       </c>
       <c r="Z24" s="14">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="16:26" x14ac:dyDescent="0.45">
@@ -8232,7 +9163,7 @@
       </c>
       <c r="Q26">
         <f>SUM(Q5,U5,Y5)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T26" s="2"/>
     </row>
@@ -8264,12 +9195,12 @@
         <v>18</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q44" si="10">SUM(Q8,U8,Y8)</f>
+        <f t="shared" ref="Q28:Q44" si="11">SUM(Q8,U8,Y8)</f>
         <v>18</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28:R44" si="11">Q28/Q$26</f>
-        <v>1.8</v>
+        <f t="shared" ref="R28:R44" si="12">Q28/Q$26</f>
+        <v>1.6363636363636365</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
@@ -8279,7 +9210,7 @@
       </c>
       <c r="V28" s="17">
         <f>R$34</f>
-        <v>1.9</v>
+        <v>2.0909090909090908</v>
       </c>
       <c r="X28" t="s">
         <v>119</v>
@@ -8290,22 +9221,22 @@
         <v>19</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="11"/>
-        <v>1.3</v>
+        <f t="shared" si="12"/>
+        <v>1.2727272727272727</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
       </c>
-      <c r="U29" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="V29" s="19">
-        <f>$R$28</f>
-        <v>1.8</v>
+      <c r="U29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="17">
+        <f>R$33</f>
+        <v>1.9090909090909092</v>
       </c>
       <c r="X29" t="s">
         <v>120</v>
@@ -8316,12 +9247,12 @@
         <v>13</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="11"/>
-        <v>0.2</v>
+        <f t="shared" si="12"/>
+        <v>0.18181818181818182</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
@@ -8331,7 +9262,7 @@
       </c>
       <c r="V30" s="21">
         <f>R$40</f>
-        <v>1.7</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="X30" t="s">
         <v>121</v>
@@ -8342,22 +9273,22 @@
         <v>16</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="11"/>
-        <v>0.4</v>
+        <f t="shared" si="12"/>
+        <v>0.36363636363636365</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
       </c>
-      <c r="U31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="V31" s="17">
-        <f>R$33</f>
-        <v>1.7</v>
+      <c r="U31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="V31" s="19">
+        <f>$R$28</f>
+        <v>1.6363636363636365</v>
       </c>
     </row>
     <row r="32" spans="16:26" x14ac:dyDescent="0.45">
@@ -8365,12 +9296,12 @@
         <v>15</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="12"/>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="T32" t="s">
         <v>101</v>
@@ -8380,7 +9311,7 @@
       </c>
       <c r="V32" s="19">
         <f>R$41</f>
-        <v>1.6</v>
+        <v>1.5454545454545454</v>
       </c>
     </row>
     <row r="33" spans="16:22" x14ac:dyDescent="0.45">
@@ -8388,12 +9319,12 @@
         <v>12</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>21</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="11"/>
-        <v>1.7</v>
+        <f t="shared" si="12"/>
+        <v>1.9090909090909092</v>
       </c>
       <c r="T33" t="s">
         <v>102</v>
@@ -8403,7 +9334,7 @@
       </c>
       <c r="V33" s="21">
         <f>$R$29</f>
-        <v>1.3</v>
+        <v>1.2727272727272727</v>
       </c>
     </row>
     <row r="34" spans="16:22" x14ac:dyDescent="0.45">
@@ -8411,12 +9342,12 @@
         <v>9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>23</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="11"/>
-        <v>1.9</v>
+        <f t="shared" si="12"/>
+        <v>2.0909090909090908</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
@@ -8426,7 +9357,7 @@
       </c>
       <c r="V34" s="21">
         <f>R$39</f>
-        <v>1.2</v>
+        <v>1.2727272727272727</v>
       </c>
     </row>
     <row r="35" spans="16:22" x14ac:dyDescent="0.45">
@@ -8434,12 +9365,12 @@
         <v>8</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="11"/>
-        <v>0.8</v>
+        <f t="shared" si="12"/>
+        <v>0.72727272727272729</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
@@ -8449,7 +9380,7 @@
       </c>
       <c r="V35" s="17">
         <f>R$35</f>
-        <v>0.8</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="36" spans="16:22" x14ac:dyDescent="0.45">
@@ -8457,12 +9388,12 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="11"/>
-        <v>0.4</v>
+        <f t="shared" si="12"/>
+        <v>0.45454545454545453</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
@@ -8472,7 +9403,7 @@
       </c>
       <c r="V36" s="17">
         <f>R$36</f>
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="37" spans="16:22" x14ac:dyDescent="0.45">
@@ -8480,12 +9411,12 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="11"/>
-        <v>0.2</v>
+        <f t="shared" si="12"/>
+        <v>0.18181818181818182</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
@@ -8495,7 +9426,7 @@
       </c>
       <c r="V37" s="19">
         <f>R$31</f>
-        <v>0.4</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="38" spans="16:22" x14ac:dyDescent="0.45">
@@ -8503,12 +9434,12 @@
         <v>5</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="11"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
@@ -8518,7 +9449,7 @@
       </c>
       <c r="V38" s="21">
         <f>R$38</f>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="39" spans="16:22" x14ac:dyDescent="0.45">
@@ -8526,12 +9457,12 @@
         <v>4</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="11"/>
-        <v>1.2</v>
+        <f t="shared" si="12"/>
+        <v>1.2727272727272727</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
@@ -8541,7 +9472,7 @@
       </c>
       <c r="V39" s="21">
         <f>R$42</f>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="40" spans="16:22" x14ac:dyDescent="0.45">
@@ -8549,12 +9480,12 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="11"/>
-        <v>1.7</v>
+        <f t="shared" si="12"/>
+        <v>1.7272727272727273</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
@@ -8564,7 +9495,7 @@
       </c>
       <c r="V40" s="19">
         <f>R$43</f>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="41" spans="16:22" x14ac:dyDescent="0.45">
@@ -8572,12 +9503,12 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>17</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="11"/>
-        <v>1.6</v>
+        <f t="shared" si="12"/>
+        <v>1.5454545454545454</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
@@ -8587,7 +9518,7 @@
       </c>
       <c r="V41" s="17">
         <f>R$37</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="42" spans="16:22" x14ac:dyDescent="0.45">
@@ -8595,12 +9526,12 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" si="11"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="T42" t="s">
         <v>111</v>
@@ -8610,7 +9541,7 @@
       </c>
       <c r="V42" s="17">
         <f>R$30</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="43" spans="16:22" x14ac:dyDescent="0.45">
@@ -8618,12 +9549,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="11"/>
-        <v>0.3</v>
+        <f t="shared" si="12"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="T43" t="s">
         <v>112</v>
@@ -8633,7 +9564,7 @@
       </c>
       <c r="V43" s="19">
         <f>R$32</f>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="44" spans="16:22" x14ac:dyDescent="0.45">
@@ -8641,12 +9572,12 @@
         <v>61</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="11"/>
-        <v>0.1</v>
+        <f t="shared" si="12"/>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
@@ -8656,7 +9587,7 @@
       </c>
       <c r="V44" s="19">
         <f>R$44</f>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="46" spans="16:22" x14ac:dyDescent="0.45">
@@ -8691,9 +9622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -8816,15 +9745,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -9169,7 +10098,7 @@
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
-        <v>0.54166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="J8">
         <f>'1302'!$Q$3</f>
@@ -9620,7 +10549,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.41935483870967744</v>
+        <v>0.39603960396039606</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$3</f>
@@ -9694,20 +10623,92 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
+      <c r="A14" s="3">
+        <f>'2302'!$C$2</f>
+        <v>44980</v>
+      </c>
+      <c r="B14" s="4">
+        <f>'2302'!$J$3</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <f>'2302'!$K$3</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <f>'2302'!$M$3</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>'2302'!$Q$3</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <f>'2302'!$Q$16</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>'2302'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>'2302'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>'2302'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>'2302'!Q22</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14" s="5">
+        <f>COUNTIF('2302'!$S$4:$S$30, "LG/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="5">
+        <f>COUNTIF('2302'!$T$4:$T$30, "WW/LG")</f>
+        <v>4</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="5">
+        <f>COUNTIF('2302'!$S$4:$S$30, "LG/5M")</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
+        <f>COUNTIF('2302'!$U$4:$U$30, "5M/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q15" s="5"/>
@@ -9961,11 +10962,11 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -9975,7 +10976,7 @@
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -9990,7 +10991,7 @@
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -10010,11 +11011,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.39583333333333331</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.44444444444444442</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -10023,27 +11024,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.8</v>
+        <v>1.6363636363636365</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1.1428571428571428</v>
+        <v>1.125</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.4</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -10078,8 +11079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10203,15 +11204,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -10580,7 +11581,7 @@
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
-        <v>0.25</v>
+        <v>0.4375</v>
       </c>
       <c r="J8">
         <f>'1302'!$Q$8</f>
@@ -11036,7 +12037,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.53535353535353536</v>
+        <v>0.55855855855855852</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$8</f>
@@ -11110,20 +12111,92 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
+      <c r="A14" s="3">
+        <f>'2302'!$C$2</f>
+        <v>44980</v>
+      </c>
+      <c r="B14" s="7">
+        <f>'2302'!$J$5</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <f>'2302'!$K$5</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <f>'2302'!$M$5</f>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f>'2302'!$Q$8</f>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f>'2302'!$Q$9</f>
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f>'2302'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>'2302'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>'2302'!$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>'2302'!$Q$11</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <f>COUNTIF('2302'!$T$4:$T$30, "WW/LG")</f>
+        <v>4</v>
+      </c>
+      <c r="Y14" s="5">
+        <f>COUNTIF('2302'!$S$4:$S$30, "LG/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="5">
+        <f>COUNTIF('2302'!$T$4:$T$30, "WW/5M")</f>
+        <v>5</v>
+      </c>
+      <c r="AD14" s="5">
+        <f>COUNTIF('2302'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q15" s="5"/>
@@ -11377,21 +12450,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -11402,11 +12475,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -11422,15 +12495,15 @@
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.60416666666666663</v>
+        <v>0.62264150943396224</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.47058823529411764</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -11439,27 +12512,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.8888888888888888</v>
+        <v>2.1</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.1111111111111112</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
   </sheetData>
@@ -11493,9 +12566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -11612,15 +12683,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -11961,7 +13032,7 @@
       </c>
       <c r="H8" s="11">
         <f>SUM(B11:B14)/(SUM(B11:B14)+SUM(C11:C14))</f>
-        <v>0.66666666666666663</v>
+        <v>0.61764705882352944</v>
       </c>
       <c r="J8">
         <f>'1302'!$Q$14</f>
@@ -12389,7 +13460,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.54166666666666663</v>
+        <v>0.53773584905660377</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$14</f>
@@ -12456,19 +13527,85 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
+      <c r="A14" s="3">
+        <f>'2302'!$C$2</f>
+        <v>44980</v>
+      </c>
+      <c r="B14" s="4">
+        <f>'2302'!$J$4</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <f>'2302'!$K$4</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <f>'2302'!$M$4</f>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f>'2302'!$Q$14</f>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f>'2302'!$Q$15</f>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f>'2302'!$Q$4</f>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f>'2302'!$Q$17</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>'2302'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="5">
+        <f>COUNTIF('2302'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="W14" s="5">
+        <f>COUNTIF('2302'!$T$4:$T$30, "WW/5M")</f>
+        <v>5</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="5">
+        <f>COUNTIF('2302'!$U$4:$U$30, "5M/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="AB14" s="5">
+        <f>COUNTIF('2302'!$S$4:$S$30, "LG/5M")</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P15" s="5"/>
@@ -12706,17 +13843,17 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
@@ -12731,15 +13868,15 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -12751,11 +13888,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.52941176470588236</v>
+        <v>0.5</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.55555555555555558</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -12764,23 +13901,23 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.2</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.7</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>1.4285714285714286</v>
+        <v>1.375</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -12814,9 +13951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776966E0-045B-4EFB-8DBC-F1653EF592DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE2BE95-E2C3-42A6-B14B-90C463CC0E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="15" xr2:uid="{37D255CF-9800-48E8-A6C0-46D050331476}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="2" xr2:uid="{37D255CF-9800-48E8-A6C0-46D050331476}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="2102" sheetId="14" r:id="rId14"/>
     <sheet name="2202" sheetId="15" r:id="rId15"/>
     <sheet name="2302" sheetId="16" r:id="rId16"/>
+    <sheet name="2702" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="136">
   <si>
     <t>SamJ</t>
   </si>
@@ -509,6 +510,15 @@
   <si>
     <t>SamM/L</t>
   </si>
+  <si>
+    <t>WEEK 4</t>
+  </si>
+  <si>
+    <t>A/M/K</t>
+  </si>
+  <si>
+    <t>C/W</t>
+  </si>
 </sst>
 </file>
 
@@ -639,7 +649,497 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1068,13 +1568,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49685534591194963</c:v>
+                  <c:v>0.4913294797687861</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32704402515723269</c:v>
+                  <c:v>0.32947976878612717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1761006289308176</c:v>
+                  <c:v>0.17919075144508673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,14 +2280,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:V44" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:V44" totalsRowShown="0" headerRowDxfId="68">
   <autoFilter ref="U27:V44" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:V44">
     <sortCondition descending="1" ref="V27:V44"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{04F740DB-8979-4EB0-8BB1-150B560FA6CB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7300,8 +7800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B50D6A-19ED-4D9D-996C-C06C45B06C98}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8210,9 +8710,905 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1020CD87-1634-48B4-88EE-E8E530948E09}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44984</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
-  <dimension ref="B2:Z48"/>
+  <dimension ref="B2:AD48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8223,12 +9619,12 @@
     <col min="21" max="22" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -8248,7 +9644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <f>'602'!$C$2</f>
         <v>44963</v>
@@ -8299,8 +9695,14 @@
       <c r="Y5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <f>'702'!$C$2</f>
         <v>44964</v>
@@ -8323,22 +9725,22 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>14.454545454545455</v>
+        <v>14.416666666666666</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>7.1818181818181817</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4.7272727272727275</v>
+        <v>4.75</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.5454545454545454</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+        <v>2.5833333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <f>'802'!$C$2</f>
         <v>44965</v>
@@ -8364,15 +9766,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.49685534591194963</v>
+        <v>0.4913294797687861</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.32704402515723269</v>
+        <v>0.32947976878612717</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.1761006289308176</v>
+        <v>0.17919075144508673</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -8401,8 +9803,17 @@
       <c r="Z7" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <f>'1002'!$C$2</f>
         <v>44967</v>
@@ -8456,8 +9867,19 @@
         <f>Y8/Y$5</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8">
+        <f>('2702'!$Q3)</f>
+        <v>2</v>
+      </c>
+      <c r="AD8" s="14">
+        <f>AC8/AC$5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <f>'1302'!$C$2</f>
         <v>44970</v>
@@ -8511,8 +9933,19 @@
         <f t="shared" ref="Z9:Z24" si="5">Y9/Y$5</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9">
+        <f>('2702'!$Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="14">
+        <f t="shared" ref="AD9:AD24" si="6">AC9/AC$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <f>'1402'!$C$2</f>
         <v>44971</v>
@@ -8566,8 +9999,19 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10">
+        <f>('2702'!$Q5)</f>
+        <v>1</v>
+      </c>
+      <c r="AD10" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>'1602'!$C$2</f>
         <v>44973</v>
@@ -8581,7 +10025,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="6">C11-D11-F11</f>
+        <f t="shared" ref="E11" si="7">C11-D11-F11</f>
         <v>5</v>
       </c>
       <c r="F11">
@@ -8621,8 +10065,19 @@
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC11">
+        <f>('2702'!$Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f>'2002'!$C$2</f>
         <v>44977</v>
@@ -8636,7 +10091,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12" si="7">C12-D12-F12</f>
+        <f t="shared" ref="E12" si="8">C12-D12-F12</f>
         <v>4</v>
       </c>
       <c r="F12">
@@ -8676,8 +10131,19 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC12">
+        <f>('2702'!$Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <f>'2102'!$C$2</f>
         <v>44978</v>
@@ -8691,7 +10157,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="8">C13-D13-F13</f>
+        <f t="shared" ref="E13" si="9">C13-D13-F13</f>
         <v>4</v>
       </c>
       <c r="F13">
@@ -8731,8 +10197,19 @@
         <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC13">
+        <f>('2702'!$Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f>'2202'!$C$2</f>
         <v>44979</v>
@@ -8746,7 +10223,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14" si="9">C14-D14-F14</f>
+        <f t="shared" ref="E14" si="10">C14-D14-F14</f>
         <v>4</v>
       </c>
       <c r="F14">
@@ -8786,8 +10263,19 @@
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14">
+        <f>('2702'!$Q9)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f>'2302'!$C$2</f>
         <v>44980</v>
@@ -8801,7 +10289,7 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="10">C15-D15-F15</f>
+        <f t="shared" ref="E15" si="11">C15-D15-F15</f>
         <v>5</v>
       </c>
       <c r="F15">
@@ -8841,8 +10329,39 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="AB15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15">
+        <f>('2702'!$Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="B16" s="3">
+        <f>'2702'!$C$2</f>
+        <v>44984</v>
+      </c>
+      <c r="C16">
+        <f>SUM('2702'!$J$3:$J$5)</f>
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <f>MAX('2702'!$J$3:$J$5)</f>
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="12">C16-D16-F16</f>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>MIN('2702'!$J$3:$J$5)</f>
+        <v>3</v>
+      </c>
       <c r="P16" t="s">
         <v>7</v>
       </c>
@@ -8876,8 +10395,19 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="AB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16">
+        <f>('2702'!$Q11)</f>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P17" t="s">
         <v>6</v>
       </c>
@@ -8911,8 +10441,19 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="AB17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <f>('2702'!$Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P18" t="s">
         <v>5</v>
       </c>
@@ -8946,8 +10487,19 @@
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="AB18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18">
+        <f>('2702'!$Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P19" t="s">
         <v>4</v>
       </c>
@@ -8981,8 +10533,19 @@
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="AB19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <f>('2702'!$Q14)</f>
+        <v>2</v>
+      </c>
+      <c r="AD19" s="14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P20" t="s">
         <v>3</v>
       </c>
@@ -9016,8 +10579,19 @@
         <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="21" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="AB20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <f>('2702'!$Q15)</f>
+        <v>3</v>
+      </c>
+      <c r="AD20" s="14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P21" t="s">
         <v>2</v>
       </c>
@@ -9051,8 +10625,19 @@
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="22" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="AB21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <f>('2702'!$Q16)</f>
+        <v>3</v>
+      </c>
+      <c r="AD21" s="14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P22" t="s">
         <v>1</v>
       </c>
@@ -9086,8 +10671,19 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="AB22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <f>('2702'!$Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P23" t="s">
         <v>0</v>
       </c>
@@ -9121,8 +10717,19 @@
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="AB23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f>('2702'!$Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P24" t="s">
         <v>61</v>
       </c>
@@ -9156,18 +10763,29 @@
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="AB24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC24">
+        <f>('2702'!$Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P26" t="s">
         <v>66</v>
       </c>
       <c r="Q26">
-        <f>SUM(Q5,U5,Y5)</f>
-        <v>11</v>
+        <f>SUM(Q5,U5,Y5,AC5)</f>
+        <v>12</v>
       </c>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="16:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P27" t="s">
         <v>28</v>
       </c>
@@ -9190,17 +10808,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="16:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P28" t="s">
         <v>18</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q44" si="11">SUM(Q8,U8,Y8)</f>
-        <v>18</v>
+        <f>SUM(Q8,U8,Y8,AC8)</f>
+        <v>20</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28:R44" si="12">Q28/Q$26</f>
-        <v>1.6363636363636365</v>
+        <f t="shared" ref="R28:R44" si="13">Q28/Q$26</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
@@ -9210,23 +10828,23 @@
       </c>
       <c r="V28" s="17">
         <f>R$34</f>
-        <v>2.0909090909090908</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="X28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="16:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P29" t="s">
         <v>19</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Q28:Q44" si="14">SUM(Q9,U9,Y9)</f>
         <v>14</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="12"/>
-        <v>1.2727272727272727</v>
+        <f t="shared" si="13"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
@@ -9236,23 +10854,23 @@
       </c>
       <c r="V29" s="17">
         <f>R$33</f>
-        <v>1.9090909090909092</v>
+        <v>1.75</v>
       </c>
       <c r="X29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="16:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P30" t="s">
         <v>13</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="12"/>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
@@ -9262,23 +10880,23 @@
       </c>
       <c r="V30" s="21">
         <f>R$40</f>
-        <v>1.7272727272727273</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="X30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="16:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P31" t="s">
         <v>16</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="12"/>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="13"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
@@ -9288,20 +10906,20 @@
       </c>
       <c r="V31" s="19">
         <f>$R$28</f>
-        <v>1.6363636363636365</v>
-      </c>
-    </row>
-    <row r="32" spans="16:26" x14ac:dyDescent="0.45">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="16:30" x14ac:dyDescent="0.45">
       <c r="P32" t="s">
         <v>15</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="12"/>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="T32" t="s">
         <v>101</v>
@@ -9311,7 +10929,7 @@
       </c>
       <c r="V32" s="19">
         <f>R$41</f>
-        <v>1.5454545454545454</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="33" spans="16:22" x14ac:dyDescent="0.45">
@@ -9319,12 +10937,12 @@
         <v>12</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="12"/>
-        <v>1.9090909090909092</v>
+        <f t="shared" si="13"/>
+        <v>1.75</v>
       </c>
       <c r="T33" t="s">
         <v>102</v>
@@ -9334,7 +10952,7 @@
       </c>
       <c r="V33" s="21">
         <f>$R$29</f>
-        <v>1.2727272727272727</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="34" spans="16:22" x14ac:dyDescent="0.45">
@@ -9342,12 +10960,12 @@
         <v>9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="12"/>
-        <v>2.0909090909090908</v>
+        <f t="shared" si="13"/>
+        <v>1.9166666666666667</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
@@ -9357,7 +10975,7 @@
       </c>
       <c r="V34" s="21">
         <f>R$39</f>
-        <v>1.2727272727272727</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="35" spans="16:22" x14ac:dyDescent="0.45">
@@ -9365,12 +10983,12 @@
         <v>8</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="12"/>
-        <v>0.72727272727272729</v>
+        <f t="shared" si="13"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
@@ -9380,7 +10998,7 @@
       </c>
       <c r="V35" s="17">
         <f>R$35</f>
-        <v>0.72727272727272729</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="36" spans="16:22" x14ac:dyDescent="0.45">
@@ -9388,12 +11006,12 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="12"/>
-        <v>0.45454545454545453</v>
+        <f t="shared" si="13"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
@@ -9403,7 +11021,7 @@
       </c>
       <c r="V36" s="17">
         <f>R$36</f>
-        <v>0.45454545454545453</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="37" spans="16:22" x14ac:dyDescent="0.45">
@@ -9411,12 +11029,12 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="12"/>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="13"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
@@ -9426,7 +11044,7 @@
       </c>
       <c r="V37" s="19">
         <f>R$31</f>
-        <v>0.36363636363636365</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="16:22" x14ac:dyDescent="0.45">
@@ -9434,12 +11052,12 @@
         <v>5</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="12"/>
-        <v>0.27272727272727271</v>
+        <f t="shared" si="13"/>
+        <v>0.25</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
@@ -9449,7 +11067,7 @@
       </c>
       <c r="V38" s="21">
         <f>R$38</f>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="16:22" x14ac:dyDescent="0.45">
@@ -9457,12 +11075,12 @@
         <v>4</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="12"/>
-        <v>1.2727272727272727</v>
+        <f t="shared" si="13"/>
+        <v>1.1666666666666667</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
@@ -9472,7 +11090,7 @@
       </c>
       <c r="V39" s="21">
         <f>R$42</f>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="16:22" x14ac:dyDescent="0.45">
@@ -9480,12 +11098,12 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="12"/>
-        <v>1.7272727272727273</v>
+        <f t="shared" si="13"/>
+        <v>1.5833333333333333</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
@@ -9495,7 +11113,7 @@
       </c>
       <c r="V40" s="19">
         <f>R$43</f>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="16:22" x14ac:dyDescent="0.45">
@@ -9503,12 +11121,12 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="12"/>
-        <v>1.5454545454545454</v>
+        <f t="shared" si="13"/>
+        <v>1.4166666666666667</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
@@ -9518,7 +11136,7 @@
       </c>
       <c r="V41" s="17">
         <f>R$37</f>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="42" spans="16:22" x14ac:dyDescent="0.45">
@@ -9526,12 +11144,12 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" si="12"/>
-        <v>0.27272727272727271</v>
+        <f t="shared" si="13"/>
+        <v>0.25</v>
       </c>
       <c r="T42" t="s">
         <v>111</v>
@@ -9541,7 +11159,7 @@
       </c>
       <c r="V42" s="17">
         <f>R$30</f>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="43" spans="16:22" x14ac:dyDescent="0.45">
@@ -9549,12 +11167,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="12"/>
-        <v>0.27272727272727271</v>
+        <f t="shared" si="13"/>
+        <v>0.25</v>
       </c>
       <c r="T43" t="s">
         <v>112</v>
@@ -9564,7 +11182,7 @@
       </c>
       <c r="V43" s="19">
         <f>R$32</f>
-        <v>9.0909090909090912E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="44" spans="16:22" x14ac:dyDescent="0.45">
@@ -9572,12 +11190,12 @@
         <v>61</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="12"/>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
@@ -9587,7 +11205,7 @@
       </c>
       <c r="V44" s="19">
         <f>R$44</f>
-        <v>9.0909090909090912E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="46" spans="16:22" x14ac:dyDescent="0.45">
@@ -9622,7 +11240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -9745,15 +11365,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -10188,7 +11808,10 @@
       <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <f>SUM(B15:B18)/(SUM(B15:B18)+SUM(C15:C18))</f>
+        <v>0.6</v>
+      </c>
       <c r="J9">
         <f>'1402'!$Q$3</f>
         <v>3</v>
@@ -10549,7 +12172,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.39603960396039606</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$3</f>
@@ -10711,20 +12334,92 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
+      <c r="A15" s="3">
+        <f>'2702'!$C$2</f>
+        <v>44984</v>
+      </c>
+      <c r="B15" s="4">
+        <f>'2702'!$J$3</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <f>'2702'!$K$3</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <f>'2702'!$M$3</f>
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <f>'2702'!$Q$3</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="9">
+        <f>'2702'!$Q$16</f>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f>'2702'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>'2702'!$Q$6</f>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f>'2702'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>'2702'!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
+        <v>2</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="5">
+        <f>COUNTIF('2702'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="Y15" s="5">
+        <f>COUNTIF('2702'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC15" s="5">
+        <f>COUNTIF('2702'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AD15" s="5">
+        <f>COUNTIF('2702'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q16" s="5"/>
@@ -10962,21 +12657,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -10987,11 +12682,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -10999,7 +12694,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -11011,11 +12706,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.37735849056603776</v>
+        <v>0.39655172413793105</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.41666666666666669</v>
+        <v>0.43396226415094341</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -11024,50 +12719,64 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.6363636363636365</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1.125</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.36363636363636365</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V32" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>$H$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11204,15 +12913,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -11674,7 +13383,10 @@
       <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <f>SUM(B15:B18)/(SUM(B15:B18)+SUM(C15:C18))</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J9">
         <f>'1402'!$Q$8</f>
         <v>1</v>
@@ -12037,7 +13749,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.55855855855855852</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$8</f>
@@ -12199,20 +13911,82 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="A15" s="3">
+        <f>'2702'!$C$2</f>
+        <v>44984</v>
+      </c>
+      <c r="B15" s="7">
+        <f>'2702'!$J$5</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <f>'2702'!$K$5</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <f>'2702'!$M$5</f>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f>'2702'!$Q$8</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>'2702'!$Q$9</f>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f>'2702'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>'2702'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>'2702'!$Q$5</f>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f>'2702'!$Q$11</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1</v>
+      </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
+      <c r="AC15" s="5">
+        <f>COUNTIF('2702'!$T$4:$T$30, "WW/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="5">
+        <f>COUNTIF('2702'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q16" s="5"/>
@@ -12460,11 +14234,11 @@
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -12479,7 +14253,7 @@
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -12491,11 +14265,11 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
@@ -12503,7 +14277,7 @@
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -12512,49 +14286,60 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>2.1</v>
+        <v>1.9090909090909092</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.2999999999999998</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.27272727272727271</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="8" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12566,7 +14351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -12683,15 +14470,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -13118,7 +14905,10 @@
       <c r="G9" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <f>SUM(B12:B15)/(SUM(B12:B15)+SUM(C12:C15))</f>
+        <v>0.59459459459459463</v>
+      </c>
       <c r="J9">
         <f>'1402'!$Q$14</f>
         <v>1</v>
@@ -13460,7 +15250,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.53773584905660377</v>
+        <v>0.53913043478260869</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$14</f>
@@ -13608,19 +15398,85 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
+      <c r="A15" s="3">
+        <f>'2702'!$C$2</f>
+        <v>44984</v>
+      </c>
+      <c r="B15" s="4">
+        <f>'2702'!$J$4</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <f>'2702'!$K$4</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <f>'2702'!$M$4</f>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f>'2702'!$Q$14</f>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f>'2702'!$Q$15</f>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f>'2702'!$Q$4</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>'2702'!$Q$17</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>'2702'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>2</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="5">
+        <f>COUNTIF('2702'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="W15" s="5">
+        <f>COUNTIF('2702'!$T$4:$T$30, "WW/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="5">
+        <f>COUNTIF('2702'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AB15" s="5">
+        <f>COUNTIF('2702'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P16" s="5"/>
@@ -13843,21 +15699,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -13868,11 +15724,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
@@ -13888,11 +15744,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.5</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.58333333333333337</v>
+        <v>0.56603773584905659</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -13901,46 +15757,54 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.2727272727272727</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.7272727272727273</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>1.375</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>$H$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+      <formula>$H$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+      <formula>$H$8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$H$6</formula>
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
+      <formula>$H$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>$H$6</formula>
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="greaterThan">
+      <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE2BE95-E2C3-42A6-B14B-90C463CC0E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC635B31-A2EE-4240-B3DC-0AE528F378DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="2" xr2:uid="{37D255CF-9800-48E8-A6C0-46D050331476}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{9F764E12-C731-408D-AD87-AA9785780948}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -649,417 +649,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1257,6 +847,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2280,14 +1880,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:V44" totalsRowShown="0" headerRowDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:V44" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="U27:V44" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:V44">
     <sortCondition descending="1" ref="V27:V44"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{04F740DB-8979-4EB0-8BB1-150B560FA6CB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7800,9 +7400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B50D6A-19ED-4D9D-996C-C06C45B06C98}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8714,9 +8312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1020CD87-1634-48B4-88EE-E8E530948E09}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9610,7 +9206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:AD48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L14" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10828,7 +10426,7 @@
       </c>
       <c r="V28" s="17">
         <f>R$34</f>
-        <v>1.9166666666666667</v>
+        <v>2</v>
       </c>
       <c r="X28" t="s">
         <v>119</v>
@@ -10839,7 +10437,7 @@
         <v>19</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q28:Q44" si="14">SUM(Q9,U9,Y9)</f>
+        <f t="shared" ref="Q29:Q44" si="14">SUM(Q9,U9,Y9,AC9)</f>
         <v>14</v>
       </c>
       <c r="R29" s="14">
@@ -10849,12 +10447,12 @@
       <c r="T29" t="s">
         <v>98</v>
       </c>
-      <c r="U29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="V29" s="17">
-        <f>R$33</f>
-        <v>1.75</v>
+      <c r="U29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" s="21">
+        <f>R$40</f>
+        <v>1.8333333333333333</v>
       </c>
       <c r="X29" t="s">
         <v>120</v>
@@ -10866,21 +10464,21 @@
       </c>
       <c r="Q30">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R30" s="14">
         <f t="shared" si="13"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
       </c>
-      <c r="U30" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="V30" s="21">
-        <f>R$40</f>
-        <v>1.5833333333333333</v>
+      <c r="U30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="17">
+        <f>R$33</f>
+        <v>1.75</v>
       </c>
       <c r="X30" t="s">
         <v>121</v>
@@ -10892,11 +10490,11 @@
       </c>
       <c r="Q31">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R31" s="14">
         <f t="shared" si="13"/>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
@@ -10929,7 +10527,7 @@
       </c>
       <c r="V32" s="19">
         <f>R$41</f>
-        <v>1.4166666666666667</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="33" spans="16:22" x14ac:dyDescent="0.45">
@@ -10948,11 +10546,11 @@
         <v>102</v>
       </c>
       <c r="U33" s="20" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="V33" s="21">
-        <f>$R$29</f>
-        <v>1.1666666666666667</v>
+        <f>R$39</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="34" spans="16:22" x14ac:dyDescent="0.45">
@@ -10961,20 +10559,20 @@
       </c>
       <c r="Q34">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R34" s="14">
         <f t="shared" si="13"/>
-        <v>1.9166666666666667</v>
+        <v>2</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
       </c>
       <c r="U34" s="20" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="V34" s="21">
-        <f>R$39</f>
+        <f>$R$29</f>
         <v>1.1666666666666667</v>
       </c>
     </row>
@@ -11007,11 +10605,11 @@
       </c>
       <c r="Q36">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R36" s="14">
         <f t="shared" si="13"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
@@ -11021,7 +10619,7 @@
       </c>
       <c r="V36" s="17">
         <f>R$36</f>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="16:22" x14ac:dyDescent="0.45">
@@ -11044,7 +10642,7 @@
       </c>
       <c r="V37" s="19">
         <f>R$31</f>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="38" spans="16:22" x14ac:dyDescent="0.45">
@@ -11076,11 +10674,11 @@
       </c>
       <c r="Q39">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R39" s="14">
         <f t="shared" si="13"/>
-        <v>1.1666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
@@ -11099,11 +10697,11 @@
       </c>
       <c r="Q40">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R40" s="14">
         <f t="shared" si="13"/>
-        <v>1.5833333333333333</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
@@ -11122,21 +10720,21 @@
       </c>
       <c r="Q41">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R41" s="14">
         <f t="shared" si="13"/>
-        <v>1.4166666666666667</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
       </c>
       <c r="U41" s="16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V41" s="17">
-        <f>R$37</f>
-        <v>0.16666666666666666</v>
+        <f>R$30</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42" spans="16:22" x14ac:dyDescent="0.45">
@@ -11155,10 +10753,10 @@
         <v>111</v>
       </c>
       <c r="U42" s="16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V42" s="17">
-        <f>R$30</f>
+        <f>R$37</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -11241,7 +10839,7 @@
   <dimension ref="A2:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12745,38 +12343,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12789,7 +12387,7 @@
   <dimension ref="A2:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14311,35 +13909,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14351,9 +13949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -15778,32 +15374,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>$H$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15815,7 +15411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC635B31-A2EE-4240-B3DC-0AE528F378DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7CBFF0-56B4-487D-8FA5-1B745BA8F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{9F764E12-C731-408D-AD87-AA9785780948}"/>
+    <workbookView xWindow="1808" yWindow="1808" windowWidth="16874" windowHeight="10522" firstSheet="2" activeTab="2" xr2:uid="{9F764E12-C731-408D-AD87-AA9785780948}"/>
+    <workbookView xWindow="2145" yWindow="2145" windowWidth="16875" windowHeight="10523" firstSheet="2" activeTab="4" xr2:uid="{9F6593B5-5F14-4F3C-BDE2-92EA85622FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -30,6 +31,7 @@
     <sheet name="2202" sheetId="15" r:id="rId15"/>
     <sheet name="2302" sheetId="16" r:id="rId16"/>
     <sheet name="2702" sheetId="17" r:id="rId17"/>
+    <sheet name="2802" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="141">
   <si>
     <t>SamJ</t>
   </si>
@@ -519,13 +521,49 @@
   <si>
     <t>C/W</t>
   </si>
+  <si>
+    <t>NBA Equivalent</t>
+  </si>
+  <si>
+    <t>For example, if you score 3 of your teams 6 points, this is 50% of your teams. This is multiplied by the NBA's average points (100) to give 50 points.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NBA Equivalent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is what your points would (roughly) equal to in the NBA</t>
+    </r>
+  </si>
+  <si>
+    <t>C/SamM</t>
+  </si>
+  <si>
+    <t>Ry/Ru</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -605,11 +643,122 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -618,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -634,22 +783,34 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -667,6 +828,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -891,42 +1082,119 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1168,13 +1436,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4913294797687861</c:v>
+                  <c:v>0.48633879781420764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32947976878612717</c:v>
+                  <c:v>0.32786885245901637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17919075144508673</c:v>
+                  <c:v>0.18579234972677597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,14 +2148,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:V44" totalsRowShown="0" headerRowDxfId="28">
-  <autoFilter ref="U27:V44" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:V44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:W44" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="U27:W44" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:W44">
     <sortCondition descending="1" ref="V27:V44"/>
   </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04F740DB-8979-4EB0-8BB1-150B560FA6CB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="27"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{04F740DB-8979-4EB0-8BB1-150B560FA6CB}" name="Name" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{3EA0A844-2FB2-4CD6-86BD-277AC59FE2B4}" name="NBA Equivalent" dataDxfId="27">
+      <calculatedColumnFormula>Table1[[#This Row],[Average]]/($I$6/3)*100</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2193,6 +2464,7 @@
   <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2247,6 +2519,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3084,6 +3357,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3957,6 +4231,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4866,6 +5141,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5670,6 +5946,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6546,6 +6823,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7401,6 +7679,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8312,13 +8591,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1020CD87-1634-48B4-88EE-E8E530948E09}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S3" sqref="A1:XFD1048576"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.19921875" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.45">
@@ -8395,6 +8678,7 @@
         <f>COUNTIF($E$4:$E$27, P3)</f>
         <v>2</v>
       </c>
+      <c r="R3" s="32"/>
       <c r="S3" s="2" t="s">
         <v>21</v>
       </c>
@@ -8450,16 +8734,17 @@
         <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
         <v>0</v>
       </c>
+      <c r="R4" s="32"/>
       <c r="S4" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
         <v>LG/WW</v>
       </c>
       <c r="T4" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="U4" t="str">
-        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
         <v>None</v>
       </c>
     </row>
@@ -8508,16 +8793,17 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="R5" s="32"/>
       <c r="S5" t="str">
-        <f t="shared" ref="S5:S30" si="2">IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="2"/>
         <v>LG/5M</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ref="T5:T30" si="3">IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" ref="U5:U30" si="4">IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
@@ -8547,6 +8833,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="R6" s="32"/>
       <c r="S6" t="str">
         <f t="shared" si="2"/>
         <v>LG/WW</v>
@@ -8586,6 +8873,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R7" s="32"/>
       <c r="S7" t="str">
         <f t="shared" si="2"/>
         <v>LG/5M</v>
@@ -8629,6 +8917,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R8" s="32"/>
       <c r="S8" t="str">
         <f t="shared" si="2"/>
         <v>LG/WW</v>
@@ -8672,6 +8961,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="R9" s="32"/>
       <c r="S9" t="str">
         <f t="shared" si="2"/>
         <v>LG/5M</v>
@@ -8715,6 +9005,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R10" s="32"/>
       <c r="S10" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -8754,6 +9045,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="R11" s="32"/>
       <c r="S11" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -8793,6 +9085,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R12" s="32"/>
       <c r="S12" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -8832,6 +9125,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R13" s="32"/>
       <c r="S13" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -8871,6 +9165,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="R14" s="32"/>
       <c r="S14" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -8910,16 +9205,17 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="R15" s="32"/>
       <c r="S15" t="str">
-        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T15" t="str">
-        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
       <c r="U15" t="str">
-        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="4"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -8949,16 +9245,17 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="R16" s="32"/>
       <c r="S16" t="str">
-        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T16" t="str">
-        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
       <c r="U16" t="str">
-        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="4"/>
         <v>5M/LG</v>
       </c>
     </row>
@@ -8988,16 +9285,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R17" s="32"/>
       <c r="S17" t="str">
-        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T17" t="str">
-        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="shared" si="3"/>
         <v>None</v>
       </c>
       <c r="U17" t="str">
-        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <f t="shared" si="4"/>
         <v>5M/WW</v>
       </c>
     </row>
@@ -9009,6 +9307,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R18" s="32"/>
       <c r="S18" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -9030,6 +9329,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R19" s="32"/>
       <c r="S19" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -9184,6 +9484,849 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600E123A-27C9-403C-B73B-EFF1A3C4EDCC}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44985</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
       <c r="S30" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -9206,9 +10349,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:AD48"/>
   <sheetViews>
-    <sheetView topLeftCell="L14" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9297,7 +10441,7 @@
         <v>133</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.45">
@@ -9323,19 +10467,19 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>14.416666666666666</v>
+        <v>14.076923076923077</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>7.083333333333333</v>
+        <v>6.8461538461538458</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.5833333333333335</v>
+        <v>2.6153846153846154</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.45">
@@ -9364,15 +10508,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.4913294797687861</v>
+        <v>0.48633879781420764</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.32947976878612717</v>
+        <v>0.32786885245901637</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.17919075144508673</v>
+        <v>0.18579234972677597</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -9469,12 +10613,12 @@
         <v>18</v>
       </c>
       <c r="AC8">
-        <f>('2702'!$Q3)</f>
-        <v>2</v>
+        <f>('2702'!$Q3)+('2802'!$Q3)</f>
+        <v>3</v>
       </c>
       <c r="AD8" s="14">
         <f>AC8/AC$5</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.45">
@@ -9535,7 +10679,7 @@
         <v>19</v>
       </c>
       <c r="AC9">
-        <f>('2702'!$Q4)</f>
+        <f>('2702'!$Q4)+('2802'!$Q4)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="14">
@@ -9601,12 +10745,12 @@
         <v>13</v>
       </c>
       <c r="AC10">
-        <f>('2702'!$Q5)</f>
+        <f>('2702'!$Q5)+('2802'!$Q5)</f>
         <v>1</v>
       </c>
       <c r="AD10" s="14">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.45">
@@ -9667,12 +10811,12 @@
         <v>16</v>
       </c>
       <c r="AC11">
-        <f>('2702'!$Q6)</f>
+        <f>('2702'!$Q6)+('2802'!$Q6)</f>
         <v>1</v>
       </c>
       <c r="AD11" s="14">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.45">
@@ -9733,7 +10877,7 @@
         <v>15</v>
       </c>
       <c r="AC12">
-        <f>('2702'!$Q7)</f>
+        <f>('2702'!$Q7)+('2802'!$Q7)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="14">
@@ -9799,12 +10943,12 @@
         <v>12</v>
       </c>
       <c r="AC13">
-        <f>('2702'!$Q8)</f>
-        <v>0</v>
+        <f>('2702'!$Q8)+('2802'!$Q8)</f>
+        <v>2</v>
       </c>
       <c r="AD13" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.45">
@@ -9865,12 +11009,12 @@
         <v>9</v>
       </c>
       <c r="AC14">
-        <f>('2702'!$Q9)</f>
+        <f>('2702'!$Q9)+('2802'!$Q9)</f>
         <v>1</v>
       </c>
       <c r="AD14" s="14">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.45">
@@ -9931,7 +11075,7 @@
         <v>8</v>
       </c>
       <c r="AC15">
-        <f>('2702'!$Q10)</f>
+        <f>('2702'!$Q10)+('2802'!$Q10)</f>
         <v>0</v>
       </c>
       <c r="AD15" s="14">
@@ -9997,15 +11141,35 @@
         <v>7</v>
       </c>
       <c r="AC16">
-        <f>('2702'!$Q11)</f>
+        <f>('2702'!$Q11)+('2802'!$Q11)</f>
         <v>1</v>
       </c>
       <c r="AD16" s="14">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="16:30" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="B17" s="3">
+        <f>'2802'!$C$2</f>
+        <v>44985</v>
+      </c>
+      <c r="C17">
+        <f>SUM('2802'!$J$3:$J$5)</f>
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>MAX('2802'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="13">C17-D17-F17</f>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f>MIN('2802'!$J$3:$J$5)</f>
+        <v>3</v>
+      </c>
       <c r="P17" t="s">
         <v>6</v>
       </c>
@@ -10043,15 +11207,15 @@
         <v>6</v>
       </c>
       <c r="AC17">
-        <f>('2702'!$Q12)</f>
-        <v>0</v>
+        <f>('2702'!$Q12)+('2802'!$Q12)</f>
+        <v>1</v>
       </c>
       <c r="AD17" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="16:30" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P18" t="s">
         <v>5</v>
       </c>
@@ -10089,7 +11253,7 @@
         <v>5</v>
       </c>
       <c r="AC18">
-        <f>('2702'!$Q13)</f>
+        <f>('2702'!$Q13)+('2802'!$Q13)</f>
         <v>0</v>
       </c>
       <c r="AD18" s="14">
@@ -10097,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P19" t="s">
         <v>4</v>
       </c>
@@ -10135,15 +11299,15 @@
         <v>4</v>
       </c>
       <c r="AC19">
-        <f>('2702'!$Q14)</f>
-        <v>2</v>
+        <f>('2702'!$Q14)+('2802'!$Q14)</f>
+        <v>4</v>
       </c>
       <c r="AD19" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P20" t="s">
         <v>3</v>
       </c>
@@ -10181,15 +11345,15 @@
         <v>3</v>
       </c>
       <c r="AC20">
-        <f>('2702'!$Q15)</f>
+        <f>('2702'!$Q15)+('2802'!$Q15)</f>
         <v>3</v>
       </c>
       <c r="AD20" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="16:30" x14ac:dyDescent="0.45">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P21" t="s">
         <v>2</v>
       </c>
@@ -10227,15 +11391,15 @@
         <v>2</v>
       </c>
       <c r="AC21">
-        <f>('2702'!$Q16)</f>
-        <v>3</v>
+        <f>('2702'!$Q16)+('2802'!$Q16)</f>
+        <v>4</v>
       </c>
       <c r="AD21" s="14">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="16:30" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P22" t="s">
         <v>1</v>
       </c>
@@ -10273,15 +11437,15 @@
         <v>1</v>
       </c>
       <c r="AC22">
-        <f>('2702'!$Q17)</f>
-        <v>0</v>
+        <f>('2702'!$Q17)+('2802'!$Q17)</f>
+        <v>1</v>
       </c>
       <c r="AD22" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="16:30" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P23" t="s">
         <v>0</v>
       </c>
@@ -10319,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <f>('2702'!$Q18)</f>
+        <f>('2702'!$Q18)+('2802'!$Q18)</f>
         <v>0</v>
       </c>
       <c r="AD23" s="14">
@@ -10327,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P24" t="s">
         <v>61</v>
       </c>
@@ -10365,25 +11529,25 @@
         <v>61</v>
       </c>
       <c r="AC24">
-        <f>('2702'!$Q19)</f>
-        <v>0</v>
+        <f>('2702'!$Q19)+('2802'!$Q19)</f>
+        <v>2</v>
       </c>
       <c r="AD24" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="16:30" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P26" t="s">
         <v>66</v>
       </c>
       <c r="Q26">
         <f>SUM(Q5,U5,Y5,AC5)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P27" t="s">
         <v>28</v>
       </c>
@@ -10396,427 +11560,506 @@
       <c r="T27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="U27" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="V27" s="15" t="s">
+      <c r="V27" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="X27" t="s">
+      <c r="W27" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P28" t="s">
         <v>18</v>
       </c>
       <c r="Q28">
         <f>SUM(Q8,U8,Y8,AC8)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28:R44" si="13">Q28/Q$26</f>
-        <v>1.6666666666666667</v>
+        <f t="shared" ref="R28:R44" si="14">Q28/Q$26</f>
+        <v>1.6153846153846154</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
       </c>
-      <c r="U28" s="16" t="s">
+      <c r="U28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V28" s="20">
         <f>R$34</f>
-        <v>2</v>
-      </c>
-      <c r="X28" t="s">
+        <v>1.8461538461538463</v>
+      </c>
+      <c r="W28" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>39.344262295081968</v>
+      </c>
+      <c r="Y28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P29" t="s">
         <v>19</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q44" si="14">SUM(Q9,U9,Y9,AC9)</f>
+        <f t="shared" ref="Q29:Q44" si="15">SUM(Q9,U9,Y9,AC9)</f>
         <v>14</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="13"/>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>1.0769230769230769</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
       </c>
-      <c r="U29" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="V29" s="21">
-        <f>R$40</f>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="X29" t="s">
+      <c r="U29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="20">
+        <f>R$33</f>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="W29" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>37.704918032786885</v>
+      </c>
+      <c r="Y29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P30" t="s">
         <v>13</v>
       </c>
       <c r="Q30">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="R30" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="R30" s="14">
-        <f t="shared" si="13"/>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
       </c>
-      <c r="U30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="V30" s="17">
-        <f>R$33</f>
-        <v>1.75</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="U30" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V30" s="23">
+        <f>R$40</f>
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="W30" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>36.065573770491795</v>
+      </c>
+      <c r="Y30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="16:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P31" t="s">
         <v>16</v>
       </c>
       <c r="Q31">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="R31" s="14">
         <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="R31" s="14">
-        <f t="shared" si="13"/>
-        <v>0.41666666666666669</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
       </c>
-      <c r="U31" s="18" t="s">
+      <c r="U31" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="V31" s="19">
+      <c r="V31" s="26">
         <f>$R$28</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="16:30" x14ac:dyDescent="0.45">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="W31" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>34.42622950819672</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.45">
       <c r="P32" t="s">
         <v>15</v>
       </c>
       <c r="Q32">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="14">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R32" s="14">
-        <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="T32" t="s">
         <v>101</v>
       </c>
-      <c r="U32" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V32" s="19">
+      <c r="U32" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="26">
         <f>R$41</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="16:22" x14ac:dyDescent="0.45">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="W32" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>34.42622950819672</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P33" t="s">
         <v>12</v>
       </c>
       <c r="Q33">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="R33" s="14">
         <f t="shared" si="14"/>
-        <v>21</v>
-      </c>
-      <c r="R33" s="14">
-        <f t="shared" si="13"/>
-        <v>1.75</v>
+        <v>1.7692307692307692</v>
       </c>
       <c r="T33" t="s">
         <v>102</v>
       </c>
-      <c r="U33" s="20" t="s">
+      <c r="U33" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="V33" s="21">
+      <c r="V33" s="23">
         <f>R$39</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="34" spans="16:22" x14ac:dyDescent="0.45">
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="W33" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>29.508196721311474</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P34" t="s">
         <v>9</v>
       </c>
       <c r="Q34">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="R34" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="R34" s="14">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
       </c>
-      <c r="U34" s="20" t="s">
+      <c r="U34" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V34" s="23">
         <f>$R$29</f>
-        <v>1.1666666666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="16:22" x14ac:dyDescent="0.45">
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="W34" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>22.950819672131146</v>
+      </c>
+    </row>
+    <row r="35" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P35" t="s">
         <v>8</v>
       </c>
       <c r="Q35">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="R35" s="14">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="R35" s="14">
-        <f t="shared" si="13"/>
-        <v>0.66666666666666663</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
       </c>
-      <c r="U35" s="16" t="s">
+      <c r="U35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="V35" s="17">
+      <c r="V35" s="20">
         <f>R$35</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="36" spans="16:22" x14ac:dyDescent="0.45">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="W35" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>13.114754098360656</v>
+      </c>
+    </row>
+    <row r="36" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P36" t="s">
         <v>7</v>
       </c>
       <c r="Q36">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="R36" s="14">
         <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="R36" s="14">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
       </c>
-      <c r="U36" s="16" t="s">
+      <c r="U36" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="V36" s="17">
+      <c r="V36" s="20">
         <f>R$36</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="16:22" x14ac:dyDescent="0.45">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="W36" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>9.8360655737704921</v>
+      </c>
+    </row>
+    <row r="37" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P37" t="s">
         <v>6</v>
       </c>
       <c r="Q37">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="R37" s="14">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="R37" s="14">
-        <f t="shared" si="13"/>
-        <v>0.16666666666666666</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
       </c>
-      <c r="U37" s="18" t="s">
+      <c r="U37" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="V37" s="19">
+      <c r="V37" s="26">
         <f>R$31</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="38" spans="16:22" x14ac:dyDescent="0.45">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="W37" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>8.1967213114754109</v>
+      </c>
+    </row>
+    <row r="38" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P38" t="s">
         <v>5</v>
       </c>
       <c r="Q38">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="R38" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="R38" s="14">
-        <f t="shared" si="13"/>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
       </c>
-      <c r="U38" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V38" s="21">
-        <f>R$38</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="39" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="U38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="23">
+        <f>R$42</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="W38" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>6.557377049180328</v>
+      </c>
+    </row>
+    <row r="39" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P39" t="s">
         <v>4</v>
       </c>
       <c r="Q39">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="R39" s="14">
         <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="R39" s="14">
-        <f t="shared" si="13"/>
-        <v>1.3333333333333333</v>
+        <v>1.3846153846153846</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
       </c>
-      <c r="U39" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="V39" s="21">
-        <f>R$42</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="40" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="U39" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V39" s="23">
+        <f>R$38</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="W39" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>4.918032786885246</v>
+      </c>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+    </row>
+    <row r="40" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P40" t="s">
         <v>3</v>
       </c>
       <c r="Q40">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="R40" s="14">
         <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-      <c r="R40" s="14">
-        <f t="shared" si="13"/>
-        <v>1.8333333333333333</v>
+        <v>1.6923076923076923</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
       </c>
-      <c r="U40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="V40" s="19">
+      <c r="U40" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" s="26">
         <f>R$43</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41" spans="16:22" x14ac:dyDescent="0.45">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="W40" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>4.918032786885246</v>
+      </c>
+    </row>
+    <row r="41" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P41" t="s">
         <v>2</v>
       </c>
       <c r="Q41">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="R41" s="14">
         <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="R41" s="14">
-        <f t="shared" si="13"/>
-        <v>1.6666666666666667</v>
+        <v>1.6153846153846154</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
       </c>
-      <c r="U41" s="16" t="s">
+      <c r="U41" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="V41" s="17">
+      <c r="V41" s="20">
         <f>R$30</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="16:22" x14ac:dyDescent="0.45">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="W41" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>4.918032786885246</v>
+      </c>
+    </row>
+    <row r="42" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P42" t="s">
         <v>1</v>
       </c>
       <c r="Q42">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="R42" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="R42" s="14">
-        <f t="shared" si="13"/>
-        <v>0.25</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="T42" t="s">
         <v>111</v>
       </c>
-      <c r="U42" s="16" t="s">
+      <c r="U42" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="V42" s="17">
+      <c r="V42" s="20">
         <f>R$37</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="43" spans="16:22" x14ac:dyDescent="0.45">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="W42" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>4.918032786885246</v>
+      </c>
+    </row>
+    <row r="43" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P43" t="s">
         <v>0</v>
       </c>
       <c r="Q43">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="R43" s="14">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="R43" s="14">
-        <f t="shared" si="13"/>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="T43" t="s">
         <v>112</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="V43" s="19">
-        <f>R$32</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="U43" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V43" s="26">
+        <f>R$44</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="W43" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>4.918032786885246</v>
+      </c>
+    </row>
+    <row r="44" spans="16:27" x14ac:dyDescent="0.45">
       <c r="P44" t="s">
         <v>61</v>
       </c>
       <c r="Q44">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="R44" s="14">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R44" s="14">
-        <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
       </c>
-      <c r="U44" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="V44" s="19">
-        <f>R$44</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="16:22" x14ac:dyDescent="0.45">
+      <c r="U44" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="V44" s="29">
+        <f>R$32</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="W44" s="30">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>1.639344262295082</v>
+      </c>
+    </row>
+    <row r="46" spans="16:27" x14ac:dyDescent="0.45">
       <c r="U46" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="47" spans="16:27" x14ac:dyDescent="0.45">
       <c r="U47" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="48" spans="16:27" x14ac:dyDescent="0.45">
       <c r="U48" t="s">
         <v>124</v>
       </c>
@@ -10838,9 +12081,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -10963,15 +12207,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -11408,7 +12652,7 @@
       </c>
       <c r="H9" s="11">
         <f>SUM(B15:B18)/(SUM(B15:B18)+SUM(C15:C18))</f>
-        <v>0.6</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J9">
         <f>'1402'!$Q$3</f>
@@ -11698,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f>'2102'!Q20</f>
+        <f>'2102'!Q19</f>
         <v>0</v>
       </c>
       <c r="Q12" s="5">
@@ -11770,7 +13014,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.4144144144144144</v>
+        <v>0.42372881355932202</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$3</f>
@@ -11793,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f>'2202'!Q21</f>
+        <f>'2202'!Q19</f>
         <v>0</v>
       </c>
       <c r="Q13" s="5">
@@ -11881,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f>'2302'!Q22</f>
+        <f>'2302'!Q19</f>
         <v>0</v>
       </c>
       <c r="Q14" s="5" t="s">
@@ -11969,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f>'2702'!Q23</f>
+        <f>'2702'!Q19</f>
         <v>0</v>
       </c>
       <c r="Q15" s="5">
@@ -12020,20 +13264,92 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
+      <c r="A16" s="3">
+        <f>'2802'!$C$2</f>
+        <v>44985</v>
+      </c>
+      <c r="B16" s="4">
+        <f>'2802'!$J$3</f>
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <f>'2802'!$K$3</f>
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <f>'2802'!$M$3</f>
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f>'2802'!$Q$3</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <f>'2802'!$Q$16</f>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>'2802'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>'2802'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>'2802'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>'2802'!Q$19</f>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="5">
+        <v>1</v>
+      </c>
+      <c r="X16" s="5">
+        <f>COUNTIF('2802'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="Y16" s="5">
+        <f>COUNTIF('2802'!$T$4:$T$30, "WW/LG")</f>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="5">
+        <f>COUNTIF('2802'!$S$4:$S$30, "LG/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="5">
+        <f>COUNTIF('2802'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AE16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="17" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q17" s="5"/>
@@ -12255,21 +13571,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -12280,11 +13596,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -12300,15 +13616,15 @@
       </c>
       <c r="O31">
         <f t="shared" ref="O31" si="1">SUM(O4:O30)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.39655172413793105</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.43396226415094341</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -12317,27 +13633,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.6666666666666667</v>
+        <v>1.6153846153846154</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1.3333333333333333</v>
+        <v>1.3</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.41666666666666669</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -12354,17 +13670,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+      <formula>$H$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
       <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
-      <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
@@ -12386,8 +13702,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
+    </sheetView>
+    <sheetView topLeftCell="X1" workbookViewId="1">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12511,15 +13830,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -12983,7 +14302,7 @@
       </c>
       <c r="H9" s="11">
         <f>SUM(B15:B18)/(SUM(B15:B18)+SUM(C15:C18))</f>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="J9">
         <f>'1402'!$Q$8</f>
@@ -13169,7 +14488,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="15" t="s">
         <v>45</v>
       </c>
       <c r="K11">
@@ -13259,7 +14578,7 @@
         <f>'2102'!$Q$8</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="15" t="s">
         <v>45</v>
       </c>
       <c r="L12">
@@ -13347,7 +14666,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.54166666666666663</v>
+        <v>0.53543307086614178</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$8</f>
@@ -13567,10 +14886,20 @@
       <c r="V15" s="5">
         <v>1</v>
       </c>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="X15" s="5">
+        <f>COUNTIF('2702'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Y15" s="5">
+        <f>COUNTIF('2702'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="AC15" s="5">
         <f>COUNTIF('2702'!$T$4:$T$30, "WW/5M")</f>
         <v>1</v>
@@ -13587,20 +14916,92 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
+      <c r="A16" s="3">
+        <f>'2802'!$C$2</f>
+        <v>44985</v>
+      </c>
+      <c r="B16" s="7">
+        <f>'2802'!$J$5</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <f>'2802'!$K$5</f>
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <f>'2802'!$M$5</f>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f>'2802'!$Q$8</f>
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f>'2802'!$Q$9</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>'2802'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>'2802'!$Q$12</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>'2802'!$Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>'2802'!$Q$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>2</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="5">
+        <v>1</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X16" s="5">
+        <f>COUNTIF('2802'!$T$4:$T$30, "WW/LG")</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <f>COUNTIF('2802'!$S$4:$S$30, "LG/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC16" s="5">
+        <f>COUNTIF('2802'!$T$4:$T$30, "WW/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AD16" s="5">
+        <f>COUNTIF('2802'!$U$4:$U$30, "5M/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="9:32" x14ac:dyDescent="0.45">
       <c r="Q17" s="5"/>
@@ -13822,21 +15223,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -13847,7 +15248,7 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
@@ -13859,7 +15260,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -13871,11 +15272,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.62264150943396224</v>
+        <v>0.58064516129032262</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.4838709677419355</v>
+        <v>0.49230769230769234</v>
       </c>
     </row>
     <row r="32" spans="9:32" x14ac:dyDescent="0.45">
@@ -13884,27 +15285,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.9090909090909092</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.1818181818181817</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
   </sheetData>
@@ -13949,7 +15350,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="1">
+      <selection activeCell="AD17" sqref="AD17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -14066,15 +15472,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -14846,7 +16252,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.53913043478260869</v>
+        <v>0.53719008264462809</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$14</f>
@@ -15075,19 +16481,85 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
+      <c r="A16" s="3">
+        <f>'2802'!$C$2</f>
+        <v>44985</v>
+      </c>
+      <c r="B16" s="4">
+        <f>'2802'!$J$4</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <f>'2802'!$K$4</f>
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <f>'2802'!$M$4</f>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f>'2802'!$Q$14</f>
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f>'2802'!$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>'2802'!$Q$4</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>'2802'!$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>'2802'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="5">
+        <f>COUNTIF('2802'!$U$4:$U$30, "5M/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="W16" s="5">
+        <f>COUNTIF('2802'!$T$4:$T$30, "WW/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA16" s="5">
+        <f>COUNTIF('2802'!$U$4:$U$30, "5M/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="AB16" s="5">
+        <f>COUNTIF('2802'!$S$4:$S$30, "LG/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="9:30" x14ac:dyDescent="0.45">
       <c r="P17" s="5"/>
@@ -15295,21 +16767,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -15320,7 +16792,7 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
@@ -15332,7 +16804,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31">
         <f>SUM(N7:N30)</f>
@@ -15340,11 +16812,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.5161290322580645</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.56603773584905659</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="32" spans="9:30" x14ac:dyDescent="0.45">
@@ -15353,23 +16825,23 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.3333333333333333</v>
+        <v>1.3846153846153846</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.8333333333333333</v>
+        <v>1.6923076923076923</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>1.2222222222222223</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -15385,13 +16857,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>$H$8</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15412,6 +16884,7 @@
   <dimension ref="B2:Q18"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -15948,6 +17421,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16878,6 +18352,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -17808,6 +19283,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7CBFF0-56B4-487D-8FA5-1B745BA8F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811A8482-70F7-40FF-A9D9-F1CFE352AFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1808" yWindow="1808" windowWidth="16874" windowHeight="10522" firstSheet="2" activeTab="2" xr2:uid="{9F764E12-C731-408D-AD87-AA9785780948}"/>
-    <workbookView xWindow="2145" yWindow="2145" windowWidth="16875" windowHeight="10523" firstSheet="2" activeTab="4" xr2:uid="{9F6593B5-5F14-4F3C-BDE2-92EA85622FC2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="4" activeTab="18" xr2:uid="{9F6593B5-5F14-4F3C-BDE2-92EA85622FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -32,6 +31,7 @@
     <sheet name="2302" sheetId="16" r:id="rId16"/>
     <sheet name="2702" sheetId="17" r:id="rId17"/>
     <sheet name="2802" sheetId="18" r:id="rId18"/>
+    <sheet name="0603" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="141">
   <si>
     <t>SamJ</t>
   </si>
@@ -2464,7 +2464,6 @@
   <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2519,7 +2518,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3357,7 +3355,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4231,7 +4228,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5141,7 +5137,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5946,7 +5941,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6823,7 +6817,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7679,7 +7672,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8591,10 +8583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1020CD87-1634-48B4-88EE-E8E530948E09}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S3" sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9507,9 +9496,8 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I28" sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10345,14 +10333,799 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F05BC-7741-40DE-831C-01EB8B1FA2DA}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44991</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>2</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:AD48"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12081,10 +12854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -13702,10 +14472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
-    </sheetView>
-    <sheetView topLeftCell="X1" workbookViewId="1">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
@@ -15350,10 +16117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="1">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
@@ -16883,8 +17647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44234B45-7BAF-4148-92B5-8B16D3A736D4}">
   <dimension ref="B2:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -17421,7 +18184,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18352,7 +19114,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -19283,7 +20044,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811A8482-70F7-40FF-A9D9-F1CFE352AFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79893E2-6201-43CB-9FD4-7A3F03BCA7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="4" activeTab="18" xr2:uid="{9F6593B5-5F14-4F3C-BDE2-92EA85622FC2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{9F6593B5-5F14-4F3C-BDE2-92EA85622FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="144">
   <si>
     <t>SamJ</t>
   </si>
@@ -556,6 +556,15 @@
   <si>
     <t>Ry/Ru</t>
   </si>
+  <si>
+    <t>WEEK 5</t>
+  </si>
+  <si>
+    <t>K/A</t>
+  </si>
+  <si>
+    <t>A/R/N</t>
+  </si>
 </sst>
 </file>
 
@@ -810,7 +819,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -858,6 +897,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1436,13 +1535,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.48633879781420764</c:v>
+                  <c:v>0.48543689320388356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32786885245901637</c:v>
+                  <c:v>0.32524271844660196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18579234972677597</c:v>
+                  <c:v>0.18932038834951456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,15 +2247,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:W44" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}" name="Table1" displayName="Table1" ref="U27:W44" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <autoFilter ref="U27:W44" xr:uid="{6C4743A1-3F7C-43E4-BC19-131B0F06F663}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:W44">
     <sortCondition descending="1" ref="V27:V44"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{04F740DB-8979-4EB0-8BB1-150B560FA6CB}" name="Name" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{3EA0A844-2FB2-4CD6-86BD-277AC59FE2B4}" name="NBA Equivalent" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{04F740DB-8979-4EB0-8BB1-150B560FA6CB}" name="Name" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{7BE2DD7D-041B-42D3-BEF3-83231555EB12}" name="Average" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{3EA0A844-2FB2-4CD6-86BD-277AC59FE2B4}" name="NBA Equivalent" dataDxfId="36">
       <calculatedColumnFormula>Table1[[#This Row],[Average]]/($I$6/3)*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10337,8 +10436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F05BC-7741-40DE-831C-01EB8B1FA2DA}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10402,26 +10501,26 @@
       </c>
       <c r="J3">
         <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.4</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="M3">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
       </c>
       <c r="Q3">
         <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R3" s="32"/>
       <c r="S3" s="2" t="s">
@@ -10458,19 +10557,19 @@
       </c>
       <c r="J4">
         <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.5</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="M4">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
@@ -10517,15 +10616,15 @@
       </c>
       <c r="J5">
         <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="M5">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
@@ -10653,14 +10752,14 @@
       </c>
       <c r="M8">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="32"/>
       <c r="S8" t="str">
@@ -10697,14 +10796,14 @@
       </c>
       <c r="M9">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>9</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="32"/>
       <c r="S9" t="str">
@@ -10748,7 +10847,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" s="32"/>
       <c r="S10" t="str">
@@ -10765,6 +10864,24 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
       <c r="P11" t="s">
         <v>7</v>
       </c>
@@ -10779,7 +10896,7 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
@@ -10787,17 +10904,35 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
       <c r="P12" t="s">
         <v>6</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="32"/>
       <c r="S12" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
@@ -10809,6 +10944,24 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
       <c r="P13" t="s">
         <v>5</v>
       </c>
@@ -10827,16 +10980,34 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
       <c r="P14" t="s">
         <v>4</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R14" s="32"/>
       <c r="S14" t="str">
@@ -10849,10 +11020,28 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
       <c r="P15" t="s">
         <v>3</v>
       </c>
@@ -10863,7 +11052,7 @@
       <c r="R15" s="32"/>
       <c r="S15" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="3"/>
@@ -10875,17 +11064,35 @@
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
       <c r="P16" t="s">
         <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="32"/>
       <c r="S16" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="3"/>
@@ -10896,7 +11103,25 @@
         <v>None</v>
       </c>
     </row>
-    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
       <c r="P17" t="s">
         <v>1</v>
       </c>
@@ -10915,10 +11140,28 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
       <c r="P18" t="s">
         <v>0</v>
       </c>
@@ -10933,20 +11176,38 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
       <c r="P19" t="s">
         <v>61</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" t="str">
@@ -10955,59 +11216,131 @@
       </c>
       <c r="T19" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
       <c r="S20" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
       <c r="S21" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
       <c r="S22" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
       <c r="S23" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="3"/>
@@ -11018,10 +11351,28 @@
         <v>None</v>
       </c>
     </row>
-    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
       <c r="S24" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T24" t="str">
         <f t="shared" si="3"/>
@@ -11032,35 +11383,71 @@
         <v>None</v>
       </c>
     </row>
-    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
       <c r="S25" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
       <c r="S26" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
     </row>
-    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S27" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -11074,7 +11461,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S28" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -11088,7 +11475,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S29" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -11102,7 +11489,7 @@
         <v>None</v>
       </c>
     </row>
-    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
       <c r="S30" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
@@ -11123,9 +11510,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
-  <dimension ref="B2:AD48"/>
+  <dimension ref="B2:AH48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11134,12 +11523,12 @@
     <col min="21" max="22" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -11159,7 +11548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <f>'602'!$C$2</f>
         <v>44963</v>
@@ -11216,8 +11605,14 @@
       <c r="AC5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <f>'702'!$C$2</f>
         <v>44964</v>
@@ -11240,22 +11635,22 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>14.076923076923077</v>
+        <v>14.714285714285714</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>6.8461538461538458</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4.615384615384615</v>
+        <v>4.7857142857142856</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.6153846153846154</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.45">
+        <v>2.7857142857142856</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <f>'802'!$C$2</f>
         <v>44965</v>
@@ -11281,15 +11676,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.48633879781420764</v>
+        <v>0.48543689320388356</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.32786885245901637</v>
+        <v>0.32524271844660196</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.18579234972677597</v>
+        <v>0.18932038834951456</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -11327,8 +11722,17 @@
       <c r="AD7" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <f>'1002'!$C$2</f>
         <v>44967</v>
@@ -11393,8 +11797,19 @@
         <f>AC8/AC$5</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG8">
+        <f>('0603'!$Q3)</f>
+        <v>5</v>
+      </c>
+      <c r="AH8" s="14">
+        <f>AG8/AG$5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <f>'1302'!$C$2</f>
         <v>44970</v>
@@ -11459,8 +11874,19 @@
         <f t="shared" ref="AD9:AD24" si="6">AC9/AC$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9">
+        <f>('0603'!$Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="14">
+        <f t="shared" ref="AH9:AH24" si="7">AG9/AG$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <f>'1402'!$C$2</f>
         <v>44971</v>
@@ -11525,8 +11951,19 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG10">
+        <f>('0603'!$Q5)</f>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>'1602'!$C$2</f>
         <v>44973</v>
@@ -11540,7 +11977,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="7">C11-D11-F11</f>
+        <f t="shared" ref="E11" si="8">C11-D11-F11</f>
         <v>5</v>
       </c>
       <c r="F11">
@@ -11591,8 +12028,19 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG11">
+        <f>('0603'!$Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f>'2002'!$C$2</f>
         <v>44977</v>
@@ -11606,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12" si="8">C12-D12-F12</f>
+        <f t="shared" ref="E12" si="9">C12-D12-F12</f>
         <v>4</v>
       </c>
       <c r="F12">
@@ -11657,8 +12105,19 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG12">
+        <f>('0603'!$Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <f>'2102'!$C$2</f>
         <v>44978</v>
@@ -11672,7 +12131,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="9">C13-D13-F13</f>
+        <f t="shared" ref="E13" si="10">C13-D13-F13</f>
         <v>4</v>
       </c>
       <c r="F13">
@@ -11723,8 +12182,19 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13">
+        <f>('0603'!$Q8)</f>
+        <v>3</v>
+      </c>
+      <c r="AH13" s="14">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f>'2202'!$C$2</f>
         <v>44979</v>
@@ -11738,7 +12208,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14" si="10">C14-D14-F14</f>
+        <f t="shared" ref="E14" si="11">C14-D14-F14</f>
         <v>4</v>
       </c>
       <c r="F14">
@@ -11789,8 +12259,19 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG14">
+        <f>('0603'!$Q9)</f>
+        <v>3</v>
+      </c>
+      <c r="AH14" s="14">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f>'2302'!$C$2</f>
         <v>44980</v>
@@ -11804,7 +12285,7 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="11">C15-D15-F15</f>
+        <f t="shared" ref="E15" si="12">C15-D15-F15</f>
         <v>5</v>
       </c>
       <c r="F15">
@@ -11855,8 +12336,19 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG15">
+        <f>('0603'!$Q10)</f>
+        <v>2</v>
+      </c>
+      <c r="AH15" s="14">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <f>'2702'!$C$2</f>
         <v>44984</v>
@@ -11870,7 +12362,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" si="12">C16-D16-F16</f>
+        <f t="shared" ref="E16" si="13">C16-D16-F16</f>
         <v>5</v>
       </c>
       <c r="F16">
@@ -11921,8 +12413,19 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG16">
+        <f>('0603'!$Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f>'2802'!$C$2</f>
         <v>44985</v>
@@ -11936,7 +12439,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="13">C17-D17-F17</f>
+        <f t="shared" ref="E17" si="14">C17-D17-F17</f>
         <v>3</v>
       </c>
       <c r="F17">
@@ -11987,8 +12490,39 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <f>('0603'!$Q12)</f>
+        <v>2</v>
+      </c>
+      <c r="AH17" s="14">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="3">
+        <f>'0603'!$C$2</f>
+        <v>44991</v>
+      </c>
+      <c r="C18">
+        <f>SUM('0603'!$J$3:$J$5)</f>
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <f>MAX('0603'!$J$3:$J$5)</f>
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18" si="15">C18-D18-F18</f>
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <f>MIN('0603'!$J$3:$J$5)</f>
+        <v>5</v>
+      </c>
       <c r="P18" t="s">
         <v>5</v>
       </c>
@@ -12033,8 +12567,19 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18">
+        <f>('0603'!$Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P19" t="s">
         <v>4</v>
       </c>
@@ -12079,8 +12624,19 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG19">
+        <f>('0603'!$Q14)</f>
+        <v>4</v>
+      </c>
+      <c r="AH19" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P20" t="s">
         <v>3</v>
       </c>
@@ -12125,8 +12681,19 @@
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <f>('0603'!$Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P21" t="s">
         <v>2</v>
       </c>
@@ -12171,8 +12738,19 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <f>('0603'!$Q16)</f>
+        <v>1</v>
+      </c>
+      <c r="AH21" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P22" t="s">
         <v>1</v>
       </c>
@@ -12217,8 +12795,19 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <f>('0603'!$Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="AH22" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P23" t="s">
         <v>0</v>
       </c>
@@ -12263,8 +12852,19 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f>('0603'!$Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P24" t="s">
         <v>61</v>
       </c>
@@ -12309,18 +12909,29 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="AF24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG24">
+        <f>('0603'!$Q19)</f>
+        <v>1</v>
+      </c>
+      <c r="AH24" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P26" t="s">
         <v>66</v>
       </c>
       <c r="Q26">
-        <f>SUM(Q5,U5,Y5,AC5)</f>
-        <v>13</v>
+        <f>SUM(Q5,U5,Y5,AC5,AG5)</f>
+        <v>14</v>
       </c>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P27" t="s">
         <v>28</v>
       </c>
@@ -12346,17 +12957,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P28" t="s">
         <v>18</v>
       </c>
       <c r="Q28">
-        <f>SUM(Q8,U8,Y8,AC8)</f>
-        <v>21</v>
+        <f>SUM(Q8,U8,Y8,AC8,AG8)</f>
+        <v>26</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28:R44" si="14">Q28/Q$26</f>
-        <v>1.6153846153846154</v>
+        <f t="shared" ref="R28:R44" si="16">Q28/Q$26</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
@@ -12366,27 +12977,27 @@
       </c>
       <c r="V28" s="20">
         <f>R$34</f>
-        <v>1.8461538461538463</v>
+        <v>1.9285714285714286</v>
       </c>
       <c r="W28" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>39.344262295081968</v>
+        <v>39.320388349514566</v>
       </c>
       <c r="Y28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P29" t="s">
         <v>19</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q44" si="15">SUM(Q9,U9,Y9,AC9)</f>
+        <f t="shared" ref="Q29:Q44" si="17">SUM(Q9,U9,Y9,AC9,AG9)</f>
         <v>14</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="14"/>
-        <v>1.0769230769230769</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
@@ -12396,84 +13007,84 @@
       </c>
       <c r="V29" s="20">
         <f>R$33</f>
-        <v>1.7692307692307692</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="W29" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>37.704918032786885</v>
+        <v>37.864077669902919</v>
       </c>
       <c r="Y29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P30" t="s">
         <v>13</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="14"/>
-        <v>0.23076923076923078</v>
+        <f t="shared" si="16"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
       </c>
-      <c r="U30" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="V30" s="23">
-        <f>R$40</f>
-        <v>1.6923076923076923</v>
-      </c>
-      <c r="W30" s="24">
+      <c r="U30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V30" s="26">
+        <f>$R$28</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="W30" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>36.065573770491795</v>
+        <v>37.864077669902919</v>
       </c>
       <c r="Y30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P31" t="s">
         <v>16</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="14"/>
-        <v>0.38461538461538464</v>
+        <f t="shared" si="16"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
       </c>
-      <c r="U31" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V31" s="26">
-        <f>$R$28</f>
-        <v>1.6153846153846154</v>
-      </c>
-      <c r="W31" s="27">
+      <c r="U31" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" s="23">
+        <f>R$40</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="W31" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>34.42622950819672</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.45">
+        <v>32.038834951456316</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.45">
       <c r="P32" t="s">
         <v>15</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="14"/>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="16"/>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="T32" t="s">
         <v>101</v>
@@ -12483,11 +13094,11 @@
       </c>
       <c r="V32" s="26">
         <f>R$41</f>
-        <v>1.6153846153846154</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="W32" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>34.42622950819672</v>
+        <v>32.038834951456316</v>
       </c>
       <c r="Y32" t="s">
         <v>138</v>
@@ -12498,12 +13109,12 @@
         <v>12</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="15"/>
-        <v>23</v>
+        <f t="shared" si="17"/>
+        <v>26</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="14"/>
-        <v>1.7692307692307692</v>
+        <f t="shared" si="16"/>
+        <v>1.8571428571428572</v>
       </c>
       <c r="T33" t="s">
         <v>102</v>
@@ -12513,11 +13124,11 @@
       </c>
       <c r="V33" s="23">
         <f>R$39</f>
-        <v>1.3846153846153846</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="W33" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>29.508196721311474</v>
+        <v>32.038834951456316</v>
       </c>
       <c r="Y33" t="s">
         <v>137</v>
@@ -12528,12 +13139,12 @@
         <v>9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="15"/>
-        <v>24</v>
+        <f t="shared" si="17"/>
+        <v>27</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="14"/>
-        <v>1.8461538461538463</v>
+        <f t="shared" si="16"/>
+        <v>1.9285714285714286</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
@@ -12543,11 +13154,11 @@
       </c>
       <c r="V34" s="23">
         <f>$R$29</f>
-        <v>1.0769230769230769</v>
+        <v>1</v>
       </c>
       <c r="W34" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>22.950819672131146</v>
+        <v>20.38834951456311</v>
       </c>
     </row>
     <row r="35" spans="16:27" x14ac:dyDescent="0.45">
@@ -12555,12 +13166,12 @@
         <v>8</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="14"/>
-        <v>0.61538461538461542</v>
+        <f t="shared" si="16"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
@@ -12570,11 +13181,11 @@
       </c>
       <c r="V35" s="20">
         <f>R$35</f>
-        <v>0.61538461538461542</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="W35" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>13.114754098360656</v>
+        <v>14.563106796116507</v>
       </c>
     </row>
     <row r="36" spans="16:27" x14ac:dyDescent="0.45">
@@ -12582,12 +13193,12 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="14"/>
-        <v>0.46153846153846156</v>
+        <f t="shared" si="16"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
@@ -12597,11 +13208,11 @@
       </c>
       <c r="V36" s="20">
         <f>R$36</f>
-        <v>0.46153846153846156</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="W36" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>9.8360655737704921</v>
+        <v>8.7378640776699026</v>
       </c>
     </row>
     <row r="37" spans="16:27" x14ac:dyDescent="0.45">
@@ -12609,12 +13220,12 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="14"/>
-        <v>0.23076923076923078</v>
+        <f t="shared" si="16"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
@@ -12624,11 +13235,11 @@
       </c>
       <c r="V37" s="26">
         <f>R$31</f>
-        <v>0.38461538461538464</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="W37" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.1967213114754109</v>
+        <v>7.2815533980582536</v>
       </c>
     </row>
     <row r="38" spans="16:27" x14ac:dyDescent="0.45">
@@ -12636,12 +13247,12 @@
         <v>5</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="14"/>
-        <v>0.23076923076923078</v>
+        <f t="shared" si="16"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
@@ -12651,11 +13262,11 @@
       </c>
       <c r="V38" s="23">
         <f>R$42</f>
-        <v>0.30769230769230771</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="W38" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>6.557377049180328</v>
+        <v>7.2815533980582536</v>
       </c>
     </row>
     <row r="39" spans="16:27" x14ac:dyDescent="0.45">
@@ -12663,26 +13274,26 @@
         <v>4</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="15"/>
-        <v>18</v>
+        <f t="shared" si="17"/>
+        <v>22</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="14"/>
-        <v>1.3846153846153846</v>
+        <f t="shared" si="16"/>
+        <v>1.5714285714285714</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
       </c>
-      <c r="U39" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="V39" s="23">
-        <f>R$38</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="W39" s="24">
+      <c r="U39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="V39" s="20">
+        <f>R$37</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W39" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.918032786885246</v>
+        <v>7.2815533980582536</v>
       </c>
       <c r="Z39" s="31"/>
       <c r="AA39" s="31"/>
@@ -12692,26 +13303,26 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="14"/>
-        <v>1.6923076923076923</v>
+        <f t="shared" si="16"/>
+        <v>1.5714285714285714</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
       </c>
-      <c r="U40" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="V40" s="26">
-        <f>R$43</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="W40" s="27">
+      <c r="U40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" s="20">
+        <f>R$30</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W40" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.918032786885246</v>
+        <v>5.825242718446602</v>
       </c>
     </row>
     <row r="41" spans="16:27" x14ac:dyDescent="0.45">
@@ -12719,26 +13330,26 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="15"/>
-        <v>21</v>
+        <f t="shared" si="17"/>
+        <v>22</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="14"/>
-        <v>1.6153846153846154</v>
+        <f t="shared" si="16"/>
+        <v>1.5714285714285714</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
       </c>
-      <c r="U41" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="V41" s="20">
-        <f>R$30</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="W41" s="21">
+      <c r="U41" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V41" s="26">
+        <f>R$44</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W41" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.918032786885246</v>
+        <v>5.825242718446602</v>
       </c>
     </row>
     <row r="42" spans="16:27" x14ac:dyDescent="0.45">
@@ -12746,26 +13357,26 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" si="14"/>
-        <v>0.30769230769230771</v>
+        <f t="shared" si="16"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="T42" t="s">
         <v>111</v>
       </c>
-      <c r="U42" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="V42" s="20">
-        <f>R$37</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="W42" s="21">
+      <c r="U42" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="23">
+        <f>R$38</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="W42" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.918032786885246</v>
+        <v>4.3689320388349513</v>
       </c>
     </row>
     <row r="43" spans="16:27" x14ac:dyDescent="0.45">
@@ -12773,26 +13384,26 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="14"/>
-        <v>0.23076923076923078</v>
+        <f t="shared" si="16"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="T43" t="s">
         <v>112</v>
       </c>
       <c r="U43" s="25" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="V43" s="26">
-        <f>R$44</f>
-        <v>0.23076923076923078</v>
+        <f>R$43</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="W43" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.918032786885246</v>
+        <v>4.3689320388349513</v>
       </c>
     </row>
     <row r="44" spans="16:27" x14ac:dyDescent="0.45">
@@ -12800,12 +13411,12 @@
         <v>61</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="14"/>
-        <v>0.23076923076923078</v>
+        <f t="shared" si="16"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
@@ -12815,11 +13426,11 @@
       </c>
       <c r="V44" s="29">
         <f>R$32</f>
-        <v>7.6923076923076927E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="W44" s="30">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>1.639344262295082</v>
+        <v>1.4563106796116505</v>
       </c>
     </row>
     <row r="46" spans="16:27" x14ac:dyDescent="0.45">
@@ -12854,7 +13465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -12977,15 +13590,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -13421,7 +14034,7 @@
         <v>75</v>
       </c>
       <c r="H9" s="11">
-        <f>SUM(B15:B18)/(SUM(B15:B18)+SUM(C15:C18))</f>
+        <f>SUM(B15:B16)/(SUM(B15:B16)+SUM(C15:C16))</f>
         <v>0.58823529411764708</v>
       </c>
       <c r="J9">
@@ -13509,7 +14122,10 @@
       <c r="G10" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11">
+        <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
+        <v>0.46666666666666667</v>
+      </c>
       <c r="J10">
         <f>'1602'!$Q$3</f>
         <v>3</v>
@@ -13784,7 +14400,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.42372881355932202</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$3</f>
@@ -14121,23 +14737,95 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="9:32" x14ac:dyDescent="0.45">
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <f>'0603'!$C$2</f>
+        <v>44991</v>
+      </c>
+      <c r="B17" s="4">
+        <f>'0603'!$J$3</f>
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <f>'0603'!$K$3</f>
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <f>'0603'!$M$3</f>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f>'0603'!$Q$3</f>
+        <v>5</v>
+      </c>
+      <c r="K17" s="9">
+        <f>'0603'!$Q$16</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>'0603'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>'0603'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>'0603'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>'0603'!Q$19</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1</v>
+      </c>
+      <c r="X17" s="5">
+        <f>COUNTIF('0603'!$S$4:$S$30, "LG/WW")</f>
+        <v>5</v>
+      </c>
+      <c r="Y17" s="5">
+        <f>COUNTIF('0603'!$T$4:$T$30, "WW/LG")</f>
+        <v>4</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="5">
+        <f>COUNTIF('0603'!$S$4:$S$30, "LG/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AD17" s="5">
+        <f>COUNTIF('0603'!$U$4:$U$30, "5M/LG")</f>
+        <v>4</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -14153,7 +14841,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -14169,7 +14857,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -14185,7 +14873,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -14201,7 +14889,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -14217,7 +14905,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -14233,7 +14921,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -14249,7 +14937,7 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
     </row>
-    <row r="25" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -14265,7 +14953,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -14281,7 +14969,7 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -14297,7 +14985,7 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -14313,7 +15001,7 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
     </row>
-    <row r="29" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -14329,7 +15017,7 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
     </row>
-    <row r="30" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -14341,36 +15029,36 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
     </row>
-    <row r="31" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>59</v>
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -14386,81 +15074,92 @@
       </c>
       <c r="O31">
         <f t="shared" ref="O31" si="1">SUM(O4:O30)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.41935483870967744</v>
+        <v>0.43661971830985913</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="32" spans="9:32" x14ac:dyDescent="0.45">
+        <v>0.41935483870967744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
         <v>60</v>
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.6153846153846154</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1.3</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.38461538461538464</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="V32" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14472,8 +15171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14597,15 +15296,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -15068,7 +15767,7 @@
         <v>75</v>
       </c>
       <c r="H9" s="11">
-        <f>SUM(B15:B18)/(SUM(B15:B18)+SUM(C15:C18))</f>
+        <f>SUM(B15:B16)/(SUM(B15:B16)+SUM(C15:C16))</f>
         <v>0.375</v>
       </c>
       <c r="J9">
@@ -15162,7 +15861,10 @@
       <c r="G10" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11">
+        <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
+        <v>0.6470588235294118</v>
+      </c>
       <c r="J10">
         <f>'1602'!$Q$8</f>
         <v>1</v>
@@ -15433,7 +16135,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.53543307086614178</v>
+        <v>0.54861111111111116</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$8</f>
@@ -15770,23 +16472,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="9:32" x14ac:dyDescent="0.45">
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <f>'0603'!$C$2</f>
+        <v>44991</v>
+      </c>
+      <c r="B17" s="7">
+        <f>'0603'!$J$5</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <f>'0603'!$K$5</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="4">
+        <f>'0603'!$M$5</f>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f>'0603'!$Q$8</f>
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f>'0603'!$Q$9</f>
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f>'0603'!$Q$10</f>
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f>'0603'!$Q$12</f>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f>'0603'!$Q$5</f>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f>'0603'!$Q$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>2</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1</v>
+      </c>
+      <c r="U17" s="5">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" s="5">
+        <f>COUNTIF('0603'!$T$4:$T$30, "WW/LG")</f>
+        <v>4</v>
+      </c>
+      <c r="Y17" s="5">
+        <f>COUNTIF('0603'!$S$4:$S$30, "LG/WW")</f>
+        <v>5</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC17" s="5">
+        <f>COUNTIF('0603'!$T$4:$T$30, "WW/5M")</f>
+        <v>7</v>
+      </c>
+      <c r="AD17" s="5">
+        <f>COUNTIF('0603'!$U$4:$U$30, "5M/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -15802,7 +16576,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -15818,7 +16592,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -15834,7 +16608,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -15850,7 +16624,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -15866,7 +16640,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -15882,7 +16656,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -15898,7 +16672,7 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
     </row>
-    <row r="25" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -15914,7 +16688,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -15930,7 +16704,7 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -15946,7 +16720,7 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -15962,7 +16736,7 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
     </row>
-    <row r="29" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -15978,7 +16752,7 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
     </row>
-    <row r="30" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -15990,48 +16764,48 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
     </row>
-    <row r="31" spans="9:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>59</v>
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
@@ -16039,73 +16813,84 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.58064516129032262</v>
+        <v>0.56338028169014087</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.49230769230769234</v>
-      </c>
-    </row>
-    <row r="32" spans="9:32" x14ac:dyDescent="0.45">
+        <v>0.53424657534246578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
         <v>60</v>
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.9166666666666667</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2</v>
+        <v>2.0769230769230771</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>0.61538461538461542</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.23076923076923078</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.30769230769230771</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16117,8 +16902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16236,15 +17021,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -16672,8 +17457,8 @@
         <v>75</v>
       </c>
       <c r="H9" s="11">
-        <f>SUM(B12:B15)/(SUM(B12:B15)+SUM(C12:C15))</f>
-        <v>0.59459459459459463</v>
+        <f>SUM(B15:B16)/(SUM(B15:B16)+SUM(C15:C16))</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="J9">
         <f>'1402'!$Q$14</f>
@@ -16759,7 +17544,10 @@
       <c r="G10" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11">
+        <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
+        <v>0.35714285714285715</v>
+      </c>
       <c r="J10">
         <f>'1602'!$Q$14</f>
         <v>3</v>
@@ -17016,7 +17804,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.53719008264462809</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$14</f>
@@ -17325,22 +18113,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="9:30" x14ac:dyDescent="0.45">
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <f>'0603'!$C$2</f>
+        <v>44991</v>
+      </c>
+      <c r="B17" s="4">
+        <f>'0603'!$J$4</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
+        <f>'0603'!$K$4</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <f>'0603'!$M$4</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f>'0603'!$Q$14</f>
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <f>'0603'!$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>'0603'!$Q$4</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>'0603'!$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f>'0603'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="5">
+        <f>COUNTIF('0603'!$U$4:$U$30, "5M/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="W17" s="5">
+        <f>COUNTIF('0603'!$T$4:$T$30, "WW/5M")</f>
+        <v>7</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA17" s="5">
+        <f>COUNTIF('0603'!$U$4:$U$30, "5M/LG")</f>
+        <v>4</v>
+      </c>
+      <c r="AB17" s="5">
+        <f>COUNTIF('0603'!$S$4:$S$30, "LG/5M")</f>
+        <v>2</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -17355,7 +18209,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -17370,7 +18224,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -17385,7 +18239,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
     </row>
-    <row r="21" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -17400,7 +18254,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
     </row>
-    <row r="22" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -17415,7 +18269,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -17430,7 +18284,7 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -17445,7 +18299,7 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
     </row>
-    <row r="25" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -17460,7 +18314,7 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -17475,7 +18329,7 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
     </row>
-    <row r="27" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -17490,7 +18344,7 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -17505,7 +18359,7 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -17520,7 +18374,7 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
     </row>
-    <row r="30" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -17531,32 +18385,32 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
     </row>
-    <row r="31" spans="9:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>59</v>
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
@@ -17568,7 +18422,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31">
         <f>SUM(N7:N30)</f>
@@ -17576,67 +18430,78 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.50769230769230766</v>
+        <v>0.46575342465753422</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="32" spans="9:30" x14ac:dyDescent="0.45">
+        <v>0.58064516129032262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
         <v>60</v>
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.3846153846153846</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.6923076923076923</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.30769230769230771</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="greaterThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>$H$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="greaterThan">
       <formula>$H$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>$H$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>$H$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79893E2-6201-43CB-9FD4-7A3F03BCA7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B10766E-F893-4EE2-BBB5-7179B775F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{9F6593B5-5F14-4F3C-BDE2-92EA85622FC2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="4" activeTab="19" xr2:uid="{19235783-2AAC-46C7-843E-29546DAACA43}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="2702" sheetId="17" r:id="rId17"/>
     <sheet name="2802" sheetId="18" r:id="rId18"/>
     <sheet name="0603" sheetId="19" r:id="rId19"/>
+    <sheet name="0703" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="146">
   <si>
     <t>SamJ</t>
   </si>
@@ -564,6 +565,12 @@
   </si>
   <si>
     <t>A/R/N</t>
+  </si>
+  <si>
+    <t>A/C/S</t>
+  </si>
+  <si>
+    <t>C/SM</t>
   </si>
 </sst>
 </file>
@@ -1535,13 +1542,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.48543689320388356</c:v>
+                  <c:v>0.49321266968325794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32524271844660196</c:v>
+                  <c:v>0.32126696832579188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18932038834951456</c:v>
+                  <c:v>0.18552036199095023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9594,8 +9601,3895 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600E123A-27C9-403C-B73B-EFF1A3C4EDCC}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44985</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F05BC-7741-40DE-831C-01EB8B1FA2DA}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44991</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>5</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>9</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>LG/WW</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
+  <dimension ref="B2:AH48"/>
+  <sheetViews>
+    <sheetView topLeftCell="K5" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="3">
+        <f>'602'!$C$2</f>
+        <v>44963</v>
+      </c>
+      <c r="C5">
+        <f>SUM('602'!$J$3:$J$5)</f>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f>MAX('602'!$J$3:$J$5)</f>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5-F5</f>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f>MIN('602'!$J$3:$J$5)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
+        <f>'702'!$C$2</f>
+        <v>44964</v>
+      </c>
+      <c r="C6">
+        <f>SUM('702'!$J$3:$J$5)</f>
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f>MAX('702'!$J$3:$J$5)</f>
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6-F6</f>
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f>MIN('702'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="14">
+        <f>AVERAGE(C5:C30)</f>
+        <v>14.733333333333333</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
+        <v>7.2666666666666666</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>2.7333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <f>'802'!$C$2</f>
+        <v>44965</v>
+      </c>
+      <c r="C7">
+        <f>SUM('802'!$J$3:$J$5)</f>
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <f>MAX('802'!$J$3:$J$5)</f>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E10" si="1">C7-D7-F7</f>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f>MIN('802'!$J$3:$J$5)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="13">
+        <f>J6/$I$6</f>
+        <v>0.49321266968325794</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
+        <v>0.32126696832579188</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.18552036199095023</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <f>'1002'!$C$2</f>
+        <v>44967</v>
+      </c>
+      <c r="C8">
+        <f>SUM('1002'!$J$3:$J$5)</f>
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <f>MAX('1002'!$J$3:$J$5)</f>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>MIN('1002'!$J$3:$J$5)</f>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <f>('602'!Q3)+('702'!Q3)+('802'!Q3)+('1002'!Q3)</f>
+        <v>5</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" ref="R8:R24" si="3">Q8/$Q$5</f>
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <f>('1302'!$Q3)+('1402'!$Q3)+('1602'!$Q3)</f>
+        <v>7</v>
+      </c>
+      <c r="V8" s="14">
+        <f t="shared" ref="V8:V24" si="4">U8/$U$5</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="X8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8">
+        <f>('2002'!$Q3)+('2102'!$Q3)+('2202'!$Q3)+('2302'!$Q3)</f>
+        <v>6</v>
+      </c>
+      <c r="Z8" s="14">
+        <f>Y8/Y$5</f>
+        <v>1.5</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8">
+        <f>('2702'!$Q3)+('2802'!$Q3)</f>
+        <v>3</v>
+      </c>
+      <c r="AD8" s="14">
+        <f>AC8/AC$5</f>
+        <v>1.5</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG8">
+        <f>('0603'!$Q3)+('0703'!$Q3)</f>
+        <v>6</v>
+      </c>
+      <c r="AH8" s="14">
+        <f>AG8/AG$5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
+        <f>'1302'!$C$2</f>
+        <v>44970</v>
+      </c>
+      <c r="C9">
+        <f>SUM('1302'!$J$3:$J$5)</f>
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f>MAX('1302'!$J$3:$J$5)</f>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f>MIN('1302'!$J$3:$J$5)</f>
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9">
+        <f>('602'!Q4)+('702'!Q4)+('802'!Q4)+('1002'!Q4)</f>
+        <v>5</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9">
+        <f>('1302'!$Q4)+('1402'!$Q4)+('1602'!$Q4)</f>
+        <v>4</v>
+      </c>
+      <c r="V9" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="X9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9">
+        <f>('2002'!$Q4)+('2102'!$Q4)+('2202'!$Q4)+('2302'!$Q4)</f>
+        <v>5</v>
+      </c>
+      <c r="Z9" s="14">
+        <f t="shared" ref="Z9:Z24" si="5">Y9/Y$5</f>
+        <v>1.25</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9">
+        <f>('2702'!$Q4)+('2802'!$Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="14">
+        <f t="shared" ref="AD9:AD24" si="6">AC9/AC$5</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9">
+        <f>('0603'!$Q4)+('0703'!$Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="14">
+        <f t="shared" ref="AH9:AH24" si="7">AG9/AG$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <f>'1402'!$C$2</f>
+        <v>44971</v>
+      </c>
+      <c r="C10">
+        <f>SUM('1402'!$J$3:$J$5)</f>
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <f>MAX('1402'!$J$3:$J$5)</f>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>MIN('1402'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10">
+        <f>('602'!Q5)+('702'!Q5)+('802'!Q5)+('1002'!Q5)</f>
+        <v>2</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10">
+        <f>('1302'!$Q5)+('1402'!$Q5)+('1602'!$Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10">
+        <f>('2002'!$Q5)+('2102'!$Q5)+('2202'!$Q5)+('2302'!$Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10">
+        <f>('2702'!$Q5)+('2802'!$Q5)</f>
+        <v>1</v>
+      </c>
+      <c r="AD10" s="14">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG10">
+        <f>('0603'!$Q5)+('0703'!$Q5)</f>
+        <v>3</v>
+      </c>
+      <c r="AH10" s="14">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="3">
+        <f>'1602'!$C$2</f>
+        <v>44973</v>
+      </c>
+      <c r="C11">
+        <f>SUM('1602'!$J$3:$J$5)</f>
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f>MAX('1602'!$J$3:$J$5)</f>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11" si="8">C11-D11-F11</f>
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f>MIN('1602'!$J$3:$J$5)</f>
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11">
+        <f>('602'!Q6)+('702'!Q6)+('802'!Q6)+('1002'!Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11">
+        <f>('1302'!$Q6)+('1402'!$Q6)+('1602'!$Q6)</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11">
+        <f>('2002'!$Q6)+('2102'!$Q6)+('2202'!$Q6)+('2302'!$Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC11">
+        <f>('2702'!$Q6)+('2802'!$Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="14">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG11">
+        <f>('0603'!$Q6)+('0703'!$Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="3">
+        <f>'2002'!$C$2</f>
+        <v>44977</v>
+      </c>
+      <c r="C12">
+        <f>SUM('2002'!$J$3:$J$5)</f>
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>MAX('2002'!$J$3:$J$5)</f>
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="9">C12-D12-F12</f>
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f>MIN('2002'!$J$3:$J$5)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <f>('602'!Q7)+('702'!Q7)+('802'!Q7)+('1002'!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <f>('1302'!$Q7)+('1402'!$Q7)+('1602'!$Q7)</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="14">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12">
+        <f>('2002'!$Q7)+('2102'!$Q7)+('2202'!$Q7)+('2302'!$Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC12">
+        <f>('2702'!$Q7)+('2802'!$Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG12">
+        <f>('0603'!$Q7)+('0703'!$Q7)</f>
+        <v>1</v>
+      </c>
+      <c r="AH12" s="14">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="3">
+        <f>'2102'!$C$2</f>
+        <v>44978</v>
+      </c>
+      <c r="C13">
+        <f>SUM('2102'!$J$3:$J$5)</f>
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <f>MAX('2102'!$J$3:$J$5)</f>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13" si="10">C13-D13-F13</f>
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f>MIN('2102'!$J$3:$J$5)</f>
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f>('602'!Q8)+('702'!Q8)+('802'!Q8)+('1002'!Q8)</f>
+        <v>11</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13">
+        <f>('1302'!$Q8)+('1402'!$Q8)+('1602'!$Q8)</f>
+        <v>3</v>
+      </c>
+      <c r="V13" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13">
+        <f>('2002'!$Q8)+('2102'!$Q8)+('2202'!$Q8)+('2302'!$Q8)</f>
+        <v>7</v>
+      </c>
+      <c r="Z13" s="14">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC13">
+        <f>('2702'!$Q8)+('2802'!$Q8)</f>
+        <v>2</v>
+      </c>
+      <c r="AD13" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13">
+        <f>('0603'!$Q8)+('0703'!$Q8)</f>
+        <v>8</v>
+      </c>
+      <c r="AH13" s="14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="3">
+        <f>'2202'!$C$2</f>
+        <v>44979</v>
+      </c>
+      <c r="C14">
+        <f>SUM('2202'!$J$3:$J$5)</f>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f>MAX('2202'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="11">C14-D14-F14</f>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f>MIN('2202'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <f>('602'!Q9)+('702'!Q9)+('802'!Q9)+('1002'!Q9)</f>
+        <v>11</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14">
+        <f>('1302'!$Q9)+('1402'!$Q9)+('1602'!$Q9)</f>
+        <v>7</v>
+      </c>
+      <c r="V14" s="14">
+        <f t="shared" si="4"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="X14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14">
+        <f>('2002'!$Q9)+('2102'!$Q9)+('2202'!$Q9)+('2302'!$Q9)</f>
+        <v>5</v>
+      </c>
+      <c r="Z14" s="14">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14">
+        <f>('2702'!$Q9)+('2802'!$Q9)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="14">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG14">
+        <f>('0603'!$Q9)+('0703'!$Q9)</f>
+        <v>5</v>
+      </c>
+      <c r="AH14" s="14">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="3">
+        <f>'2302'!$C$2</f>
+        <v>44980</v>
+      </c>
+      <c r="C15">
+        <f>SUM('2302'!$J$3:$J$5)</f>
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <f>MAX('2302'!$J$3:$J$5)</f>
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15" si="12">C15-D15-F15</f>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>MIN('2302'!$J$3:$J$5)</f>
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <f>('602'!Q10)+('702'!Q10)+('802'!Q10)+('1002'!Q10)</f>
+        <v>8</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <f>('1302'!$Q10)+('1402'!$Q10)+('1602'!$Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15">
+        <f>('2002'!$Q10)+('2102'!$Q10)+('2202'!$Q10)+('2302'!$Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15">
+        <f>('2702'!$Q10)+('2802'!$Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG15">
+        <f>('0603'!$Q10)+('0703'!$Q10)</f>
+        <v>2</v>
+      </c>
+      <c r="AH15" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="3">
+        <f>'2702'!$C$2</f>
+        <v>44984</v>
+      </c>
+      <c r="C16">
+        <f>SUM('2702'!$J$3:$J$5)</f>
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <f>MAX('2702'!$J$3:$J$5)</f>
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="13">C16-D16-F16</f>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>MIN('2702'!$J$3:$J$5)</f>
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <f>('602'!Q11)+('702'!Q11)+('802'!Q11)+('1002'!Q11)</f>
+        <v>2</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <f>('1302'!$Q11)+('1402'!$Q11)+('1602'!$Q11)</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <f>('2002'!$Q11)+('2102'!$Q11)+('2202'!$Q11)+('2302'!$Q11)</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="14">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16">
+        <f>('2702'!$Q11)+('2802'!$Q11)</f>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="14">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG16">
+        <f>('0603'!$Q11)+('0703'!$Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="3">
+        <f>'2802'!$C$2</f>
+        <v>44985</v>
+      </c>
+      <c r="C17">
+        <f>SUM('2802'!$J$3:$J$5)</f>
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>MAX('2802'!$J$3:$J$5)</f>
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="14">C17-D17-F17</f>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f>MIN('2802'!$J$3:$J$5)</f>
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <f>('602'!Q12)+('702'!Q12)+('802'!Q12)+('1002'!Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="T17" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <f>('1302'!$Q12)+('1402'!$Q12)+('1602'!$Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="V17" s="14">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <f>('2002'!$Q12)+('2102'!$Q12)+('2202'!$Q12)+('2302'!$Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <f>('2702'!$Q12)+('2802'!$Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="AD17" s="14">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <f>('0603'!$Q12)+('0703'!$Q12)</f>
+        <v>2</v>
+      </c>
+      <c r="AH17" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="3">
+        <f>'0603'!$C$2</f>
+        <v>44991</v>
+      </c>
+      <c r="C18">
+        <f>SUM('0603'!$J$3:$J$5)</f>
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <f>MAX('0603'!$J$3:$J$5)</f>
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18" si="15">C18-D18-F18</f>
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <f>MIN('0603'!$J$3:$J$5)</f>
+        <v>5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <f>('602'!Q13)+('702'!Q13)+('802'!Q13)+('1002'!Q13)</f>
+        <v>2</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <f>('1302'!$Q13)+('1402'!$Q13)+('1602'!$Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <f>('2002'!$Q13)+('2102'!$Q13)+('2202'!$Q13)+('2302'!$Q13)</f>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="14">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18">
+        <f>('2702'!$Q13)+('2802'!$Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18">
+        <f>('0603'!$Q13)+('0703'!$Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B19" s="3">
+        <f>'0703'!$C$2</f>
+        <v>44992</v>
+      </c>
+      <c r="C19">
+        <f>SUM('0703'!$J$3:$J$5)</f>
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <f>MAX('0703'!$J$3:$J$5)</f>
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19" si="16">C19-D19-F19</f>
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f>MIN('0703'!$J$3:$J$5)</f>
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <f>('602'!Q14)+('702'!Q14)+('802'!Q14)+('1002'!Q14)</f>
+        <v>3</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <f>('1302'!$Q14)+('1402'!$Q14)+('1602'!$Q14)</f>
+        <v>5</v>
+      </c>
+      <c r="V19" s="14">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="X19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <f>('2002'!$Q14)+('2102'!$Q14)+('2202'!$Q14)+('2302'!$Q14)</f>
+        <v>6</v>
+      </c>
+      <c r="Z19" s="14">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <f>('2702'!$Q14)+('2802'!$Q14)</f>
+        <v>4</v>
+      </c>
+      <c r="AD19" s="14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG19">
+        <f>('0603'!$Q14)+('0703'!$Q14)</f>
+        <v>5</v>
+      </c>
+      <c r="AH19" s="14">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <f>('602'!Q15)+('702'!Q15)+('802'!Q15)+('1002'!Q15)</f>
+        <v>6</v>
+      </c>
+      <c r="R20" s="14">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <f>('1302'!$Q15)+('1402'!$Q15)+('1602'!$Q15)</f>
+        <v>6</v>
+      </c>
+      <c r="V20" s="14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <f>('2002'!$Q15)+('2102'!$Q15)+('2202'!$Q15)+('2302'!$Q15)</f>
+        <v>7</v>
+      </c>
+      <c r="Z20" s="14">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <f>('2702'!$Q15)+('2802'!$Q15)</f>
+        <v>3</v>
+      </c>
+      <c r="AD20" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <f>('0603'!$Q15)+('0703'!$Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <f>('602'!Q16)+('702'!Q16)+('802'!Q16)+('1002'!Q16)</f>
+        <v>9</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="T21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <f>('1302'!$Q16)+('1402'!$Q16)+('1602'!$Q16)</f>
+        <v>3</v>
+      </c>
+      <c r="V21" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <f>('2002'!$Q16)+('2102'!$Q16)+('2202'!$Q16)+('2302'!$Q16)</f>
+        <v>5</v>
+      </c>
+      <c r="Z21" s="14">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <f>('2702'!$Q16)+('2802'!$Q16)</f>
+        <v>4</v>
+      </c>
+      <c r="AD21" s="14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <f>('0603'!$Q16)+('0703'!$Q16)</f>
+        <v>2</v>
+      </c>
+      <c r="AH21" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f>('602'!Q17)+('702'!Q17)+('802'!Q17)+('1002'!Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f>('1302'!$Q17)+('1402'!$Q17)+('1602'!$Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <f>('2002'!$Q17)+('2102'!$Q17)+('2202'!$Q17)+('2302'!$Q17)</f>
+        <v>2</v>
+      </c>
+      <c r="Z22" s="14">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <f>('2702'!$Q17)+('2802'!$Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="AD22" s="14">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <f>('0603'!$Q17)+('0703'!$Q17)</f>
+        <v>2</v>
+      </c>
+      <c r="AH22" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f>('602'!Q18)+('702'!Q18)+('802'!Q18)+('1002'!Q18)</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="T23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>('1302'!$Q18)+('1402'!$Q18)+('1602'!$Q18)</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f>('2002'!$Q18)+('2102'!$Q18)+('2202'!$Q18)+('2302'!$Q18)</f>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="14">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f>('2702'!$Q18)+('2802'!$Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f>('0603'!$Q18)+('0703'!$Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24">
+        <f>('602'!Q19)+('702'!Q19)+('802'!Q19)+('1002'!Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24">
+        <f>('1302'!$Q19)+('1402'!$Q19)+('1602'!$Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24">
+        <f>('2002'!$Q19)+('2102'!$Q19)+('2202'!$Q19)+('2302'!$Q19)</f>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="14">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC24">
+        <f>('2702'!$Q19)+('2802'!$Q19)</f>
+        <v>2</v>
+      </c>
+      <c r="AD24" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG24">
+        <f>('0603'!$Q19)+('0703'!$Q19)</f>
+        <v>2</v>
+      </c>
+      <c r="AH24" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(Q5,U5,Y5,AC5,AG5)</f>
+        <v>15</v>
+      </c>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>90</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28">
+        <f>SUM(Q8,U8,Y8,AC8,AG8)</f>
+        <v>27</v>
+      </c>
+      <c r="R28" s="14">
+        <f t="shared" ref="R28:R44" si="17">Q28/Q$26</f>
+        <v>1.8</v>
+      </c>
+      <c r="T28" t="s">
+        <v>97</v>
+      </c>
+      <c r="U28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="20">
+        <f>R$33</f>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="W28" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>42.081447963800919</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29:Q44" si="18">SUM(Q9,U9,Y9,AC9,AG9)</f>
+        <v>14</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" si="17"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="T29" t="s">
+        <v>98</v>
+      </c>
+      <c r="U29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" s="20">
+        <f>R$34</f>
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="W29" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>39.366515837104075</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="R30" s="14">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="T30" t="s">
+        <v>99</v>
+      </c>
+      <c r="U30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V30" s="26">
+        <f>$R$28</f>
+        <v>1.8</v>
+      </c>
+      <c r="W30" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>36.651583710407245</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="R31" s="14">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T31" t="s">
+        <v>100</v>
+      </c>
+      <c r="U31" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="26">
+        <f>R$41</f>
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="W31" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>31.221719457013581</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="P32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="R32" s="14">
+        <f t="shared" si="17"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="T32" t="s">
+        <v>101</v>
+      </c>
+      <c r="U32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="23">
+        <f>R$39</f>
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="W32" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>31.221719457013581</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="R33" s="14">
+        <f t="shared" si="17"/>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="T33" t="s">
+        <v>102</v>
+      </c>
+      <c r="U33" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="23">
+        <f>R$40</f>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="W33" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>29.864253393665159</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="R34" s="14">
+        <f t="shared" si="17"/>
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="T34" t="s">
+        <v>103</v>
+      </c>
+      <c r="U34" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V34" s="23">
+        <f>$R$29</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="W34" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>19.004524886877832</v>
+      </c>
+    </row>
+    <row r="35" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="R35" s="14">
+        <f t="shared" si="17"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T35" t="s">
+        <v>104</v>
+      </c>
+      <c r="U35" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="20">
+        <f>R$35</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W35" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>13.574660633484164</v>
+      </c>
+    </row>
+    <row r="36" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="T36" t="s">
+        <v>105</v>
+      </c>
+      <c r="U36" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="20">
+        <f>R$36</f>
+        <v>0.4</v>
+      </c>
+      <c r="W36" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>8.144796380090499</v>
+      </c>
+    </row>
+    <row r="37" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="R37" s="14">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T37" t="s">
+        <v>106</v>
+      </c>
+      <c r="U37" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" s="23">
+        <f>R$42</f>
+        <v>0.4</v>
+      </c>
+      <c r="W37" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>8.144796380090499</v>
+      </c>
+    </row>
+    <row r="38" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="R38" s="14">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="T38" t="s">
+        <v>107</v>
+      </c>
+      <c r="U38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V38" s="20">
+        <f>R$30</f>
+        <v>0.4</v>
+      </c>
+      <c r="W38" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>8.144796380090499</v>
+      </c>
+    </row>
+    <row r="39" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P39" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="R39" s="14">
+        <f t="shared" si="17"/>
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="T39" t="s">
+        <v>108</v>
+      </c>
+      <c r="U39" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="V39" s="26">
+        <f>R$31</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W39" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>6.7873303167420822</v>
+      </c>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+    </row>
+    <row r="40" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P40" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="R40" s="14">
+        <f t="shared" si="17"/>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="T40" t="s">
+        <v>109</v>
+      </c>
+      <c r="U40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="V40" s="20">
+        <f>R$37</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W40" s="21">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>6.7873303167420822</v>
+      </c>
+    </row>
+    <row r="41" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P41" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="R41" s="14">
+        <f t="shared" si="17"/>
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="T41" t="s">
+        <v>110</v>
+      </c>
+      <c r="U41" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V41" s="26">
+        <f>R$44</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W41" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>6.7873303167420822</v>
+      </c>
+    </row>
+    <row r="42" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="R42" s="14">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="T42" t="s">
+        <v>111</v>
+      </c>
+      <c r="U42" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="23">
+        <f>R$38</f>
+        <v>0.2</v>
+      </c>
+      <c r="W42" s="24">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>4.0723981900452495</v>
+      </c>
+    </row>
+    <row r="43" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="R43" s="14">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="T43" t="s">
+        <v>112</v>
+      </c>
+      <c r="U43" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" s="26">
+        <f>R$43</f>
+        <v>0.2</v>
+      </c>
+      <c r="W43" s="27">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>4.0723981900452495</v>
+      </c>
+    </row>
+    <row r="44" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="P44" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="R44" s="14">
+        <f t="shared" si="17"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T44" t="s">
+        <v>113</v>
+      </c>
+      <c r="U44" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="V44" s="29">
+        <f>R$32</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="W44" s="30">
+        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
+        <v>2.7149321266968331</v>
+      </c>
+    </row>
+    <row r="46" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="U46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="U47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="16:27" x14ac:dyDescent="0.45">
+      <c r="U48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:V44">
+    <sortCondition descending="1" ref="V37:V44"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA08435A-4280-474C-803D-36D4BF232EA5}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9611,7 +13505,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="3">
-        <v>44985</v>
+        <v>44992</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -9663,15 +13557,15 @@
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.5714285714285714</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M3">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
@@ -9696,13 +13590,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -9715,19 +13609,19 @@
       </c>
       <c r="J4">
         <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.5</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M4">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
@@ -9739,7 +13633,7 @@
       <c r="R4" s="32"/>
       <c r="S4" t="str">
         <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
@@ -9747,7 +13641,7 @@
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.45">
@@ -9761,10 +13655,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9774,26 +13668,26 @@
       </c>
       <c r="J5">
         <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.75</v>
       </c>
       <c r="M5">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="32"/>
       <c r="S5" t="str">
@@ -9820,10 +13714,10 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -9854,31 +13748,31 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="32"/>
       <c r="S7" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
@@ -9886,7 +13780,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.45">
@@ -9897,10 +13791,10 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -9910,14 +13804,14 @@
       </c>
       <c r="M8">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R8" s="32"/>
       <c r="S8" t="str">
@@ -9926,7 +13820,7 @@
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>WW/LG</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
@@ -9938,39 +13832,39 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>9</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="32"/>
       <c r="S9" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
@@ -9982,23 +13876,23 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" t="s">
         <v>8</v>
@@ -10014,11 +13908,11 @@
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.45">
@@ -10026,13 +13920,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -10054,11 +13948,11 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
@@ -10066,35 +13960,35 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
         <v>6</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="32"/>
       <c r="S12" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
@@ -10106,13 +14000,13 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -10134,853 +14028,11 @@
       </c>
       <c r="T13" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="P14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R14" s="32"/>
-      <c r="S14" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="32"/>
-      <c r="S15" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="32"/>
-      <c r="S16" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="17" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="32"/>
-      <c r="S17" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="18" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="32"/>
-      <c r="S18" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="19" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="P19" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R19" s="32"/>
-      <c r="S19" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="20" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S20" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="21" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S21" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="22" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S22" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="23" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S23" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="24" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S24" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="25" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S25" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="26" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S26" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="27" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S27" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="28" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S28" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="29" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S29" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="30" spans="16:21" x14ac:dyDescent="0.45">
-      <c r="S30" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F05BC-7741-40DE-831C-01EB8B1FA2DA}">
-  <dimension ref="B2:U30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44991</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>8</v>
-      </c>
-      <c r="L3" s="1">
-        <f>J3/(J3+K3)</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="M3">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>5</v>
-      </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>9</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="M4">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="32"/>
-      <c r="S4" t="str">
-        <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>LG/WW</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>6</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="M5">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R5" s="32"/>
-      <c r="S5" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="32"/>
-      <c r="S6" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="32"/>
-      <c r="S7" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R8" s="32"/>
-      <c r="S8" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R9" s="32"/>
-      <c r="S9" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R10" s="32"/>
-      <c r="S10" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="32"/>
-      <c r="S11" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R12" s="32"/>
-      <c r="S12" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="32"/>
-      <c r="S13" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.45">
@@ -10988,13 +14040,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -11007,7 +14059,7 @@
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R14" s="32"/>
       <c r="S14" t="str">
@@ -11016,11 +14068,11 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.45">
@@ -11028,19 +14080,19 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
         <v>3</v>
@@ -11052,11 +14104,11 @@
       <c r="R15" s="32"/>
       <c r="S15" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="4"/>
@@ -11068,16 +14120,16 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -11092,11 +14144,11 @@
       <c r="R16" s="32"/>
       <c r="S16" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/5M</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="4"/>
@@ -11108,19 +14160,19 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" t="s">
         <v>1</v>
@@ -11136,11 +14188,11 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="4"/>
-        <v>5M/LG</v>
+        <v>None</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.45">
@@ -11157,10 +14209,10 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P18" t="s">
         <v>0</v>
@@ -11184,24 +14236,6 @@
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
       <c r="P19" t="s">
         <v>61</v>
       </c>
@@ -11216,7 +14250,7 @@
       </c>
       <c r="T19" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="4"/>
@@ -11224,31 +14258,13 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
       <c r="S20" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="4"/>
@@ -11256,31 +14272,13 @@
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
       <c r="S21" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="4"/>
@@ -11288,31 +14286,13 @@
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
       <c r="S22" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="4"/>
@@ -11320,27 +14300,9 @@
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="S23" t="str">
         <f t="shared" si="2"/>
-        <v>LG/WW</v>
+        <v>None</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="3"/>
@@ -11352,27 +14314,9 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B24">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
       <c r="S24" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T24" t="str">
         <f t="shared" si="3"/>
@@ -11384,31 +14328,13 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B25">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="S25" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="4"/>
@@ -11416,31 +14342,13 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B26">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
       <c r="S26" t="str">
         <f t="shared" si="2"/>
         <v>None</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="4"/>
@@ -11505,1959 +14413,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
-  <dimension ref="B2:AH48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
-    <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B5" s="3">
-        <f>'602'!$C$2</f>
-        <v>44963</v>
-      </c>
-      <c r="C5">
-        <f>SUM('602'!$J$3:$J$5)</f>
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <f>MAX('602'!$J$3:$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <f>C5-D5-F5</f>
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <f>MIN('602'!$J$3:$J$5)</f>
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="T5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="X5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y5">
-        <v>4</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC5">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
-        <f>'702'!$C$2</f>
-        <v>44964</v>
-      </c>
-      <c r="C6">
-        <f>SUM('702'!$J$3:$J$5)</f>
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <f>MAX('702'!$J$3:$J$5)</f>
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <f>C6-D6-F6</f>
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <f>MIN('702'!$J$3:$J$5)</f>
-        <v>4</v>
-      </c>
-      <c r="I6" s="14">
-        <f>AVERAGE(C5:C30)</f>
-        <v>14.714285714285714</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>4.7857142857142856</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>2.7857142857142856</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
-        <f>'802'!$C$2</f>
-        <v>44965</v>
-      </c>
-      <c r="C7">
-        <f>SUM('802'!$J$3:$J$5)</f>
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <f>MAX('802'!$J$3:$J$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E10" si="1">C7-D7-F7</f>
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <f>MIN('802'!$J$3:$J$5)</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="13">
-        <f>J6/$I$6</f>
-        <v>0.48543689320388356</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.32524271844660196</v>
-      </c>
-      <c r="L7" s="13">
-        <f t="shared" si="2"/>
-        <v>0.18932038834951456</v>
-      </c>
-      <c r="P7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" t="s">
-        <v>90</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
-        <f>'1002'!$C$2</f>
-        <v>44967</v>
-      </c>
-      <c r="C8">
-        <f>SUM('1002'!$J$3:$J$5)</f>
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <f>MAX('1002'!$J$3:$J$5)</f>
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <f>MIN('1002'!$J$3:$J$5)</f>
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8">
-        <f>('602'!Q3)+('702'!Q3)+('802'!Q3)+('1002'!Q3)</f>
-        <v>5</v>
-      </c>
-      <c r="R8" s="14">
-        <f t="shared" ref="R8:R24" si="3">Q8/$Q$5</f>
-        <v>1.25</v>
-      </c>
-      <c r="T8" t="s">
-        <v>18</v>
-      </c>
-      <c r="U8">
-        <f>('1302'!$Q3)+('1402'!$Q3)+('1602'!$Q3)</f>
-        <v>7</v>
-      </c>
-      <c r="V8" s="14">
-        <f t="shared" ref="V8:V24" si="4">U8/$U$5</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="X8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y8">
-        <f>('2002'!$Q3)+('2102'!$Q3)+('2202'!$Q3)+('2302'!$Q3)</f>
-        <v>6</v>
-      </c>
-      <c r="Z8" s="14">
-        <f>Y8/Y$5</f>
-        <v>1.5</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC8">
-        <f>('2702'!$Q3)+('2802'!$Q3)</f>
-        <v>3</v>
-      </c>
-      <c r="AD8" s="14">
-        <f>AC8/AC$5</f>
-        <v>1.5</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG8">
-        <f>('0603'!$Q3)</f>
-        <v>5</v>
-      </c>
-      <c r="AH8" s="14">
-        <f>AG8/AG$5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B9" s="3">
-        <f>'1302'!$C$2</f>
-        <v>44970</v>
-      </c>
-      <c r="C9">
-        <f>SUM('1302'!$J$3:$J$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <f>MAX('1302'!$J$3:$J$5)</f>
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <f>MIN('1302'!$J$3:$J$5)</f>
-        <v>3</v>
-      </c>
-      <c r="P9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9">
-        <f>('602'!Q4)+('702'!Q4)+('802'!Q4)+('1002'!Q4)</f>
-        <v>5</v>
-      </c>
-      <c r="R9" s="14">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9">
-        <f>('1302'!$Q4)+('1402'!$Q4)+('1602'!$Q4)</f>
-        <v>4</v>
-      </c>
-      <c r="V9" s="14">
-        <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="X9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9">
-        <f>('2002'!$Q4)+('2102'!$Q4)+('2202'!$Q4)+('2302'!$Q4)</f>
-        <v>5</v>
-      </c>
-      <c r="Z9" s="14">
-        <f t="shared" ref="Z9:Z24" si="5">Y9/Y$5</f>
-        <v>1.25</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC9">
-        <f>('2702'!$Q4)+('2802'!$Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="14">
-        <f t="shared" ref="AD9:AD24" si="6">AC9/AC$5</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG9">
-        <f>('0603'!$Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="14">
-        <f t="shared" ref="AH9:AH24" si="7">AG9/AG$5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
-        <f>'1402'!$C$2</f>
-        <v>44971</v>
-      </c>
-      <c r="C10">
-        <f>SUM('1402'!$J$3:$J$5)</f>
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <f>MAX('1402'!$J$3:$J$5)</f>
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <f>MIN('1402'!$J$3:$J$5)</f>
-        <v>4</v>
-      </c>
-      <c r="P10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10">
-        <f>('602'!Q5)+('702'!Q5)+('802'!Q5)+('1002'!Q5)</f>
-        <v>2</v>
-      </c>
-      <c r="R10" s="14">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="T10" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10">
-        <f>('1302'!$Q5)+('1402'!$Q5)+('1602'!$Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y10">
-        <f>('2002'!$Q5)+('2102'!$Q5)+('2202'!$Q5)+('2302'!$Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10">
-        <f>('2702'!$Q5)+('2802'!$Q5)</f>
-        <v>1</v>
-      </c>
-      <c r="AD10" s="14">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG10">
-        <f>('0603'!$Q5)</f>
-        <v>1</v>
-      </c>
-      <c r="AH10" s="14">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B11" s="3">
-        <f>'1602'!$C$2</f>
-        <v>44973</v>
-      </c>
-      <c r="C11">
-        <f>SUM('1602'!$J$3:$J$5)</f>
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <f>MAX('1602'!$J$3:$J$5)</f>
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ref="E11" si="8">C11-D11-F11</f>
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <f>MIN('1602'!$J$3:$J$5)</f>
-        <v>5</v>
-      </c>
-      <c r="P11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11">
-        <f>('602'!Q6)+('702'!Q6)+('802'!Q6)+('1002'!Q6)</f>
-        <v>1</v>
-      </c>
-      <c r="R11" s="14">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="T11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U11">
-        <f>('1302'!$Q6)+('1402'!$Q6)+('1602'!$Q6)</f>
-        <v>2</v>
-      </c>
-      <c r="V11" s="14">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="X11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y11">
-        <f>('2002'!$Q6)+('2102'!$Q6)+('2202'!$Q6)+('2302'!$Q6)</f>
-        <v>1</v>
-      </c>
-      <c r="Z11" s="14">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC11">
-        <f>('2702'!$Q6)+('2802'!$Q6)</f>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="14">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG11">
-        <f>('0603'!$Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
-        <f>'2002'!$C$2</f>
-        <v>44977</v>
-      </c>
-      <c r="C12">
-        <f>SUM('2002'!$J$3:$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <f>MAX('2002'!$J$3:$J$5)</f>
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12" si="9">C12-D12-F12</f>
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <f>MIN('2002'!$J$3:$J$5)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12">
-        <f>('602'!Q7)+('702'!Q7)+('802'!Q7)+('1002'!Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>15</v>
-      </c>
-      <c r="U12">
-        <f>('1302'!$Q7)+('1402'!$Q7)+('1602'!$Q7)</f>
-        <v>1</v>
-      </c>
-      <c r="V12" s="14">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="X12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y12">
-        <f>('2002'!$Q7)+('2102'!$Q7)+('2202'!$Q7)+('2302'!$Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC12">
-        <f>('2702'!$Q7)+('2802'!$Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG12">
-        <f>('0603'!$Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
-        <f>'2102'!$C$2</f>
-        <v>44978</v>
-      </c>
-      <c r="C13">
-        <f>SUM('2102'!$J$3:$J$5)</f>
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <f>MAX('2102'!$J$3:$J$5)</f>
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13" si="10">C13-D13-F13</f>
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <f>MIN('2102'!$J$3:$J$5)</f>
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13">
-        <f>('602'!Q8)+('702'!Q8)+('802'!Q8)+('1002'!Q8)</f>
-        <v>11</v>
-      </c>
-      <c r="R13" s="14">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-      <c r="T13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13">
-        <f>('1302'!$Q8)+('1402'!$Q8)+('1602'!$Q8)</f>
-        <v>3</v>
-      </c>
-      <c r="V13" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="X13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13">
-        <f>('2002'!$Q8)+('2102'!$Q8)+('2202'!$Q8)+('2302'!$Q8)</f>
-        <v>7</v>
-      </c>
-      <c r="Z13" s="14">
-        <f t="shared" si="5"/>
-        <v>1.75</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC13">
-        <f>('2702'!$Q8)+('2802'!$Q8)</f>
-        <v>2</v>
-      </c>
-      <c r="AD13" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG13">
-        <f>('0603'!$Q8)</f>
-        <v>3</v>
-      </c>
-      <c r="AH13" s="14">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
-        <f>'2202'!$C$2</f>
-        <v>44979</v>
-      </c>
-      <c r="C14">
-        <f>SUM('2202'!$J$3:$J$5)</f>
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <f>MAX('2202'!$J$3:$J$5)</f>
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14" si="11">C14-D14-F14</f>
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <f>MIN('2202'!$J$3:$J$5)</f>
-        <v>4</v>
-      </c>
-      <c r="P14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14">
-        <f>('602'!Q9)+('702'!Q9)+('802'!Q9)+('1002'!Q9)</f>
-        <v>11</v>
-      </c>
-      <c r="R14" s="14">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-      <c r="T14" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14">
-        <f>('1302'!$Q9)+('1402'!$Q9)+('1602'!$Q9)</f>
-        <v>7</v>
-      </c>
-      <c r="V14" s="14">
-        <f t="shared" si="4"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="X14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y14">
-        <f>('2002'!$Q9)+('2102'!$Q9)+('2202'!$Q9)+('2302'!$Q9)</f>
-        <v>5</v>
-      </c>
-      <c r="Z14" s="14">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14">
-        <f>('2702'!$Q9)+('2802'!$Q9)</f>
-        <v>1</v>
-      </c>
-      <c r="AD14" s="14">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG14">
-        <f>('0603'!$Q9)</f>
-        <v>3</v>
-      </c>
-      <c r="AH14" s="14">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B15" s="3">
-        <f>'2302'!$C$2</f>
-        <v>44980</v>
-      </c>
-      <c r="C15">
-        <f>SUM('2302'!$J$3:$J$5)</f>
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <f>MAX('2302'!$J$3:$J$5)</f>
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ref="E15" si="12">C15-D15-F15</f>
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <f>MIN('2302'!$J$3:$J$5)</f>
-        <v>1</v>
-      </c>
-      <c r="P15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15">
-        <f>('602'!Q10)+('702'!Q10)+('802'!Q10)+('1002'!Q10)</f>
-        <v>8</v>
-      </c>
-      <c r="R15" s="14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T15" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15">
-        <f>('1302'!$Q10)+('1402'!$Q10)+('1602'!$Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y15">
-        <f>('2002'!$Q10)+('2102'!$Q10)+('2202'!$Q10)+('2302'!$Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC15">
-        <f>('2702'!$Q10)+('2802'!$Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG15">
-        <f>('0603'!$Q10)</f>
-        <v>2</v>
-      </c>
-      <c r="AH15" s="14">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B16" s="3">
-        <f>'2702'!$C$2</f>
-        <v>44984</v>
-      </c>
-      <c r="C16">
-        <f>SUM('2702'!$J$3:$J$5)</f>
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <f>MAX('2702'!$J$3:$J$5)</f>
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16" si="13">C16-D16-F16</f>
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <f>MIN('2702'!$J$3:$J$5)</f>
-        <v>3</v>
-      </c>
-      <c r="P16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16">
-        <f>('602'!Q11)+('702'!Q11)+('802'!Q11)+('1002'!Q11)</f>
-        <v>2</v>
-      </c>
-      <c r="R16" s="14">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="T16" t="s">
-        <v>7</v>
-      </c>
-      <c r="U16">
-        <f>('1302'!$Q11)+('1402'!$Q11)+('1602'!$Q11)</f>
-        <v>1</v>
-      </c>
-      <c r="V16" s="14">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="X16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y16">
-        <f>('2002'!$Q11)+('2102'!$Q11)+('2202'!$Q11)+('2302'!$Q11)</f>
-        <v>2</v>
-      </c>
-      <c r="Z16" s="14">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC16">
-        <f>('2702'!$Q11)+('2802'!$Q11)</f>
-        <v>1</v>
-      </c>
-      <c r="AD16" s="14">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG16">
-        <f>('0603'!$Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B17" s="3">
-        <f>'2802'!$C$2</f>
-        <v>44985</v>
-      </c>
-      <c r="C17">
-        <f>SUM('2802'!$J$3:$J$5)</f>
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <f>MAX('2802'!$J$3:$J$5)</f>
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ref="E17" si="14">C17-D17-F17</f>
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <f>MIN('2802'!$J$3:$J$5)</f>
-        <v>3</v>
-      </c>
-      <c r="P17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17">
-        <f>('602'!Q12)+('702'!Q12)+('802'!Q12)+('1002'!Q12)</f>
-        <v>1</v>
-      </c>
-      <c r="R17" s="14">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="T17" t="s">
-        <v>6</v>
-      </c>
-      <c r="U17">
-        <f>('1302'!$Q12)+('1402'!$Q12)+('1602'!$Q12)</f>
-        <v>1</v>
-      </c>
-      <c r="V17" s="14">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="X17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17">
-        <f>('2002'!$Q12)+('2102'!$Q12)+('2202'!$Q12)+('2302'!$Q12)</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC17">
-        <f>('2702'!$Q12)+('2802'!$Q12)</f>
-        <v>1</v>
-      </c>
-      <c r="AD17" s="14">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG17">
-        <f>('0603'!$Q12)</f>
-        <v>2</v>
-      </c>
-      <c r="AH17" s="14">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B18" s="3">
-        <f>'0603'!$C$2</f>
-        <v>44991</v>
-      </c>
-      <c r="C18">
-        <f>SUM('0603'!$J$3:$J$5)</f>
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <f>MAX('0603'!$J$3:$J$5)</f>
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ref="E18" si="15">C18-D18-F18</f>
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <f>MIN('0603'!$J$3:$J$5)</f>
-        <v>5</v>
-      </c>
-      <c r="P18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18">
-        <f>('602'!Q13)+('702'!Q13)+('802'!Q13)+('1002'!Q13)</f>
-        <v>2</v>
-      </c>
-      <c r="R18" s="14">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="T18" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18">
-        <f>('1302'!$Q13)+('1402'!$Q13)+('1602'!$Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18">
-        <f>('2002'!$Q13)+('2102'!$Q13)+('2202'!$Q13)+('2302'!$Q13)</f>
-        <v>1</v>
-      </c>
-      <c r="Z18" s="14">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC18">
-        <f>('2702'!$Q13)+('2802'!$Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG18">
-        <f>('0603'!$Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P19" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q19">
-        <f>('602'!Q14)+('702'!Q14)+('802'!Q14)+('1002'!Q14)</f>
-        <v>3</v>
-      </c>
-      <c r="R19" s="14">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="T19" t="s">
-        <v>4</v>
-      </c>
-      <c r="U19">
-        <f>('1302'!$Q14)+('1402'!$Q14)+('1602'!$Q14)</f>
-        <v>5</v>
-      </c>
-      <c r="V19" s="14">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="X19" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y19">
-        <f>('2002'!$Q14)+('2102'!$Q14)+('2202'!$Q14)+('2302'!$Q14)</f>
-        <v>6</v>
-      </c>
-      <c r="Z19" s="14">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC19">
-        <f>('2702'!$Q14)+('2802'!$Q14)</f>
-        <v>4</v>
-      </c>
-      <c r="AD19" s="14">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG19">
-        <f>('0603'!$Q14)</f>
-        <v>4</v>
-      </c>
-      <c r="AH19" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P20" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <f>('602'!Q15)+('702'!Q15)+('802'!Q15)+('1002'!Q15)</f>
-        <v>6</v>
-      </c>
-      <c r="R20" s="14">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <f>('1302'!$Q15)+('1402'!$Q15)+('1602'!$Q15)</f>
-        <v>6</v>
-      </c>
-      <c r="V20" s="14">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X20" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y20">
-        <f>('2002'!$Q15)+('2102'!$Q15)+('2202'!$Q15)+('2302'!$Q15)</f>
-        <v>7</v>
-      </c>
-      <c r="Z20" s="14">
-        <f t="shared" si="5"/>
-        <v>1.75</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC20">
-        <f>('2702'!$Q15)+('2802'!$Q15)</f>
-        <v>3</v>
-      </c>
-      <c r="AD20" s="14">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG20">
-        <f>('0603'!$Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <f>('602'!Q16)+('702'!Q16)+('802'!Q16)+('1002'!Q16)</f>
-        <v>9</v>
-      </c>
-      <c r="R21" s="14">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-      <c r="T21" t="s">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <f>('1302'!$Q16)+('1402'!$Q16)+('1602'!$Q16)</f>
-        <v>3</v>
-      </c>
-      <c r="V21" s="14">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="X21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y21">
-        <f>('2002'!$Q16)+('2102'!$Q16)+('2202'!$Q16)+('2302'!$Q16)</f>
-        <v>5</v>
-      </c>
-      <c r="Z21" s="14">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC21">
-        <f>('2702'!$Q16)+('2802'!$Q16)</f>
-        <v>4</v>
-      </c>
-      <c r="AD21" s="14">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG21">
-        <f>('0603'!$Q16)</f>
-        <v>1</v>
-      </c>
-      <c r="AH21" s="14">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <f>('602'!Q17)+('702'!Q17)+('802'!Q17)+('1002'!Q17)</f>
-        <v>1</v>
-      </c>
-      <c r="R22" s="14">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="T22" t="s">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <f>('1302'!$Q17)+('1402'!$Q17)+('1602'!$Q17)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <f>('2002'!$Q17)+('2102'!$Q17)+('2202'!$Q17)+('2302'!$Q17)</f>
-        <v>2</v>
-      </c>
-      <c r="Z22" s="14">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <f>('2702'!$Q17)+('2802'!$Q17)</f>
-        <v>1</v>
-      </c>
-      <c r="AD22" s="14">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <f>('0603'!$Q17)</f>
-        <v>1</v>
-      </c>
-      <c r="AH22" s="14">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P23" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f>('602'!Q18)+('702'!Q18)+('802'!Q18)+('1002'!Q18)</f>
-        <v>1</v>
-      </c>
-      <c r="R23" s="14">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="T23" t="s">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <f>('1302'!$Q18)+('1402'!$Q18)+('1602'!$Q18)</f>
-        <v>1</v>
-      </c>
-      <c r="V23" s="14">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="X23" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <f>('2002'!$Q18)+('2102'!$Q18)+('2202'!$Q18)+('2302'!$Q18)</f>
-        <v>1</v>
-      </c>
-      <c r="Z23" s="14">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <f>('2702'!$Q18)+('2802'!$Q18)</f>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <f>('0603'!$Q18)</f>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P24" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q24">
-        <f>('602'!Q19)+('702'!Q19)+('802'!Q19)+('1002'!Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T24" t="s">
-        <v>61</v>
-      </c>
-      <c r="U24">
-        <f>('1302'!$Q19)+('1402'!$Q19)+('1602'!$Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y24">
-        <f>('2002'!$Q19)+('2102'!$Q19)+('2202'!$Q19)+('2302'!$Q19)</f>
-        <v>1</v>
-      </c>
-      <c r="Z24" s="14">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC24">
-        <f>('2702'!$Q19)+('2802'!$Q19)</f>
-        <v>2</v>
-      </c>
-      <c r="AD24" s="14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG24">
-        <f>('0603'!$Q19)</f>
-        <v>1</v>
-      </c>
-      <c r="AH24" s="14">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P26" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q26">
-        <f>SUM(Q5,U5,Y5,AC5,AG5)</f>
-        <v>14</v>
-      </c>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>27</v>
-      </c>
-      <c r="R27" t="s">
-        <v>90</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="V27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="W27" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28">
-        <f>SUM(Q8,U8,Y8,AC8,AG8)</f>
-        <v>26</v>
-      </c>
-      <c r="R28" s="14">
-        <f t="shared" ref="R28:R44" si="16">Q28/Q$26</f>
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="T28" t="s">
-        <v>97</v>
-      </c>
-      <c r="U28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V28" s="20">
-        <f>R$34</f>
-        <v>1.9285714285714286</v>
-      </c>
-      <c r="W28" s="21">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>39.320388349514566</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" ref="Q29:Q44" si="17">SUM(Q9,U9,Y9,AC9,AG9)</f>
-        <v>14</v>
-      </c>
-      <c r="R29" s="14">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="T29" t="s">
-        <v>98</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="V29" s="20">
-        <f>R$33</f>
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="W29" s="21">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>37.864077669902919</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P30" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="R30" s="14">
-        <f t="shared" si="16"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="T30" t="s">
-        <v>99</v>
-      </c>
-      <c r="U30" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V30" s="26">
-        <f>$R$28</f>
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="W30" s="27">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>37.864077669902919</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="R31" s="14">
-        <f t="shared" si="16"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="T31" t="s">
-        <v>100</v>
-      </c>
-      <c r="U31" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="V31" s="23">
-        <f>R$40</f>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="W31" s="24">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>32.038834951456316</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="P32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="R32" s="14">
-        <f t="shared" si="16"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="T32" t="s">
-        <v>101</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="V32" s="26">
-        <f>R$41</f>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="W32" s="27">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>32.038834951456316</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P33" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="17"/>
-        <v>26</v>
-      </c>
-      <c r="R33" s="14">
-        <f t="shared" si="16"/>
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="T33" t="s">
-        <v>102</v>
-      </c>
-      <c r="U33" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="23">
-        <f>R$39</f>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="W33" s="24">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>32.038834951456316</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="17"/>
-        <v>27</v>
-      </c>
-      <c r="R34" s="14">
-        <f t="shared" si="16"/>
-        <v>1.9285714285714286</v>
-      </c>
-      <c r="T34" t="s">
-        <v>103</v>
-      </c>
-      <c r="U34" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V34" s="23">
-        <f>$R$29</f>
-        <v>1</v>
-      </c>
-      <c r="W34" s="24">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>20.38834951456311</v>
-      </c>
-    </row>
-    <row r="35" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P35" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="R35" s="14">
-        <f t="shared" si="16"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="T35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U35" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="V35" s="20">
-        <f>R$35</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="W35" s="21">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>14.563106796116507</v>
-      </c>
-    </row>
-    <row r="36" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="R36" s="14">
-        <f t="shared" si="16"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="T36" t="s">
-        <v>105</v>
-      </c>
-      <c r="U36" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="V36" s="20">
-        <f>R$36</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="W36" s="21">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.7378640776699026</v>
-      </c>
-    </row>
-    <row r="37" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P37" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="R37" s="14">
-        <f t="shared" si="16"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="T37" t="s">
-        <v>106</v>
-      </c>
-      <c r="U37" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="V37" s="26">
-        <f>R$31</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="W37" s="27">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>7.2815533980582536</v>
-      </c>
-    </row>
-    <row r="38" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P38" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="R38" s="14">
-        <f t="shared" si="16"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="T38" t="s">
-        <v>107</v>
-      </c>
-      <c r="U38" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="V38" s="23">
-        <f>R$42</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="W38" s="24">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>7.2815533980582536</v>
-      </c>
-    </row>
-    <row r="39" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P39" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="R39" s="14">
-        <f t="shared" si="16"/>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="T39" t="s">
-        <v>108</v>
-      </c>
-      <c r="U39" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="V39" s="20">
-        <f>R$37</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="W39" s="21">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>7.2815533980582536</v>
-      </c>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-    </row>
-    <row r="40" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P40" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="R40" s="14">
-        <f t="shared" si="16"/>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="T40" t="s">
-        <v>109</v>
-      </c>
-      <c r="U40" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="V40" s="20">
-        <f>R$30</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="W40" s="21">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>5.825242718446602</v>
-      </c>
-    </row>
-    <row r="41" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P41" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="R41" s="14">
-        <f t="shared" si="16"/>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="T41" t="s">
-        <v>110</v>
-      </c>
-      <c r="U41" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="V41" s="26">
-        <f>R$44</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="W41" s="27">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>5.825242718446602</v>
-      </c>
-    </row>
-    <row r="42" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P42" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="R42" s="14">
-        <f t="shared" si="16"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="T42" t="s">
-        <v>111</v>
-      </c>
-      <c r="U42" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="23">
-        <f>R$38</f>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="W42" s="24">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.3689320388349513</v>
-      </c>
-    </row>
-    <row r="43" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P43" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="R43" s="14">
-        <f t="shared" si="16"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="T43" t="s">
-        <v>112</v>
-      </c>
-      <c r="U43" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="V43" s="26">
-        <f>R$43</f>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="W43" s="27">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.3689320388349513</v>
-      </c>
-    </row>
-    <row r="44" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="P44" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="R44" s="14">
-        <f t="shared" si="16"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="T44" t="s">
-        <v>113</v>
-      </c>
-      <c r="U44" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="V44" s="29">
-        <f>R$32</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="W44" s="30">
-        <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>1.4563106796116505</v>
-      </c>
-    </row>
-    <row r="46" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="U46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="U47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="16:27" x14ac:dyDescent="0.45">
-      <c r="U48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U28:V44">
-    <sortCondition descending="1" ref="V37:V44"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -13465,8 +14420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13590,15 +14545,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -14124,7 +15079,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
-        <v>0.46666666666666667</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="J10">
         <f>'1602'!$Q$3</f>
@@ -14400,7 +15355,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.42857142857142855</v>
+        <v>0.42957746478873238</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$3</f>
@@ -14826,20 +15781,92 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
+      <c r="A18" s="3">
+        <f>'0703'!$C$2</f>
+        <v>44992</v>
+      </c>
+      <c r="B18" s="4">
+        <f>'0703'!$J$3</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <f>'0703'!$K$3</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <f>'0703'!$M$3</f>
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f>'0703'!$Q$3</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <f>'0703'!$Q$16</f>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f>'0703'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>'0703'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>'0703'!$Q$7</f>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f>'0703'!Q$19</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="5">
+        <v>1</v>
+      </c>
+      <c r="V18" s="5">
+        <v>1</v>
+      </c>
+      <c r="X18" s="5">
+        <f>COUNTIF('0703'!$S$4:$S$30, "LG/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="5">
+        <f>COUNTIF('0703'!$T$4:$T$30, "WW/LG")</f>
+        <v>5</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>COUNTIF('0703'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>COUNTIF('0703'!$U$4:$U$30, "5M/LG")</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q19" s="5"/>
@@ -15029,17 +16056,17 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
@@ -15054,11 +16081,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -15070,19 +16097,19 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31">
         <f t="shared" ref="O31" si="1">SUM(O4:O30)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.43661971830985913</v>
+        <v>0.41558441558441561</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.41935483870967744</v>
+        <v>0.44615384615384618</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.45">
@@ -15091,27 +16118,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.8571428571428572</v>
+        <v>1.8</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1.2727272727272727</v>
+        <v>1.25</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.35714285714285715</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.55555555555555558</v>
+        <v>0.6</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -15164,6 +16191,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15171,8 +16199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15296,15 +16324,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -15863,7 +16891,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
-        <v>0.6470588235294118</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="J10">
         <f>'1602'!$Q$8</f>
@@ -16135,7 +17163,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.54861111111111116</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$8</f>
@@ -16561,20 +17589,92 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
+      <c r="A18" s="3">
+        <f>'0703'!$C$2</f>
+        <v>44992</v>
+      </c>
+      <c r="B18" s="7">
+        <f>'0703'!$J$5</f>
+        <v>9</v>
+      </c>
+      <c r="C18" s="4">
+        <f>'0703'!$K$5</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <f>'0703'!$M$5</f>
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <f>'0703'!$Q$8</f>
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <f>'0703'!$Q$9</f>
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <f>'0703'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>'0703'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>'0703'!$Q$5</f>
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <f>'0703'!$Q$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>2</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="5">
+        <v>2</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X18" s="5">
+        <f>COUNTIF('0703'!$T$4:$T$30, "WW/LG")</f>
+        <v>5</v>
+      </c>
+      <c r="Y18" s="5">
+        <f>COUNTIF('0703'!$S$4:$S$30, "LG/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>COUNTIF('0703'!$T$4:$T$30, "WW/5M")</f>
+        <v>4</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>COUNTIF('0703'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q19" s="5"/>
@@ -16764,21 +17864,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -16789,11 +17889,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -16805,7 +17905,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
@@ -16813,11 +17913,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.56338028169014087</v>
+        <v>0.58441558441558439</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.53424657534246578</v>
+        <v>0.54430379746835444</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.45">
@@ -16826,27 +17926,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>2</v>
+        <v>2.2142857142857144</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.0769230769230771</v>
+        <v>2.0714285714285716</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -16902,8 +18002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254EEA5-24B9-4F6E-AE51-FBD1CD5895D1}">
   <dimension ref="A2:AD32"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17021,15 +18121,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -17546,7 +18646,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
-        <v>0.35714285714285715</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="J10">
         <f>'1602'!$Q$14</f>
@@ -17804,7 +18904,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.51851851851851849</v>
+        <v>0.5</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$14</f>
@@ -18138,9 +19238,8 @@
         <f>'0603'!$Q$15</f>
         <v>0</v>
       </c>
-      <c r="L17">
-        <f>'0603'!$Q$4</f>
-        <v>0</v>
+      <c r="L17" t="s">
+        <v>45</v>
       </c>
       <c r="M17">
         <f>'0603'!$Q$17</f>
@@ -18195,19 +19294,84 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
+      <c r="A18" s="3">
+        <f>'0703'!$C$2</f>
+        <v>44992</v>
+      </c>
+      <c r="B18" s="4">
+        <f>'0703'!$J$4</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <f>'0703'!$K$4</f>
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <f>'0703'!$M$4</f>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f>'0703'!$Q$14</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f>'0703'!$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <f>'0703'!$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f>'0703'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="5">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="5">
+        <f>COUNTIF('0703'!$U$4:$U$30, "5M/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="W18" s="5">
+        <f>COUNTIF('0703'!$T$4:$T$30, "WW/5M")</f>
+        <v>4</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="5">
+        <f>COUNTIF('0703'!$U$4:$U$30, "5M/LG")</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
+        <f>COUNTIF('0703'!$S$4:$S$30, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P19" s="5"/>
@@ -18385,11 +19549,11 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
@@ -18399,7 +19563,7 @@
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -18410,7 +19574,7 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
@@ -18422,7 +19586,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <f>SUM(N7:N30)</f>
@@ -18430,11 +19594,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.46575342465753422</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.58064516129032262</v>
+        <v>0.55384615384615388</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.45">
@@ -18443,23 +19607,23 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.5714285714285714</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.5714285714285714</v>
+        <v>1.4666666666666666</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
+        <v>0.4</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B10766E-F893-4EE2-BBB5-7179B775F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CC701B-7675-4395-BB64-3887F64899B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="4" activeTab="19" xr2:uid="{19235783-2AAC-46C7-843E-29546DAACA43}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="3" xr2:uid="{19235783-2AAC-46C7-843E-29546DAACA43}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -13488,7 +13488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA08435A-4280-474C-803D-36D4BF232EA5}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q19"/>
     </sheetView>
   </sheetViews>
@@ -14421,7 +14421,7 @@
   <dimension ref="A2:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16199,7 +16199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CC701B-7675-4395-BB64-3887F64899B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A047FB-8B53-4BB1-9B39-71A0794F993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="3" xr2:uid="{19235783-2AAC-46C7-843E-29546DAACA43}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="5" activeTab="20" xr2:uid="{19235783-2AAC-46C7-843E-29546DAACA43}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="2802" sheetId="18" r:id="rId18"/>
     <sheet name="0603" sheetId="19" r:id="rId19"/>
     <sheet name="0703" sheetId="20" r:id="rId20"/>
+    <sheet name="0803" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="150">
   <si>
     <t>SamJ</t>
   </si>
@@ -572,6 +573,18 @@
   <si>
     <t>C/SM</t>
   </si>
+  <si>
+    <t>FINALS WEEK</t>
+  </si>
+  <si>
+    <t>A/C</t>
+  </si>
+  <si>
+    <t>C/SM/L</t>
+  </si>
+  <si>
+    <t>A/C/W</t>
+  </si>
 </sst>
 </file>
 
@@ -621,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +668,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -821,6 +840,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1542,13 +1564,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49321266968325794</c:v>
+                  <c:v>0.49173553719008267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32126696832579188</c:v>
+                  <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18552036199095023</c:v>
+                  <c:v>0.19008264462809918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10441,7 +10463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F05BC-7741-40DE-831C-01EB8B1FA2DA}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11513,10 +11535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
-  <dimension ref="B2:AH48"/>
+  <dimension ref="B2:AL48"/>
   <sheetViews>
-    <sheetView topLeftCell="K5" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11526,12 +11548,12 @@
     <col min="21" max="22" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -11551,7 +11573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <f>'602'!$C$2</f>
         <v>44963</v>
@@ -11612,10 +11634,17 @@
         <v>141</v>
       </c>
       <c r="AG5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK5" s="33">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="33"/>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <f>'702'!$C$2</f>
         <v>44964</v>
@@ -11638,22 +11667,25 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>14.733333333333333</v>
+        <v>15.125</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>7.2666666666666666</v>
+        <v>7.4375</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4.7333333333333334</v>
+        <v>4.8125</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.7333333333333334</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+        <v>2.875</v>
+      </c>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <f>'802'!$C$2</f>
         <v>44965</v>
@@ -11679,15 +11711,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.49321266968325794</v>
+        <v>0.49173553719008267</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.32126696832579188</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.18552036199095023</v>
+        <v>0.19008264462809918</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -11734,8 +11766,17 @@
       <c r="AH7" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AJ7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL7" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <f>'1002'!$C$2</f>
         <v>44967</v>
@@ -11804,15 +11845,26 @@
         <v>18</v>
       </c>
       <c r="AG8">
+        <f>('0603'!$Q3)+('0703'!$Q3)+('0803'!$Q3)</f>
+        <v>10</v>
+      </c>
+      <c r="AH8" s="14">
+        <f>AG8/AG$5</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AJ8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK8" s="33">
         <f>('0603'!$Q3)+('0703'!$Q3)</f>
         <v>6</v>
       </c>
-      <c r="AH8" s="14">
-        <f>AG8/AG$5</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AL8" s="35">
+        <f>AK8/AK$5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <f>'1302'!$C$2</f>
         <v>44970</v>
@@ -11881,15 +11933,26 @@
         <v>19</v>
       </c>
       <c r="AG9">
-        <f>('0603'!$Q4)+('0703'!$Q4)</f>
+        <f>('0603'!$Q4)+('0703'!$Q4)+('0803'!$Q4)</f>
         <v>0</v>
       </c>
       <c r="AH9" s="14">
         <f t="shared" ref="AH9:AH24" si="7">AG9/AG$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AJ9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK9" s="33">
+        <f>('0603'!$Q4)+('0703'!$Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="35">
+        <f t="shared" ref="AL9:AL24" si="8">AK9/AK$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <f>'1402'!$C$2</f>
         <v>44971</v>
@@ -11958,15 +12021,26 @@
         <v>13</v>
       </c>
       <c r="AG10">
-        <f>('0603'!$Q5)+('0703'!$Q5)</f>
-        <v>3</v>
+        <f>('0603'!$Q5)+('0703'!$Q5)+('0803'!$Q5)</f>
+        <v>4</v>
       </c>
       <c r="AH10" s="14">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AJ10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK10" s="33">
+        <f>('0603'!$Q5)+('0703'!$Q5)</f>
+        <v>3</v>
+      </c>
+      <c r="AL10" s="35">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>'1602'!$C$2</f>
         <v>44973</v>
@@ -11980,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="8">C11-D11-F11</f>
+        <f t="shared" ref="E11" si="9">C11-D11-F11</f>
         <v>5</v>
       </c>
       <c r="F11">
@@ -12035,15 +12109,26 @@
         <v>16</v>
       </c>
       <c r="AG11">
-        <f>('0603'!$Q6)+('0703'!$Q6)</f>
-        <v>0</v>
+        <f>('0603'!$Q6)+('0703'!$Q6)+('0803'!$Q6)</f>
+        <v>1</v>
       </c>
       <c r="AH11" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK11" s="33">
+        <f>('0603'!$Q6)+('0703'!$Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f>'2002'!$C$2</f>
         <v>44977</v>
@@ -12057,7 +12142,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12" si="9">C12-D12-F12</f>
+        <f t="shared" ref="E12" si="10">C12-D12-F12</f>
         <v>4</v>
       </c>
       <c r="F12">
@@ -12112,15 +12197,26 @@
         <v>15</v>
       </c>
       <c r="AG12">
-        <f>('0603'!$Q7)+('0703'!$Q7)</f>
+        <f>('0603'!$Q7)+('0703'!$Q7)+('0803'!$Q7)</f>
         <v>1</v>
       </c>
       <c r="AH12" s="14">
         <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK12" s="33">
+        <f>('0603'!$Q7)+('0703'!$Q7)</f>
+        <v>1</v>
+      </c>
+      <c r="AL12" s="35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <f>'2102'!$C$2</f>
         <v>44978</v>
@@ -12134,7 +12230,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="10">C13-D13-F13</f>
+        <f t="shared" ref="E13" si="11">C13-D13-F13</f>
         <v>4</v>
       </c>
       <c r="F13">
@@ -12189,15 +12285,26 @@
         <v>12</v>
       </c>
       <c r="AG13">
+        <f>('0603'!$Q8)+('0703'!$Q8)+('0803'!$Q8)</f>
+        <v>9</v>
+      </c>
+      <c r="AH13" s="14">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="33">
         <f>('0603'!$Q8)+('0703'!$Q8)</f>
         <v>8</v>
       </c>
-      <c r="AH13" s="14">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AL13" s="35">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f>'2202'!$C$2</f>
         <v>44979</v>
@@ -12211,7 +12318,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14" si="11">C14-D14-F14</f>
+        <f t="shared" ref="E14" si="12">C14-D14-F14</f>
         <v>4</v>
       </c>
       <c r="F14">
@@ -12266,15 +12373,26 @@
         <v>9</v>
       </c>
       <c r="AG14">
+        <f>('0603'!$Q9)+('0703'!$Q9)+('0803'!$Q9)</f>
+        <v>7</v>
+      </c>
+      <c r="AH14" s="14">
+        <f t="shared" si="7"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AJ14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK14" s="33">
         <f>('0603'!$Q9)+('0703'!$Q9)</f>
         <v>5</v>
       </c>
-      <c r="AH14" s="14">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AL14" s="35">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f>'2302'!$C$2</f>
         <v>44980</v>
@@ -12288,7 +12406,7 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="12">C15-D15-F15</f>
+        <f t="shared" ref="E15" si="13">C15-D15-F15</f>
         <v>5</v>
       </c>
       <c r="F15">
@@ -12343,15 +12461,26 @@
         <v>8</v>
       </c>
       <c r="AG15">
-        <f>('0603'!$Q10)+('0703'!$Q10)</f>
+        <f>('0603'!$Q10)+('0703'!$Q10)+('0803'!$Q10)</f>
         <v>2</v>
       </c>
       <c r="AH15" s="14">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK15" s="33">
+        <f>('0603'!$Q10)+('0703'!$Q10)</f>
+        <v>2</v>
+      </c>
+      <c r="AL15" s="35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <f>'2702'!$C$2</f>
         <v>44984</v>
@@ -12365,7 +12494,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" si="13">C16-D16-F16</f>
+        <f t="shared" ref="E16" si="14">C16-D16-F16</f>
         <v>5</v>
       </c>
       <c r="F16">
@@ -12420,15 +12549,26 @@
         <v>7</v>
       </c>
       <c r="AG16">
-        <f>('0603'!$Q11)+('0703'!$Q11)</f>
-        <v>0</v>
+        <f>('0603'!$Q11)+('0703'!$Q11)+('0803'!$Q11)</f>
+        <v>1</v>
       </c>
       <c r="AH16" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ16" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK16" s="33">
+        <f>('0603'!$Q11)+('0703'!$Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f>'2802'!$C$2</f>
         <v>44985</v>
@@ -12442,7 +12582,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="14">C17-D17-F17</f>
+        <f t="shared" ref="E17" si="15">C17-D17-F17</f>
         <v>3</v>
       </c>
       <c r="F17">
@@ -12497,15 +12637,26 @@
         <v>6</v>
       </c>
       <c r="AG17">
-        <f>('0603'!$Q12)+('0703'!$Q12)</f>
+        <f>('0603'!$Q12)+('0703'!$Q12)+('0803'!$Q12)</f>
         <v>2</v>
       </c>
       <c r="AH17" s="14">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ17" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK17" s="33">
+        <f>('0603'!$Q12)+('0703'!$Q12)</f>
+        <v>2</v>
+      </c>
+      <c r="AL17" s="35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <f>'0603'!$C$2</f>
         <v>44991</v>
@@ -12519,7 +12670,7 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18" si="15">C18-D18-F18</f>
+        <f t="shared" ref="E18" si="16">C18-D18-F18</f>
         <v>7</v>
       </c>
       <c r="F18">
@@ -12574,15 +12725,26 @@
         <v>5</v>
       </c>
       <c r="AG18">
-        <f>('0603'!$Q13)+('0703'!$Q13)</f>
-        <v>0</v>
+        <f>('0603'!$Q13)+('0703'!$Q13)+('0803'!$Q13)</f>
+        <v>1</v>
       </c>
       <c r="AH18" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ18" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="33">
+        <f>('0603'!$Q13)+('0703'!$Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <f>'0703'!$C$2</f>
         <v>44992</v>
@@ -12596,7 +12758,7 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="16">C19-D19-F19</f>
+        <f t="shared" ref="E19" si="17">C19-D19-F19</f>
         <v>4</v>
       </c>
       <c r="F19">
@@ -12651,15 +12813,46 @@
         <v>4</v>
       </c>
       <c r="AG19">
+        <f>('0603'!$Q14)+('0703'!$Q14)+('0803'!$Q14)</f>
+        <v>6</v>
+      </c>
+      <c r="AH19" s="14">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK19" s="33">
         <f>('0603'!$Q14)+('0703'!$Q14)</f>
         <v>5</v>
       </c>
-      <c r="AH19" s="14">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AL19" s="35">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B20" s="3">
+        <f>'0803'!$C$2</f>
+        <v>44993</v>
+      </c>
+      <c r="C20">
+        <f>SUM('0803'!$J$3:$J$5)</f>
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <f>MAX('0803'!$J$3:$J$5)</f>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="18">C20-D20-F20</f>
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <f>MIN('0803'!$J$3:$J$5)</f>
+        <v>5</v>
+      </c>
       <c r="P20" t="s">
         <v>3</v>
       </c>
@@ -12708,15 +12901,26 @@
         <v>3</v>
       </c>
       <c r="AG20">
-        <f>('0603'!$Q15)+('0703'!$Q15)</f>
-        <v>0</v>
+        <f>('0603'!$Q15)+('0703'!$Q15)+('0803'!$Q15)</f>
+        <v>3</v>
       </c>
       <c r="AH20" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK20" s="33">
+        <f>('0603'!$Q15)+('0703'!$Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P21" t="s">
         <v>2</v>
       </c>
@@ -12765,15 +12969,26 @@
         <v>2</v>
       </c>
       <c r="AG21">
-        <f>('0603'!$Q16)+('0703'!$Q16)</f>
-        <v>2</v>
+        <f>('0603'!$Q16)+('0703'!$Q16)+('0803'!$Q16)</f>
+        <v>5</v>
       </c>
       <c r="AH21" s="14">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.45">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AJ21" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="33">
+        <f>('0603'!$Q16)+('0703'!$Q16)</f>
+        <v>2</v>
+      </c>
+      <c r="AL21" s="35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P22" t="s">
         <v>1</v>
       </c>
@@ -12822,15 +13037,26 @@
         <v>1</v>
       </c>
       <c r="AG22">
-        <f>('0603'!$Q17)+('0703'!$Q17)</f>
-        <v>2</v>
+        <f>('0603'!$Q17)+('0703'!$Q17)+('0803'!$Q17)</f>
+        <v>3</v>
       </c>
       <c r="AH22" s="14">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AJ22" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="33">
+        <f>('0603'!$Q17)+('0703'!$Q17)</f>
+        <v>2</v>
+      </c>
+      <c r="AL22" s="35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P23" t="s">
         <v>0</v>
       </c>
@@ -12879,15 +13105,26 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <f>('0603'!$Q18)+('0703'!$Q18)</f>
+        <f>('0603'!$Q18)+('0703'!$Q18)+('0803'!$Q18)</f>
         <v>0</v>
       </c>
       <c r="AH23" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AJ23" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="33">
+        <f>('0603'!$Q18)+('0703'!$Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P24" t="s">
         <v>61</v>
       </c>
@@ -12936,25 +13173,36 @@
         <v>61</v>
       </c>
       <c r="AG24">
-        <f>('0603'!$Q19)+('0703'!$Q19)</f>
-        <v>2</v>
+        <f>('0603'!$Q19)+('0703'!$Q19)+('0803'!$Q19)</f>
+        <v>4</v>
       </c>
       <c r="AH24" s="14">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.45">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AJ24" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK24" s="33">
+        <f>('0603'!$Q19)+('0703'!$Q19)</f>
+        <v>2</v>
+      </c>
+      <c r="AL24" s="35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P26" t="s">
         <v>66</v>
       </c>
       <c r="Q26">
         <f>SUM(Q5,U5,Y5,AC5,AG5)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P27" t="s">
         <v>28</v>
       </c>
@@ -12976,21 +13224,21 @@
       <c r="W27" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Y27" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P28" t="s">
         <v>18</v>
       </c>
       <c r="Q28">
         <f>SUM(Q8,U8,Y8,AC8,AG8)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28:R44" si="17">Q28/Q$26</f>
-        <v>1.8</v>
+        <f t="shared" ref="R28:R44" si="19">Q28/Q$26</f>
+        <v>1.9375</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
@@ -13000,27 +13248,27 @@
       </c>
       <c r="V28" s="20">
         <f>R$33</f>
-        <v>2.0666666666666669</v>
+        <v>2</v>
       </c>
       <c r="W28" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>42.081447963800919</v>
-      </c>
-      <c r="Y28" t="s">
+        <v>39.669421487603302</v>
+      </c>
+      <c r="Y28" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P29" t="s">
         <v>19</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q44" si="18">SUM(Q9,U9,Y9,AC9,AG9)</f>
+        <f t="shared" ref="Q29:Q44" si="20">SUM(Q9,U9,Y9,AC9,AG9)</f>
         <v>14</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="17"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="19"/>
+        <v>0.875</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
@@ -13030,27 +13278,27 @@
       </c>
       <c r="V29" s="20">
         <f>R$34</f>
-        <v>1.9333333333333333</v>
+        <v>1.9375</v>
       </c>
       <c r="W29" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>39.366515837104075</v>
+        <v>38.429752066115704</v>
       </c>
       <c r="Y29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P30" t="s">
         <v>13</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="20"/>
+        <v>7</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="17"/>
-        <v>0.4</v>
+        <f t="shared" si="19"/>
+        <v>0.4375</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
@@ -13060,27 +13308,27 @@
       </c>
       <c r="V30" s="26">
         <f>$R$28</f>
-        <v>1.8</v>
+        <v>1.9375</v>
       </c>
       <c r="W30" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>36.651583710407245</v>
+        <v>38.429752066115704</v>
       </c>
       <c r="Y30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P31" t="s">
         <v>16</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="17"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="19"/>
+        <v>0.375</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
@@ -13090,24 +13338,24 @@
       </c>
       <c r="V31" s="26">
         <f>R$41</f>
-        <v>1.5333333333333334</v>
+        <v>1.625</v>
       </c>
       <c r="W31" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>31.221719457013581</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.45">
+        <v>32.231404958677686</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.45">
       <c r="P32" t="s">
         <v>15</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="17"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="19"/>
+        <v>0.125</v>
       </c>
       <c r="T32" t="s">
         <v>101</v>
@@ -13117,11 +13365,11 @@
       </c>
       <c r="V32" s="23">
         <f>R$39</f>
-        <v>1.5333333333333334</v>
+        <v>1.5</v>
       </c>
       <c r="W32" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>31.221719457013581</v>
+        <v>29.75206611570248</v>
       </c>
       <c r="Y32" t="s">
         <v>138</v>
@@ -13132,12 +13380,12 @@
         <v>12</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="18"/>
-        <v>31</v>
+        <f t="shared" si="20"/>
+        <v>32</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="17"/>
-        <v>2.0666666666666669</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="T33" t="s">
         <v>102</v>
@@ -13147,11 +13395,11 @@
       </c>
       <c r="V33" s="23">
         <f>R$40</f>
-        <v>1.4666666666666666</v>
+        <v>1.5625</v>
       </c>
       <c r="W33" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>29.864253393665159</v>
+        <v>30.991735537190081</v>
       </c>
       <c r="Y33" t="s">
         <v>137</v>
@@ -13162,12 +13410,12 @@
         <v>9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="18"/>
-        <v>29</v>
+        <f t="shared" si="20"/>
+        <v>31</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="17"/>
-        <v>1.9333333333333333</v>
+        <f t="shared" si="19"/>
+        <v>1.9375</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
@@ -13177,11 +13425,11 @@
       </c>
       <c r="V34" s="23">
         <f>$R$29</f>
-        <v>0.93333333333333335</v>
+        <v>0.875</v>
       </c>
       <c r="W34" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>19.004524886877832</v>
+        <v>17.355371900826444</v>
       </c>
     </row>
     <row r="35" spans="16:27" x14ac:dyDescent="0.45">
@@ -13189,12 +13437,12 @@
         <v>8</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="17"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="19"/>
+        <v>0.625</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
@@ -13204,11 +13452,11 @@
       </c>
       <c r="V35" s="20">
         <f>R$35</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="W35" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>13.574660633484164</v>
+        <v>12.396694214876032</v>
       </c>
     </row>
     <row r="36" spans="16:27" x14ac:dyDescent="0.45">
@@ -13216,12 +13464,12 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="20"/>
+        <v>7</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="17"/>
-        <v>0.4</v>
+        <f t="shared" si="19"/>
+        <v>0.4375</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
@@ -13231,11 +13479,11 @@
       </c>
       <c r="V36" s="20">
         <f>R$36</f>
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="W36" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.144796380090499</v>
+        <v>8.6776859504132222</v>
       </c>
     </row>
     <row r="37" spans="16:27" x14ac:dyDescent="0.45">
@@ -13243,12 +13491,12 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="17"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="19"/>
+        <v>0.3125</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
@@ -13258,11 +13506,11 @@
       </c>
       <c r="V37" s="23">
         <f>R$42</f>
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="W37" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.144796380090499</v>
+        <v>8.6776859504132222</v>
       </c>
     </row>
     <row r="38" spans="16:27" x14ac:dyDescent="0.45">
@@ -13270,12 +13518,12 @@
         <v>5</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="17"/>
-        <v>0.2</v>
+        <f t="shared" si="19"/>
+        <v>0.25</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
@@ -13285,11 +13533,11 @@
       </c>
       <c r="V38" s="20">
         <f>R$30</f>
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="W38" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.144796380090499</v>
+        <v>8.6776859504132222</v>
       </c>
     </row>
     <row r="39" spans="16:27" x14ac:dyDescent="0.45">
@@ -13297,12 +13545,12 @@
         <v>4</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="18"/>
-        <v>23</v>
+        <f t="shared" si="20"/>
+        <v>24</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="17"/>
-        <v>1.5333333333333334</v>
+        <f t="shared" si="19"/>
+        <v>1.5</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
@@ -13312,11 +13560,11 @@
       </c>
       <c r="V39" s="26">
         <f>R$31</f>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="W39" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>6.7873303167420822</v>
+        <v>7.4380165289256199</v>
       </c>
       <c r="Z39" s="31"/>
       <c r="AA39" s="31"/>
@@ -13326,12 +13574,12 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="18"/>
-        <v>22</v>
+        <f t="shared" si="20"/>
+        <v>25</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="17"/>
-        <v>1.4666666666666666</v>
+        <f t="shared" si="19"/>
+        <v>1.5625</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
@@ -13341,11 +13589,11 @@
       </c>
       <c r="V40" s="20">
         <f>R$37</f>
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="W40" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>6.7873303167420822</v>
+        <v>6.1983471074380159</v>
       </c>
     </row>
     <row r="41" spans="16:27" x14ac:dyDescent="0.45">
@@ -13353,12 +13601,12 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="18"/>
-        <v>23</v>
+        <f t="shared" si="20"/>
+        <v>26</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="17"/>
-        <v>1.5333333333333334</v>
+        <f t="shared" si="19"/>
+        <v>1.625</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
@@ -13368,11 +13616,11 @@
       </c>
       <c r="V41" s="26">
         <f>R$44</f>
-        <v>0.33333333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="W41" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>6.7873303167420822</v>
+        <v>8.6776859504132222</v>
       </c>
     </row>
     <row r="42" spans="16:27" x14ac:dyDescent="0.45">
@@ -13380,12 +13628,12 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <f t="shared" si="20"/>
+        <v>7</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" si="17"/>
-        <v>0.4</v>
+        <f t="shared" si="19"/>
+        <v>0.4375</v>
       </c>
       <c r="T42" t="s">
         <v>111</v>
@@ -13395,11 +13643,11 @@
       </c>
       <c r="V42" s="23">
         <f>R$38</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="W42" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.0723981900452495</v>
+        <v>4.9586776859504127</v>
       </c>
     </row>
     <row r="43" spans="16:27" x14ac:dyDescent="0.45">
@@ -13407,12 +13655,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="17"/>
-        <v>0.2</v>
+        <f t="shared" si="19"/>
+        <v>0.1875</v>
       </c>
       <c r="T43" t="s">
         <v>112</v>
@@ -13422,11 +13670,11 @@
       </c>
       <c r="V43" s="26">
         <f>R$43</f>
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="W43" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.0723981900452495</v>
+        <v>3.71900826446281</v>
       </c>
     </row>
     <row r="44" spans="16:27" x14ac:dyDescent="0.45">
@@ -13434,12 +13682,12 @@
         <v>61</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="20"/>
+        <v>7</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="17"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="19"/>
+        <v>0.4375</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
@@ -13449,11 +13697,11 @@
       </c>
       <c r="V44" s="29">
         <f>R$32</f>
-        <v>0.13333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="W44" s="30">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>2.7149321266968331</v>
+        <v>2.4793388429752063</v>
       </c>
     </row>
     <row r="46" spans="16:27" x14ac:dyDescent="0.45">
@@ -13488,8 +13736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA08435A-4280-474C-803D-36D4BF232EA5}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14408,6 +14656,1046 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4566318C-54F3-43FB-AFDD-B926E7E03CCD}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44993</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>4</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>8</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" t="str">
+        <f t="shared" ref="S13:S30" si="5">IF(AND(C13="Loose Gooses",D13="Wet Willies"),"LG/WW", IF(AND(C13="Loose Gooses",D13="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" ref="T13:T30" si="6">IF(AND(C13="Wet Willies",D13="Loose Gooses"),"WW/LG", IF(AND(C13="Wet Willies",D13="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" ref="U13:U30" si="7">IF(AND(C13="5 Musketeers",D13="Loose Gooses"),"5M/LG", IF(AND(C13="5 Musketeers",D13="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="7"/>
         <v>None</v>
       </c>
     </row>
@@ -14545,15 +15833,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>29.5</v>
+        <v>32.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -15079,7 +16367,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
-        <v>0.45833333333333331</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="J10">
         <f>'1602'!$Q$3</f>
@@ -15355,7 +16643,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.42957746478873238</v>
+        <v>0.45222929936305734</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$3</f>
@@ -15869,20 +17157,92 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
+      <c r="A19" s="3">
+        <f>'0803'!$C$2</f>
+        <v>44993</v>
+      </c>
+      <c r="B19" s="4">
+        <f>'0803'!$J$3</f>
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <f>'0803'!$K$3</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <f>'0803'!$M$3</f>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f>'0803'!$Q$3</f>
+        <v>4</v>
+      </c>
+      <c r="K19" s="9">
+        <f>'0803'!$Q$16</f>
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <f>'0803'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>'0803'!$Q$6</f>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f>'0803'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>'0803'!Q$19</f>
+        <v>2</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>3</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1</v>
+      </c>
+      <c r="X19" s="5">
+        <f>COUNTIF('0803'!$S$4:$S$30, "LG/WW")</f>
+        <v>5</v>
+      </c>
+      <c r="Y19" s="5">
+        <f>COUNTIF('0803'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>COUNTIF('0803'!$S$4:$S$30, "LG/5M")</f>
+        <v>5</v>
+      </c>
+      <c r="AD19" s="5">
+        <f>COUNTIF('0803'!$U$4:$U$30, "5M/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF19" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q20" s="5"/>
@@ -16056,21 +17416,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -16081,11 +17441,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -16093,7 +17453,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -16101,15 +17461,15 @@
       </c>
       <c r="O31">
         <f t="shared" ref="O31" si="1">SUM(O4:O30)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.41558441558441561</v>
+        <v>0.44047619047619047</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.44615384615384618</v>
+        <v>0.46575342465753422</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.45">
@@ -16118,27 +17478,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.8</v>
+        <v>1.9375</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1.25</v>
+        <v>1.3846153846153846</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.13333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.6</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -16199,7 +17559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61107C71-254F-4D0E-B292-04DC273FB1DC}">
   <dimension ref="A2:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
@@ -16324,15 +17684,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -16891,7 +18251,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
-        <v>0.68965517241379315</v>
+        <v>0.59523809523809523</v>
       </c>
       <c r="J10">
         <f>'1602'!$Q$8</f>
@@ -17163,7 +18523,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.5641025641025641</v>
+        <v>0.55029585798816572</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$8</f>
@@ -17677,20 +19037,92 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
+      <c r="A19" s="3">
+        <f>'0803'!$C$2</f>
+        <v>44993</v>
+      </c>
+      <c r="B19" s="7">
+        <f>'0803'!$J$5</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <f>'0803'!$K$5</f>
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <f>'0803'!$M$5</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f>'0803'!$Q$8</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f>'0803'!$Q$9</f>
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f>'0803'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>'0803'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>'0803'!$Q$5</f>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f>'0803'!$Q$11</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1</v>
+      </c>
+      <c r="X19" s="5">
+        <f>COUNTIF('0803'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Y19" s="5">
+        <f>COUNTIF('0803'!$S$4:$S$30, "LG/WW")</f>
+        <v>5</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>COUNTIF('0803'!$T$4:$T$30, "WW/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="AD19" s="5">
+        <f>COUNTIF('0803'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF19" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q20" s="5"/>
@@ -17864,21 +19296,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -17889,11 +19321,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:O31" si="0">SUM(K4:K30)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -17905,19 +19337,19 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.58441558441558439</v>
+        <v>0.55952380952380953</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.54430379746835444</v>
+        <v>0.54117647058823526</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.45">
@@ -17926,27 +19358,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>2.2142857142857144</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:O32" si="1">AVERAGE(K4:K30)</f>
-        <v>2.0714285714285716</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
     </row>
   </sheetData>
@@ -18003,7 +19435,7 @@
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18121,15 +19553,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -18646,7 +20078,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
-        <v>0.30434782608695654</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="J10">
         <f>'1602'!$Q$14</f>
@@ -18904,7 +20336,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.5</v>
+        <v>0.49367088607594939</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$14</f>
@@ -19374,19 +20806,84 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
+      <c r="A19" s="3">
+        <f>'0803'!$C$2</f>
+        <v>44993</v>
+      </c>
+      <c r="B19" s="4">
+        <f>'0803'!$J$4</f>
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <f>'0803'!$K$4</f>
+        <v>8</v>
+      </c>
+      <c r="D19" s="7">
+        <f>'0803'!$M$4</f>
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <f>'0803'!$Q$14</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f>'0803'!$Q$15</f>
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19">
+        <f>'0803'!$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f>'0803'!$Q$13</f>
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>2</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1</v>
+      </c>
+      <c r="V19" s="5">
+        <f>COUNTIF('0803'!$U$4:$U$30, "5M/WW")</f>
+        <v>3</v>
+      </c>
+      <c r="W19" s="5">
+        <f>COUNTIF('0803'!$T$4:$T$30, "WW/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA19" s="5">
+        <f>COUNTIF('0803'!$U$4:$U$30, "5M/LG")</f>
+        <v>3</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>COUNTIF('0803'!$S$4:$S$30, "LG/5M")</f>
+        <v>5</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P20" s="5"/>
@@ -19549,21 +21046,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -19574,11 +21071,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
@@ -19586,19 +21083,19 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <f>SUM(N7:N30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.45569620253164556</v>
+        <v>0.45882352941176469</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.55384615384615388</v>
+        <v>0.53424657534246578</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.45">
@@ -19607,11 +21104,11 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.5333333333333334</v>
+        <v>1.5</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.4666666666666666</v>
+        <v>1.5625</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
@@ -19619,11 +21116,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.16666666666666666</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
   </sheetData>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A047FB-8B53-4BB1-9B39-71A0794F993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAAAF65-25A5-4949-BDC4-D6A83CEC49F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="5" activeTab="20" xr2:uid="{19235783-2AAC-46C7-843E-29546DAACA43}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="5" activeTab="21" xr2:uid="{2D388C7B-479A-45BA-A2D9-F72395219D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="0603" sheetId="19" r:id="rId19"/>
     <sheet name="0703" sheetId="20" r:id="rId20"/>
     <sheet name="0803" sheetId="21" r:id="rId21"/>
+    <sheet name="0903" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="150">
   <si>
     <t>SamJ</t>
   </si>
@@ -1564,13 +1565,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49173553719008267</c:v>
+                  <c:v>0.50194552529182879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31818181818181818</c:v>
+                  <c:v>0.31128404669260701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19008264462809918</c:v>
+                  <c:v>0.18677042801556423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10463,7 +10464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F05BC-7741-40DE-831C-01EB8B1FA2DA}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11537,8 +11538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:AL48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11634,7 +11635,7 @@
         <v>141</v>
       </c>
       <c r="AG5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ5" s="33" t="s">
         <v>146</v>
@@ -11667,19 +11668,19 @@
       </c>
       <c r="I6" s="14">
         <f>AVERAGE(C5:C30)</f>
-        <v>15.125</v>
+        <v>15.117647058823529</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:L6" si="0">AVERAGE(D5:D30)</f>
-        <v>7.4375</v>
+        <v>7.5882352941176467</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4.8125</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.875</v>
+        <v>2.8235294117647061</v>
       </c>
       <c r="AJ6" s="33"/>
       <c r="AK6" s="33"/>
@@ -11711,15 +11712,15 @@
       </c>
       <c r="J7" s="13">
         <f>J6/$I$6</f>
-        <v>0.49173553719008267</v>
+        <v>0.50194552529182879</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" ref="K7:L7" si="2">K6/$I$6</f>
-        <v>0.31818181818181818</v>
+        <v>0.31128404669260701</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="2"/>
-        <v>0.19008264462809918</v>
+        <v>0.18677042801556423</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -11845,12 +11846,12 @@
         <v>18</v>
       </c>
       <c r="AG8">
-        <f>('0603'!$Q3)+('0703'!$Q3)+('0803'!$Q3)</f>
-        <v>10</v>
+        <f>('0603'!$Q3)+('0703'!$Q3)+('0803'!$Q3)+('0903'!$Q3)</f>
+        <v>12</v>
       </c>
       <c r="AH8" s="14">
         <f>AG8/AG$5</f>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="33" t="s">
         <v>18</v>
@@ -11933,7 +11934,7 @@
         <v>19</v>
       </c>
       <c r="AG9">
-        <f>('0603'!$Q4)+('0703'!$Q4)+('0803'!$Q4)</f>
+        <f>('0603'!$Q4)+('0703'!$Q4)+('0803'!$Q4)+('0903'!$Q4)</f>
         <v>0</v>
       </c>
       <c r="AH9" s="14">
@@ -12021,12 +12022,12 @@
         <v>13</v>
       </c>
       <c r="AG10">
-        <f>('0603'!$Q5)+('0703'!$Q5)+('0803'!$Q5)</f>
-        <v>4</v>
+        <f>('0603'!$Q5)+('0703'!$Q5)+('0803'!$Q5)+('0903'!$Q5)</f>
+        <v>7</v>
       </c>
       <c r="AH10" s="14">
         <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="AJ10" s="33" t="s">
         <v>13</v>
@@ -12109,12 +12110,12 @@
         <v>16</v>
       </c>
       <c r="AG11">
-        <f>('0603'!$Q6)+('0703'!$Q6)+('0803'!$Q6)</f>
+        <f>('0603'!$Q6)+('0703'!$Q6)+('0803'!$Q6)+('0903'!$Q6)</f>
         <v>1</v>
       </c>
       <c r="AH11" s="14">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="AJ11" s="33" t="s">
         <v>16</v>
@@ -12197,12 +12198,12 @@
         <v>15</v>
       </c>
       <c r="AG12">
-        <f>('0603'!$Q7)+('0703'!$Q7)+('0803'!$Q7)</f>
+        <f>('0603'!$Q7)+('0703'!$Q7)+('0803'!$Q7)+('0903'!$Q7)</f>
         <v>1</v>
       </c>
       <c r="AH12" s="14">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="AJ12" s="33" t="s">
         <v>15</v>
@@ -12285,12 +12286,12 @@
         <v>12</v>
       </c>
       <c r="AG13">
-        <f>('0603'!$Q8)+('0703'!$Q8)+('0803'!$Q8)</f>
+        <f>('0603'!$Q8)+('0703'!$Q8)+('0803'!$Q8)+('0903'!$Q8)</f>
         <v>9</v>
       </c>
       <c r="AH13" s="14">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AJ13" s="33" t="s">
         <v>12</v>
@@ -12373,12 +12374,12 @@
         <v>9</v>
       </c>
       <c r="AG14">
-        <f>('0603'!$Q9)+('0703'!$Q9)+('0803'!$Q9)</f>
+        <f>('0603'!$Q9)+('0703'!$Q9)+('0803'!$Q9)+('0903'!$Q9)</f>
         <v>7</v>
       </c>
       <c r="AH14" s="14">
         <f t="shared" si="7"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="AJ14" s="33" t="s">
         <v>9</v>
@@ -12461,12 +12462,12 @@
         <v>8</v>
       </c>
       <c r="AG15">
-        <f>('0603'!$Q10)+('0703'!$Q10)+('0803'!$Q10)</f>
+        <f>('0603'!$Q10)+('0703'!$Q10)+('0803'!$Q10)+('0903'!$Q10)</f>
         <v>2</v>
       </c>
       <c r="AH15" s="14">
         <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AJ15" s="33" t="s">
         <v>8</v>
@@ -12549,12 +12550,12 @@
         <v>7</v>
       </c>
       <c r="AG16">
-        <f>('0603'!$Q11)+('0703'!$Q11)+('0803'!$Q11)</f>
+        <f>('0603'!$Q11)+('0703'!$Q11)+('0803'!$Q11)+('0903'!$Q11)</f>
         <v>1</v>
       </c>
       <c r="AH16" s="14">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="AJ16" s="33" t="s">
         <v>7</v>
@@ -12637,12 +12638,12 @@
         <v>6</v>
       </c>
       <c r="AG17">
-        <f>('0603'!$Q12)+('0703'!$Q12)+('0803'!$Q12)</f>
+        <f>('0603'!$Q12)+('0703'!$Q12)+('0803'!$Q12)+('0903'!$Q12)</f>
         <v>2</v>
       </c>
       <c r="AH17" s="14">
         <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AJ17" s="33" t="s">
         <v>6</v>
@@ -12725,12 +12726,12 @@
         <v>5</v>
       </c>
       <c r="AG18">
-        <f>('0603'!$Q13)+('0703'!$Q13)+('0803'!$Q13)</f>
+        <f>('0603'!$Q13)+('0703'!$Q13)+('0803'!$Q13)+('0903'!$Q13)</f>
         <v>1</v>
       </c>
       <c r="AH18" s="14">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="AJ18" s="33" t="s">
         <v>5</v>
@@ -12813,12 +12814,12 @@
         <v>4</v>
       </c>
       <c r="AG19">
-        <f>('0603'!$Q14)+('0703'!$Q14)+('0803'!$Q14)</f>
-        <v>6</v>
+        <f>('0603'!$Q14)+('0703'!$Q14)+('0803'!$Q14)+('0903'!$Q14)</f>
+        <v>7</v>
       </c>
       <c r="AH19" s="14">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AJ19" s="33" t="s">
         <v>4</v>
@@ -12901,8 +12902,8 @@
         <v>3</v>
       </c>
       <c r="AG20">
-        <f>('0603'!$Q15)+('0703'!$Q15)+('0803'!$Q15)</f>
-        <v>3</v>
+        <f>('0603'!$Q15)+('0703'!$Q15)+('0803'!$Q15)+('0903'!$Q15)</f>
+        <v>4</v>
       </c>
       <c r="AH20" s="14">
         <f t="shared" si="7"/>
@@ -12921,6 +12922,26 @@
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="B21" s="3">
+        <f>'0903'!$C$2</f>
+        <v>44994</v>
+      </c>
+      <c r="C21">
+        <f>SUM('0903'!$J$3:$J$5)</f>
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <f>MAX('0903'!$J$3:$J$5)</f>
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21" si="19">C21-D21-F21</f>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f>MIN('0903'!$J$3:$J$5)</f>
+        <v>2</v>
+      </c>
       <c r="P21" t="s">
         <v>2</v>
       </c>
@@ -12969,12 +12990,12 @@
         <v>2</v>
       </c>
       <c r="AG21">
-        <f>('0603'!$Q16)+('0703'!$Q16)+('0803'!$Q16)</f>
-        <v>5</v>
+        <f>('0603'!$Q16)+('0703'!$Q16)+('0803'!$Q16)+('0903'!$Q16)</f>
+        <v>11</v>
       </c>
       <c r="AH21" s="14">
         <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="AJ21" s="33" t="s">
         <v>2</v>
@@ -13037,12 +13058,12 @@
         <v>1</v>
       </c>
       <c r="AG22">
-        <f>('0603'!$Q17)+('0703'!$Q17)+('0803'!$Q17)</f>
+        <f>('0603'!$Q17)+('0703'!$Q17)+('0803'!$Q17)+('0903'!$Q17)</f>
         <v>3</v>
       </c>
       <c r="AH22" s="14">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AJ22" s="33" t="s">
         <v>1</v>
@@ -13105,7 +13126,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <f>('0603'!$Q18)+('0703'!$Q18)+('0803'!$Q18)</f>
+        <f>('0603'!$Q18)+('0703'!$Q18)+('0803'!$Q18)+('0903'!$Q18)</f>
         <v>0</v>
       </c>
       <c r="AH23" s="14">
@@ -13173,12 +13194,12 @@
         <v>61</v>
       </c>
       <c r="AG24">
-        <f>('0603'!$Q19)+('0703'!$Q19)+('0803'!$Q19)</f>
-        <v>4</v>
+        <f>('0603'!$Q19)+('0703'!$Q19)+('0803'!$Q19)+('0903'!$Q19)</f>
+        <v>6</v>
       </c>
       <c r="AH24" s="14">
         <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="AJ24" s="33" t="s">
         <v>61</v>
@@ -13198,7 +13219,7 @@
       </c>
       <c r="Q26">
         <f>SUM(Q5,U5,Y5,AC5,AG5)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T26" s="2"/>
     </row>
@@ -13234,11 +13255,11 @@
       </c>
       <c r="Q28">
         <f>SUM(Q8,U8,Y8,AC8,AG8)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" ref="R28:R44" si="19">Q28/Q$26</f>
-        <v>1.9375</v>
+        <f>Q28/17</f>
+        <v>1.9411764705882353</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
@@ -13252,7 +13273,7 @@
       </c>
       <c r="W28" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>39.669421487603302</v>
+        <v>39.688715953307394</v>
       </c>
       <c r="Y28" s="2" t="s">
         <v>119</v>
@@ -13267,22 +13288,22 @@
         <v>14</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="19"/>
-        <v>0.875</v>
+        <f>Q29/(Q$26-3)</f>
+        <v>1</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
       </c>
-      <c r="U29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V29" s="20">
-        <f>R$34</f>
-        <v>1.9375</v>
-      </c>
-      <c r="W29" s="21">
+      <c r="U29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V29" s="26">
+        <f>$R$28</f>
+        <v>1.9411764705882353</v>
+      </c>
+      <c r="W29" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>38.429752066115704</v>
+        <v>38.521400778210122</v>
       </c>
       <c r="Y29" t="s">
         <v>120</v>
@@ -13294,25 +13315,25 @@
       </c>
       <c r="Q30">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="19"/>
-        <v>0.4375</v>
+        <f t="shared" ref="R30:R43" si="21">Q30/Q$26</f>
+        <v>0.58823529411764708</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="V30" s="26">
-        <f>$R$28</f>
-        <v>1.9375</v>
+        <f>R$41</f>
+        <v>1.8823529411764706</v>
       </c>
       <c r="W30" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>38.429752066115704</v>
+        <v>37.354085603112843</v>
       </c>
       <c r="Y30" t="s">
         <v>121</v>
@@ -13327,22 +13348,22 @@
         <v>6</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="19"/>
-        <v>0.375</v>
+        <f t="shared" si="21"/>
+        <v>0.35294117647058826</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
       </c>
-      <c r="U31" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="V31" s="26">
-        <f>R$41</f>
-        <v>1.625</v>
-      </c>
-      <c r="W31" s="27">
+      <c r="U31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" s="20">
+        <f>R$34</f>
+        <v>1.8235294117647058</v>
+      </c>
+      <c r="W31" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>32.231404958677686</v>
+        <v>36.186770428015564</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.45">
@@ -13354,22 +13375,22 @@
         <v>2</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="19"/>
-        <v>0.125</v>
+        <f t="shared" si="21"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="T32" t="s">
         <v>101</v>
       </c>
       <c r="U32" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V32" s="23">
-        <f>R$39</f>
-        <v>1.5</v>
+        <f>R$40</f>
+        <v>1.5294117647058822</v>
       </c>
       <c r="W32" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>29.75206611570248</v>
+        <v>30.350194552529182</v>
       </c>
       <c r="Y32" t="s">
         <v>138</v>
@@ -13384,22 +13405,22 @@
         <v>32</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="19"/>
+        <f>Q33/16</f>
         <v>2</v>
       </c>
       <c r="T33" t="s">
         <v>102</v>
       </c>
       <c r="U33" s="22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V33" s="23">
-        <f>R$40</f>
-        <v>1.5625</v>
+        <f>R$39</f>
+        <v>1.4705882352941178</v>
       </c>
       <c r="W33" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>30.991735537190081</v>
+        <v>29.18287937743191</v>
       </c>
       <c r="Y33" t="s">
         <v>137</v>
@@ -13414,8 +13435,8 @@
         <v>31</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="19"/>
-        <v>1.9375</v>
+        <f t="shared" si="21"/>
+        <v>1.8235294117647058</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
@@ -13425,11 +13446,11 @@
       </c>
       <c r="V34" s="23">
         <f>$R$29</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="W34" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>17.355371900826444</v>
+        <v>19.844357976653697</v>
       </c>
     </row>
     <row r="35" spans="16:27" x14ac:dyDescent="0.45">
@@ -13441,22 +13462,22 @@
         <v>10</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="19"/>
-        <v>0.625</v>
+        <f t="shared" si="21"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
       </c>
-      <c r="U35" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="V35" s="20">
-        <f>R$35</f>
-        <v>0.625</v>
-      </c>
-      <c r="W35" s="21">
+      <c r="U35" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V35" s="26">
+        <f>R$44</f>
+        <v>0.75</v>
+      </c>
+      <c r="W35" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>12.396694214876032</v>
+        <v>14.883268482490273</v>
       </c>
     </row>
     <row r="36" spans="16:27" x14ac:dyDescent="0.45">
@@ -13468,22 +13489,22 @@
         <v>7</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="19"/>
-        <v>0.4375</v>
+        <f t="shared" si="21"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
       </c>
       <c r="U36" s="19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V36" s="20">
-        <f>R$36</f>
-        <v>0.4375</v>
+        <f>R$35</f>
+        <v>0.58823529411764708</v>
       </c>
       <c r="W36" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.6776859504132222</v>
+        <v>11.673151750972762</v>
       </c>
     </row>
     <row r="37" spans="16:27" x14ac:dyDescent="0.45">
@@ -13495,22 +13516,22 @@
         <v>5</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="19"/>
-        <v>0.3125</v>
+        <f t="shared" si="21"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
       </c>
-      <c r="U37" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="V37" s="23">
-        <f>R$42</f>
-        <v>0.4375</v>
-      </c>
-      <c r="W37" s="24">
+      <c r="U37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" s="20">
+        <f>R$30</f>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="W37" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.6776859504132222</v>
+        <v>11.673151750972762</v>
       </c>
     </row>
     <row r="38" spans="16:27" x14ac:dyDescent="0.45">
@@ -13522,22 +13543,22 @@
         <v>4</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="19"/>
-        <v>0.25</v>
+        <f t="shared" si="21"/>
+        <v>0.23529411764705882</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
       </c>
       <c r="U38" s="19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V38" s="20">
-        <f>R$30</f>
-        <v>0.4375</v>
+        <f>R$36</f>
+        <v>0.41176470588235292</v>
       </c>
       <c r="W38" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.6776859504132222</v>
+        <v>8.1712062256809332</v>
       </c>
     </row>
     <row r="39" spans="16:27" x14ac:dyDescent="0.45">
@@ -13546,25 +13567,25 @@
       </c>
       <c r="Q39">
         <f t="shared" si="20"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f t="shared" si="21"/>
+        <v>1.4705882352941178</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
       </c>
-      <c r="U39" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="V39" s="26">
-        <f>R$31</f>
-        <v>0.375</v>
-      </c>
-      <c r="W39" s="27">
+      <c r="U39" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="23">
+        <f>R$42</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="W39" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>7.4380165289256199</v>
+        <v>8.1712062256809332</v>
       </c>
       <c r="Z39" s="31"/>
       <c r="AA39" s="31"/>
@@ -13575,25 +13596,25 @@
       </c>
       <c r="Q40">
         <f t="shared" si="20"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" si="19"/>
-        <v>1.5625</v>
+        <f t="shared" si="21"/>
+        <v>1.5294117647058822</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
       </c>
-      <c r="U40" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="V40" s="20">
-        <f>R$37</f>
-        <v>0.3125</v>
-      </c>
-      <c r="W40" s="21">
+      <c r="U40" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="V40" s="26">
+        <f>R$31</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="W40" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>6.1983471074380159</v>
+        <v>7.0038910505836576</v>
       </c>
     </row>
     <row r="41" spans="16:27" x14ac:dyDescent="0.45">
@@ -13602,25 +13623,25 @@
       </c>
       <c r="Q41">
         <f t="shared" si="20"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" si="19"/>
-        <v>1.625</v>
+        <f t="shared" si="21"/>
+        <v>1.8823529411764706</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
       </c>
-      <c r="U41" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="V41" s="26">
-        <f>R$44</f>
-        <v>0.4375</v>
-      </c>
-      <c r="W41" s="27">
+      <c r="U41" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" s="20">
+        <f>R$37</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="W41" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.6776859504132222</v>
+        <v>5.836575875486381</v>
       </c>
     </row>
     <row r="42" spans="16:27" x14ac:dyDescent="0.45">
@@ -13632,8 +13653,8 @@
         <v>7</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" si="19"/>
-        <v>0.4375</v>
+        <f t="shared" si="21"/>
+        <v>0.41176470588235292</v>
       </c>
       <c r="T42" t="s">
         <v>111</v>
@@ -13643,11 +13664,11 @@
       </c>
       <c r="V42" s="23">
         <f>R$38</f>
-        <v>0.25</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="W42" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.9586776859504127</v>
+        <v>4.6692607003891053</v>
       </c>
     </row>
     <row r="43" spans="16:27" x14ac:dyDescent="0.45">
@@ -13659,8 +13680,8 @@
         <v>3</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" si="19"/>
-        <v>0.1875</v>
+        <f t="shared" si="21"/>
+        <v>0.17647058823529413</v>
       </c>
       <c r="T43" t="s">
         <v>112</v>
@@ -13670,11 +13691,11 @@
       </c>
       <c r="V43" s="26">
         <f>R$43</f>
-        <v>0.1875</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="W43" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>3.71900826446281</v>
+        <v>3.5019455252918288</v>
       </c>
     </row>
     <row r="44" spans="16:27" x14ac:dyDescent="0.45">
@@ -13683,11 +13704,11 @@
       </c>
       <c r="Q44">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" si="19"/>
-        <v>0.4375</v>
+        <f>Q44/(Q$26-5)</f>
+        <v>0.75</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
@@ -13697,11 +13718,11 @@
       </c>
       <c r="V44" s="29">
         <f>R$32</f>
-        <v>0.125</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="W44" s="30">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>2.4793388429752063</v>
+        <v>2.3346303501945527</v>
       </c>
     </row>
     <row r="46" spans="16:27" x14ac:dyDescent="0.45">
@@ -13736,8 +13757,1976 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA08435A-4280-474C-803D-36D4BF232EA5}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44992</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>7</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4566318C-54F3-43FB-AFDD-B926E7E03CCD}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44993</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/(J3+K3)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M3">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIF($E$4:$E$27, P3)</f>
+        <v>4</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M4">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S12" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T12" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U12" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(C4:C30, "Wet Willies")</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(D4:D30,"Wet Willies")</f>
+        <v>8</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="M5">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="32"/>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" t="str">
+        <f t="shared" ref="S13:S30" si="5">IF(AND(C13="Loose Gooses",D13="Wet Willies"),"LG/WW", IF(AND(C13="Loose Gooses",D13="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" ref="T13:T30" si="6">IF(AND(C13="Wet Willies",D13="Loose Gooses"),"WW/LG", IF(AND(C13="Wet Willies",D13="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" ref="U13:U30" si="7">IF(AND(C13="5 Musketeers",D13="Loose Gooses"),"5M/LG", IF(AND(C13="5 Musketeers",D13="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/LG</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="6"/>
+        <v>WW/5M</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S25" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S26" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S27" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S28" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S29" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="S30" t="str">
+        <f t="shared" si="5"/>
+        <v>None</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="6"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="7"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68015FD5-70D9-4DC6-8665-B22C70B5881D}">
+  <dimension ref="B2:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13753,7 +15742,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="3">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -13801,26 +15790,26 @@
       </c>
       <c r="J3">
         <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
         <f>J3/(J3+K3)</f>
-        <v>0.44444444444444442</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="M3">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
         <v>18</v>
       </c>
       <c r="Q3">
         <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="32"/>
       <c r="S3" s="2" t="s">
@@ -13838,13 +15827,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -13861,11 +15850,11 @@
       </c>
       <c r="K4">
         <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="M4">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
@@ -13881,7 +15870,7 @@
       <c r="R4" s="32"/>
       <c r="S4" t="str">
         <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
@@ -13889,7 +15878,7 @@
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.45">
@@ -13903,10 +15892,10 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -13916,26 +15905,26 @@
       </c>
       <c r="J5">
         <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M5">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" s="32"/>
       <c r="S5" t="str">
@@ -13965,7 +15954,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -13996,31 +15985,31 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="32"/>
       <c r="S7" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
@@ -14028,7 +16017,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.45">
@@ -14036,30 +16025,30 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
         <v>12</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="32"/>
       <c r="S8" t="str">
@@ -14068,11 +16057,11 @@
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.45">
@@ -14080,19 +16069,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
@@ -14103,16 +16092,16 @@
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="32"/>
       <c r="S9" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
@@ -14124,23 +16113,23 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
         <v>8</v>
@@ -14152,11 +16141,11 @@
       <c r="R10" s="32"/>
       <c r="S10" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
@@ -14168,19 +16157,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>7</v>
@@ -14192,7 +16181,7 @@
       <c r="R11" s="32"/>
       <c r="S11" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
@@ -14200,7 +16189,7 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>5M/WW</v>
+        <v>None</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.45">
@@ -14208,13 +16197,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -14232,11 +16221,11 @@
       <c r="R12" s="32"/>
       <c r="S12" t="str">
         <f t="shared" si="2"/>
-        <v>LG/5M</v>
+        <v>None</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v>None</v>
+        <v>WW/LG</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
@@ -14251,16 +16240,16 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P13" t="s">
         <v>5</v>
@@ -14276,7 +16265,7 @@
       </c>
       <c r="T13" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>WW/5M</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="4"/>
@@ -14288,19 +16277,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>4</v>
@@ -14312,11 +16301,11 @@
       <c r="R14" s="32"/>
       <c r="S14" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="4"/>
@@ -14328,35 +16317,35 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="s">
         <v>3</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="32"/>
       <c r="S15" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="4"/>
@@ -14368,35 +16357,35 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R16" s="32"/>
       <c r="S16" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/WW</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>None</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="4"/>
@@ -14405,38 +16394,38 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
         <v>1</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="32"/>
       <c r="S17" t="str">
         <f t="shared" si="2"/>
-        <v>None</v>
+        <v>LG/5M</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="3"/>
-        <v>WW/LG</v>
+        <v>None</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="4"/>
@@ -14445,22 +16434,22 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
         <v>0</v>
@@ -14476,7 +16465,7 @@
       </c>
       <c r="T18" t="str">
         <f t="shared" si="3"/>
-        <v>WW/5M</v>
+        <v>WW/LG</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="4"/>
@@ -14489,7 +16478,7 @@
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" t="str">
@@ -14656,1046 +16645,6 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4566318C-54F3-43FB-AFDD-B926E7E03CCD}">
-  <dimension ref="B2:U30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44993</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(D4:D30, "Loose Gooses")</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <f>J3/(J3+K3)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M3">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTIF($E$4:$E$27, P3)</f>
-        <v>4</v>
-      </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <f>COUNTIF(C4:C30, "5 Musketeers")</f>
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <f>COUNTIF(D4:D30, "5 Musketeers")</f>
-        <v>8</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L5" si="0">J4/(J4+K4)</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="M4">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q19" si="1">COUNTIF($E$4:$E$27, P4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="32"/>
-      <c r="S4" t="str">
-        <f t="shared" ref="S4:S30" si="2">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" ref="T4:T30" si="3">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" ref="U4:U30" si="4">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <f>COUNTIF(C4:C30, "Wet Willies")</f>
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <f>COUNTIF(D4:D30,"Wet Willies")</f>
-        <v>8</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="M5">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R5" s="32"/>
-      <c r="S5" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="32"/>
-      <c r="S6" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="4"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="32"/>
-      <c r="S7" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <f>IF(AND(L3&gt;L4, L3&gt;L5), 3, IF(OR(L3&gt;L4, L3&gt;L5), 2, 1))</f>
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="32"/>
-      <c r="S8" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <f>IF(AND(L4&gt;L3, L4&gt;L5), 3, IF(OR(L4&gt;L3, L4&gt;L5), 2, 1))</f>
-        <v>2</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R9" s="32"/>
-      <c r="S9" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f>IF(AND(L5&gt;L4, L5&gt;L3), 3, IF(OR(L5&gt;L4, L5&gt;L3), 2, 1))</f>
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="32"/>
-      <c r="S10" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="P11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R11" s="32"/>
-      <c r="S11" t="str">
-        <f t="shared" si="2"/>
-        <v>None</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="32"/>
-      <c r="S12" t="str">
-        <f t="shared" si="2"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>None</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="32"/>
-      <c r="S13" t="str">
-        <f t="shared" ref="S13:S30" si="5">IF(AND(C13="Loose Gooses",D13="Wet Willies"),"LG/WW", IF(AND(C13="Loose Gooses",D13="5 Musketeers"),"LG/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" ref="T13:T30" si="6">IF(AND(C13="Wet Willies",D13="Loose Gooses"),"WW/LG", IF(AND(C13="Wet Willies",D13="5 Musketeers"),"WW/5M", "None"))</f>
-        <v>None</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" ref="U13:U30" si="7">IF(AND(C13="5 Musketeers",D13="Loose Gooses"),"5M/LG", IF(AND(C13="5 Musketeers",D13="Wet Willies"),"5M/WW", "None"))</f>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="P14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="32"/>
-      <c r="S14" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="7"/>
-        <v>5M/WW</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="P15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R15" s="32"/>
-      <c r="S15" t="str">
-        <f t="shared" si="5"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R16" s="32"/>
-      <c r="S16" t="str">
-        <f t="shared" si="5"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="32"/>
-      <c r="S17" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="7"/>
-        <v>5M/LG</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="32"/>
-      <c r="S18" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="6"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R19" s="32"/>
-      <c r="S19" t="str">
-        <f t="shared" si="5"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="S20" t="str">
-        <f t="shared" si="5"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="S21" t="str">
-        <f t="shared" si="5"/>
-        <v>LG/WW</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="5"/>
-        <v>LG/5M</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="6"/>
-        <v>WW/LG</v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="B24">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="6"/>
-        <v>WW/5M</v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S25" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S26" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S27" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S28" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S29" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="7"/>
-        <v>None</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
-      <c r="S30" t="str">
-        <f t="shared" si="5"/>
-        <v>None</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="6"/>
-        <v>None</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="7"/>
         <v>None</v>
       </c>
     </row>
@@ -15709,7 +16658,7 @@
   <dimension ref="A2:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15833,15 +16782,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>32.5</v>
+        <v>35.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$3</f>
@@ -16367,7 +17316,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
-        <v>0.53846153846153844</v>
+        <v>0.59615384615384615</v>
       </c>
       <c r="J10">
         <f>'1602'!$Q$3</f>
@@ -16643,7 +17592,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.45222929936305734</v>
+        <v>0.47647058823529409</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$3</f>
@@ -17245,20 +18194,92 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
+      <c r="A20" s="3">
+        <f>'0903'!$C$2</f>
+        <v>44994</v>
+      </c>
+      <c r="B20" s="4">
+        <f>'0903'!$J$3</f>
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <f>'0903'!$K$3</f>
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <f>'0903'!$M$3</f>
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f>'0903'!$Q$3</f>
+        <v>2</v>
+      </c>
+      <c r="K20" s="9">
+        <f>'0903'!$Q$16</f>
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <f>'0903'!$Q$18</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>'0903'!$Q$6</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>'0903'!$Q$7</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>'0903'!Q$19</f>
+        <v>2</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1</v>
+      </c>
+      <c r="R20" s="5">
+        <v>3</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="5">
+        <v>2</v>
+      </c>
+      <c r="X20" s="5">
+        <f>COUNTIF('0903'!$S$4:$S$30, "LG/WW")</f>
+        <v>5</v>
+      </c>
+      <c r="Y20" s="5">
+        <f>COUNTIF('0903'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC20" s="5">
+        <f>COUNTIF('0903'!$S$4:$S$30, "LG/5M")</f>
+        <v>5</v>
+      </c>
+      <c r="AD20" s="5">
+        <f>COUNTIF('0903'!$U$4:$U$30, "5M/LG")</f>
+        <v>1</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q21" s="5"/>
@@ -17416,21 +18437,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -17441,11 +18462,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:N31" si="0">SUM(K4:K30)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -17461,15 +18482,15 @@
       </c>
       <c r="O31">
         <f t="shared" ref="O31" si="1">SUM(O4:O30)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.44047619047619047</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.46575342465753422</v>
+        <v>0.49367088607594939</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.45">
@@ -17478,27 +18499,27 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.9375</v>
+        <v>1.9411764705882353</v>
       </c>
       <c r="K32">
         <f>AVERAGE(K7:K30)</f>
-        <v>1.3846153846153846</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
-        <v>0.23076923076923078</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32:N32" si="2">AVERAGE(M4:M30)</f>
-        <v>0.375</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32" si="3">AVERAGE(O4:O30)</f>
-        <v>0.72727272727272729</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V32" s="10"/>
     </row>
@@ -17560,7 +18581,7 @@
   <dimension ref="A2:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17684,15 +18705,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$8</f>
@@ -18251,7 +19272,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
-        <v>0.59523809523809523</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="J10">
         <f>'1602'!$Q$8</f>
@@ -18523,7 +19544,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.55029585798816572</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$8</f>
@@ -19125,20 +20146,90 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
+      <c r="A20" s="3">
+        <f>'0903'!$C$2</f>
+        <v>44994</v>
+      </c>
+      <c r="B20" s="7">
+        <f>'0903'!$J$5</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <f>'0903'!$K$5</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="4">
+        <f>'0903'!$M$5</f>
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <f>'0903'!$Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>'0903'!$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>'0903'!$Q$5</f>
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <f>'0903'!$Q$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" s="5">
+        <v>2</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" s="5">
+        <f>COUNTIF('0903'!$T$4:$T$30, "WW/LG")</f>
+        <v>2</v>
+      </c>
+      <c r="Y20" s="5">
+        <f>COUNTIF('0903'!$S$4:$S$30, "LG/WW")</f>
+        <v>5</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="5">
+        <f>COUNTIF('0903'!$T$4:$T$30, "WW/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="AD20" s="5">
+        <f>COUNTIF('0903'!$U$4:$U$30, "5M/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="Q21" s="5"/>
@@ -19296,21 +20387,21 @@
       </c>
       <c r="X30" s="5">
         <f>SUM(X4:X29)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y30" s="5">
         <f>SUM(Y4:Y29)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="5">
         <f>SUM(AC4:AC29)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD30" s="5">
         <f>SUM(AD4:AD29)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -19337,7 +20428,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
@@ -19345,11 +20436,11 @@
       </c>
       <c r="X31" s="10">
         <f>X30/(Y30+X30)</f>
-        <v>0.55952380952380953</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AC31" s="10">
         <f>AC30/(AD30+AC30)</f>
-        <v>0.54117647058823526</v>
+        <v>0.54022988505747127</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.45">
@@ -19366,19 +20457,19 @@
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.3125</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.4375</v>
+        <v>0.41176470588235292</v>
       </c>
     </row>
   </sheetData>
@@ -19435,7 +20526,7 @@
   <dimension ref="A2:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19553,15 +20644,15 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B30)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <f>SUM(C4:C30)</f>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <f>SUM(D4:D30)</f>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="J4">
         <f>'602'!$Q$14</f>
@@ -20078,7 +21169,7 @@
       </c>
       <c r="H10" s="11">
         <f>SUM(B17:B20)/(SUM(B17:B20)+SUM(C17:C20))</f>
-        <v>0.35135135135135137</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J10">
         <f>'1602'!$Q$14</f>
@@ -20336,7 +21427,7 @@
       </c>
       <c r="H13" s="12">
         <f>F4/(G4+F4)</f>
-        <v>0.49367088607594939</v>
+        <v>0.48192771084337349</v>
       </c>
       <c r="J13">
         <f>'2202'!$Q$14</f>
@@ -20886,19 +21977,84 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
+      <c r="A20" s="3">
+        <f>'0903'!$C$2</f>
+        <v>44994</v>
+      </c>
+      <c r="B20" s="4">
+        <f>'0903'!$J$4</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <f>'0903'!$K$4</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <f>'0903'!$M$4</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f>'0903'!$Q$14</f>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f>'0903'!$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20">
+        <f>'0903'!$Q$17</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>'0903'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="5">
+        <f>COUNTIF('0903'!$U$4:$U$30, "5M/WW")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="5">
+        <f>COUNTIF('0903'!$T$4:$T$30, "WW/5M")</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA20" s="5">
+        <f>COUNTIF('0903'!$U$4:$U$30, "5M/LG")</f>
+        <v>1</v>
+      </c>
+      <c r="AB20" s="5">
+        <f>COUNTIF('0903'!$S$4:$S$30, "LG/5M")</f>
+        <v>5</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="P21" s="5"/>
@@ -21046,21 +22202,21 @@
       </c>
       <c r="V30" s="5">
         <f>SUM(V4:V29)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W30" s="5">
         <f>SUM(W4:W29)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="AA30" s="5">
         <f>SUM(AA4:AA29)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB30" s="5">
         <f>SUM(AB4:AB29)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -21071,11 +22227,11 @@
       </c>
       <c r="J31">
         <f>SUM(J4:J30)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K31">
         <f t="shared" ref="K31:M31" si="0">SUM(K4:K30)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L31">
         <f>SUM(L7:L30)</f>
@@ -21091,11 +22247,11 @@
       </c>
       <c r="V31" s="10">
         <f>V30/(W30+V30)</f>
-        <v>0.45882352941176469</v>
+        <v>0.45977011494252873</v>
       </c>
       <c r="AA31" s="10">
         <f>AA30/(AB30+AA30)</f>
-        <v>0.53424657534246578</v>
+        <v>0.50632911392405067</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.45">
@@ -21104,11 +22260,11 @@
       </c>
       <c r="J32">
         <f>AVERAGE(J4:J30)</f>
-        <v>1.5</v>
+        <v>1.4705882352941178</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:M32" si="1">AVERAGE(K4:K30)</f>
-        <v>1.5625</v>
+        <v>1.5294117647058822</v>
       </c>
       <c r="L32">
         <f>AVERAGE(L7:L30)</f>
@@ -21116,11 +22272,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.4375</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="N32">
         <f>AVERAGE(N7:N30)</f>
-        <v>0.23076923076923078</v>
+        <v>0.21428571428571427</v>
       </c>
     </row>
   </sheetData>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAAAF65-25A5-4949-BDC4-D6A83CEC49F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C10C4F-51E1-422E-9C88-25E88D4A0ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="5" activeTab="21" xr2:uid="{2D388C7B-479A-45BA-A2D9-F72395219D1D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{2D388C7B-479A-45BA-A2D9-F72395219D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -11538,8 +11538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:AL48"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13161,12 +13161,12 @@
         <v>61</v>
       </c>
       <c r="U24">
-        <f>('1302'!$Q19)+('1402'!$Q19)+('1602'!$Q19)</f>
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="V24" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X24" t="s">
         <v>61</v>
@@ -13473,11 +13473,11 @@
       </c>
       <c r="V35" s="26">
         <f>R$44</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W35" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>14.883268482490273</v>
+        <v>16.536964980544749</v>
       </c>
     </row>
     <row r="36" spans="16:27" x14ac:dyDescent="0.45">
@@ -13703,12 +13703,12 @@
         <v>61</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="20"/>
-        <v>9</v>
+        <f>SUM(Q24,U24,Y24,AC24,AG24)</f>
+        <v>10</v>
       </c>
       <c r="R44" s="14">
         <f>Q44/(Q$26-5)</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
@@ -15725,7 +15725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68015FD5-70D9-4DC6-8665-B22C70B5881D}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q19"/>
     </sheetView>
   </sheetViews>
@@ -16658,7 +16658,7 @@
   <dimension ref="A2:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C10C4F-51E1-422E-9C88-25E88D4A0ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55937253-6F48-47E4-89B2-D73FDD1E3B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{2D388C7B-479A-45BA-A2D9-F72395219D1D}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="16875" windowHeight="10522" activeTab="1" xr2:uid="{2D388C7B-479A-45BA-A2D9-F72395219D1D}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="16875" windowHeight="10522" activeTab="22" xr2:uid="{96732709-156E-4E03-A17B-993670FB4E55}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -35,6 +36,7 @@
     <sheet name="0703" sheetId="20" r:id="rId20"/>
     <sheet name="0803" sheetId="21" r:id="rId21"/>
     <sheet name="0903" sheetId="22" r:id="rId22"/>
+    <sheet name="Finals 1" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="158">
   <si>
     <t>SamJ</t>
   </si>
@@ -586,6 +588,30 @@
   <si>
     <t>A/C/W</t>
   </si>
+  <si>
+    <t>Finals 1</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Note: Highlighted names are 3 pointers</t>
+  </si>
 </sst>
 </file>
 
@@ -635,7 +661,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,12 +695,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,9 +861,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2593,6 +2615,7 @@
   <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2647,6 +2670,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3484,6 +3508,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4357,6 +4382,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5266,6 +5292,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6070,6 +6097,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6946,6 +6974,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7801,6 +7830,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8713,6 +8743,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9625,6 +9656,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10465,6 +10497,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11538,9 +11571,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:AL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11637,13 +11671,13 @@
       <c r="AG5">
         <v>4</v>
       </c>
-      <c r="AJ5" s="33" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="AK5" s="33">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="33"/>
+      <c r="AK5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="9"/>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
@@ -11682,9 +11716,9 @@
         <f t="shared" si="0"/>
         <v>2.8235294117647061</v>
       </c>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
@@ -11853,16 +11887,16 @@
         <f>AG8/AG$5</f>
         <v>3</v>
       </c>
-      <c r="AJ8" s="33" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK8" s="33">
-        <f>('0603'!$Q3)+('0703'!$Q3)</f>
-        <v>6</v>
-      </c>
-      <c r="AL8" s="35">
+      <c r="AK8" s="9" t="str">
+        <f>('Finals 1'!$R3)</f>
+        <v>N/A</v>
+      </c>
+      <c r="AL8" s="35" t="e">
         <f>AK8/AK$5</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.45">
@@ -11941,16 +11975,16 @@
         <f t="shared" ref="AH9:AH24" si="7">AG9/AG$5</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="33" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AK9" s="33">
-        <f>('0603'!$Q4)+('0703'!$Q4)</f>
-        <v>0</v>
+      <c r="AK9" s="9">
+        <f>('Finals 1'!$R4)</f>
+        <v>3</v>
       </c>
       <c r="AL9" s="35">
         <f t="shared" ref="AL9:AL24" si="8">AK9/AK$5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.45">
@@ -12029,16 +12063,16 @@
         <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
-      <c r="AJ10" s="33" t="s">
+      <c r="AJ10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AK10" s="33">
-        <f>('0603'!$Q5)+('0703'!$Q5)</f>
-        <v>3</v>
+      <c r="AK10" s="9">
+        <f>('Finals 1'!$R5)</f>
+        <v>2</v>
       </c>
       <c r="AL10" s="35">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.45">
@@ -12117,11 +12151,11 @@
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="AJ11" s="33" t="s">
+      <c r="AJ11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AK11" s="33">
-        <f>('0603'!$Q6)+('0703'!$Q6)</f>
+      <c r="AK11" s="9">
+        <f>('Finals 1'!$R6)</f>
         <v>0</v>
       </c>
       <c r="AL11" s="35">
@@ -12205,16 +12239,16 @@
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="AJ12" s="33" t="s">
+      <c r="AJ12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AK12" s="33">
-        <f>('0603'!$Q7)+('0703'!$Q7)</f>
-        <v>1</v>
+      <c r="AK12" s="9">
+        <f>('Finals 1'!$R7)</f>
+        <v>0</v>
       </c>
       <c r="AL12" s="35">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.45">
@@ -12293,16 +12327,16 @@
         <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
-      <c r="AJ13" s="33" t="s">
+      <c r="AJ13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AK13" s="33">
-        <f>('0603'!$Q8)+('0703'!$Q8)</f>
-        <v>8</v>
-      </c>
-      <c r="AL13" s="35">
+      <c r="AK13" s="9" t="str">
+        <f>('Finals 1'!$R8)</f>
+        <v>N/A</v>
+      </c>
+      <c r="AL13" s="35" t="e">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.45">
@@ -12381,16 +12415,16 @@
         <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
-      <c r="AJ14" s="33" t="s">
+      <c r="AJ14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AK14" s="33">
-        <f>('0603'!$Q9)+('0703'!$Q9)</f>
-        <v>5</v>
+      <c r="AK14" s="9">
+        <f>('Finals 1'!$R9)</f>
+        <v>3</v>
       </c>
       <c r="AL14" s="35">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.45">
@@ -12469,16 +12503,16 @@
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="AJ15" s="33" t="s">
+      <c r="AJ15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AK15" s="33">
-        <f>('0603'!$Q10)+('0703'!$Q10)</f>
-        <v>2</v>
+      <c r="AK15" s="9">
+        <f>('Finals 1'!$R10)</f>
+        <v>3</v>
       </c>
       <c r="AL15" s="35">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.45">
@@ -12557,11 +12591,11 @@
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="AJ16" s="33" t="s">
+      <c r="AJ16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="33">
-        <f>('0603'!$Q11)+('0703'!$Q11)</f>
+      <c r="AK16" s="9">
+        <f>('Finals 1'!$R11)</f>
         <v>0</v>
       </c>
       <c r="AL16" s="35">
@@ -12645,16 +12679,16 @@
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="AJ17" s="33" t="s">
+      <c r="AJ17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AK17" s="33">
-        <f>('0603'!$Q12)+('0703'!$Q12)</f>
-        <v>2</v>
+      <c r="AK17" s="9">
+        <f>('Finals 1'!$R12)</f>
+        <v>1</v>
       </c>
       <c r="AL17" s="35">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.45">
@@ -12733,16 +12767,16 @@
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="AJ18" s="33" t="s">
+      <c r="AJ18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AK18" s="33">
-        <f>('0603'!$Q13)+('0703'!$Q13)</f>
-        <v>0</v>
+      <c r="AK18" s="9">
+        <f>('Finals 1'!$R13)</f>
+        <v>1</v>
       </c>
       <c r="AL18" s="35">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.45">
@@ -12821,16 +12855,16 @@
         <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
-      <c r="AJ19" s="33" t="s">
+      <c r="AJ19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AK19" s="33">
-        <f>('0603'!$Q14)+('0703'!$Q14)</f>
-        <v>5</v>
+      <c r="AK19" s="9">
+        <f>('Finals 1'!$R14)</f>
+        <v>4</v>
       </c>
       <c r="AL19" s="35">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.45">
@@ -12909,16 +12943,16 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ20" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK20" s="33">
-        <f>('0603'!$Q15)+('0703'!$Q15)</f>
-        <v>0</v>
+      <c r="AJ20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK20" s="9">
+        <f>('Finals 1'!$R15)</f>
+        <v>5</v>
       </c>
       <c r="AL20" s="35">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.45">
@@ -12997,16 +13031,16 @@
         <f t="shared" si="7"/>
         <v>2.75</v>
       </c>
-      <c r="AJ21" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK21" s="33">
-        <f>('0603'!$Q16)+('0703'!$Q16)</f>
-        <v>2</v>
+      <c r="AJ21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="9">
+        <f>('Finals 1'!$R16)</f>
+        <v>0</v>
       </c>
       <c r="AL21" s="35">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.45">
@@ -13065,16 +13099,16 @@
         <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
-      <c r="AJ22" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK22" s="33">
-        <f>('0603'!$Q17)+('0703'!$Q17)</f>
-        <v>2</v>
+      <c r="AJ22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="9">
+        <f>('Finals 1'!$R17)</f>
+        <v>0</v>
       </c>
       <c r="AL22" s="35">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.45">
@@ -13133,11 +13167,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="33">
-        <f>('0603'!$Q18)+('0703'!$Q18)</f>
+      <c r="AJ23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="9">
+        <f>('Finals 1'!$R18)</f>
         <v>0</v>
       </c>
       <c r="AL23" s="35">
@@ -13201,16 +13235,16 @@
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="AJ24" s="33" t="s">
+      <c r="AJ24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AK24" s="33">
-        <f>('0603'!$Q19)+('0703'!$Q19)</f>
-        <v>2</v>
+      <c r="AK24" s="9">
+        <f>('Finals 1'!$R19)</f>
+        <v>0</v>
       </c>
       <c r="AL24" s="35">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.45">
@@ -13218,8 +13252,8 @@
         <v>66</v>
       </c>
       <c r="Q26">
-        <f>SUM(Q5,U5,Y5,AC5,AG5)</f>
-        <v>17</v>
+        <f>SUM(Q5,U5,Y5,AC5,AG5,AK5)</f>
+        <v>18</v>
       </c>
       <c r="T26" s="2"/>
     </row>
@@ -13254,11 +13288,11 @@
         <v>18</v>
       </c>
       <c r="Q28">
-        <f>SUM(Q8,U8,Y8,AC8,AG8)</f>
+        <f>SUM(Q8,U8,Y8,AC8,AG8,AK8)</f>
         <v>33</v>
       </c>
       <c r="R28" s="14">
-        <f>Q28/17</f>
+        <f>Q28/(Q26-1)</f>
         <v>1.9411764705882353</v>
       </c>
       <c r="T28" t="s">
@@ -13284,26 +13318,26 @@
         <v>19</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q44" si="20">SUM(Q9,U9,Y9,AC9,AG9)</f>
-        <v>14</v>
+        <f t="shared" ref="Q29:Q44" si="20">SUM(Q9,U9,Y9,AC9,AG9,AK9)</f>
+        <v>17</v>
       </c>
       <c r="R29" s="14">
         <f>Q29/(Q$26-3)</f>
-        <v>1</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
       </c>
-      <c r="U29" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V29" s="26">
-        <f>$R$28</f>
-        <v>1.9411764705882353</v>
-      </c>
-      <c r="W29" s="27">
+      <c r="U29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" s="20">
+        <f>R$34</f>
+        <v>2</v>
+      </c>
+      <c r="W29" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>38.521400778210122</v>
+        <v>39.688715953307394</v>
       </c>
       <c r="Y29" t="s">
         <v>120</v>
@@ -13315,25 +13349,25 @@
       </c>
       <c r="Q30">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R30" s="14">
         <f t="shared" ref="R30:R43" si="21">Q30/Q$26</f>
-        <v>0.58823529411764708</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="V30" s="26">
-        <f>R$41</f>
-        <v>1.8823529411764706</v>
+        <f>$R$28</f>
+        <v>1.9411764705882353</v>
       </c>
       <c r="W30" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>37.354085603112843</v>
+        <v>38.521400778210122</v>
       </c>
       <c r="Y30" t="s">
         <v>121</v>
@@ -13349,21 +13383,21 @@
       </c>
       <c r="R31" s="14">
         <f t="shared" si="21"/>
-        <v>0.35294117647058826</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T31" t="s">
         <v>100</v>
       </c>
-      <c r="U31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V31" s="20">
-        <f>R$34</f>
-        <v>1.8235294117647058</v>
-      </c>
-      <c r="W31" s="21">
+      <c r="U31" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="26">
+        <f>R$41</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="W31" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>36.186770428015564</v>
+        <v>35.278858625162123</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.45">
@@ -13376,7 +13410,7 @@
       </c>
       <c r="R32" s="14">
         <f t="shared" si="21"/>
-        <v>0.11764705882352941</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="T32" t="s">
         <v>101</v>
@@ -13386,11 +13420,11 @@
       </c>
       <c r="V32" s="23">
         <f>R$40</f>
-        <v>1.5294117647058822</v>
+        <v>1.7222222222222223</v>
       </c>
       <c r="W32" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>30.350194552529182</v>
+        <v>34.17639429312581</v>
       </c>
       <c r="Y32" t="s">
         <v>138</v>
@@ -13416,11 +13450,11 @@
       </c>
       <c r="V33" s="23">
         <f>R$39</f>
-        <v>1.4705882352941178</v>
+        <v>1.6111111111111112</v>
       </c>
       <c r="W33" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>29.18287937743191</v>
+        <v>31.971465629053181</v>
       </c>
       <c r="Y33" t="s">
         <v>137</v>
@@ -13432,11 +13466,11 @@
       </c>
       <c r="Q34">
         <f t="shared" si="20"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="21"/>
-        <v>1.8235294117647058</v>
+        <f>Q34/(Q$26-1)</f>
+        <v>2</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
@@ -13446,11 +13480,11 @@
       </c>
       <c r="V34" s="23">
         <f>$R$29</f>
-        <v>1</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="W34" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>19.844357976653697</v>
+        <v>22.490272373540858</v>
       </c>
     </row>
     <row r="35" spans="16:27" x14ac:dyDescent="0.45">
@@ -13459,11 +13493,11 @@
       </c>
       <c r="Q35">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R35" s="14">
         <f t="shared" si="21"/>
-        <v>0.58823529411764708</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
@@ -13473,11 +13507,11 @@
       </c>
       <c r="V35" s="26">
         <f>R$44</f>
-        <v>0.83333333333333337</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="W35" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>16.536964980544749</v>
+        <v>15.264890751272075</v>
       </c>
     </row>
     <row r="36" spans="16:27" x14ac:dyDescent="0.45">
@@ -13490,7 +13524,7 @@
       </c>
       <c r="R36" s="14">
         <f t="shared" si="21"/>
-        <v>0.41176470588235292</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
@@ -13500,11 +13534,11 @@
       </c>
       <c r="V36" s="20">
         <f>R$35</f>
-        <v>0.58823529411764708</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="W36" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>11.673151750972762</v>
+        <v>14.332036316472113</v>
       </c>
     </row>
     <row r="37" spans="16:27" x14ac:dyDescent="0.45">
@@ -13513,11 +13547,11 @@
       </c>
       <c r="Q37">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R37" s="14">
         <f t="shared" si="21"/>
-        <v>0.29411764705882354</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T37" t="s">
         <v>106</v>
@@ -13527,11 +13561,11 @@
       </c>
       <c r="V37" s="20">
         <f>R$30</f>
-        <v>0.58823529411764708</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W37" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>11.673151750972762</v>
+        <v>13.229571984435799</v>
       </c>
     </row>
     <row r="38" spans="16:27" x14ac:dyDescent="0.45">
@@ -13540,11 +13574,11 @@
       </c>
       <c r="Q38">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R38" s="14">
         <f t="shared" si="21"/>
-        <v>0.23529411764705882</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
@@ -13554,11 +13588,11 @@
       </c>
       <c r="V38" s="20">
         <f>R$36</f>
-        <v>0.41176470588235292</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="W38" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.1712062256809332</v>
+        <v>7.7172503242542154</v>
       </c>
     </row>
     <row r="39" spans="16:27" x14ac:dyDescent="0.45">
@@ -13567,11 +13601,11 @@
       </c>
       <c r="Q39">
         <f t="shared" si="20"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R39" s="14">
         <f t="shared" si="21"/>
-        <v>1.4705882352941178</v>
+        <v>1.6111111111111112</v>
       </c>
       <c r="T39" t="s">
         <v>108</v>
@@ -13581,11 +13615,11 @@
       </c>
       <c r="V39" s="23">
         <f>R$42</f>
-        <v>0.41176470588235292</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="W39" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>8.1712062256809332</v>
+        <v>7.7172503242542154</v>
       </c>
       <c r="Z39" s="31"/>
       <c r="AA39" s="31"/>
@@ -13596,11 +13630,11 @@
       </c>
       <c r="Q40">
         <f t="shared" si="20"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R40" s="14">
         <f t="shared" si="21"/>
-        <v>1.5294117647058822</v>
+        <v>1.7222222222222223</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
@@ -13610,11 +13644,11 @@
       </c>
       <c r="V40" s="26">
         <f>R$31</f>
-        <v>0.35294117647058826</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W40" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>7.0038910505836576</v>
+        <v>6.6147859922178993</v>
       </c>
     </row>
     <row r="41" spans="16:27" x14ac:dyDescent="0.45">
@@ -13627,7 +13661,7 @@
       </c>
       <c r="R41" s="14">
         <f t="shared" si="21"/>
-        <v>1.8823529411764706</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="T41" t="s">
         <v>110</v>
@@ -13637,11 +13671,11 @@
       </c>
       <c r="V41" s="20">
         <f>R$37</f>
-        <v>0.29411764705882354</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W41" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>5.836575875486381</v>
+        <v>6.6147859922178993</v>
       </c>
     </row>
     <row r="42" spans="16:27" x14ac:dyDescent="0.45">
@@ -13654,7 +13688,7 @@
       </c>
       <c r="R42" s="14">
         <f t="shared" si="21"/>
-        <v>0.41176470588235292</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="T42" t="s">
         <v>111</v>
@@ -13664,11 +13698,11 @@
       </c>
       <c r="V42" s="23">
         <f>R$38</f>
-        <v>0.23529411764705882</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="W42" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>4.6692607003891053</v>
+        <v>5.5123216601815832</v>
       </c>
     </row>
     <row r="43" spans="16:27" x14ac:dyDescent="0.45">
@@ -13681,7 +13715,7 @@
       </c>
       <c r="R43" s="14">
         <f t="shared" si="21"/>
-        <v>0.17647058823529413</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T43" t="s">
         <v>112</v>
@@ -13691,11 +13725,11 @@
       </c>
       <c r="V43" s="26">
         <f>R$43</f>
-        <v>0.17647058823529413</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="W43" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>3.5019455252918288</v>
+        <v>3.3073929961089497</v>
       </c>
     </row>
     <row r="44" spans="16:27" x14ac:dyDescent="0.45">
@@ -13703,12 +13737,12 @@
         <v>61</v>
       </c>
       <c r="Q44">
-        <f>SUM(Q24,U24,Y24,AC24,AG24)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="R44" s="14">
         <f>Q44/(Q$26-5)</f>
-        <v>0.83333333333333337</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="T44" t="s">
         <v>113</v>
@@ -13718,11 +13752,11 @@
       </c>
       <c r="V44" s="29">
         <f>R$32</f>
-        <v>0.11764705882352941</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="W44" s="30">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>2.3346303501945527</v>
+        <v>2.2049286640726327</v>
       </c>
     </row>
     <row r="46" spans="16:27" x14ac:dyDescent="0.45">
@@ -13758,6 +13792,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -14688,6 +14723,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -15726,8 +15762,9 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q19"/>
+      <selection activeCell="P2" sqref="A1:XFD1048576"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16653,6 +16690,1133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E3080-3342-47C2-BF71-23EEBC472503}">
+  <dimension ref="B2:V30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="1">
+      <selection activeCell="P13" sqref="P13:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
+        <f>K3/(K3+L3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IF(AND(M3&gt;M4, M3&gt;M5), 3, IF(OR(M3&gt;M4, M3&gt;M5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="32"/>
+      <c r="T3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M5" si="0">K4/(K4+L4)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N4">
+        <f>IF(AND(M4&gt;M3, M4&gt;M5), 3, IF(OR(M4&gt;M3, M4&gt;M5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R19" si="1">COUNTIF($F$4:$F$27, Q4)</f>
+        <v>3</v>
+      </c>
+      <c r="S4" s="32"/>
+      <c r="T4" t="str">
+        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V4" t="str">
+        <f>IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND(C4="5 Musketeers",D4="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="N5">
+        <f>IF(AND(M5&gt;M4, M5&gt;M3), 3, IF(OR(M5&gt;M4, M5&gt;M3), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S5" s="32"/>
+      <c r="T5" t="str">
+        <f>IF(AND(C5="Loose Gooses",D5="Wet Willies"),"LG/WW", IF(AND(C5="Loose Gooses",D5="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U5" t="str">
+        <f>IF(AND(C5="Wet Willies",D5="Loose Gooses"),"WW/LG", IF(AND(C5="Wet Willies",D5="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V5" t="str">
+        <f>IF(AND(C5="5 Musketeers",D5="Loose Gooses"),"5M/LG", IF(AND(C5="5 Musketeers",D5="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="32"/>
+      <c r="T6" t="str">
+        <f>IF(AND(C6="Loose Gooses",D6="Wet Willies"),"LG/WW", IF(AND(C6="Loose Gooses",D6="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U6" t="str">
+        <f>IF(AND(C6="Wet Willies",D6="Loose Gooses"),"WW/LG", IF(AND(C6="Wet Willies",D6="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V6" t="str">
+        <f>IF(AND(C6="5 Musketeers",D6="Loose Gooses"),"5M/LG", IF(AND(C6="5 Musketeers",D6="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="32"/>
+      <c r="T7" t="str">
+        <f>IF(AND(C7="Loose Gooses",D7="Wet Willies"),"LG/WW", IF(AND(C7="Loose Gooses",D7="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U7" t="str">
+        <f>IF(AND(C7="Wet Willies",D7="Loose Gooses"),"WW/LG", IF(AND(C7="Wet Willies",D7="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V7" t="str">
+        <f>IF(AND(C7="5 Musketeers",D7="Loose Gooses"),"5M/LG", IF(AND(C7="5 Musketeers",D7="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>IF(AND(M3&gt;M4, M3&gt;M5), 3, IF(OR(M3&gt;M4, M3&gt;M5), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" t="str">
+        <f>IF(AND(C8="Loose Gooses",D8="Wet Willies"),"LG/WW", IF(AND(C8="Loose Gooses",D8="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U8" t="str">
+        <f>IF(AND(C8="Wet Willies",D8="Loose Gooses"),"WW/LG", IF(AND(C8="Wet Willies",D8="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V8" t="str">
+        <f>IF(AND(C8="5 Musketeers",D8="Loose Gooses"),"5M/LG", IF(AND(C8="5 Musketeers",D8="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f>IF(AND(M4&gt;M3, M4&gt;M5), 3, IF(OR(M4&gt;M3, M4&gt;M5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S9" s="32"/>
+      <c r="T9" t="str">
+        <f>IF(AND(C9="Loose Gooses",D9="Wet Willies"),"LG/WW", IF(AND(C9="Loose Gooses",D9="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U9" t="str">
+        <f>IF(AND(C9="Wet Willies",D9="Loose Gooses"),"WW/LG", IF(AND(C9="Wet Willies",D9="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V9" t="str">
+        <f>IF(AND(C9="5 Musketeers",D9="Loose Gooses"),"5M/LG", IF(AND(C9="5 Musketeers",D9="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>IF(AND(M5&gt;M4, M5&gt;M3), 3, IF(OR(M5&gt;M4, M5&gt;M3), 2, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" t="str">
+        <f>IF(AND(C10="Loose Gooses",D10="Wet Willies"),"LG/WW", IF(AND(C10="Loose Gooses",D10="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U10" t="str">
+        <f>IF(AND(C10="Wet Willies",D10="Loose Gooses"),"WW/LG", IF(AND(C10="Wet Willies",D10="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V10" t="str">
+        <f>IF(AND(C10="5 Musketeers",D10="Loose Gooses"),"5M/LG", IF(AND(C10="5 Musketeers",D10="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="32"/>
+      <c r="T11" t="str">
+        <f>IF(AND(C11="Loose Gooses",D11="Wet Willies"),"LG/WW", IF(AND(C11="Loose Gooses",D11="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U11" t="str">
+        <f>IF(AND(C11="Wet Willies",D11="Loose Gooses"),"WW/LG", IF(AND(C11="Wet Willies",D11="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/5M</v>
+      </c>
+      <c r="V11" t="str">
+        <f>IF(AND(C11="5 Musketeers",D11="Loose Gooses"),"5M/LG", IF(AND(C11="5 Musketeers",D11="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="32"/>
+      <c r="T12" t="str">
+        <f>IF(AND(C12="Loose Gooses",D12="Wet Willies"),"LG/WW", IF(AND(C12="Loose Gooses",D12="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U12" t="str">
+        <f>IF(AND(C12="Wet Willies",D12="Loose Gooses"),"WW/LG", IF(AND(C12="Wet Willies",D12="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/5M</v>
+      </c>
+      <c r="V12" t="str">
+        <f>IF(AND(C12="5 Musketeers",D12="Loose Gooses"),"5M/LG", IF(AND(C12="5 Musketeers",D12="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="32"/>
+      <c r="T13" t="str">
+        <f>IF(AND(C13="Loose Gooses",D13="Wet Willies"),"LG/WW", IF(AND(C13="Loose Gooses",D13="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U13" t="str">
+        <f>IF(AND(C13="Wet Willies",D13="Loose Gooses"),"WW/LG", IF(AND(C13="Wet Willies",D13="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/LG</v>
+      </c>
+      <c r="V13" t="str">
+        <f>IF(AND(C13="5 Musketeers",D13="Loose Gooses"),"5M/LG", IF(AND(C13="5 Musketeers",D13="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S14" s="32"/>
+      <c r="T14" t="str">
+        <f>IF(AND(C14="Loose Gooses",D14="Wet Willies"),"LG/WW", IF(AND(C14="Loose Gooses",D14="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U14" t="str">
+        <f>IF(AND(C14="Wet Willies",D14="Loose Gooses"),"WW/LG", IF(AND(C14="Wet Willies",D14="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/LG</v>
+      </c>
+      <c r="V14" t="str">
+        <f>IF(AND(C14="5 Musketeers",D14="Loose Gooses"),"5M/LG", IF(AND(C14="5 Musketeers",D14="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S15" s="32"/>
+      <c r="T15" t="str">
+        <f>IF(AND(C15="Loose Gooses",D15="Wet Willies"),"LG/WW", IF(AND(C15="Loose Gooses",D15="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(AND(C15="Wet Willies",D15="Loose Gooses"),"WW/LG", IF(AND(C15="Wet Willies",D15="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/5M</v>
+      </c>
+      <c r="V15" t="str">
+        <f>IF(AND(C15="5 Musketeers",D15="Loose Gooses"),"5M/LG", IF(AND(C15="5 Musketeers",D15="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="32"/>
+      <c r="T16" t="str">
+        <f>IF(AND(C16="Loose Gooses",D16="Wet Willies"),"LG/WW", IF(AND(C16="Loose Gooses",D16="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(AND(C16="Wet Willies",D16="Loose Gooses"),"WW/LG", IF(AND(C16="Wet Willies",D16="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/5M</v>
+      </c>
+      <c r="V16" t="str">
+        <f>IF(AND(C16="5 Musketeers",D16="Loose Gooses"),"5M/LG", IF(AND(C16="5 Musketeers",D16="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="32"/>
+      <c r="T17" t="str">
+        <f>IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/5M</v>
+      </c>
+      <c r="V17" t="str">
+        <f>IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND(C17="5 Musketeers",D17="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="32"/>
+      <c r="T18" t="str">
+        <f>IF(AND(C18="Loose Gooses",D18="Wet Willies"),"LG/WW", IF(AND(C18="Loose Gooses",D18="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U18" t="str">
+        <f>IF(AND(C18="Wet Willies",D18="Loose Gooses"),"WW/LG", IF(AND(C18="Wet Willies",D18="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/LG</v>
+      </c>
+      <c r="V18" t="str">
+        <f>IF(AND(C18="5 Musketeers",D18="Loose Gooses"),"5M/LG", IF(AND(C18="5 Musketeers",D18="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>61</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="32"/>
+      <c r="T19" t="str">
+        <f>IF(AND(C19="Loose Gooses",D19="Wet Willies"),"LG/WW", IF(AND(C19="Loose Gooses",D19="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U19" t="str">
+        <f>IF(AND(C19="Wet Willies",D19="Loose Gooses"),"WW/LG", IF(AND(C19="Wet Willies",D19="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>WW/LG</v>
+      </c>
+      <c r="V19" t="str">
+        <f>IF(AND(C19="5 Musketeers",D19="Loose Gooses"),"5M/LG", IF(AND(C19="5 Musketeers",D19="Wet Willies"),"5M/WW", "None"))</f>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="T20" t="str">
+        <f>IF(AND(C20="Loose Gooses",D20="Wet Willies"),"LG/WW", IF(AND(C20="Loose Gooses",D20="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U20" t="str">
+        <f>IF(AND(C20="Wet Willies",D20="Loose Gooses"),"WW/LG", IF(AND(C20="Wet Willies",D20="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V20" t="str">
+        <f>IF(AND(C20="5 Musketeers",D20="Loose Gooses"),"5M/LG", IF(AND(C20="5 Musketeers",D20="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="T21" t="str">
+        <f>IF(AND(C21="Loose Gooses",D21="Wet Willies"),"LG/WW", IF(AND(C21="Loose Gooses",D21="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U21" t="str">
+        <f>IF(AND(C21="Wet Willies",D21="Loose Gooses"),"WW/LG", IF(AND(C21="Wet Willies",D21="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V21" t="str">
+        <f>IF(AND(C21="5 Musketeers",D21="Loose Gooses"),"5M/LG", IF(AND(C21="5 Musketeers",D21="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="T22" t="str">
+        <f>IF(AND(C22="Loose Gooses",D22="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",D22="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U22" t="str">
+        <f>IF(AND(C22="Wet Willies",D22="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",D22="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V22" t="str">
+        <f>IF(AND(C22="5 Musketeers",D22="Loose Gooses"),"5M/LG", IF(AND(C22="5 Musketeers",D22="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="T23" t="str">
+        <f>IF(AND(C23="Loose Gooses",D23="Wet Willies"),"LG/WW", IF(AND(C23="Loose Gooses",D23="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U23" t="str">
+        <f>IF(AND(C23="Wet Willies",D23="Loose Gooses"),"WW/LG", IF(AND(C23="Wet Willies",D23="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V23" t="str">
+        <f>IF(AND(C23="5 Musketeers",D23="Loose Gooses"),"5M/LG", IF(AND(C23="5 Musketeers",D23="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/LG</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" ref="T24:T30" si="2">IF(AND(C24="Loose Gooses",D24="Wet Willies"),"LG/WW", IF(AND(C24="Loose Gooses",D24="5 Musketeers"),"LG/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" ref="U24:U30" si="3">IF(AND(C24="Wet Willies",D24="Loose Gooses"),"WW/LG", IF(AND(C24="Wet Willies",D24="5 Musketeers"),"WW/5M", "None"))</f>
+        <v>None</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" ref="V24:V30" si="4">IF(AND(C24="5 Musketeers",D24="Loose Gooses"),"5M/LG", IF(AND(C24="5 Musketeers",D24="Wet Willies"),"5M/WW", "None"))</f>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="4"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="T26" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="T27" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="T29" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="T30" t="str">
+        <f t="shared" si="2"/>
+        <v>None</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="4"/>
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC26D2-2076-4686-B5F9-057B4BB4B31D}">
   <dimension ref="A2:AF32"/>
@@ -16660,6 +17824,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -18583,6 +19748,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -20528,6 +21694,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -22330,6 +23497,7 @@
   <dimension ref="B2:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -22866,6 +24034,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -23796,6 +24965,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -24726,6 +25896,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/PastResults.xlsx
+++ b/PastResults.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\basketballrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55937253-6F48-47E4-89B2-D73FDD1E3B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F62290D-27BF-41E0-A67E-65A37ECD2873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="16875" windowHeight="10522" activeTab="1" xr2:uid="{2D388C7B-479A-45BA-A2D9-F72395219D1D}"/>
-    <workbookView xWindow="1410" yWindow="1410" windowWidth="16875" windowHeight="10522" activeTab="22" xr2:uid="{96732709-156E-4E03-A17B-993670FB4E55}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="6" activeTab="22" xr2:uid="{00EBB926-0127-40AF-B7AF-FD3BAC47F36A}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="165">
   <si>
     <t>SamJ</t>
   </si>
@@ -612,6 +611,27 @@
   <si>
     <t>Note: Highlighted names are 3 pointers</t>
   </si>
+  <si>
+    <t>Ladder Points:</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Finals 2</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ONLY HAS PRE-FINALS</t>
+  </si>
+  <si>
+    <t>PART 2</t>
+  </si>
 </sst>
 </file>
 
@@ -621,7 +641,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +675,14 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -823,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -866,6 +894,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2615,7 +2644,6 @@
   <dimension ref="B2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2670,7 +2698,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3508,7 +3535,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4382,7 +4408,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5292,7 +5317,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6097,7 +6121,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6974,7 +6997,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7830,7 +7852,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8743,7 +8764,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -9656,7 +9676,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10497,7 +10516,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11571,10 +11589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3B7AB-5255-4981-A69C-AD5961DF6A84}">
   <dimension ref="B2:AL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11890,13 +11907,13 @@
       <c r="AJ8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AK8" s="9" t="str">
+      <c r="AK8" s="9">
         <f>('Finals 1'!$R3)</f>
-        <v>N/A</v>
-      </c>
-      <c r="AL8" s="35" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="35">
         <f>AK8/AK$5</f>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.45">
@@ -11980,11 +11997,11 @@
       </c>
       <c r="AK9" s="9">
         <f>('Finals 1'!$R4)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL9" s="35">
         <f t="shared" ref="AL9:AL24" si="8">AK9/AK$5</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.45">
@@ -12068,11 +12085,11 @@
       </c>
       <c r="AK10" s="9">
         <f>('Finals 1'!$R5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="35">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.45">
@@ -12330,13 +12347,13 @@
       <c r="AJ13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AK13" s="9" t="str">
+      <c r="AK13" s="9">
         <f>('Finals 1'!$R8)</f>
-        <v>N/A</v>
-      </c>
-      <c r="AL13" s="35" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="35">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.45">
@@ -12420,11 +12437,11 @@
       </c>
       <c r="AK14" s="9">
         <f>('Finals 1'!$R9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" s="35">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.45">
@@ -12508,11 +12525,11 @@
       </c>
       <c r="AK15" s="9">
         <f>('Finals 1'!$R10)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL15" s="35">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.45">
@@ -12772,11 +12789,11 @@
       </c>
       <c r="AK18" s="9">
         <f>('Finals 1'!$R13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="35">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.45">
@@ -12948,11 +12965,11 @@
       </c>
       <c r="AK20" s="9">
         <f>('Finals 1'!$R15)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL20" s="35">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.45">
@@ -13284,58 +13301,90 @@
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="H28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="P28" t="s">
         <v>18</v>
       </c>
       <c r="Q28">
         <f>SUM(Q8,U8,Y8,AC8,AG8,AK8)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R28" s="14">
-        <f>Q28/(Q26-1)</f>
-        <v>1.9411764705882353</v>
+        <f>Q28/(Q26-0.5)</f>
+        <v>2</v>
       </c>
       <c r="T28" t="s">
         <v>97</v>
       </c>
       <c r="U28" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V28" s="20">
-        <f>R$33</f>
-        <v>2</v>
+        <f>R$34</f>
+        <v>2.0588235294117645</v>
       </c>
       <c r="W28" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>39.688715953307394</v>
+        <v>40.856031128404666</v>
       </c>
       <c r="Y28" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>35.5</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f>SUM(J29:M29)</f>
+        <v>36.5</v>
+      </c>
       <c r="P29" t="s">
         <v>19</v>
       </c>
       <c r="Q29">
         <f t="shared" ref="Q29:Q44" si="20">SUM(Q9,U9,Y9,AC9,AG9,AK9)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R29" s="14">
         <f>Q29/(Q$26-3)</f>
-        <v>1.1333333333333333</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T29" t="s">
         <v>98</v>
       </c>
-      <c r="U29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V29" s="20">
-        <f>R$34</f>
-        <v>2</v>
-      </c>
-      <c r="W29" s="21">
+      <c r="U29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V29" s="26">
+        <f>$R$28</f>
+        <v>2</v>
+      </c>
+      <c r="W29" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
         <v>39.688715953307394</v>
       </c>
@@ -13344,28 +13393,41 @@
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>35</v>
+      </c>
+      <c r="K30">
+        <v>2.5</v>
+      </c>
+      <c r="N30">
+        <f>SUM(J30:M30)</f>
+        <v>37.5</v>
+      </c>
       <c r="P30" t="s">
         <v>13</v>
       </c>
       <c r="Q30">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R30" s="14">
         <f t="shared" ref="R30:R43" si="21">Q30/Q$26</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="T30" t="s">
         <v>99</v>
       </c>
-      <c r="U30" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V30" s="26">
-        <f>$R$28</f>
+      <c r="U30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="20">
+        <f>R$33</f>
         <v>1.9411764705882353</v>
       </c>
-      <c r="W30" s="27">
+      <c r="W30" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
         <v>38.521400778210122</v>
       </c>
@@ -13374,6 +13436,19 @@
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.45">
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>31.5</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <f>SUM(J31:M31)</f>
+        <v>35.5</v>
+      </c>
       <c r="P31" t="s">
         <v>16</v>
       </c>
@@ -13388,16 +13463,16 @@
       <c r="T31" t="s">
         <v>100</v>
       </c>
-      <c r="U31" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="V31" s="26">
-        <f>R$41</f>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="W31" s="27">
+      <c r="U31" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" s="23">
+        <f>R$40</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="W31" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>35.278858625162123</v>
+        <v>36.381322957198442</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.45">
@@ -13415,16 +13490,16 @@
       <c r="T32" t="s">
         <v>101</v>
       </c>
-      <c r="U32" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="23">
-        <f>R$40</f>
-        <v>1.7222222222222223</v>
-      </c>
-      <c r="W32" s="24">
+      <c r="U32" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="26">
+        <f>R$41</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="W32" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>34.17639429312581</v>
+        <v>35.278858625162123</v>
       </c>
       <c r="Y32" t="s">
         <v>138</v>
@@ -13436,11 +13511,11 @@
       </c>
       <c r="Q33">
         <f t="shared" si="20"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R33" s="14">
-        <f>Q33/16</f>
-        <v>2</v>
+        <f>Q33/17</f>
+        <v>1.9411764705882353</v>
       </c>
       <c r="T33" t="s">
         <v>102</v>
@@ -13466,11 +13541,11 @@
       </c>
       <c r="Q34">
         <f t="shared" si="20"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R34" s="14">
         <f>Q34/(Q$26-1)</f>
-        <v>2</v>
+        <v>2.0588235294117645</v>
       </c>
       <c r="T34" t="s">
         <v>103</v>
@@ -13480,11 +13555,11 @@
       </c>
       <c r="V34" s="23">
         <f>$R$29</f>
-        <v>1.1333333333333333</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="W34" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>22.490272373540858</v>
+        <v>26.459143968871597</v>
       </c>
     </row>
     <row r="35" spans="16:27" x14ac:dyDescent="0.45">
@@ -13493,25 +13568,25 @@
       </c>
       <c r="Q35">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R35" s="14">
         <f t="shared" si="21"/>
-        <v>0.72222222222222221</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="T35" t="s">
         <v>104</v>
       </c>
-      <c r="U35" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="V35" s="26">
-        <f>R$44</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="W35" s="27">
+      <c r="U35" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="20">
+        <f>R$35</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="W35" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>15.264890751272075</v>
+        <v>17.639429312581061</v>
       </c>
     </row>
     <row r="36" spans="16:27" x14ac:dyDescent="0.45">
@@ -13530,15 +13605,15 @@
         <v>105</v>
       </c>
       <c r="U36" s="19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="V36" s="20">
-        <f>R$35</f>
-        <v>0.72222222222222221</v>
+        <f>R$30</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W36" s="21">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>14.332036316472113</v>
+        <v>16.536964980544749</v>
       </c>
     </row>
     <row r="37" spans="16:27" x14ac:dyDescent="0.45">
@@ -13556,16 +13631,16 @@
       <c r="T37" t="s">
         <v>106</v>
       </c>
-      <c r="U37" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="V37" s="20">
-        <f>R$30</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="W37" s="21">
+      <c r="U37" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V37" s="26">
+        <f>R$44</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="W37" s="27">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>13.229571984435799</v>
+        <v>15.264890751272075</v>
       </c>
     </row>
     <row r="38" spans="16:27" x14ac:dyDescent="0.45">
@@ -13574,11 +13649,11 @@
       </c>
       <c r="Q38">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R38" s="14">
         <f t="shared" si="21"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T38" t="s">
         <v>107</v>
@@ -13630,11 +13705,11 @@
       </c>
       <c r="Q40">
         <f t="shared" si="20"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R40" s="14">
         <f t="shared" si="21"/>
-        <v>1.7222222222222223</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="T40" t="s">
         <v>109</v>
@@ -13698,11 +13773,11 @@
       </c>
       <c r="V42" s="23">
         <f>R$38</f>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W42" s="24">
         <f>Table1[[#This Row],[Average]]/($I$6/3)*100</f>
-        <v>5.5123216601815832</v>
+        <v>6.6147859922178993</v>
       </c>
     </row>
     <row r="43" spans="16:27" x14ac:dyDescent="0.45">
@@ -13792,7 +13867,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -14723,7 +14797,6 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -15761,10 +15834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68015FD5-70D9-4DC6-8665-B22C70B5881D}">
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16692,13 +16762,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E3080-3342-47C2-BF71-23EEBC472503}">
-  <dimension ref="B2:V30"/>
+  <dimension ref="B2:V42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="1">
-      <selection activeCell="P13" sqref="P13:P14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16764,15 +16831,14 @@
         <v>21</v>
       </c>
       <c r="K3">
-        <f>COUNTIF(C4:C30, "Loose Gooses")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M3" s="1">
         <f>K3/(K3+L3)</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N3">
         <f>IF(AND(M3&gt;M4, M3&gt;M5), 3, IF(OR(M3&gt;M4, M3&gt;M5), 2, 1))</f>
@@ -16781,8 +16847,8 @@
       <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s">
-        <v>45</v>
+      <c r="R3">
+        <v>2</v>
       </c>
       <c r="S3" s="32"/>
       <c r="T3" s="2" t="s">
@@ -16821,51 +16887,50 @@
         <v>20</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M5" si="0">K4/(K4+L4)</f>
-        <v>0.75</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="N4">
-        <f>IF(AND(M4&gt;M3, M4&gt;M5), 3, IF(OR(M4&gt;M3, M4&gt;M5), 2, 1))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R19" si="1">COUNTIF($F$4:$F$27, Q4)</f>
-        <v>3</v>
+        <f>COUNTIF($F$4:$F$50, Q4)</f>
+        <v>6</v>
       </c>
       <c r="S4" s="32"/>
       <c r="T4" t="str">
-        <f>IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
+        <f t="shared" ref="T4:T23" si="1">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", "None"))</f>
         <v>None</v>
       </c>
       <c r="U4" t="str">
-        <f>IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", "None"))</f>
+        <f t="